--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="1推荐方案14.2.4(2.28）" sheetId="2" r:id="rId1"/>
+    <sheet name="坛洛至隆安（施工图8.2）" sheetId="3" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>读取标记</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,32 +78,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1推荐方案14.2.4(2.28）</t>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>D1K</t>
+  </si>
+  <si>
+    <t>坛洛</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>平果</t>
+  </si>
+  <si>
+    <t>田东北</t>
+  </si>
+  <si>
+    <t>田阳</t>
+  </si>
+  <si>
+    <t>百色</t>
+  </si>
+  <si>
+    <t>坛洛至隆安（施工图8.2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长沙南</t>
+    <t>隆安东</t>
   </si>
   <si>
-    <t xml:space="preserve"> AK</t>
-  </si>
-  <si>
-    <t>预留会展站</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>榔梨</t>
-  </si>
-  <si>
-    <t>预留汽车城站</t>
-  </si>
-  <si>
-    <t>黄花机场</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -689,21 +695,21 @@
     </row>
     <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>J5/1000</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>I5</f>
-        <v>长沙南</v>
+        <v>南宁</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -712,13 +718,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J5" s="6">
-        <v>75</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75">
@@ -728,65 +734,63 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C69" si="0">J6/1000</f>
-        <v>2.25</v>
+        <v>44.1</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ref="E6:E69" si="1">I6</f>
-        <v>预留会展站</v>
+        <v>坛洛</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <f>G5</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44100</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2250</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>7.49</v>
+        <v>83.05</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>榔梨</v>
+        <v>隆安东</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <f>G6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
-        <v>7490</v>
+        <v>83050</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
@@ -796,65 +800,63 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>108.35</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>预留汽车城站</v>
+        <v>平果</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" ref="G8:G71" si="2">G7</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7">
-        <v>14500</v>
+        <v>108350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>18.445</v>
+        <v>156.5</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>黄花机场</v>
+        <v>田东北</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="6">
-        <v>18445</v>
+        <v>156500</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75">
@@ -864,25 +866,31 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>192.54</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>田阳</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="7">
+        <v>192540</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="18.75">
       <c r="A11" s="4"/>
@@ -891,25 +899,31 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223.71</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>百色</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6">
+        <v>223710</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="5"/>
@@ -932,7 +946,7 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -959,7 +973,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
@@ -986,7 +1000,7 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -1013,7 +1027,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="6"/>
@@ -1040,7 +1054,7 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="7"/>
@@ -1067,7 +1081,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="6"/>
@@ -1094,7 +1108,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -1121,7 +1135,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="6"/>
@@ -1148,7 +1162,7 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -1175,7 +1189,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -1202,7 +1216,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -1229,7 +1243,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
@@ -1256,7 +1270,7 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
@@ -1283,7 +1297,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
@@ -1310,7 +1324,7 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="7"/>
@@ -1337,7 +1351,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -1364,7 +1378,7 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
@@ -1391,7 +1405,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
@@ -1418,7 +1432,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="7"/>
@@ -1445,7 +1459,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
@@ -1472,7 +1486,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="7"/>
@@ -1499,7 +1513,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
@@ -1526,7 +1540,7 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
@@ -1553,7 +1567,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
@@ -1580,7 +1594,7 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="7"/>
@@ -1607,7 +1621,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
@@ -1634,7 +1648,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="7"/>
@@ -1661,7 +1675,7 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="6"/>
@@ -1688,7 +1702,7 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="7"/>
@@ -1715,7 +1729,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
@@ -1742,7 +1756,7 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="7"/>
@@ -1769,7 +1783,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6"/>
@@ -1796,7 +1810,7 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="7"/>
@@ -1823,7 +1837,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="6"/>
@@ -1850,7 +1864,7 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="7"/>
@@ -1877,7 +1891,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
@@ -1904,7 +1918,7 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="7"/>
@@ -1931,7 +1945,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="6"/>
@@ -1958,7 +1972,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="7"/>
@@ -1985,7 +1999,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="6"/>
@@ -2012,7 +2026,7 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="7"/>
@@ -2039,7 +2053,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
@@ -2066,7 +2080,7 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="7"/>
@@ -2093,7 +2107,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="6"/>
@@ -2120,7 +2134,7 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="7"/>
@@ -2147,7 +2161,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="6"/>
@@ -2174,7 +2188,7 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="7"/>
@@ -2201,7 +2215,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="6"/>
@@ -2228,7 +2242,7 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
@@ -2255,7 +2269,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="6"/>
@@ -2282,7 +2296,7 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
@@ -2309,7 +2323,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="6"/>
@@ -2336,7 +2350,7 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="7"/>
@@ -2363,7 +2377,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="6"/>
@@ -2390,7 +2404,7 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="7"/>
@@ -2417,7 +2431,7 @@
       </c>
       <c r="G67" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="6"/>
@@ -2444,7 +2458,7 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="7"/>
@@ -2471,7 +2485,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="6"/>
@@ -2498,7 +2512,7 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="7"/>
@@ -2525,7 +2539,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="6"/>
@@ -2552,7 +2566,7 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" ref="G72:G135" si="5">G71</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="7"/>
@@ -2579,7 +2593,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="6"/>
@@ -2606,7 +2620,7 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="7"/>
@@ -2633,7 +2647,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="6"/>
@@ -2660,7 +2674,7 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="7"/>
@@ -2687,7 +2701,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="6"/>
@@ -2714,7 +2728,7 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="7"/>
@@ -2741,7 +2755,7 @@
       </c>
       <c r="G79" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="6"/>
@@ -2768,7 +2782,7 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="7"/>
@@ -2795,7 +2809,7 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="6"/>
@@ -2822,7 +2836,7 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="7"/>
@@ -2849,7 +2863,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="6"/>
@@ -2876,7 +2890,7 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="7"/>
@@ -2903,7 +2917,7 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="6"/>
@@ -2930,7 +2944,7 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="7"/>
@@ -2957,7 +2971,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="6"/>
@@ -2984,7 +2998,7 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="7"/>
@@ -3011,7 +3025,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="6"/>
@@ -3038,7 +3052,7 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="7"/>
@@ -3065,7 +3079,7 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="6"/>
@@ -3092,7 +3106,7 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="7"/>
@@ -3119,7 +3133,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="6"/>
@@ -3146,7 +3160,7 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="7"/>
@@ -3173,7 +3187,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="6"/>
@@ -3200,7 +3214,7 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="7"/>
@@ -3227,7 +3241,7 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="6"/>
@@ -3254,7 +3268,7 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="7"/>
@@ -3281,7 +3295,7 @@
       </c>
       <c r="G99" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="6"/>
@@ -3308,7 +3322,7 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="7"/>
@@ -3335,7 +3349,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="6"/>
@@ -3362,7 +3376,7 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="7"/>
@@ -3389,7 +3403,7 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="6"/>
@@ -3416,7 +3430,7 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="7"/>
@@ -3443,7 +3457,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="6"/>
@@ -3470,7 +3484,7 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="7"/>
@@ -3497,7 +3511,7 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="6"/>
@@ -3524,7 +3538,7 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="7"/>
@@ -3551,7 +3565,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="6"/>
@@ -3578,7 +3592,7 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="7"/>
@@ -3605,7 +3619,7 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="6"/>
@@ -3632,7 +3646,7 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="7"/>
@@ -3659,7 +3673,7 @@
       </c>
       <c r="G113" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="6"/>
@@ -3686,7 +3700,7 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="7"/>
@@ -3713,7 +3727,7 @@
       </c>
       <c r="G115" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="6"/>
@@ -3740,7 +3754,7 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="7"/>
@@ -3767,7 +3781,7 @@
       </c>
       <c r="G117" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="6"/>
@@ -3794,7 +3808,7 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="7"/>
@@ -3821,7 +3835,7 @@
       </c>
       <c r="G119" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="6"/>
@@ -3848,7 +3862,7 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="7"/>
@@ -3875,7 +3889,7 @@
       </c>
       <c r="G121" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="6"/>
@@ -3902,7 +3916,7 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="7"/>
@@ -3929,7 +3943,7 @@
       </c>
       <c r="G123" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="6"/>
@@ -3956,7 +3970,7 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="7"/>
@@ -3983,7 +3997,7 @@
       </c>
       <c r="G125" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="6"/>
@@ -4010,7 +4024,7 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="7"/>
@@ -4037,7 +4051,7 @@
       </c>
       <c r="G127" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="6"/>
@@ -4064,7 +4078,7 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="7"/>
@@ -4091,7 +4105,7 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="6"/>
@@ -4118,7 +4132,7 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130" s="11"/>
       <c r="J130" s="7"/>
@@ -4145,7 +4159,7 @@
       </c>
       <c r="G131" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="6"/>
@@ -4172,7 +4186,7 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="7"/>
@@ -4199,7 +4213,7 @@
       </c>
       <c r="G133" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="6"/>
@@ -4226,7 +4240,7 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I134" s="11"/>
       <c r="J134" s="7"/>
@@ -4253,7 +4267,7 @@
       </c>
       <c r="G135" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="6"/>
@@ -4280,7 +4294,7 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" ref="G136:G199" si="8">G135</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="7"/>
@@ -4307,7 +4321,7 @@
       </c>
       <c r="G137" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="6"/>
@@ -4334,7 +4348,7 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="7"/>
@@ -4361,7 +4375,7 @@
       </c>
       <c r="G139" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="6"/>
@@ -4388,7 +4402,7 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="7"/>
@@ -4415,7 +4429,7 @@
       </c>
       <c r="G141" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="6"/>
@@ -4442,7 +4456,7 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="7"/>
@@ -4469,7 +4483,7 @@
       </c>
       <c r="G143" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="6"/>
@@ -4496,7 +4510,7 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="7"/>
@@ -4523,7 +4537,7 @@
       </c>
       <c r="G145" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="6"/>
@@ -4550,7 +4564,7 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="7"/>
@@ -4577,7 +4591,7 @@
       </c>
       <c r="G147" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="6"/>
@@ -4604,7 +4618,7 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="7"/>
@@ -4631,7 +4645,7 @@
       </c>
       <c r="G149" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="6"/>
@@ -4658,7 +4672,7 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="7"/>
@@ -4685,7 +4699,7 @@
       </c>
       <c r="G151" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="6"/>
@@ -4712,7 +4726,7 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="7"/>
@@ -4739,7 +4753,7 @@
       </c>
       <c r="G153" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="6"/>
@@ -4766,7 +4780,7 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="7"/>
@@ -4793,7 +4807,7 @@
       </c>
       <c r="G155" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="6"/>
@@ -4820,7 +4834,7 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="7"/>
@@ -4847,7 +4861,7 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="6"/>
@@ -4874,7 +4888,7 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="7"/>
@@ -4901,7 +4915,7 @@
       </c>
       <c r="G159" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="6"/>
@@ -4928,7 +4942,7 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="7"/>
@@ -4955,7 +4969,7 @@
       </c>
       <c r="G161" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="6"/>
@@ -4982,7 +4996,7 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="7"/>
@@ -5009,7 +5023,7 @@
       </c>
       <c r="G163" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
@@ -5036,7 +5050,7 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I164" s="11"/>
       <c r="J164" s="7"/>
@@ -5063,7 +5077,7 @@
       </c>
       <c r="G165" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
@@ -5090,7 +5104,7 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I166" s="11"/>
       <c r="J166" s="7"/>
@@ -5117,7 +5131,7 @@
       </c>
       <c r="G167" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="6"/>
@@ -5144,7 +5158,7 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="7"/>
@@ -5171,7 +5185,7 @@
       </c>
       <c r="G169" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="6"/>
@@ -5198,7 +5212,7 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I170" s="11"/>
       <c r="J170" s="7"/>
@@ -5225,7 +5239,7 @@
       </c>
       <c r="G171" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="6"/>
@@ -5252,7 +5266,7 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="7"/>
@@ -5279,7 +5293,7 @@
       </c>
       <c r="G173" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="6"/>
@@ -5306,7 +5320,7 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="7"/>
@@ -5333,7 +5347,7 @@
       </c>
       <c r="G175" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="6"/>
@@ -5360,7 +5374,7 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="7"/>
@@ -5387,7 +5401,7 @@
       </c>
       <c r="G177" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="6"/>
@@ -5414,7 +5428,7 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="7"/>
@@ -5441,7 +5455,7 @@
       </c>
       <c r="G179" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="6"/>
@@ -5468,7 +5482,7 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180" s="11"/>
       <c r="J180" s="7"/>
@@ -5495,7 +5509,7 @@
       </c>
       <c r="G181" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="6"/>
@@ -5522,7 +5536,7 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I182" s="11"/>
       <c r="J182" s="7"/>
@@ -5549,7 +5563,7 @@
       </c>
       <c r="G183" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="6"/>
@@ -5576,7 +5590,7 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="7"/>
@@ -5603,7 +5617,7 @@
       </c>
       <c r="G185" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="6"/>
@@ -5630,7 +5644,7 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I186" s="11"/>
       <c r="J186" s="7"/>
@@ -5657,7 +5671,7 @@
       </c>
       <c r="G187" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="6"/>
@@ -5684,7 +5698,7 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I188" s="11"/>
       <c r="J188" s="7"/>
@@ -5711,7 +5725,7 @@
       </c>
       <c r="G189" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I189" s="8"/>
       <c r="J189" s="6"/>
@@ -5738,7 +5752,7 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="7"/>
@@ -5765,7 +5779,7 @@
       </c>
       <c r="G191" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="6"/>
@@ -5792,7 +5806,7 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="7"/>
@@ -5819,7 +5833,7 @@
       </c>
       <c r="G193" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="6"/>
@@ -5846,7 +5860,7 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="7"/>
@@ -5873,7 +5887,7 @@
       </c>
       <c r="G195" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="6"/>
@@ -5900,7 +5914,7 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I196" s="11"/>
       <c r="J196" s="7"/>
@@ -5927,7 +5941,7 @@
       </c>
       <c r="G197" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="6"/>
@@ -5954,7 +5968,7 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="7"/>
@@ -5981,7 +5995,7 @@
       </c>
       <c r="G199" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="6"/>
@@ -6008,7 +6022,7 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" ref="G200:G263" si="11">G199</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I200" s="11"/>
       <c r="J200" s="7"/>
@@ -6035,7 +6049,7 @@
       </c>
       <c r="G201" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="6"/>
@@ -6062,7 +6076,7 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I202" s="11"/>
       <c r="J202" s="7"/>
@@ -6089,7 +6103,7 @@
       </c>
       <c r="G203" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="6"/>
@@ -6116,7 +6130,7 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="7"/>
@@ -6143,7 +6157,7 @@
       </c>
       <c r="G205" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="6"/>
@@ -6170,7 +6184,7 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I206" s="11"/>
       <c r="J206" s="7"/>
@@ -6197,7 +6211,7 @@
       </c>
       <c r="G207" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="6"/>
@@ -6224,7 +6238,7 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="7"/>
@@ -6251,7 +6265,7 @@
       </c>
       <c r="G209" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="6"/>
@@ -6278,7 +6292,7 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="7"/>
@@ -6305,7 +6319,7 @@
       </c>
       <c r="G211" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="6"/>
@@ -6332,7 +6346,7 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I212" s="11"/>
       <c r="J212" s="7"/>
@@ -6359,7 +6373,7 @@
       </c>
       <c r="G213" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="6"/>
@@ -6386,7 +6400,7 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="7"/>
@@ -6413,7 +6427,7 @@
       </c>
       <c r="G215" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="6"/>
@@ -6440,7 +6454,7 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I216" s="11"/>
       <c r="J216" s="7"/>
@@ -6467,7 +6481,7 @@
       </c>
       <c r="G217" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="6"/>
@@ -6494,7 +6508,7 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I218" s="11"/>
       <c r="J218" s="7"/>
@@ -6521,7 +6535,7 @@
       </c>
       <c r="G219" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I219" s="8"/>
       <c r="J219" s="6"/>
@@ -6548,7 +6562,7 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I220" s="11"/>
       <c r="J220" s="7"/>
@@ -6575,7 +6589,7 @@
       </c>
       <c r="G221" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="6"/>
@@ -6602,7 +6616,7 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="7"/>
@@ -6629,7 +6643,7 @@
       </c>
       <c r="G223" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="6"/>
@@ -6656,7 +6670,7 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="7"/>
@@ -6683,7 +6697,7 @@
       </c>
       <c r="G225" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I225" s="8"/>
       <c r="J225" s="6"/>
@@ -6710,7 +6724,7 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I226" s="11"/>
       <c r="J226" s="7"/>
@@ -6737,7 +6751,7 @@
       </c>
       <c r="G227" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="6"/>
@@ -6764,7 +6778,7 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I228" s="11"/>
       <c r="J228" s="7"/>
@@ -6791,7 +6805,7 @@
       </c>
       <c r="G229" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I229" s="8"/>
       <c r="J229" s="6"/>
@@ -6818,7 +6832,7 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I230" s="11"/>
       <c r="J230" s="7"/>
@@ -6845,7 +6859,7 @@
       </c>
       <c r="G231" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I231" s="8"/>
       <c r="J231" s="6"/>
@@ -6872,7 +6886,7 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I232" s="11"/>
       <c r="J232" s="7"/>
@@ -6899,7 +6913,7 @@
       </c>
       <c r="G233" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="6"/>
@@ -6926,7 +6940,7 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I234" s="11"/>
       <c r="J234" s="7"/>
@@ -6953,7 +6967,7 @@
       </c>
       <c r="G235" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="6"/>
@@ -6980,7 +6994,7 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I236" s="11"/>
       <c r="J236" s="7"/>
@@ -7007,7 +7021,7 @@
       </c>
       <c r="G237" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="6"/>
@@ -7034,7 +7048,7 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I238" s="11"/>
       <c r="J238" s="7"/>
@@ -7061,7 +7075,7 @@
       </c>
       <c r="G239" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="6"/>
@@ -7088,7 +7102,7 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I240" s="11"/>
       <c r="J240" s="7"/>
@@ -7115,7 +7129,7 @@
       </c>
       <c r="G241" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I241" s="8"/>
       <c r="J241" s="6"/>
@@ -7142,7 +7156,7 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I242" s="11"/>
       <c r="J242" s="7"/>
@@ -7169,7 +7183,7 @@
       </c>
       <c r="G243" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I243" s="8"/>
       <c r="J243" s="6"/>
@@ -7196,7 +7210,7 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I244" s="11"/>
       <c r="J244" s="7"/>
@@ -7223,7 +7237,7 @@
       </c>
       <c r="G245" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I245" s="8"/>
       <c r="J245" s="6"/>
@@ -7250,7 +7264,7 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I246" s="11"/>
       <c r="J246" s="7"/>
@@ -7277,7 +7291,7 @@
       </c>
       <c r="G247" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I247" s="8"/>
       <c r="J247" s="6"/>
@@ -7304,7 +7318,7 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I248" s="11"/>
       <c r="J248" s="7"/>
@@ -7331,7 +7345,7 @@
       </c>
       <c r="G249" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I249" s="8"/>
       <c r="J249" s="6"/>
@@ -7358,7 +7372,7 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I250" s="11"/>
       <c r="J250" s="7"/>
@@ -7385,7 +7399,7 @@
       </c>
       <c r="G251" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I251" s="8"/>
       <c r="J251" s="6"/>
@@ -7412,7 +7426,7 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I252" s="11"/>
       <c r="J252" s="7"/>
@@ -7439,7 +7453,7 @@
       </c>
       <c r="G253" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I253" s="8"/>
       <c r="J253" s="6"/>
@@ -7466,7 +7480,7 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I254" s="11"/>
       <c r="J254" s="7"/>
@@ -7493,7 +7507,7 @@
       </c>
       <c r="G255" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I255" s="8"/>
       <c r="J255" s="6"/>
@@ -7520,7 +7534,7 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I256" s="11"/>
       <c r="J256" s="7"/>
@@ -7547,7 +7561,7 @@
       </c>
       <c r="G257" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257" s="8"/>
       <c r="J257" s="6"/>
@@ -7574,7 +7588,7 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258" s="11"/>
       <c r="J258" s="7"/>
@@ -7601,7 +7615,7 @@
       </c>
       <c r="G259" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I259" s="8"/>
       <c r="J259" s="6"/>
@@ -7628,7 +7642,7 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I260" s="11"/>
       <c r="J260" s="7"/>
@@ -7655,7 +7669,7 @@
       </c>
       <c r="G261" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="6"/>
@@ -7682,7 +7696,7 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="7"/>
@@ -7709,7 +7723,7 @@
       </c>
       <c r="G263" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I263" s="8"/>
       <c r="J263" s="6"/>
@@ -7736,7 +7750,7 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" ref="G264:G327" si="14">G263</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I264" s="11"/>
       <c r="J264" s="7"/>
@@ -7763,7 +7777,7 @@
       </c>
       <c r="G265" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I265" s="8"/>
       <c r="J265" s="6"/>
@@ -7790,7 +7804,7 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="7"/>
@@ -7817,7 +7831,7 @@
       </c>
       <c r="G267" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I267" s="8"/>
       <c r="J267" s="6"/>
@@ -7844,7 +7858,7 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I268" s="11"/>
       <c r="J268" s="7"/>
@@ -7871,7 +7885,7 @@
       </c>
       <c r="G269" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I269" s="8"/>
       <c r="J269" s="6"/>
@@ -7898,7 +7912,7 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I270" s="11"/>
       <c r="J270" s="7"/>
@@ -7925,7 +7939,7 @@
       </c>
       <c r="G271" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I271" s="8"/>
       <c r="J271" s="6"/>
@@ -7952,7 +7966,7 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I272" s="11"/>
       <c r="J272" s="7"/>
@@ -7979,7 +7993,7 @@
       </c>
       <c r="G273" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I273" s="8"/>
       <c r="J273" s="6"/>
@@ -8006,7 +8020,7 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I274" s="11"/>
       <c r="J274" s="7"/>
@@ -8033,7 +8047,7 @@
       </c>
       <c r="G275" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="6"/>
@@ -8060,7 +8074,7 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276" s="11"/>
       <c r="J276" s="7"/>
@@ -8087,7 +8101,7 @@
       </c>
       <c r="G277" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I277" s="8"/>
       <c r="J277" s="6"/>
@@ -8114,7 +8128,7 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I278" s="11"/>
       <c r="J278" s="7"/>
@@ -8141,7 +8155,7 @@
       </c>
       <c r="G279" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I279" s="8"/>
       <c r="J279" s="6"/>
@@ -8168,7 +8182,7 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I280" s="11"/>
       <c r="J280" s="7"/>
@@ -8195,7 +8209,7 @@
       </c>
       <c r="G281" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I281" s="8"/>
       <c r="J281" s="6"/>
@@ -8222,7 +8236,7 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I282" s="11"/>
       <c r="J282" s="7"/>
@@ -8249,7 +8263,7 @@
       </c>
       <c r="G283" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I283" s="8"/>
       <c r="J283" s="6"/>
@@ -8276,7 +8290,7 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I284" s="11"/>
       <c r="J284" s="7"/>
@@ -8303,7 +8317,7 @@
       </c>
       <c r="G285" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I285" s="8"/>
       <c r="J285" s="6"/>
@@ -8330,7 +8344,7 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I286" s="11"/>
       <c r="J286" s="7"/>
@@ -8357,7 +8371,7 @@
       </c>
       <c r="G287" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I287" s="8"/>
       <c r="J287" s="6"/>
@@ -8384,7 +8398,7 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I288" s="11"/>
       <c r="J288" s="7"/>
@@ -8411,7 +8425,7 @@
       </c>
       <c r="G289" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="6"/>
@@ -8438,7 +8452,7 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I290" s="11"/>
       <c r="J290" s="7"/>
@@ -8465,7 +8479,7 @@
       </c>
       <c r="G291" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I291" s="8"/>
       <c r="J291" s="6"/>
@@ -8492,7 +8506,7 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I292" s="11"/>
       <c r="J292" s="7"/>
@@ -8519,7 +8533,7 @@
       </c>
       <c r="G293" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I293" s="8"/>
       <c r="J293" s="6"/>
@@ -8546,7 +8560,7 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294" s="11"/>
       <c r="J294" s="7"/>
@@ -8573,7 +8587,7 @@
       </c>
       <c r="G295" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295" s="8"/>
       <c r="J295" s="6"/>
@@ -8600,7 +8614,7 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I296" s="11"/>
       <c r="J296" s="7"/>
@@ -8627,7 +8641,7 @@
       </c>
       <c r="G297" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I297" s="8"/>
       <c r="J297" s="6"/>
@@ -8654,7 +8668,7 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I298" s="11"/>
       <c r="J298" s="7"/>
@@ -8681,7 +8695,7 @@
       </c>
       <c r="G299" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I299" s="8"/>
       <c r="J299" s="6"/>
@@ -8708,7 +8722,7 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I300" s="11"/>
       <c r="J300" s="7"/>
@@ -8735,7 +8749,7 @@
       </c>
       <c r="G301" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="6"/>
@@ -8762,7 +8776,7 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I302" s="11"/>
       <c r="J302" s="7"/>
@@ -8789,7 +8803,7 @@
       </c>
       <c r="G303" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I303" s="8"/>
       <c r="J303" s="6"/>
@@ -8816,7 +8830,7 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304" s="11"/>
       <c r="J304" s="7"/>
@@ -8843,7 +8857,7 @@
       </c>
       <c r="G305" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305" s="8"/>
       <c r="J305" s="6"/>
@@ -8870,7 +8884,7 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I306" s="11"/>
       <c r="J306" s="7"/>
@@ -8897,7 +8911,7 @@
       </c>
       <c r="G307" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I307" s="8"/>
       <c r="J307" s="6"/>
@@ -8924,7 +8938,7 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I308" s="11"/>
       <c r="J308" s="7"/>
@@ -8951,7 +8965,7 @@
       </c>
       <c r="G309" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I309" s="8"/>
       <c r="J309" s="6"/>
@@ -8978,7 +8992,7 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I310" s="11"/>
       <c r="J310" s="7"/>
@@ -9005,7 +9019,7 @@
       </c>
       <c r="G311" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I311" s="8"/>
       <c r="J311" s="6"/>
@@ -9032,7 +9046,7 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I312" s="11"/>
       <c r="J312" s="7"/>
@@ -9059,7 +9073,7 @@
       </c>
       <c r="G313" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I313" s="8"/>
       <c r="J313" s="6"/>
@@ -9086,7 +9100,7 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I314" s="11"/>
       <c r="J314" s="7"/>
@@ -9113,7 +9127,7 @@
       </c>
       <c r="G315" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I315" s="8"/>
       <c r="J315" s="6"/>
@@ -9140,7 +9154,7 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I316" s="11"/>
       <c r="J316" s="7"/>
@@ -9167,7 +9181,7 @@
       </c>
       <c r="G317" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I317" s="8"/>
       <c r="J317" s="6"/>
@@ -9194,7 +9208,7 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I318" s="11"/>
       <c r="J318" s="7"/>
@@ -9221,7 +9235,7 @@
       </c>
       <c r="G319" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I319" s="8"/>
       <c r="J319" s="6"/>
@@ -9248,7 +9262,7 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I320" s="11"/>
       <c r="J320" s="7"/>
@@ -9275,7 +9289,7 @@
       </c>
       <c r="G321" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I321" s="8"/>
       <c r="J321" s="6"/>
@@ -9302,7 +9316,7 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I322" s="11"/>
       <c r="J322" s="7"/>
@@ -9329,7 +9343,7 @@
       </c>
       <c r="G323" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I323" s="8"/>
       <c r="J323" s="6"/>
@@ -9356,7 +9370,7 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="7"/>
@@ -9383,7 +9397,7 @@
       </c>
       <c r="G325" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I325" s="8"/>
       <c r="J325" s="6"/>
@@ -9410,7 +9424,7 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I326" s="11"/>
       <c r="J326" s="7"/>
@@ -9437,7 +9451,7 @@
       </c>
       <c r="G327" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I327" s="8"/>
       <c r="J327" s="6"/>
@@ -9464,7 +9478,7 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" ref="G328:G391" si="17">G327</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I328" s="11"/>
       <c r="J328" s="7"/>
@@ -9491,7 +9505,7 @@
       </c>
       <c r="G329" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I329" s="8"/>
       <c r="J329" s="6"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I330" s="11"/>
       <c r="J330" s="7"/>
@@ -9545,7 +9559,7 @@
       </c>
       <c r="G331" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I331" s="8"/>
       <c r="J331" s="6"/>
@@ -9572,7 +9586,7 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I332" s="11"/>
       <c r="J332" s="7"/>
@@ -9599,7 +9613,7 @@
       </c>
       <c r="G333" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I333" s="8"/>
       <c r="J333" s="6"/>
@@ -9626,7 +9640,7 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I334" s="11"/>
       <c r="J334" s="7"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="G335" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I335" s="8"/>
       <c r="J335" s="6"/>
@@ -9680,7 +9694,7 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I336" s="11"/>
       <c r="J336" s="7"/>
@@ -9707,7 +9721,7 @@
       </c>
       <c r="G337" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I337" s="8"/>
       <c r="J337" s="6"/>
@@ -9734,7 +9748,7 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I338" s="11"/>
       <c r="J338" s="7"/>
@@ -9761,7 +9775,7 @@
       </c>
       <c r="G339" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I339" s="8"/>
       <c r="J339" s="6"/>
@@ -9788,7 +9802,7 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I340" s="11"/>
       <c r="J340" s="7"/>
@@ -9815,7 +9829,7 @@
       </c>
       <c r="G341" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I341" s="8"/>
       <c r="J341" s="6"/>
@@ -9842,7 +9856,7 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I342" s="11"/>
       <c r="J342" s="7"/>
@@ -9869,7 +9883,7 @@
       </c>
       <c r="G343" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I343" s="8"/>
       <c r="J343" s="6"/>
@@ -9896,7 +9910,7 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I344" s="11"/>
       <c r="J344" s="7"/>
@@ -9923,7 +9937,7 @@
       </c>
       <c r="G345" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I345" s="8"/>
       <c r="J345" s="6"/>
@@ -9950,7 +9964,7 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I346" s="11"/>
       <c r="J346" s="7"/>
@@ -9977,7 +9991,7 @@
       </c>
       <c r="G347" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I347" s="8"/>
       <c r="J347" s="6"/>
@@ -10004,7 +10018,7 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I348" s="11"/>
       <c r="J348" s="7"/>
@@ -10031,7 +10045,7 @@
       </c>
       <c r="G349" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I349" s="8"/>
       <c r="J349" s="6"/>
@@ -10058,7 +10072,7 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I350" s="11"/>
       <c r="J350" s="7"/>
@@ -10085,7 +10099,7 @@
       </c>
       <c r="G351" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I351" s="8"/>
       <c r="J351" s="6"/>
@@ -10112,7 +10126,7 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I352" s="11"/>
       <c r="J352" s="7"/>
@@ -10139,7 +10153,7 @@
       </c>
       <c r="G353" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I353" s="8"/>
       <c r="J353" s="6"/>
@@ -10166,7 +10180,7 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I354" s="11"/>
       <c r="J354" s="7"/>
@@ -10193,7 +10207,7 @@
       </c>
       <c r="G355" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I355" s="8"/>
       <c r="J355" s="6"/>
@@ -10220,7 +10234,7 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I356" s="11"/>
       <c r="J356" s="7"/>
@@ -10247,7 +10261,7 @@
       </c>
       <c r="G357" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I357" s="8"/>
       <c r="J357" s="6"/>
@@ -10274,7 +10288,7 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I358" s="11"/>
       <c r="J358" s="7"/>
@@ -10301,7 +10315,7 @@
       </c>
       <c r="G359" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="6"/>
@@ -10328,7 +10342,7 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I360" s="11"/>
       <c r="J360" s="7"/>
@@ -10355,7 +10369,7 @@
       </c>
       <c r="G361" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I361" s="8"/>
       <c r="J361" s="6"/>
@@ -10382,7 +10396,7 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I362" s="11"/>
       <c r="J362" s="7"/>
@@ -10409,7 +10423,7 @@
       </c>
       <c r="G363" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I363" s="8"/>
       <c r="J363" s="6"/>
@@ -10436,7 +10450,7 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I364" s="11"/>
       <c r="J364" s="7"/>
@@ -10463,7 +10477,7 @@
       </c>
       <c r="G365" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I365" s="8"/>
       <c r="J365" s="6"/>
@@ -10490,7 +10504,7 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I366" s="11"/>
       <c r="J366" s="7"/>
@@ -10517,7 +10531,7 @@
       </c>
       <c r="G367" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I367" s="8"/>
       <c r="J367" s="6"/>
@@ -10544,7 +10558,7 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I368" s="11"/>
       <c r="J368" s="7"/>
@@ -10571,7 +10585,7 @@
       </c>
       <c r="G369" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I369" s="8"/>
       <c r="J369" s="6"/>
@@ -10598,7 +10612,7 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I370" s="11"/>
       <c r="J370" s="7"/>
@@ -10625,7 +10639,7 @@
       </c>
       <c r="G371" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I371" s="8"/>
       <c r="J371" s="6"/>
@@ -10652,7 +10666,7 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I372" s="11"/>
       <c r="J372" s="7"/>
@@ -10679,7 +10693,7 @@
       </c>
       <c r="G373" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I373" s="8"/>
       <c r="J373" s="6"/>
@@ -10706,7 +10720,7 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I374" s="11"/>
       <c r="J374" s="7"/>
@@ -10733,7 +10747,7 @@
       </c>
       <c r="G375" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I375" s="8"/>
       <c r="J375" s="6"/>
@@ -10760,7 +10774,7 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I376" s="11"/>
       <c r="J376" s="7"/>
@@ -10787,7 +10801,7 @@
       </c>
       <c r="G377" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I377" s="8"/>
       <c r="J377" s="6"/>
@@ -10814,7 +10828,7 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I378" s="11"/>
       <c r="J378" s="7"/>
@@ -10841,7 +10855,7 @@
       </c>
       <c r="G379" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I379" s="8"/>
       <c r="J379" s="6"/>
@@ -10868,7 +10882,7 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I380" s="11"/>
       <c r="J380" s="7"/>
@@ -10895,7 +10909,7 @@
       </c>
       <c r="G381" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I381" s="8"/>
       <c r="J381" s="6"/>
@@ -10922,7 +10936,7 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="7"/>
@@ -10949,7 +10963,7 @@
       </c>
       <c r="G383" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I383" s="8"/>
       <c r="J383" s="6"/>
@@ -10976,7 +10990,7 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I384" s="11"/>
       <c r="J384" s="7"/>
@@ -11003,7 +11017,7 @@
       </c>
       <c r="G385" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I385" s="8"/>
       <c r="J385" s="6"/>
@@ -11030,7 +11044,7 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I386" s="11"/>
       <c r="J386" s="7"/>
@@ -11057,7 +11071,7 @@
       </c>
       <c r="G387" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I387" s="8"/>
       <c r="J387" s="6"/>
@@ -11084,7 +11098,7 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I388" s="11"/>
       <c r="J388" s="7"/>
@@ -11111,7 +11125,7 @@
       </c>
       <c r="G389" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I389" s="8"/>
       <c r="J389" s="6"/>
@@ -11138,7 +11152,7 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I390" s="11"/>
       <c r="J390" s="7"/>
@@ -11165,7 +11179,7 @@
       </c>
       <c r="G391" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I391" s="8"/>
       <c r="J391" s="6"/>
@@ -11192,7 +11206,7 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" ref="G392:G455" si="20">G391</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I392" s="11"/>
       <c r="J392" s="7"/>
@@ -11219,7 +11233,7 @@
       </c>
       <c r="G393" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I393" s="8"/>
       <c r="J393" s="6"/>
@@ -11246,7 +11260,7 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I394" s="11"/>
       <c r="J394" s="7"/>
@@ -11273,7 +11287,7 @@
       </c>
       <c r="G395" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I395" s="8"/>
       <c r="J395" s="6"/>
@@ -11300,7 +11314,7 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I396" s="11"/>
       <c r="J396" s="7"/>
@@ -11327,7 +11341,7 @@
       </c>
       <c r="G397" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I397" s="8"/>
       <c r="J397" s="6"/>
@@ -11354,7 +11368,7 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I398" s="11"/>
       <c r="J398" s="7"/>
@@ -11381,7 +11395,7 @@
       </c>
       <c r="G399" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I399" s="8"/>
       <c r="J399" s="6"/>
@@ -11408,7 +11422,7 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I400" s="11"/>
       <c r="J400" s="7"/>
@@ -11435,7 +11449,7 @@
       </c>
       <c r="G401" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I401" s="8"/>
       <c r="J401" s="6"/>
@@ -11462,7 +11476,7 @@
       </c>
       <c r="G402" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I402" s="11"/>
       <c r="J402" s="7"/>
@@ -11489,7 +11503,7 @@
       </c>
       <c r="G403" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I403" s="8"/>
       <c r="J403" s="6"/>
@@ -11516,7 +11530,7 @@
       </c>
       <c r="G404" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I404" s="11"/>
       <c r="J404" s="7"/>
@@ -11543,7 +11557,7 @@
       </c>
       <c r="G405" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I405" s="8"/>
       <c r="J405" s="6"/>
@@ -11570,7 +11584,7 @@
       </c>
       <c r="G406" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I406" s="11"/>
       <c r="J406" s="7"/>
@@ -11597,7 +11611,7 @@
       </c>
       <c r="G407" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I407" s="8"/>
       <c r="J407" s="6"/>
@@ -11624,7 +11638,7 @@
       </c>
       <c r="G408" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I408" s="11"/>
       <c r="J408" s="7"/>
@@ -11651,7 +11665,7 @@
       </c>
       <c r="G409" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I409" s="8"/>
       <c r="J409" s="6"/>
@@ -11678,7 +11692,7 @@
       </c>
       <c r="G410" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I410" s="11"/>
       <c r="J410" s="7"/>
@@ -11705,7 +11719,7 @@
       </c>
       <c r="G411" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I411" s="8"/>
       <c r="J411" s="6"/>
@@ -11732,7 +11746,7 @@
       </c>
       <c r="G412" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I412" s="11"/>
       <c r="J412" s="7"/>
@@ -11759,7 +11773,7 @@
       </c>
       <c r="G413" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I413" s="8"/>
       <c r="J413" s="6"/>
@@ -11786,7 +11800,7 @@
       </c>
       <c r="G414" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I414" s="11"/>
       <c r="J414" s="7"/>
@@ -11813,7 +11827,7 @@
       </c>
       <c r="G415" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I415" s="8"/>
       <c r="J415" s="6"/>
@@ -11840,7 +11854,7 @@
       </c>
       <c r="G416" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I416" s="11"/>
       <c r="J416" s="7"/>
@@ -11867,7 +11881,7 @@
       </c>
       <c r="G417" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I417" s="8"/>
       <c r="J417" s="6"/>
@@ -11894,7 +11908,7 @@
       </c>
       <c r="G418" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I418" s="11"/>
       <c r="J418" s="7"/>
@@ -11921,7 +11935,7 @@
       </c>
       <c r="G419" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I419" s="8"/>
       <c r="J419" s="6"/>
@@ -11948,7 +11962,7 @@
       </c>
       <c r="G420" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I420" s="11"/>
       <c r="J420" s="7"/>
@@ -11975,7 +11989,7 @@
       </c>
       <c r="G421" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I421" s="8"/>
       <c r="J421" s="6"/>
@@ -12002,7 +12016,7 @@
       </c>
       <c r="G422" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I422" s="11"/>
       <c r="J422" s="7"/>
@@ -12029,7 +12043,7 @@
       </c>
       <c r="G423" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I423" s="8"/>
       <c r="J423" s="6"/>
@@ -12056,7 +12070,7 @@
       </c>
       <c r="G424" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I424" s="11"/>
       <c r="J424" s="7"/>
@@ -12083,7 +12097,7 @@
       </c>
       <c r="G425" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I425" s="8"/>
       <c r="J425" s="6"/>
@@ -12110,7 +12124,7 @@
       </c>
       <c r="G426" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I426" s="11"/>
       <c r="J426" s="7"/>
@@ -12137,7 +12151,7 @@
       </c>
       <c r="G427" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I427" s="8"/>
       <c r="J427" s="6"/>
@@ -12164,7 +12178,7 @@
       </c>
       <c r="G428" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="7"/>
@@ -12191,7 +12205,7 @@
       </c>
       <c r="G429" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I429" s="8"/>
       <c r="J429" s="6"/>
@@ -12218,7 +12232,7 @@
       </c>
       <c r="G430" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I430" s="11"/>
       <c r="J430" s="7"/>
@@ -12245,7 +12259,7 @@
       </c>
       <c r="G431" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I431" s="8"/>
       <c r="J431" s="6"/>
@@ -12272,7 +12286,7 @@
       </c>
       <c r="G432" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I432" s="11"/>
       <c r="J432" s="7"/>
@@ -12299,7 +12313,7 @@
       </c>
       <c r="G433" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I433" s="8"/>
       <c r="J433" s="6"/>
@@ -12326,7 +12340,7 @@
       </c>
       <c r="G434" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I434" s="11"/>
       <c r="J434" s="7"/>
@@ -12353,7 +12367,7 @@
       </c>
       <c r="G435" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I435" s="8"/>
       <c r="J435" s="6"/>
@@ -12380,7 +12394,7 @@
       </c>
       <c r="G436" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I436" s="11"/>
       <c r="J436" s="7"/>
@@ -12407,7 +12421,7 @@
       </c>
       <c r="G437" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I437" s="8"/>
       <c r="J437" s="6"/>
@@ -12434,7 +12448,7 @@
       </c>
       <c r="G438" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I438" s="11"/>
       <c r="J438" s="7"/>
@@ -12461,7 +12475,7 @@
       </c>
       <c r="G439" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I439" s="8"/>
       <c r="J439" s="6"/>
@@ -12488,7 +12502,7 @@
       </c>
       <c r="G440" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="7"/>
@@ -12515,7 +12529,7 @@
       </c>
       <c r="G441" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I441" s="8"/>
       <c r="J441" s="6"/>
@@ -12542,7 +12556,7 @@
       </c>
       <c r="G442" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I442" s="11"/>
       <c r="J442" s="7"/>
@@ -12569,7 +12583,7 @@
       </c>
       <c r="G443" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I443" s="8"/>
       <c r="J443" s="6"/>
@@ -12596,7 +12610,7 @@
       </c>
       <c r="G444" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I444" s="11"/>
       <c r="J444" s="7"/>
@@ -12623,7 +12637,7 @@
       </c>
       <c r="G445" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I445" s="8"/>
       <c r="J445" s="6"/>
@@ -12650,7 +12664,7 @@
       </c>
       <c r="G446" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I446" s="11"/>
       <c r="J446" s="7"/>
@@ -12677,7 +12691,7 @@
       </c>
       <c r="G447" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I447" s="8"/>
       <c r="J447" s="6"/>
@@ -12704,7 +12718,7 @@
       </c>
       <c r="G448" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I448" s="11"/>
       <c r="J448" s="7"/>
@@ -12731,7 +12745,7 @@
       </c>
       <c r="G449" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I449" s="8"/>
       <c r="J449" s="6"/>
@@ -12758,7 +12772,7 @@
       </c>
       <c r="G450" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I450" s="11"/>
       <c r="J450" s="7"/>
@@ -12785,7 +12799,7 @@
       </c>
       <c r="G451" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I451" s="8"/>
       <c r="J451" s="6"/>
@@ -12812,7 +12826,7 @@
       </c>
       <c r="G452" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I452" s="11"/>
       <c r="J452" s="7"/>
@@ -12839,7 +12853,7 @@
       </c>
       <c r="G453" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I453" s="8"/>
       <c r="J453" s="6"/>
@@ -12866,7 +12880,7 @@
       </c>
       <c r="G454" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I454" s="11"/>
       <c r="J454" s="7"/>
@@ -12893,7 +12907,7 @@
       </c>
       <c r="G455" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I455" s="8"/>
       <c r="J455" s="6"/>
@@ -12920,7 +12934,7 @@
       </c>
       <c r="G456" s="7">
         <f t="shared" ref="G456:G519" si="23">G455</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I456" s="11"/>
       <c r="J456" s="7"/>
@@ -12947,7 +12961,7 @@
       </c>
       <c r="G457" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I457" s="8"/>
       <c r="J457" s="6"/>
@@ -12974,7 +12988,7 @@
       </c>
       <c r="G458" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I458" s="11"/>
       <c r="J458" s="7"/>
@@ -13001,7 +13015,7 @@
       </c>
       <c r="G459" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I459" s="8"/>
       <c r="J459" s="6"/>
@@ -13028,7 +13042,7 @@
       </c>
       <c r="G460" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I460" s="11"/>
       <c r="J460" s="7"/>
@@ -13055,7 +13069,7 @@
       </c>
       <c r="G461" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I461" s="8"/>
       <c r="J461" s="6"/>
@@ -13082,7 +13096,7 @@
       </c>
       <c r="G462" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I462" s="11"/>
       <c r="J462" s="7"/>
@@ -13109,7 +13123,7 @@
       </c>
       <c r="G463" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I463" s="8"/>
       <c r="J463" s="6"/>
@@ -13136,7 +13150,7 @@
       </c>
       <c r="G464" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I464" s="11"/>
       <c r="J464" s="7"/>
@@ -13163,7 +13177,7 @@
       </c>
       <c r="G465" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I465" s="8"/>
       <c r="J465" s="6"/>
@@ -13190,7 +13204,7 @@
       </c>
       <c r="G466" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I466" s="11"/>
       <c r="J466" s="7"/>
@@ -13217,7 +13231,7 @@
       </c>
       <c r="G467" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I467" s="8"/>
       <c r="J467" s="6"/>
@@ -13244,7 +13258,7 @@
       </c>
       <c r="G468" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I468" s="11"/>
       <c r="J468" s="7"/>
@@ -13271,7 +13285,7 @@
       </c>
       <c r="G469" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I469" s="8"/>
       <c r="J469" s="6"/>
@@ -13298,7 +13312,7 @@
       </c>
       <c r="G470" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I470" s="11"/>
       <c r="J470" s="7"/>
@@ -13325,7 +13339,7 @@
       </c>
       <c r="G471" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I471" s="8"/>
       <c r="J471" s="6"/>
@@ -13352,7 +13366,7 @@
       </c>
       <c r="G472" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I472" s="11"/>
       <c r="J472" s="7"/>
@@ -13379,7 +13393,7 @@
       </c>
       <c r="G473" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I473" s="8"/>
       <c r="J473" s="6"/>
@@ -13406,7 +13420,7 @@
       </c>
       <c r="G474" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I474" s="11"/>
       <c r="J474" s="7"/>
@@ -13433,7 +13447,7 @@
       </c>
       <c r="G475" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I475" s="8"/>
       <c r="J475" s="6"/>
@@ -13460,7 +13474,7 @@
       </c>
       <c r="G476" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I476" s="11"/>
       <c r="J476" s="7"/>
@@ -13487,7 +13501,7 @@
       </c>
       <c r="G477" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I477" s="8"/>
       <c r="J477" s="6"/>
@@ -13514,7 +13528,7 @@
       </c>
       <c r="G478" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I478" s="11"/>
       <c r="J478" s="7"/>
@@ -13541,7 +13555,7 @@
       </c>
       <c r="G479" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I479" s="8"/>
       <c r="J479" s="6"/>
@@ -13568,7 +13582,7 @@
       </c>
       <c r="G480" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I480" s="11"/>
       <c r="J480" s="7"/>
@@ -13595,7 +13609,7 @@
       </c>
       <c r="G481" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I481" s="8"/>
       <c r="J481" s="6"/>
@@ -13622,7 +13636,7 @@
       </c>
       <c r="G482" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I482" s="11"/>
       <c r="J482" s="7"/>
@@ -13649,7 +13663,7 @@
       </c>
       <c r="G483" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I483" s="8"/>
       <c r="J483" s="6"/>
@@ -13676,7 +13690,7 @@
       </c>
       <c r="G484" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I484" s="11"/>
       <c r="J484" s="7"/>
@@ -13703,7 +13717,7 @@
       </c>
       <c r="G485" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I485" s="8"/>
       <c r="J485" s="6"/>
@@ -13730,7 +13744,7 @@
       </c>
       <c r="G486" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I486" s="11"/>
       <c r="J486" s="7"/>
@@ -13757,7 +13771,7 @@
       </c>
       <c r="G487" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I487" s="8"/>
       <c r="J487" s="6"/>
@@ -13784,7 +13798,7 @@
       </c>
       <c r="G488" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I488" s="11"/>
       <c r="J488" s="7"/>
@@ -13811,7 +13825,7 @@
       </c>
       <c r="G489" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I489" s="8"/>
       <c r="J489" s="6"/>
@@ -13838,7 +13852,7 @@
       </c>
       <c r="G490" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I490" s="11"/>
       <c r="J490" s="7"/>
@@ -13865,7 +13879,7 @@
       </c>
       <c r="G491" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I491" s="8"/>
       <c r="J491" s="6"/>
@@ -13892,7 +13906,7 @@
       </c>
       <c r="G492" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I492" s="11"/>
       <c r="J492" s="7"/>
@@ -13919,7 +13933,7 @@
       </c>
       <c r="G493" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I493" s="8"/>
       <c r="J493" s="6"/>
@@ -13946,7 +13960,7 @@
       </c>
       <c r="G494" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I494" s="11"/>
       <c r="J494" s="7"/>
@@ -13973,7 +13987,7 @@
       </c>
       <c r="G495" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I495" s="8"/>
       <c r="J495" s="6"/>
@@ -14000,7 +14014,7 @@
       </c>
       <c r="G496" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I496" s="11"/>
       <c r="J496" s="7"/>
@@ -14027,7 +14041,7 @@
       </c>
       <c r="G497" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I497" s="8"/>
       <c r="J497" s="6"/>
@@ -14054,7 +14068,7 @@
       </c>
       <c r="G498" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="7"/>
@@ -14081,7 +14095,7 @@
       </c>
       <c r="G499" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I499" s="8"/>
       <c r="J499" s="6"/>
@@ -14108,7 +14122,7 @@
       </c>
       <c r="G500" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I500" s="11"/>
       <c r="J500" s="7"/>
@@ -14135,7 +14149,7 @@
       </c>
       <c r="G501" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I501" s="8"/>
       <c r="J501" s="6"/>
@@ -14162,7 +14176,7 @@
       </c>
       <c r="G502" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I502" s="11"/>
       <c r="J502" s="7"/>
@@ -14189,7 +14203,7 @@
       </c>
       <c r="G503" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I503" s="8"/>
       <c r="J503" s="6"/>
@@ -14216,7 +14230,7 @@
       </c>
       <c r="G504" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I504" s="11"/>
       <c r="J504" s="7"/>
@@ -14243,7 +14257,7 @@
       </c>
       <c r="G505" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I505" s="8"/>
       <c r="J505" s="6"/>
@@ -14270,7 +14284,7 @@
       </c>
       <c r="G506" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I506" s="11"/>
       <c r="J506" s="7"/>
@@ -14297,7 +14311,7 @@
       </c>
       <c r="G507" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I507" s="8"/>
       <c r="J507" s="6"/>
@@ -14324,7 +14338,7 @@
       </c>
       <c r="G508" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I508" s="11"/>
       <c r="J508" s="7"/>
@@ -14351,7 +14365,7 @@
       </c>
       <c r="G509" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I509" s="8"/>
       <c r="J509" s="6"/>
@@ -14378,7 +14392,7 @@
       </c>
       <c r="G510" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I510" s="11"/>
       <c r="J510" s="7"/>
@@ -14405,7 +14419,7 @@
       </c>
       <c r="G511" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I511" s="8"/>
       <c r="J511" s="6"/>
@@ -14432,7 +14446,7 @@
       </c>
       <c r="G512" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I512" s="11"/>
       <c r="J512" s="7"/>
@@ -14459,7 +14473,7 @@
       </c>
       <c r="G513" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I513" s="8"/>
       <c r="J513" s="6"/>
@@ -14486,7 +14500,7 @@
       </c>
       <c r="G514" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I514" s="11"/>
       <c r="J514" s="7"/>
@@ -14513,7 +14527,7 @@
       </c>
       <c r="G515" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I515" s="8"/>
       <c r="J515" s="6"/>
@@ -14540,7 +14554,7 @@
       </c>
       <c r="G516" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I516" s="11"/>
       <c r="J516" s="7"/>
@@ -14567,7 +14581,7 @@
       </c>
       <c r="G517" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I517" s="8"/>
       <c r="J517" s="6"/>
@@ -14594,7 +14608,7 @@
       </c>
       <c r="G518" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I518" s="11"/>
       <c r="J518" s="7"/>
@@ -14621,7 +14635,7 @@
       </c>
       <c r="G519" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I519" s="8"/>
       <c r="J519" s="6"/>
@@ -14648,7 +14662,7 @@
       </c>
       <c r="G520" s="7">
         <f t="shared" ref="G520:G583" si="26">G519</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I520" s="11"/>
       <c r="J520" s="7"/>
@@ -14675,7 +14689,7 @@
       </c>
       <c r="G521" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I521" s="8"/>
       <c r="J521" s="6"/>
@@ -14702,7 +14716,7 @@
       </c>
       <c r="G522" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I522" s="11"/>
       <c r="J522" s="7"/>
@@ -14729,7 +14743,7 @@
       </c>
       <c r="G523" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I523" s="8"/>
       <c r="J523" s="6"/>
@@ -14756,7 +14770,7 @@
       </c>
       <c r="G524" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I524" s="11"/>
       <c r="J524" s="7"/>
@@ -14783,7 +14797,7 @@
       </c>
       <c r="G525" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I525" s="8"/>
       <c r="J525" s="6"/>
@@ -14810,7 +14824,7 @@
       </c>
       <c r="G526" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I526" s="11"/>
       <c r="J526" s="7"/>
@@ -14837,7 +14851,7 @@
       </c>
       <c r="G527" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I527" s="8"/>
       <c r="J527" s="6"/>
@@ -14864,7 +14878,7 @@
       </c>
       <c r="G528" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I528" s="11"/>
       <c r="J528" s="7"/>
@@ -14891,7 +14905,7 @@
       </c>
       <c r="G529" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I529" s="8"/>
       <c r="J529" s="6"/>
@@ -14918,7 +14932,7 @@
       </c>
       <c r="G530" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I530" s="11"/>
       <c r="J530" s="7"/>
@@ -14945,7 +14959,7 @@
       </c>
       <c r="G531" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I531" s="8"/>
       <c r="J531" s="6"/>
@@ -14972,7 +14986,7 @@
       </c>
       <c r="G532" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I532" s="11"/>
       <c r="J532" s="7"/>
@@ -14999,7 +15013,7 @@
       </c>
       <c r="G533" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I533" s="8"/>
       <c r="J533" s="6"/>
@@ -15026,7 +15040,7 @@
       </c>
       <c r="G534" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I534" s="11"/>
       <c r="J534" s="7"/>
@@ -15053,7 +15067,7 @@
       </c>
       <c r="G535" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I535" s="8"/>
       <c r="J535" s="6"/>
@@ -15080,7 +15094,7 @@
       </c>
       <c r="G536" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I536" s="11"/>
       <c r="J536" s="7"/>
@@ -15107,7 +15121,7 @@
       </c>
       <c r="G537" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I537" s="8"/>
       <c r="J537" s="6"/>
@@ -15134,7 +15148,7 @@
       </c>
       <c r="G538" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I538" s="11"/>
       <c r="J538" s="7"/>
@@ -15161,7 +15175,7 @@
       </c>
       <c r="G539" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I539" s="8"/>
       <c r="J539" s="6"/>
@@ -15188,7 +15202,7 @@
       </c>
       <c r="G540" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I540" s="11"/>
       <c r="J540" s="7"/>
@@ -15215,7 +15229,7 @@
       </c>
       <c r="G541" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I541" s="8"/>
       <c r="J541" s="6"/>
@@ -15242,7 +15256,7 @@
       </c>
       <c r="G542" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I542" s="11"/>
       <c r="J542" s="7"/>
@@ -15269,7 +15283,7 @@
       </c>
       <c r="G543" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I543" s="8"/>
       <c r="J543" s="6"/>
@@ -15296,7 +15310,7 @@
       </c>
       <c r="G544" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I544" s="11"/>
       <c r="J544" s="7"/>
@@ -15323,7 +15337,7 @@
       </c>
       <c r="G545" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I545" s="8"/>
       <c r="J545" s="6"/>
@@ -15350,7 +15364,7 @@
       </c>
       <c r="G546" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I546" s="11"/>
       <c r="J546" s="7"/>
@@ -15377,7 +15391,7 @@
       </c>
       <c r="G547" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I547" s="8"/>
       <c r="J547" s="6"/>
@@ -15404,7 +15418,7 @@
       </c>
       <c r="G548" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I548" s="11"/>
       <c r="J548" s="7"/>
@@ -15431,7 +15445,7 @@
       </c>
       <c r="G549" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I549" s="8"/>
       <c r="J549" s="6"/>
@@ -15458,7 +15472,7 @@
       </c>
       <c r="G550" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I550" s="11"/>
       <c r="J550" s="7"/>
@@ -15485,7 +15499,7 @@
       </c>
       <c r="G551" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I551" s="8"/>
       <c r="J551" s="6"/>
@@ -15512,7 +15526,7 @@
       </c>
       <c r="G552" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I552" s="11"/>
       <c r="J552" s="7"/>
@@ -15539,7 +15553,7 @@
       </c>
       <c r="G553" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I553" s="8"/>
       <c r="J553" s="6"/>
@@ -15566,7 +15580,7 @@
       </c>
       <c r="G554" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I554" s="11"/>
       <c r="J554" s="7"/>
@@ -15593,7 +15607,7 @@
       </c>
       <c r="G555" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I555" s="8"/>
       <c r="J555" s="6"/>
@@ -15620,7 +15634,7 @@
       </c>
       <c r="G556" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="7"/>
@@ -15647,7 +15661,7 @@
       </c>
       <c r="G557" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I557" s="8"/>
       <c r="J557" s="6"/>
@@ -15674,7 +15688,7 @@
       </c>
       <c r="G558" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I558" s="11"/>
       <c r="J558" s="7"/>
@@ -15701,7 +15715,7 @@
       </c>
       <c r="G559" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I559" s="8"/>
       <c r="J559" s="6"/>
@@ -15728,7 +15742,7 @@
       </c>
       <c r="G560" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I560" s="11"/>
       <c r="J560" s="7"/>
@@ -15755,7 +15769,7 @@
       </c>
       <c r="G561" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I561" s="8"/>
       <c r="J561" s="6"/>
@@ -15782,7 +15796,7 @@
       </c>
       <c r="G562" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I562" s="11"/>
       <c r="J562" s="7"/>
@@ -15809,7 +15823,7 @@
       </c>
       <c r="G563" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I563" s="8"/>
       <c r="J563" s="6"/>
@@ -15836,7 +15850,7 @@
       </c>
       <c r="G564" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I564" s="11"/>
       <c r="J564" s="7"/>
@@ -15863,7 +15877,7 @@
       </c>
       <c r="G565" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I565" s="8"/>
       <c r="J565" s="6"/>
@@ -15890,7 +15904,7 @@
       </c>
       <c r="G566" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I566" s="11"/>
       <c r="J566" s="7"/>
@@ -15917,7 +15931,7 @@
       </c>
       <c r="G567" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I567" s="8"/>
       <c r="J567" s="6"/>
@@ -15944,7 +15958,7 @@
       </c>
       <c r="G568" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I568" s="11"/>
       <c r="J568" s="7"/>
@@ -15971,7 +15985,7 @@
       </c>
       <c r="G569" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I569" s="8"/>
       <c r="J569" s="6"/>
@@ -15998,7 +16012,7 @@
       </c>
       <c r="G570" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I570" s="11"/>
       <c r="J570" s="7"/>
@@ -16025,7 +16039,7 @@
       </c>
       <c r="G571" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I571" s="8"/>
       <c r="J571" s="6"/>
@@ -16052,7 +16066,7 @@
       </c>
       <c r="G572" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I572" s="11"/>
       <c r="J572" s="7"/>
@@ -16079,7 +16093,7 @@
       </c>
       <c r="G573" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I573" s="8"/>
       <c r="J573" s="6"/>
@@ -16106,7 +16120,7 @@
       </c>
       <c r="G574" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I574" s="11"/>
       <c r="J574" s="7"/>
@@ -16133,7 +16147,7 @@
       </c>
       <c r="G575" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I575" s="8"/>
       <c r="J575" s="6"/>
@@ -16160,7 +16174,7 @@
       </c>
       <c r="G576" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I576" s="11"/>
       <c r="J576" s="7"/>
@@ -16187,7 +16201,7 @@
       </c>
       <c r="G577" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I577" s="8"/>
       <c r="J577" s="6"/>
@@ -16214,7 +16228,7 @@
       </c>
       <c r="G578" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I578" s="11"/>
       <c r="J578" s="7"/>
@@ -16241,7 +16255,7 @@
       </c>
       <c r="G579" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I579" s="8"/>
       <c r="J579" s="6"/>
@@ -16268,7 +16282,7 @@
       </c>
       <c r="G580" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I580" s="11"/>
       <c r="J580" s="7"/>
@@ -16295,7 +16309,7 @@
       </c>
       <c r="G581" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I581" s="8"/>
       <c r="J581" s="6"/>
@@ -16322,7 +16336,7 @@
       </c>
       <c r="G582" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I582" s="11"/>
       <c r="J582" s="7"/>
@@ -16349,7 +16363,7 @@
       </c>
       <c r="G583" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I583" s="8"/>
       <c r="J583" s="6"/>
@@ -16376,7 +16390,7 @@
       </c>
       <c r="G584" s="7">
         <f t="shared" ref="G584:G647" si="29">G583</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I584" s="11"/>
       <c r="J584" s="7"/>
@@ -16403,7 +16417,7 @@
       </c>
       <c r="G585" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I585" s="8"/>
       <c r="J585" s="6"/>
@@ -16430,7 +16444,7 @@
       </c>
       <c r="G586" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I586" s="11"/>
       <c r="J586" s="7"/>
@@ -16457,7 +16471,7 @@
       </c>
       <c r="G587" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I587" s="8"/>
       <c r="J587" s="6"/>
@@ -16484,7 +16498,7 @@
       </c>
       <c r="G588" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I588" s="11"/>
       <c r="J588" s="7"/>
@@ -16511,7 +16525,7 @@
       </c>
       <c r="G589" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I589" s="8"/>
       <c r="J589" s="6"/>
@@ -16538,7 +16552,7 @@
       </c>
       <c r="G590" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I590" s="11"/>
       <c r="J590" s="7"/>
@@ -16565,7 +16579,7 @@
       </c>
       <c r="G591" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I591" s="8"/>
       <c r="J591" s="6"/>
@@ -16592,7 +16606,7 @@
       </c>
       <c r="G592" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I592" s="11"/>
       <c r="J592" s="7"/>
@@ -16619,7 +16633,7 @@
       </c>
       <c r="G593" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I593" s="8"/>
       <c r="J593" s="6"/>
@@ -16646,7 +16660,7 @@
       </c>
       <c r="G594" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I594" s="11"/>
       <c r="J594" s="7"/>
@@ -16673,7 +16687,7 @@
       </c>
       <c r="G595" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I595" s="8"/>
       <c r="J595" s="6"/>
@@ -16700,7 +16714,7 @@
       </c>
       <c r="G596" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I596" s="11"/>
       <c r="J596" s="7"/>
@@ -16727,7 +16741,7 @@
       </c>
       <c r="G597" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I597" s="8"/>
       <c r="J597" s="6"/>
@@ -16754,7 +16768,7 @@
       </c>
       <c r="G598" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I598" s="11"/>
       <c r="J598" s="7"/>
@@ -16781,7 +16795,7 @@
       </c>
       <c r="G599" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I599" s="8"/>
       <c r="J599" s="6"/>
@@ -16808,7 +16822,7 @@
       </c>
       <c r="G600" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I600" s="11"/>
       <c r="J600" s="7"/>
@@ -16835,7 +16849,7 @@
       </c>
       <c r="G601" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I601" s="8"/>
       <c r="J601" s="6"/>
@@ -16862,7 +16876,7 @@
       </c>
       <c r="G602" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I602" s="11"/>
       <c r="J602" s="7"/>
@@ -16889,7 +16903,7 @@
       </c>
       <c r="G603" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I603" s="8"/>
       <c r="J603" s="6"/>
@@ -16916,7 +16930,7 @@
       </c>
       <c r="G604" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I604" s="11"/>
       <c r="J604" s="7"/>
@@ -16943,7 +16957,7 @@
       </c>
       <c r="G605" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I605" s="8"/>
       <c r="J605" s="6"/>
@@ -16970,7 +16984,7 @@
       </c>
       <c r="G606" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I606" s="11"/>
       <c r="J606" s="7"/>
@@ -16997,7 +17011,7 @@
       </c>
       <c r="G607" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I607" s="8"/>
       <c r="J607" s="6"/>
@@ -17024,7 +17038,7 @@
       </c>
       <c r="G608" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I608" s="11"/>
       <c r="J608" s="7"/>
@@ -17051,7 +17065,7 @@
       </c>
       <c r="G609" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I609" s="8"/>
       <c r="J609" s="6"/>
@@ -17078,7 +17092,7 @@
       </c>
       <c r="G610" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I610" s="11"/>
       <c r="J610" s="7"/>
@@ -17105,7 +17119,7 @@
       </c>
       <c r="G611" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I611" s="8"/>
       <c r="J611" s="6"/>
@@ -17132,7 +17146,7 @@
       </c>
       <c r="G612" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I612" s="11"/>
       <c r="J612" s="7"/>
@@ -17159,7 +17173,7 @@
       </c>
       <c r="G613" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I613" s="8"/>
       <c r="J613" s="6"/>
@@ -17186,7 +17200,7 @@
       </c>
       <c r="G614" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="7"/>
@@ -17213,7 +17227,7 @@
       </c>
       <c r="G615" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I615" s="8"/>
       <c r="J615" s="6"/>
@@ -17240,7 +17254,7 @@
       </c>
       <c r="G616" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I616" s="11"/>
       <c r="J616" s="7"/>
@@ -17267,7 +17281,7 @@
       </c>
       <c r="G617" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I617" s="8"/>
       <c r="J617" s="6"/>
@@ -17294,7 +17308,7 @@
       </c>
       <c r="G618" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I618" s="11"/>
       <c r="J618" s="7"/>
@@ -17321,7 +17335,7 @@
       </c>
       <c r="G619" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I619" s="8"/>
       <c r="J619" s="6"/>
@@ -17348,7 +17362,7 @@
       </c>
       <c r="G620" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I620" s="11"/>
       <c r="J620" s="7"/>
@@ -17375,7 +17389,7 @@
       </c>
       <c r="G621" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I621" s="8"/>
       <c r="J621" s="6"/>
@@ -17402,7 +17416,7 @@
       </c>
       <c r="G622" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I622" s="11"/>
       <c r="J622" s="7"/>
@@ -17429,7 +17443,7 @@
       </c>
       <c r="G623" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I623" s="8"/>
       <c r="J623" s="6"/>
@@ -17456,7 +17470,7 @@
       </c>
       <c r="G624" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I624" s="11"/>
       <c r="J624" s="7"/>
@@ -17483,7 +17497,7 @@
       </c>
       <c r="G625" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I625" s="8"/>
       <c r="J625" s="6"/>
@@ -17510,7 +17524,7 @@
       </c>
       <c r="G626" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I626" s="11"/>
       <c r="J626" s="7"/>
@@ -17537,7 +17551,7 @@
       </c>
       <c r="G627" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I627" s="8"/>
       <c r="J627" s="6"/>
@@ -17564,7 +17578,7 @@
       </c>
       <c r="G628" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I628" s="11"/>
       <c r="J628" s="7"/>
@@ -17591,7 +17605,7 @@
       </c>
       <c r="G629" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I629" s="8"/>
       <c r="J629" s="6"/>
@@ -17618,7 +17632,7 @@
       </c>
       <c r="G630" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I630" s="11"/>
       <c r="J630" s="7"/>
@@ -17645,7 +17659,7 @@
       </c>
       <c r="G631" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I631" s="8"/>
       <c r="J631" s="6"/>
@@ -17672,7 +17686,7 @@
       </c>
       <c r="G632" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I632" s="11"/>
       <c r="J632" s="7"/>
@@ -17699,7 +17713,7 @@
       </c>
       <c r="G633" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I633" s="8"/>
       <c r="J633" s="6"/>
@@ -17726,7 +17740,7 @@
       </c>
       <c r="G634" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I634" s="11"/>
       <c r="J634" s="7"/>
@@ -17753,7 +17767,7 @@
       </c>
       <c r="G635" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I635" s="8"/>
       <c r="J635" s="6"/>
@@ -17780,7 +17794,7 @@
       </c>
       <c r="G636" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I636" s="11"/>
       <c r="J636" s="7"/>
@@ -17807,7 +17821,7 @@
       </c>
       <c r="G637" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I637" s="8"/>
       <c r="J637" s="6"/>
@@ -17834,7 +17848,7 @@
       </c>
       <c r="G638" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I638" s="11"/>
       <c r="J638" s="7"/>
@@ -17861,7 +17875,7 @@
       </c>
       <c r="G639" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I639" s="8"/>
       <c r="J639" s="6"/>
@@ -17888,7 +17902,7 @@
       </c>
       <c r="G640" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I640" s="11"/>
       <c r="J640" s="7"/>
@@ -17915,7 +17929,7 @@
       </c>
       <c r="G641" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I641" s="8"/>
       <c r="J641" s="6"/>
@@ -17942,7 +17956,7 @@
       </c>
       <c r="G642" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I642" s="11"/>
       <c r="J642" s="7"/>
@@ -17969,7 +17983,7 @@
       </c>
       <c r="G643" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I643" s="8"/>
       <c r="J643" s="6"/>
@@ -17996,7 +18010,7 @@
       </c>
       <c r="G644" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I644" s="11"/>
       <c r="J644" s="7"/>
@@ -18023,7 +18037,7 @@
       </c>
       <c r="G645" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I645" s="8"/>
       <c r="J645" s="6"/>
@@ -18050,7 +18064,7 @@
       </c>
       <c r="G646" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I646" s="11"/>
       <c r="J646" s="7"/>
@@ -18077,7 +18091,7 @@
       </c>
       <c r="G647" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I647" s="8"/>
       <c r="J647" s="6"/>
@@ -18104,7 +18118,7 @@
       </c>
       <c r="G648" s="7">
         <f t="shared" ref="G648:G711" si="32">G647</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I648" s="11"/>
       <c r="J648" s="7"/>
@@ -18131,7 +18145,7 @@
       </c>
       <c r="G649" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I649" s="8"/>
       <c r="J649" s="6"/>
@@ -18158,7 +18172,7 @@
       </c>
       <c r="G650" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I650" s="11"/>
       <c r="J650" s="7"/>
@@ -18185,7 +18199,7 @@
       </c>
       <c r="G651" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I651" s="8"/>
       <c r="J651" s="6"/>
@@ -18212,7 +18226,7 @@
       </c>
       <c r="G652" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I652" s="11"/>
       <c r="J652" s="7"/>
@@ -18239,7 +18253,7 @@
       </c>
       <c r="G653" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I653" s="8"/>
       <c r="J653" s="6"/>
@@ -18266,7 +18280,7 @@
       </c>
       <c r="G654" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I654" s="11"/>
       <c r="J654" s="7"/>
@@ -18293,7 +18307,7 @@
       </c>
       <c r="G655" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I655" s="8"/>
       <c r="J655" s="6"/>
@@ -18320,7 +18334,7 @@
       </c>
       <c r="G656" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I656" s="11"/>
       <c r="J656" s="7"/>
@@ -18347,7 +18361,7 @@
       </c>
       <c r="G657" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I657" s="8"/>
       <c r="J657" s="6"/>
@@ -18374,7 +18388,7 @@
       </c>
       <c r="G658" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I658" s="11"/>
       <c r="J658" s="7"/>
@@ -18401,7 +18415,7 @@
       </c>
       <c r="G659" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I659" s="8"/>
       <c r="J659" s="6"/>
@@ -18428,7 +18442,7 @@
       </c>
       <c r="G660" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I660" s="11"/>
       <c r="J660" s="7"/>
@@ -18455,7 +18469,7 @@
       </c>
       <c r="G661" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="6"/>
@@ -18482,7 +18496,7 @@
       </c>
       <c r="G662" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I662" s="11"/>
       <c r="J662" s="7"/>
@@ -18509,7 +18523,7 @@
       </c>
       <c r="G663" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I663" s="8"/>
       <c r="J663" s="6"/>
@@ -18536,7 +18550,7 @@
       </c>
       <c r="G664" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I664" s="11"/>
       <c r="J664" s="7"/>
@@ -18563,7 +18577,7 @@
       </c>
       <c r="G665" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I665" s="8"/>
       <c r="J665" s="6"/>
@@ -18590,7 +18604,7 @@
       </c>
       <c r="G666" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I666" s="11"/>
       <c r="J666" s="7"/>
@@ -18617,7 +18631,7 @@
       </c>
       <c r="G667" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I667" s="8"/>
       <c r="J667" s="6"/>
@@ -18644,7 +18658,7 @@
       </c>
       <c r="G668" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I668" s="11"/>
       <c r="J668" s="7"/>
@@ -18671,7 +18685,7 @@
       </c>
       <c r="G669" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I669" s="8"/>
       <c r="J669" s="6"/>
@@ -18698,7 +18712,7 @@
       </c>
       <c r="G670" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I670" s="11"/>
       <c r="J670" s="7"/>
@@ -18725,7 +18739,7 @@
       </c>
       <c r="G671" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I671" s="8"/>
       <c r="J671" s="6"/>
@@ -18752,7 +18766,7 @@
       </c>
       <c r="G672" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="7"/>
@@ -18779,7 +18793,7 @@
       </c>
       <c r="G673" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I673" s="8"/>
       <c r="J673" s="6"/>
@@ -18806,7 +18820,7 @@
       </c>
       <c r="G674" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I674" s="11"/>
       <c r="J674" s="7"/>
@@ -18833,7 +18847,7 @@
       </c>
       <c r="G675" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I675" s="8"/>
       <c r="J675" s="6"/>
@@ -18860,7 +18874,7 @@
       </c>
       <c r="G676" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I676" s="11"/>
       <c r="J676" s="7"/>
@@ -18887,7 +18901,7 @@
       </c>
       <c r="G677" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I677" s="8"/>
       <c r="J677" s="6"/>
@@ -18914,7 +18928,7 @@
       </c>
       <c r="G678" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I678" s="11"/>
       <c r="J678" s="7"/>
@@ -18941,7 +18955,7 @@
       </c>
       <c r="G679" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I679" s="8"/>
       <c r="J679" s="6"/>
@@ -18968,7 +18982,7 @@
       </c>
       <c r="G680" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I680" s="11"/>
       <c r="J680" s="7"/>
@@ -18995,7 +19009,7 @@
       </c>
       <c r="G681" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I681" s="8"/>
       <c r="J681" s="6"/>
@@ -19022,7 +19036,7 @@
       </c>
       <c r="G682" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I682" s="11"/>
       <c r="J682" s="7"/>
@@ -19049,7 +19063,7 @@
       </c>
       <c r="G683" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I683" s="8"/>
       <c r="J683" s="6"/>
@@ -19076,7 +19090,7 @@
       </c>
       <c r="G684" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I684" s="11"/>
       <c r="J684" s="7"/>
@@ -19103,7 +19117,7 @@
       </c>
       <c r="G685" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I685" s="8"/>
       <c r="J685" s="6"/>
@@ -19130,7 +19144,7 @@
       </c>
       <c r="G686" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I686" s="11"/>
       <c r="J686" s="7"/>
@@ -19157,7 +19171,7 @@
       </c>
       <c r="G687" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I687" s="8"/>
       <c r="J687" s="6"/>
@@ -19184,7 +19198,7 @@
       </c>
       <c r="G688" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I688" s="11"/>
       <c r="J688" s="7"/>
@@ -19211,7 +19225,7 @@
       </c>
       <c r="G689" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I689" s="8"/>
       <c r="J689" s="6"/>
@@ -19238,7 +19252,7 @@
       </c>
       <c r="G690" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I690" s="11"/>
       <c r="J690" s="7"/>
@@ -19265,7 +19279,7 @@
       </c>
       <c r="G691" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I691" s="8"/>
       <c r="J691" s="6"/>
@@ -19292,7 +19306,7 @@
       </c>
       <c r="G692" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I692" s="11"/>
       <c r="J692" s="7"/>
@@ -19319,7 +19333,7 @@
       </c>
       <c r="G693" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I693" s="8"/>
       <c r="J693" s="6"/>
@@ -19346,7 +19360,7 @@
       </c>
       <c r="G694" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I694" s="11"/>
       <c r="J694" s="7"/>
@@ -19373,7 +19387,7 @@
       </c>
       <c r="G695" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I695" s="8"/>
       <c r="J695" s="6"/>
@@ -19400,7 +19414,7 @@
       </c>
       <c r="G696" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I696" s="11"/>
       <c r="J696" s="7"/>
@@ -19427,7 +19441,7 @@
       </c>
       <c r="G697" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I697" s="8"/>
       <c r="J697" s="6"/>
@@ -19454,7 +19468,7 @@
       </c>
       <c r="G698" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I698" s="11"/>
       <c r="J698" s="7"/>
@@ -19481,7 +19495,7 @@
       </c>
       <c r="G699" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I699" s="8"/>
       <c r="J699" s="6"/>
@@ -19508,7 +19522,7 @@
       </c>
       <c r="G700" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I700" s="11"/>
       <c r="J700" s="7"/>
@@ -19535,7 +19549,7 @@
       </c>
       <c r="G701" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I701" s="8"/>
       <c r="J701" s="6"/>
@@ -19562,7 +19576,7 @@
       </c>
       <c r="G702" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I702" s="11"/>
       <c r="J702" s="7"/>
@@ -19589,7 +19603,7 @@
       </c>
       <c r="G703" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I703" s="8"/>
       <c r="J703" s="6"/>
@@ -19616,7 +19630,7 @@
       </c>
       <c r="G704" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I704" s="11"/>
       <c r="J704" s="7"/>
@@ -19643,7 +19657,7 @@
       </c>
       <c r="G705" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I705" s="8"/>
       <c r="J705" s="6"/>
@@ -19670,7 +19684,7 @@
       </c>
       <c r="G706" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I706" s="11"/>
       <c r="J706" s="7"/>
@@ -19697,7 +19711,7 @@
       </c>
       <c r="G707" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I707" s="8"/>
       <c r="J707" s="6"/>
@@ -19724,7 +19738,7 @@
       </c>
       <c r="G708" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I708" s="11"/>
       <c r="J708" s="7"/>
@@ -19751,7 +19765,7 @@
       </c>
       <c r="G709" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I709" s="8"/>
       <c r="J709" s="6"/>
@@ -19778,7 +19792,7 @@
       </c>
       <c r="G710" s="7">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I710" s="11"/>
       <c r="J710" s="7"/>
@@ -19805,7 +19819,7 @@
       </c>
       <c r="G711" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I711" s="8"/>
       <c r="J711" s="6"/>
@@ -19832,7 +19846,7 @@
       </c>
       <c r="G712" s="7">
         <f t="shared" ref="G712:G775" si="35">G711</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I712" s="11"/>
       <c r="J712" s="7"/>
@@ -19859,7 +19873,7 @@
       </c>
       <c r="G713" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I713" s="8"/>
       <c r="J713" s="6"/>
@@ -19886,7 +19900,7 @@
       </c>
       <c r="G714" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I714" s="11"/>
       <c r="J714" s="7"/>
@@ -19913,7 +19927,7 @@
       </c>
       <c r="G715" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I715" s="8"/>
       <c r="J715" s="6"/>
@@ -19940,7 +19954,7 @@
       </c>
       <c r="G716" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I716" s="11"/>
       <c r="J716" s="7"/>
@@ -19967,7 +19981,7 @@
       </c>
       <c r="G717" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I717" s="8"/>
       <c r="J717" s="6"/>
@@ -19994,7 +20008,7 @@
       </c>
       <c r="G718" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I718" s="11"/>
       <c r="J718" s="7"/>
@@ -20021,7 +20035,7 @@
       </c>
       <c r="G719" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I719" s="8"/>
       <c r="J719" s="6"/>
@@ -20048,7 +20062,7 @@
       </c>
       <c r="G720" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I720" s="11"/>
       <c r="J720" s="7"/>
@@ -20075,7 +20089,7 @@
       </c>
       <c r="G721" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I721" s="8"/>
       <c r="J721" s="6"/>
@@ -20102,7 +20116,7 @@
       </c>
       <c r="G722" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I722" s="11"/>
       <c r="J722" s="7"/>
@@ -20129,7 +20143,7 @@
       </c>
       <c r="G723" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I723" s="8"/>
       <c r="J723" s="6"/>
@@ -20156,7 +20170,7 @@
       </c>
       <c r="G724" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I724" s="11"/>
       <c r="J724" s="7"/>
@@ -20183,7 +20197,7 @@
       </c>
       <c r="G725" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I725" s="8"/>
       <c r="J725" s="6"/>
@@ -20210,7 +20224,7 @@
       </c>
       <c r="G726" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I726" s="11"/>
       <c r="J726" s="7"/>
@@ -20237,7 +20251,7 @@
       </c>
       <c r="G727" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I727" s="8"/>
       <c r="J727" s="6"/>
@@ -20264,7 +20278,7 @@
       </c>
       <c r="G728" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I728" s="11"/>
       <c r="J728" s="7"/>
@@ -20291,7 +20305,7 @@
       </c>
       <c r="G729" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I729" s="8"/>
       <c r="J729" s="6"/>
@@ -20318,7 +20332,7 @@
       </c>
       <c r="G730" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="7"/>
@@ -20345,7 +20359,7 @@
       </c>
       <c r="G731" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I731" s="8"/>
       <c r="J731" s="6"/>
@@ -20372,7 +20386,7 @@
       </c>
       <c r="G732" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I732" s="11"/>
       <c r="J732" s="7"/>
@@ -20399,7 +20413,7 @@
       </c>
       <c r="G733" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I733" s="8"/>
       <c r="J733" s="6"/>
@@ -20426,7 +20440,7 @@
       </c>
       <c r="G734" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I734" s="11"/>
       <c r="J734" s="7"/>
@@ -20453,7 +20467,7 @@
       </c>
       <c r="G735" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I735" s="8"/>
       <c r="J735" s="6"/>
@@ -20480,7 +20494,7 @@
       </c>
       <c r="G736" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I736" s="11"/>
       <c r="J736" s="7"/>
@@ -20507,7 +20521,7 @@
       </c>
       <c r="G737" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I737" s="8"/>
       <c r="J737" s="6"/>
@@ -20534,7 +20548,7 @@
       </c>
       <c r="G738" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I738" s="11"/>
       <c r="J738" s="7"/>
@@ -20561,7 +20575,7 @@
       </c>
       <c r="G739" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I739" s="8"/>
       <c r="J739" s="6"/>
@@ -20588,7 +20602,7 @@
       </c>
       <c r="G740" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I740" s="11"/>
       <c r="J740" s="7"/>
@@ -20615,7 +20629,7 @@
       </c>
       <c r="G741" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I741" s="8"/>
       <c r="J741" s="6"/>
@@ -20642,7 +20656,7 @@
       </c>
       <c r="G742" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I742" s="11"/>
       <c r="J742" s="7"/>
@@ -20669,7 +20683,7 @@
       </c>
       <c r="G743" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I743" s="8"/>
       <c r="J743" s="6"/>
@@ -20696,7 +20710,7 @@
       </c>
       <c r="G744" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I744" s="11"/>
       <c r="J744" s="7"/>
@@ -20723,7 +20737,7 @@
       </c>
       <c r="G745" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I745" s="8"/>
       <c r="J745" s="6"/>
@@ -20750,7 +20764,7 @@
       </c>
       <c r="G746" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I746" s="11"/>
       <c r="J746" s="7"/>
@@ -20777,7 +20791,7 @@
       </c>
       <c r="G747" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I747" s="8"/>
       <c r="J747" s="6"/>
@@ -20804,7 +20818,7 @@
       </c>
       <c r="G748" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I748" s="11"/>
       <c r="J748" s="7"/>
@@ -20831,7 +20845,7 @@
       </c>
       <c r="G749" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I749" s="8"/>
       <c r="J749" s="6"/>
@@ -20858,7 +20872,7 @@
       </c>
       <c r="G750" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I750" s="11"/>
       <c r="J750" s="7"/>
@@ -20885,7 +20899,7 @@
       </c>
       <c r="G751" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I751" s="8"/>
       <c r="J751" s="6"/>
@@ -20912,7 +20926,7 @@
       </c>
       <c r="G752" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I752" s="11"/>
       <c r="J752" s="7"/>
@@ -20939,7 +20953,7 @@
       </c>
       <c r="G753" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I753" s="8"/>
       <c r="J753" s="6"/>
@@ -20966,7 +20980,7 @@
       </c>
       <c r="G754" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I754" s="11"/>
       <c r="J754" s="7"/>
@@ -20993,7 +21007,7 @@
       </c>
       <c r="G755" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I755" s="8"/>
       <c r="J755" s="6"/>
@@ -21020,7 +21034,7 @@
       </c>
       <c r="G756" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I756" s="11"/>
       <c r="J756" s="7"/>
@@ -21047,7 +21061,7 @@
       </c>
       <c r="G757" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I757" s="8"/>
       <c r="J757" s="6"/>
@@ -21074,7 +21088,7 @@
       </c>
       <c r="G758" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I758" s="11"/>
       <c r="J758" s="7"/>
@@ -21101,7 +21115,7 @@
       </c>
       <c r="G759" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I759" s="8"/>
       <c r="J759" s="6"/>
@@ -21128,7 +21142,7 @@
       </c>
       <c r="G760" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I760" s="11"/>
       <c r="J760" s="7"/>
@@ -21155,7 +21169,7 @@
       </c>
       <c r="G761" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I761" s="8"/>
       <c r="J761" s="6"/>
@@ -21182,7 +21196,7 @@
       </c>
       <c r="G762" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I762" s="11"/>
       <c r="J762" s="7"/>
@@ -21209,7 +21223,7 @@
       </c>
       <c r="G763" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I763" s="8"/>
       <c r="J763" s="6"/>
@@ -21236,7 +21250,7 @@
       </c>
       <c r="G764" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I764" s="11"/>
       <c r="J764" s="7"/>
@@ -21263,7 +21277,7 @@
       </c>
       <c r="G765" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I765" s="8"/>
       <c r="J765" s="6"/>
@@ -21290,7 +21304,7 @@
       </c>
       <c r="G766" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I766" s="11"/>
       <c r="J766" s="7"/>
@@ -21317,7 +21331,7 @@
       </c>
       <c r="G767" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I767" s="8"/>
       <c r="J767" s="6"/>
@@ -21344,7 +21358,7 @@
       </c>
       <c r="G768" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I768" s="11"/>
       <c r="J768" s="7"/>
@@ -21371,7 +21385,7 @@
       </c>
       <c r="G769" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I769" s="8"/>
       <c r="J769" s="6"/>
@@ -21398,7 +21412,7 @@
       </c>
       <c r="G770" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I770" s="11"/>
       <c r="J770" s="7"/>
@@ -21425,7 +21439,7 @@
       </c>
       <c r="G771" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I771" s="8"/>
       <c r="J771" s="6"/>
@@ -21452,7 +21466,7 @@
       </c>
       <c r="G772" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I772" s="11"/>
       <c r="J772" s="7"/>
@@ -21479,7 +21493,7 @@
       </c>
       <c r="G773" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I773" s="8"/>
       <c r="J773" s="6"/>
@@ -21506,7 +21520,7 @@
       </c>
       <c r="G774" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I774" s="11"/>
       <c r="J774" s="7"/>
@@ -21533,7 +21547,7 @@
       </c>
       <c r="G775" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I775" s="8"/>
       <c r="J775" s="6"/>
@@ -21560,7 +21574,7 @@
       </c>
       <c r="G776" s="7">
         <f t="shared" ref="G776:G839" si="38">G775</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I776" s="11"/>
       <c r="J776" s="7"/>
@@ -21587,7 +21601,7 @@
       </c>
       <c r="G777" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I777" s="8"/>
       <c r="J777" s="6"/>
@@ -21614,7 +21628,7 @@
       </c>
       <c r="G778" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I778" s="11"/>
       <c r="J778" s="7"/>
@@ -21641,7 +21655,7 @@
       </c>
       <c r="G779" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I779" s="8"/>
       <c r="J779" s="6"/>
@@ -21668,7 +21682,7 @@
       </c>
       <c r="G780" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I780" s="11"/>
       <c r="J780" s="7"/>
@@ -21695,7 +21709,7 @@
       </c>
       <c r="G781" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I781" s="8"/>
       <c r="J781" s="6"/>
@@ -21722,7 +21736,7 @@
       </c>
       <c r="G782" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I782" s="11"/>
       <c r="J782" s="7"/>
@@ -21749,7 +21763,7 @@
       </c>
       <c r="G783" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I783" s="8"/>
       <c r="J783" s="6"/>
@@ -21776,7 +21790,7 @@
       </c>
       <c r="G784" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I784" s="11"/>
       <c r="J784" s="7"/>
@@ -21803,7 +21817,7 @@
       </c>
       <c r="G785" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I785" s="8"/>
       <c r="J785" s="6"/>
@@ -21830,7 +21844,7 @@
       </c>
       <c r="G786" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I786" s="11"/>
       <c r="J786" s="7"/>
@@ -21857,7 +21871,7 @@
       </c>
       <c r="G787" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I787" s="8"/>
       <c r="J787" s="6"/>
@@ -21884,7 +21898,7 @@
       </c>
       <c r="G788" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I788" s="11"/>
       <c r="J788" s="7"/>
@@ -21911,7 +21925,7 @@
       </c>
       <c r="G789" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I789" s="8"/>
       <c r="J789" s="6"/>
@@ -21938,7 +21952,7 @@
       </c>
       <c r="G790" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I790" s="11"/>
       <c r="J790" s="7"/>
@@ -21965,7 +21979,7 @@
       </c>
       <c r="G791" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I791" s="8"/>
       <c r="J791" s="6"/>
@@ -21992,7 +22006,7 @@
       </c>
       <c r="G792" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I792" s="11"/>
       <c r="J792" s="7"/>
@@ -22019,7 +22033,7 @@
       </c>
       <c r="G793" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I793" s="8"/>
       <c r="J793" s="6"/>
@@ -22046,7 +22060,7 @@
       </c>
       <c r="G794" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I794" s="11"/>
       <c r="J794" s="7"/>
@@ -22073,7 +22087,7 @@
       </c>
       <c r="G795" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I795" s="8"/>
       <c r="J795" s="6"/>
@@ -22100,7 +22114,7 @@
       </c>
       <c r="G796" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I796" s="11"/>
       <c r="J796" s="7"/>
@@ -22127,7 +22141,7 @@
       </c>
       <c r="G797" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I797" s="8"/>
       <c r="J797" s="6"/>
@@ -22154,7 +22168,7 @@
       </c>
       <c r="G798" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I798" s="11"/>
       <c r="J798" s="7"/>
@@ -22181,7 +22195,7 @@
       </c>
       <c r="G799" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I799" s="8"/>
       <c r="J799" s="6"/>
@@ -22208,7 +22222,7 @@
       </c>
       <c r="G800" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I800" s="11"/>
       <c r="J800" s="7"/>
@@ -22235,7 +22249,7 @@
       </c>
       <c r="G801" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I801" s="8"/>
       <c r="J801" s="6"/>
@@ -22262,7 +22276,7 @@
       </c>
       <c r="G802" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I802" s="11"/>
       <c r="J802" s="7"/>
@@ -22289,7 +22303,7 @@
       </c>
       <c r="G803" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I803" s="8"/>
       <c r="J803" s="6"/>
@@ -22316,7 +22330,7 @@
       </c>
       <c r="G804" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I804" s="11"/>
       <c r="J804" s="7"/>
@@ -22343,7 +22357,7 @@
       </c>
       <c r="G805" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I805" s="8"/>
       <c r="J805" s="6"/>
@@ -22370,7 +22384,7 @@
       </c>
       <c r="G806" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I806" s="11"/>
       <c r="J806" s="7"/>
@@ -22397,7 +22411,7 @@
       </c>
       <c r="G807" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I807" s="8"/>
       <c r="J807" s="6"/>
@@ -22424,7 +22438,7 @@
       </c>
       <c r="G808" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I808" s="11"/>
       <c r="J808" s="7"/>
@@ -22451,7 +22465,7 @@
       </c>
       <c r="G809" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I809" s="8"/>
       <c r="J809" s="6"/>
@@ -22478,7 +22492,7 @@
       </c>
       <c r="G810" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I810" s="11"/>
       <c r="J810" s="7"/>
@@ -22505,7 +22519,7 @@
       </c>
       <c r="G811" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I811" s="8"/>
       <c r="J811" s="6"/>
@@ -22532,7 +22546,7 @@
       </c>
       <c r="G812" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I812" s="11"/>
       <c r="J812" s="7"/>
@@ -22559,7 +22573,7 @@
       </c>
       <c r="G813" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I813" s="8"/>
       <c r="J813" s="6"/>
@@ -22586,7 +22600,7 @@
       </c>
       <c r="G814" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I814" s="11"/>
       <c r="J814" s="7"/>
@@ -22613,7 +22627,7 @@
       </c>
       <c r="G815" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I815" s="8"/>
       <c r="J815" s="6"/>
@@ -22640,7 +22654,7 @@
       </c>
       <c r="G816" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I816" s="11"/>
       <c r="J816" s="7"/>
@@ -22667,7 +22681,7 @@
       </c>
       <c r="G817" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I817" s="8"/>
       <c r="J817" s="6"/>
@@ -22694,7 +22708,7 @@
       </c>
       <c r="G818" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I818" s="11"/>
       <c r="J818" s="7"/>
@@ -22721,7 +22735,7 @@
       </c>
       <c r="G819" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I819" s="8"/>
       <c r="J819" s="6"/>
@@ -22748,7 +22762,7 @@
       </c>
       <c r="G820" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I820" s="11"/>
       <c r="J820" s="7"/>
@@ -22775,7 +22789,7 @@
       </c>
       <c r="G821" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I821" s="8"/>
       <c r="J821" s="6"/>
@@ -22802,7 +22816,7 @@
       </c>
       <c r="G822" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I822" s="11"/>
       <c r="J822" s="7"/>
@@ -22829,7 +22843,7 @@
       </c>
       <c r="G823" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I823" s="8"/>
       <c r="J823" s="6"/>
@@ -22856,7 +22870,7 @@
       </c>
       <c r="G824" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I824" s="11"/>
       <c r="J824" s="7"/>
@@ -22883,7 +22897,7 @@
       </c>
       <c r="G825" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I825" s="8"/>
       <c r="J825" s="6"/>
@@ -22910,7 +22924,7 @@
       </c>
       <c r="G826" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I826" s="11"/>
       <c r="J826" s="7"/>
@@ -22937,7 +22951,7 @@
       </c>
       <c r="G827" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I827" s="8"/>
       <c r="J827" s="6"/>
@@ -22964,7 +22978,7 @@
       </c>
       <c r="G828" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I828" s="11"/>
       <c r="J828" s="7"/>
@@ -22991,7 +23005,7 @@
       </c>
       <c r="G829" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I829" s="8"/>
       <c r="J829" s="6"/>
@@ -23018,7 +23032,7 @@
       </c>
       <c r="G830" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I830" s="11"/>
       <c r="J830" s="7"/>
@@ -23045,7 +23059,7 @@
       </c>
       <c r="G831" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I831" s="8"/>
       <c r="J831" s="6"/>
@@ -23072,7 +23086,7 @@
       </c>
       <c r="G832" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I832" s="11"/>
       <c r="J832" s="7"/>
@@ -23099,7 +23113,7 @@
       </c>
       <c r="G833" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I833" s="8"/>
       <c r="J833" s="6"/>
@@ -23126,7 +23140,7 @@
       </c>
       <c r="G834" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I834" s="11"/>
       <c r="J834" s="7"/>
@@ -23153,7 +23167,7 @@
       </c>
       <c r="G835" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I835" s="8"/>
       <c r="J835" s="6"/>
@@ -23180,7 +23194,7 @@
       </c>
       <c r="G836" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I836" s="11"/>
       <c r="J836" s="7"/>
@@ -23207,7 +23221,7 @@
       </c>
       <c r="G837" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I837" s="8"/>
       <c r="J837" s="6"/>
@@ -23234,7 +23248,7 @@
       </c>
       <c r="G838" s="7">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I838" s="11"/>
       <c r="J838" s="7"/>
@@ -23261,7 +23275,7 @@
       </c>
       <c r="G839" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I839" s="8"/>
       <c r="J839" s="6"/>
@@ -23288,7 +23302,7 @@
       </c>
       <c r="G840" s="7">
         <f t="shared" ref="G840:G903" si="41">G839</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I840" s="11"/>
       <c r="J840" s="7"/>
@@ -23315,7 +23329,7 @@
       </c>
       <c r="G841" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I841" s="8"/>
       <c r="J841" s="6"/>
@@ -23342,7 +23356,7 @@
       </c>
       <c r="G842" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I842" s="11"/>
       <c r="J842" s="7"/>
@@ -23369,7 +23383,7 @@
       </c>
       <c r="G843" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I843" s="8"/>
       <c r="J843" s="6"/>
@@ -23396,7 +23410,7 @@
       </c>
       <c r="G844" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I844" s="11"/>
       <c r="J844" s="7"/>
@@ -23423,7 +23437,7 @@
       </c>
       <c r="G845" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I845" s="8"/>
       <c r="J845" s="6"/>
@@ -23450,7 +23464,7 @@
       </c>
       <c r="G846" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I846" s="11"/>
       <c r="J846" s="7"/>
@@ -23477,7 +23491,7 @@
       </c>
       <c r="G847" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I847" s="8"/>
       <c r="J847" s="6"/>
@@ -23504,7 +23518,7 @@
       </c>
       <c r="G848" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I848" s="11"/>
       <c r="J848" s="7"/>
@@ -23531,7 +23545,7 @@
       </c>
       <c r="G849" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I849" s="8"/>
       <c r="J849" s="6"/>
@@ -23558,7 +23572,7 @@
       </c>
       <c r="G850" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I850" s="11"/>
       <c r="J850" s="7"/>
@@ -23585,7 +23599,7 @@
       </c>
       <c r="G851" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I851" s="8"/>
       <c r="J851" s="6"/>
@@ -23612,7 +23626,7 @@
       </c>
       <c r="G852" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I852" s="11"/>
       <c r="J852" s="7"/>
@@ -23639,7 +23653,7 @@
       </c>
       <c r="G853" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I853" s="8"/>
       <c r="J853" s="6"/>
@@ -23666,7 +23680,7 @@
       </c>
       <c r="G854" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I854" s="11"/>
       <c r="J854" s="7"/>
@@ -23693,7 +23707,7 @@
       </c>
       <c r="G855" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I855" s="8"/>
       <c r="J855" s="6"/>
@@ -23720,7 +23734,7 @@
       </c>
       <c r="G856" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I856" s="11"/>
       <c r="J856" s="7"/>
@@ -23747,7 +23761,7 @@
       </c>
       <c r="G857" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I857" s="8"/>
       <c r="J857" s="6"/>
@@ -23774,7 +23788,7 @@
       </c>
       <c r="G858" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I858" s="11"/>
       <c r="J858" s="7"/>
@@ -23801,7 +23815,7 @@
       </c>
       <c r="G859" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I859" s="8"/>
       <c r="J859" s="6"/>
@@ -23828,7 +23842,7 @@
       </c>
       <c r="G860" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I860" s="11"/>
       <c r="J860" s="7"/>
@@ -23855,7 +23869,7 @@
       </c>
       <c r="G861" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I861" s="8"/>
       <c r="J861" s="6"/>
@@ -23882,7 +23896,7 @@
       </c>
       <c r="G862" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I862" s="11"/>
       <c r="J862" s="7"/>
@@ -23909,7 +23923,7 @@
       </c>
       <c r="G863" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I863" s="8"/>
       <c r="J863" s="6"/>
@@ -23936,7 +23950,7 @@
       </c>
       <c r="G864" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I864" s="11"/>
       <c r="J864" s="7"/>
@@ -23963,7 +23977,7 @@
       </c>
       <c r="G865" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I865" s="8"/>
       <c r="J865" s="6"/>
@@ -23990,7 +24004,7 @@
       </c>
       <c r="G866" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I866" s="11"/>
       <c r="J866" s="7"/>
@@ -24017,7 +24031,7 @@
       </c>
       <c r="G867" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I867" s="8"/>
       <c r="J867" s="6"/>
@@ -24044,7 +24058,7 @@
       </c>
       <c r="G868" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I868" s="11"/>
       <c r="J868" s="7"/>
@@ -24071,7 +24085,7 @@
       </c>
       <c r="G869" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I869" s="8"/>
       <c r="J869" s="6"/>
@@ -24098,7 +24112,7 @@
       </c>
       <c r="G870" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I870" s="11"/>
       <c r="J870" s="7"/>
@@ -24125,7 +24139,7 @@
       </c>
       <c r="G871" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I871" s="8"/>
       <c r="J871" s="6"/>
@@ -24152,7 +24166,7 @@
       </c>
       <c r="G872" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I872" s="11"/>
       <c r="J872" s="7"/>
@@ -24179,7 +24193,7 @@
       </c>
       <c r="G873" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I873" s="8"/>
       <c r="J873" s="6"/>
@@ -24206,7 +24220,7 @@
       </c>
       <c r="G874" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I874" s="11"/>
       <c r="J874" s="7"/>
@@ -24233,7 +24247,7 @@
       </c>
       <c r="G875" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I875" s="8"/>
       <c r="J875" s="6"/>
@@ -24260,7 +24274,7 @@
       </c>
       <c r="G876" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I876" s="11"/>
       <c r="J876" s="7"/>
@@ -24287,7 +24301,7 @@
       </c>
       <c r="G877" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I877" s="8"/>
       <c r="J877" s="6"/>
@@ -24314,7 +24328,7 @@
       </c>
       <c r="G878" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I878" s="11"/>
       <c r="J878" s="7"/>
@@ -24341,7 +24355,7 @@
       </c>
       <c r="G879" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="6"/>
@@ -24368,7 +24382,7 @@
       </c>
       <c r="G880" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I880" s="11"/>
       <c r="J880" s="7"/>
@@ -24395,7 +24409,7 @@
       </c>
       <c r="G881" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I881" s="8"/>
       <c r="J881" s="6"/>
@@ -24422,7 +24436,7 @@
       </c>
       <c r="G882" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I882" s="11"/>
       <c r="J882" s="7"/>
@@ -24449,7 +24463,7 @@
       </c>
       <c r="G883" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I883" s="8"/>
       <c r="J883" s="6"/>
@@ -24476,7 +24490,7 @@
       </c>
       <c r="G884" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I884" s="11"/>
       <c r="J884" s="7"/>
@@ -24503,7 +24517,7 @@
       </c>
       <c r="G885" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I885" s="8"/>
       <c r="J885" s="6"/>
@@ -24530,7 +24544,7 @@
       </c>
       <c r="G886" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I886" s="11"/>
       <c r="J886" s="7"/>
@@ -24557,7 +24571,7 @@
       </c>
       <c r="G887" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I887" s="8"/>
       <c r="J887" s="6"/>
@@ -24584,7 +24598,7 @@
       </c>
       <c r="G888" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I888" s="11"/>
       <c r="J888" s="7"/>
@@ -24611,7 +24625,7 @@
       </c>
       <c r="G889" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I889" s="8"/>
       <c r="J889" s="6"/>
@@ -24638,7 +24652,7 @@
       </c>
       <c r="G890" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I890" s="11"/>
       <c r="J890" s="7"/>
@@ -24665,7 +24679,7 @@
       </c>
       <c r="G891" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I891" s="8"/>
       <c r="J891" s="6"/>
@@ -24692,7 +24706,7 @@
       </c>
       <c r="G892" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I892" s="11"/>
       <c r="J892" s="7"/>
@@ -24719,7 +24733,7 @@
       </c>
       <c r="G893" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I893" s="8"/>
       <c r="J893" s="6"/>
@@ -24746,7 +24760,7 @@
       </c>
       <c r="G894" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I894" s="11"/>
       <c r="J894" s="7"/>
@@ -24773,7 +24787,7 @@
       </c>
       <c r="G895" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I895" s="8"/>
       <c r="J895" s="6"/>
@@ -24800,7 +24814,7 @@
       </c>
       <c r="G896" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I896" s="11"/>
       <c r="J896" s="7"/>
@@ -24827,7 +24841,7 @@
       </c>
       <c r="G897" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I897" s="8"/>
       <c r="J897" s="6"/>
@@ -24854,7 +24868,7 @@
       </c>
       <c r="G898" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I898" s="11"/>
       <c r="J898" s="7"/>
@@ -24881,7 +24895,7 @@
       </c>
       <c r="G899" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I899" s="8"/>
       <c r="J899" s="6"/>
@@ -24908,7 +24922,7 @@
       </c>
       <c r="G900" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I900" s="11"/>
       <c r="J900" s="7"/>
@@ -24935,7 +24949,7 @@
       </c>
       <c r="G901" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I901" s="8"/>
       <c r="J901" s="6"/>
@@ -24962,7 +24976,7 @@
       </c>
       <c r="G902" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I902" s="11"/>
       <c r="J902" s="7"/>
@@ -24989,7 +25003,7 @@
       </c>
       <c r="G903" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I903" s="8"/>
       <c r="J903" s="6"/>
@@ -25016,7 +25030,7 @@
       </c>
       <c r="G904" s="7">
         <f t="shared" ref="G904:G967" si="44">G903</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I904" s="11"/>
       <c r="J904" s="7"/>
@@ -25043,7 +25057,7 @@
       </c>
       <c r="G905" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I905" s="8"/>
       <c r="J905" s="6"/>
@@ -25070,7 +25084,7 @@
       </c>
       <c r="G906" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I906" s="11"/>
       <c r="J906" s="7"/>
@@ -25097,7 +25111,7 @@
       </c>
       <c r="G907" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I907" s="8"/>
       <c r="J907" s="6"/>
@@ -25124,7 +25138,7 @@
       </c>
       <c r="G908" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I908" s="11"/>
       <c r="J908" s="7"/>
@@ -25151,7 +25165,7 @@
       </c>
       <c r="G909" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I909" s="8"/>
       <c r="J909" s="6"/>
@@ -25178,7 +25192,7 @@
       </c>
       <c r="G910" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I910" s="11"/>
       <c r="J910" s="7"/>
@@ -25205,7 +25219,7 @@
       </c>
       <c r="G911" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I911" s="8"/>
       <c r="J911" s="6"/>
@@ -25232,7 +25246,7 @@
       </c>
       <c r="G912" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I912" s="11"/>
       <c r="J912" s="7"/>
@@ -25259,7 +25273,7 @@
       </c>
       <c r="G913" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I913" s="8"/>
       <c r="J913" s="6"/>
@@ -25286,7 +25300,7 @@
       </c>
       <c r="G914" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I914" s="11"/>
       <c r="J914" s="7"/>
@@ -25313,7 +25327,7 @@
       </c>
       <c r="G915" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I915" s="8"/>
       <c r="J915" s="6"/>
@@ -25340,7 +25354,7 @@
       </c>
       <c r="G916" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I916" s="11"/>
       <c r="J916" s="7"/>
@@ -25367,7 +25381,7 @@
       </c>
       <c r="G917" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I917" s="8"/>
       <c r="J917" s="6"/>
@@ -25394,7 +25408,7 @@
       </c>
       <c r="G918" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I918" s="11"/>
       <c r="J918" s="7"/>
@@ -25421,7 +25435,7 @@
       </c>
       <c r="G919" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I919" s="8"/>
       <c r="J919" s="6"/>
@@ -25448,7 +25462,7 @@
       </c>
       <c r="G920" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I920" s="11"/>
       <c r="J920" s="7"/>
@@ -25475,7 +25489,7 @@
       </c>
       <c r="G921" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I921" s="8"/>
       <c r="J921" s="6"/>
@@ -25502,7 +25516,7 @@
       </c>
       <c r="G922" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I922" s="11"/>
       <c r="J922" s="7"/>
@@ -25529,7 +25543,7 @@
       </c>
       <c r="G923" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="6"/>
@@ -25556,7 +25570,7 @@
       </c>
       <c r="G924" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I924" s="11"/>
       <c r="J924" s="7"/>
@@ -25583,7 +25597,7 @@
       </c>
       <c r="G925" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I925" s="8"/>
       <c r="J925" s="6"/>
@@ -25610,7 +25624,7 @@
       </c>
       <c r="G926" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I926" s="11"/>
       <c r="J926" s="7"/>
@@ -25637,7 +25651,7 @@
       </c>
       <c r="G927" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I927" s="8"/>
       <c r="J927" s="6"/>
@@ -25664,7 +25678,7 @@
       </c>
       <c r="G928" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I928" s="11"/>
       <c r="J928" s="7"/>
@@ -25691,7 +25705,7 @@
       </c>
       <c r="G929" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I929" s="8"/>
       <c r="J929" s="6"/>
@@ -25718,7 +25732,7 @@
       </c>
       <c r="G930" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I930" s="11"/>
       <c r="J930" s="7"/>
@@ -25745,7 +25759,7 @@
       </c>
       <c r="G931" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I931" s="8"/>
       <c r="J931" s="6"/>
@@ -25772,7 +25786,7 @@
       </c>
       <c r="G932" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I932" s="11"/>
       <c r="J932" s="7"/>
@@ -25799,7 +25813,7 @@
       </c>
       <c r="G933" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I933" s="8"/>
       <c r="J933" s="6"/>
@@ -25826,7 +25840,7 @@
       </c>
       <c r="G934" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I934" s="11"/>
       <c r="J934" s="7"/>
@@ -25853,7 +25867,7 @@
       </c>
       <c r="G935" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I935" s="8"/>
       <c r="J935" s="6"/>
@@ -25880,7 +25894,7 @@
       </c>
       <c r="G936" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I936" s="11"/>
       <c r="J936" s="7"/>
@@ -25907,7 +25921,7 @@
       </c>
       <c r="G937" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I937" s="8"/>
       <c r="J937" s="6"/>
@@ -25934,7 +25948,7 @@
       </c>
       <c r="G938" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I938" s="11"/>
       <c r="J938" s="7"/>
@@ -25961,7 +25975,7 @@
       </c>
       <c r="G939" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I939" s="8"/>
       <c r="J939" s="6"/>
@@ -25988,7 +26002,7 @@
       </c>
       <c r="G940" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I940" s="11"/>
       <c r="J940" s="7"/>
@@ -26015,7 +26029,7 @@
       </c>
       <c r="G941" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I941" s="8"/>
       <c r="J941" s="6"/>
@@ -26042,7 +26056,7 @@
       </c>
       <c r="G942" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I942" s="11"/>
       <c r="J942" s="7"/>
@@ -26069,7 +26083,7 @@
       </c>
       <c r="G943" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I943" s="8"/>
       <c r="J943" s="6"/>
@@ -26096,7 +26110,7 @@
       </c>
       <c r="G944" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I944" s="11"/>
       <c r="J944" s="7"/>
@@ -26123,7 +26137,7 @@
       </c>
       <c r="G945" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I945" s="8"/>
       <c r="J945" s="6"/>
@@ -26150,7 +26164,7 @@
       </c>
       <c r="G946" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I946" s="11"/>
       <c r="J946" s="7"/>
@@ -26177,7 +26191,7 @@
       </c>
       <c r="G947" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I947" s="8"/>
       <c r="J947" s="6"/>
@@ -26204,7 +26218,7 @@
       </c>
       <c r="G948" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I948" s="11"/>
       <c r="J948" s="7"/>
@@ -26231,7 +26245,7 @@
       </c>
       <c r="G949" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I949" s="8"/>
       <c r="J949" s="6"/>
@@ -26258,7 +26272,7 @@
       </c>
       <c r="G950" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I950" s="11"/>
       <c r="J950" s="7"/>
@@ -26285,7 +26299,7 @@
       </c>
       <c r="G951" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I951" s="8"/>
       <c r="J951" s="6"/>
@@ -26312,7 +26326,7 @@
       </c>
       <c r="G952" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I952" s="11"/>
       <c r="J952" s="7"/>
@@ -26339,7 +26353,7 @@
       </c>
       <c r="G953" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I953" s="8"/>
       <c r="J953" s="6"/>
@@ -26366,7 +26380,7 @@
       </c>
       <c r="G954" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I954" s="11"/>
       <c r="J954" s="7"/>
@@ -26393,7 +26407,7 @@
       </c>
       <c r="G955" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I955" s="8"/>
       <c r="J955" s="6"/>
@@ -26420,7 +26434,7 @@
       </c>
       <c r="G956" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I956" s="11"/>
       <c r="J956" s="7"/>
@@ -26447,7 +26461,7 @@
       </c>
       <c r="G957" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I957" s="8"/>
       <c r="J957" s="6"/>
@@ -26474,7 +26488,7 @@
       </c>
       <c r="G958" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I958" s="11"/>
       <c r="J958" s="7"/>
@@ -26501,7 +26515,7 @@
       </c>
       <c r="G959" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I959" s="8"/>
       <c r="J959" s="6"/>
@@ -26528,7 +26542,7 @@
       </c>
       <c r="G960" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I960" s="11"/>
       <c r="J960" s="7"/>
@@ -26555,7 +26569,7 @@
       </c>
       <c r="G961" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I961" s="8"/>
       <c r="J961" s="6"/>
@@ -26582,7 +26596,7 @@
       </c>
       <c r="G962" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I962" s="11"/>
       <c r="J962" s="7"/>
@@ -26609,7 +26623,7 @@
       </c>
       <c r="G963" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I963" s="8"/>
       <c r="J963" s="6"/>
@@ -26636,7 +26650,7 @@
       </c>
       <c r="G964" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I964" s="11"/>
       <c r="J964" s="7"/>
@@ -26663,7 +26677,7 @@
       </c>
       <c r="G965" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I965" s="8"/>
       <c r="J965" s="6"/>
@@ -26690,7 +26704,7 @@
       </c>
       <c r="G966" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I966" s="11"/>
       <c r="J966" s="7"/>
@@ -26717,7 +26731,7 @@
       </c>
       <c r="G967" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I967" s="8"/>
       <c r="J967" s="6"/>
@@ -26744,7 +26758,7 @@
       </c>
       <c r="G968" s="7">
         <f t="shared" ref="G968:G1000" si="47">G967</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I968" s="11"/>
       <c r="J968" s="7"/>
@@ -26771,7 +26785,7 @@
       </c>
       <c r="G969" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I969" s="8"/>
       <c r="J969" s="6"/>
@@ -26798,7 +26812,7 @@
       </c>
       <c r="G970" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I970" s="11"/>
       <c r="J970" s="7"/>
@@ -26825,7 +26839,7 @@
       </c>
       <c r="G971" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I971" s="8"/>
       <c r="J971" s="6"/>
@@ -26852,7 +26866,7 @@
       </c>
       <c r="G972" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I972" s="11"/>
       <c r="J972" s="7"/>
@@ -26879,7 +26893,7 @@
       </c>
       <c r="G973" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I973" s="8"/>
       <c r="J973" s="6"/>
@@ -26906,7 +26920,7 @@
       </c>
       <c r="G974" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I974" s="11"/>
       <c r="J974" s="7"/>
@@ -26933,7 +26947,7 @@
       </c>
       <c r="G975" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I975" s="8"/>
       <c r="J975" s="6"/>
@@ -26960,7 +26974,7 @@
       </c>
       <c r="G976" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I976" s="11"/>
       <c r="J976" s="7"/>
@@ -26987,7 +27001,7 @@
       </c>
       <c r="G977" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I977" s="8"/>
       <c r="J977" s="6"/>
@@ -27014,7 +27028,7 @@
       </c>
       <c r="G978" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I978" s="11"/>
       <c r="J978" s="7"/>
@@ -27041,7 +27055,7 @@
       </c>
       <c r="G979" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I979" s="8"/>
       <c r="J979" s="6"/>
@@ -27068,7 +27082,7 @@
       </c>
       <c r="G980" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I980" s="11"/>
       <c r="J980" s="7"/>
@@ -27095,7 +27109,7 @@
       </c>
       <c r="G981" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I981" s="8"/>
       <c r="J981" s="6"/>
@@ -27122,7 +27136,7 @@
       </c>
       <c r="G982" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I982" s="11"/>
       <c r="J982" s="7"/>
@@ -27149,7 +27163,7 @@
       </c>
       <c r="G983" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I983" s="8"/>
       <c r="J983" s="6"/>
@@ -27176,7 +27190,7 @@
       </c>
       <c r="G984" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I984" s="11"/>
       <c r="J984" s="7"/>
@@ -27203,7 +27217,7 @@
       </c>
       <c r="G985" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I985" s="8"/>
       <c r="J985" s="6"/>
@@ -27230,7 +27244,7 @@
       </c>
       <c r="G986" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I986" s="11"/>
       <c r="J986" s="7"/>
@@ -27257,7 +27271,7 @@
       </c>
       <c r="G987" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I987" s="8"/>
       <c r="J987" s="6"/>
@@ -27284,7 +27298,7 @@
       </c>
       <c r="G988" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I988" s="11"/>
       <c r="J988" s="7"/>
@@ -27311,7 +27325,7 @@
       </c>
       <c r="G989" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I989" s="8"/>
       <c r="J989" s="6"/>
@@ -27338,7 +27352,7 @@
       </c>
       <c r="G990" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I990" s="11"/>
       <c r="J990" s="7"/>
@@ -27365,7 +27379,7 @@
       </c>
       <c r="G991" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I991" s="8"/>
       <c r="J991" s="6"/>
@@ -27392,7 +27406,7 @@
       </c>
       <c r="G992" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I992" s="11"/>
       <c r="J992" s="7"/>
@@ -27419,7 +27433,7 @@
       </c>
       <c r="G993" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I993" s="8"/>
       <c r="J993" s="6"/>
@@ -27446,7 +27460,7 @@
       </c>
       <c r="G994" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I994" s="11"/>
       <c r="J994" s="7"/>
@@ -27473,7 +27487,7 @@
       </c>
       <c r="G995" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I995" s="8"/>
       <c r="J995" s="6"/>
@@ -27500,7 +27514,7 @@
       </c>
       <c r="G996" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I996" s="11"/>
       <c r="J996" s="7"/>
@@ -27527,7 +27541,7 @@
       </c>
       <c r="G997" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I997" s="8"/>
       <c r="J997" s="6"/>
@@ -27554,7 +27568,7 @@
       </c>
       <c r="G998" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I998" s="11"/>
       <c r="J998" s="7"/>
@@ -27581,7 +27595,7 @@
       </c>
       <c r="G999" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I999" s="8"/>
       <c r="J999" s="6"/>
@@ -27608,7 +27622,7 @@
       </c>
       <c r="G1000" s="7">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I1000" s="11"/>
       <c r="J1000" s="7"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="坛洛至隆安（施工图8.2）" sheetId="3" r:id="rId1"/>
+    <sheet name="DK109.524-DK139+000（2.11）(3)" sheetId="3" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>读取标记</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,38 +78,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南宁</t>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>老城</t>
+  </si>
+  <si>
+    <t>临高</t>
+  </si>
+  <si>
+    <t>D2K</t>
+  </si>
+  <si>
+    <t>新盈</t>
+  </si>
+  <si>
+    <t>洋浦</t>
+  </si>
+  <si>
+    <t>棋子湾</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>板桥</t>
+  </si>
+  <si>
+    <t>尖峰</t>
+  </si>
+  <si>
+    <t>乐东</t>
+  </si>
+  <si>
+    <t>崖城</t>
   </si>
   <si>
     <t>D1K</t>
   </si>
   <si>
-    <t>坛洛</t>
+    <t>凤凰机场</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>三亚</t>
   </si>
   <si>
-    <t>平果</t>
+    <t>K</t>
   </si>
   <si>
-    <t>田东北</t>
-  </si>
-  <si>
-    <t>田阳</t>
-  </si>
-  <si>
-    <t>百色</t>
-  </si>
-  <si>
-    <t>坛洛至隆安（施工图8.2）</t>
+    <t>DK109.524-DK139+000（2.11）(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隆安东</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -620,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -694,9 +718,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -709,7 +731,7 @@
       </c>
       <c r="E5" s="6" t="str">
         <f>I5</f>
-        <v>南宁</v>
+        <v>海口</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -734,129 +756,132 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C69" si="0">J6/1000</f>
-        <v>44.1</v>
+        <v>13.638</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ref="E6:E69" si="1">I6</f>
-        <v>坛洛</v>
+        <v>老城</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>4</v>
+        <f>G5</f>
+        <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="7">
-        <v>44100</v>
+        <v>13638</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>83.05</v>
+        <v>48.86</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>隆安东</v>
+        <v>临高</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <f>G6</f>
+        <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="6">
-        <v>83050</v>
+        <v>48860</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="7">
         <v>4</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>108.35</v>
+        <v>80.718000000000004</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>平果</v>
+        <v>新盈</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ref="G8:G71" si="2">G7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="7">
-        <v>108350</v>
+        <v>80718</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>156.5</v>
+        <v>108.89</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>田东北</v>
+        <v>洋浦</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" ref="G9:G71" si="2">G8</f>
+        <v>2</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6">
-        <v>156500</v>
+        <v>108890</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75">
@@ -866,30 +891,30 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>192.54</v>
+        <v>171.22</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>田阳</v>
+        <v>棋子湾</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7">
-        <v>192540</v>
+        <v>171220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75">
@@ -899,30 +924,30 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>223.71</v>
+        <v>215.31</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>百色</v>
+        <v>东方</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6">
-        <v>223710</v>
+        <v>215310</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75">
@@ -932,25 +957,31 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250.17</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>板桥</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7">
+        <v>250170</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="4"/>
@@ -959,25 +990,31 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>271.5</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>尖峰</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6">
+        <v>271500</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="5"/>
@@ -986,25 +1023,31 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>297.58</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>乐东</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="7">
+        <v>297580</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="18.75">
       <c r="A15" s="4"/>
@@ -1013,25 +1056,31 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>323.44</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>崖城</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6">
+        <v>323440</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="5"/>
@@ -1040,25 +1089,31 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>354.76</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>凤凰机场</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="7">
+        <v>354760</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="18.75">
       <c r="A17" s="4"/>
@@ -1067,25 +1122,31 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>363.072</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>三亚</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="6">
+        <v>363072</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="5"/>
@@ -1108,7 +1169,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -1135,7 +1196,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="6"/>
@@ -1162,7 +1223,7 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -1189,7 +1250,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -1216,7 +1277,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -1243,7 +1304,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
@@ -1270,7 +1331,7 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
@@ -1297,7 +1358,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
@@ -1324,7 +1385,7 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="7"/>
@@ -1351,7 +1412,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -1378,7 +1439,7 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
@@ -1405,7 +1466,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
@@ -1432,7 +1493,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="7"/>
@@ -1459,7 +1520,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
@@ -1486,7 +1547,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="7"/>
@@ -1513,7 +1574,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
@@ -1540,7 +1601,7 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
@@ -1567,7 +1628,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
@@ -1594,7 +1655,7 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="7"/>
@@ -1621,7 +1682,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
@@ -1648,7 +1709,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="7"/>
@@ -1675,7 +1736,7 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="6"/>
@@ -1702,7 +1763,7 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="7"/>
@@ -1729,7 +1790,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
@@ -1756,7 +1817,7 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="7"/>
@@ -1783,7 +1844,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6"/>
@@ -1810,7 +1871,7 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="7"/>
@@ -1837,7 +1898,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="6"/>
@@ -1864,7 +1925,7 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="7"/>
@@ -1891,7 +1952,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
@@ -1918,7 +1979,7 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="7"/>
@@ -1945,7 +2006,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="6"/>
@@ -1972,7 +2033,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="7"/>
@@ -1999,7 +2060,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="6"/>
@@ -2026,7 +2087,7 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="7"/>
@@ -2053,7 +2114,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
@@ -2080,7 +2141,7 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="7"/>
@@ -2107,7 +2168,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="6"/>
@@ -2134,7 +2195,7 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="7"/>
@@ -2161,7 +2222,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="6"/>
@@ -2188,7 +2249,7 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="7"/>
@@ -2215,7 +2276,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="6"/>
@@ -2242,7 +2303,7 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
@@ -2269,7 +2330,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="6"/>
@@ -2296,7 +2357,7 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
@@ -2323,7 +2384,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="6"/>
@@ -2350,7 +2411,7 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="7"/>
@@ -2377,7 +2438,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="6"/>
@@ -2404,7 +2465,7 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="7"/>
@@ -2431,7 +2492,7 @@
       </c>
       <c r="G67" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="6"/>
@@ -2458,7 +2519,7 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="7"/>
@@ -2485,7 +2546,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="6"/>
@@ -2512,7 +2573,7 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="7"/>
@@ -2539,7 +2600,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="6"/>
@@ -2566,7 +2627,7 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" ref="G72:G135" si="5">G71</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="7"/>
@@ -2593,7 +2654,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="6"/>
@@ -2620,7 +2681,7 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="7"/>
@@ -2647,7 +2708,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="6"/>
@@ -2674,7 +2735,7 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="7"/>
@@ -2701,7 +2762,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="6"/>
@@ -2728,7 +2789,7 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="7"/>
@@ -2755,7 +2816,7 @@
       </c>
       <c r="G79" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="6"/>
@@ -2782,7 +2843,7 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="7"/>
@@ -2809,7 +2870,7 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="6"/>
@@ -2836,7 +2897,7 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="7"/>
@@ -2863,7 +2924,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="6"/>
@@ -2890,7 +2951,7 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="7"/>
@@ -2917,7 +2978,7 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="6"/>
@@ -2944,7 +3005,7 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="7"/>
@@ -2971,7 +3032,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="6"/>
@@ -2998,7 +3059,7 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="7"/>
@@ -3025,7 +3086,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="6"/>
@@ -3052,7 +3113,7 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="7"/>
@@ -3079,7 +3140,7 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="6"/>
@@ -3106,7 +3167,7 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="7"/>
@@ -3133,7 +3194,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="6"/>
@@ -3160,7 +3221,7 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="7"/>
@@ -3187,7 +3248,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="6"/>
@@ -3214,7 +3275,7 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="7"/>
@@ -3241,7 +3302,7 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="6"/>
@@ -3268,7 +3329,7 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="7"/>
@@ -3295,7 +3356,7 @@
       </c>
       <c r="G99" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="6"/>
@@ -3322,7 +3383,7 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="7"/>
@@ -3349,7 +3410,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="6"/>
@@ -3376,7 +3437,7 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="7"/>
@@ -3403,7 +3464,7 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="6"/>
@@ -3430,7 +3491,7 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="7"/>
@@ -3457,7 +3518,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="6"/>
@@ -3484,7 +3545,7 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="7"/>
@@ -3511,7 +3572,7 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="6"/>
@@ -3538,7 +3599,7 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="7"/>
@@ -3565,7 +3626,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="6"/>
@@ -3592,7 +3653,7 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="7"/>
@@ -3619,7 +3680,7 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="6"/>
@@ -3646,7 +3707,7 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="7"/>
@@ -3673,7 +3734,7 @@
       </c>
       <c r="G113" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="6"/>
@@ -3700,7 +3761,7 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="7"/>
@@ -3727,7 +3788,7 @@
       </c>
       <c r="G115" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="6"/>
@@ -3754,7 +3815,7 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="7"/>
@@ -3781,7 +3842,7 @@
       </c>
       <c r="G117" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="6"/>
@@ -3808,7 +3869,7 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="7"/>
@@ -3835,7 +3896,7 @@
       </c>
       <c r="G119" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="6"/>
@@ -3862,7 +3923,7 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="7"/>
@@ -3889,7 +3950,7 @@
       </c>
       <c r="G121" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="6"/>
@@ -3916,7 +3977,7 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="7"/>
@@ -3943,7 +4004,7 @@
       </c>
       <c r="G123" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="6"/>
@@ -3970,7 +4031,7 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="7"/>
@@ -3997,7 +4058,7 @@
       </c>
       <c r="G125" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="6"/>
@@ -4024,7 +4085,7 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="7"/>
@@ -4051,7 +4112,7 @@
       </c>
       <c r="G127" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="6"/>
@@ -4078,7 +4139,7 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="7"/>
@@ -4105,7 +4166,7 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="6"/>
@@ -4132,7 +4193,7 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130" s="11"/>
       <c r="J130" s="7"/>
@@ -4159,7 +4220,7 @@
       </c>
       <c r="G131" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="6"/>
@@ -4186,7 +4247,7 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="7"/>
@@ -4213,7 +4274,7 @@
       </c>
       <c r="G133" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="6"/>
@@ -4240,7 +4301,7 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I134" s="11"/>
       <c r="J134" s="7"/>
@@ -4267,7 +4328,7 @@
       </c>
       <c r="G135" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="6"/>
@@ -4294,7 +4355,7 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" ref="G136:G199" si="8">G135</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="7"/>
@@ -4321,7 +4382,7 @@
       </c>
       <c r="G137" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="6"/>
@@ -4348,7 +4409,7 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="7"/>
@@ -4375,7 +4436,7 @@
       </c>
       <c r="G139" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="6"/>
@@ -4402,7 +4463,7 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="7"/>
@@ -4429,7 +4490,7 @@
       </c>
       <c r="G141" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="6"/>
@@ -4456,7 +4517,7 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="7"/>
@@ -4483,7 +4544,7 @@
       </c>
       <c r="G143" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="6"/>
@@ -4510,7 +4571,7 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="7"/>
@@ -4537,7 +4598,7 @@
       </c>
       <c r="G145" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="6"/>
@@ -4564,7 +4625,7 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="7"/>
@@ -4591,7 +4652,7 @@
       </c>
       <c r="G147" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="6"/>
@@ -4618,7 +4679,7 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="7"/>
@@ -4645,7 +4706,7 @@
       </c>
       <c r="G149" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="6"/>
@@ -4672,7 +4733,7 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="7"/>
@@ -4699,7 +4760,7 @@
       </c>
       <c r="G151" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="6"/>
@@ -4726,7 +4787,7 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="7"/>
@@ -4753,7 +4814,7 @@
       </c>
       <c r="G153" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="6"/>
@@ -4780,7 +4841,7 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="7"/>
@@ -4807,7 +4868,7 @@
       </c>
       <c r="G155" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="6"/>
@@ -4834,7 +4895,7 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="7"/>
@@ -4861,7 +4922,7 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="6"/>
@@ -4888,7 +4949,7 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="7"/>
@@ -4915,7 +4976,7 @@
       </c>
       <c r="G159" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="6"/>
@@ -4942,7 +5003,7 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="7"/>
@@ -4969,7 +5030,7 @@
       </c>
       <c r="G161" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="6"/>
@@ -4996,7 +5057,7 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="7"/>
@@ -5023,7 +5084,7 @@
       </c>
       <c r="G163" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
@@ -5050,7 +5111,7 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I164" s="11"/>
       <c r="J164" s="7"/>
@@ -5077,7 +5138,7 @@
       </c>
       <c r="G165" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
@@ -5104,7 +5165,7 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I166" s="11"/>
       <c r="J166" s="7"/>
@@ -5131,7 +5192,7 @@
       </c>
       <c r="G167" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="6"/>
@@ -5158,7 +5219,7 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="7"/>
@@ -5185,7 +5246,7 @@
       </c>
       <c r="G169" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="6"/>
@@ -5212,7 +5273,7 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I170" s="11"/>
       <c r="J170" s="7"/>
@@ -5239,7 +5300,7 @@
       </c>
       <c r="G171" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="6"/>
@@ -5266,7 +5327,7 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="7"/>
@@ -5293,7 +5354,7 @@
       </c>
       <c r="G173" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="6"/>
@@ -5320,7 +5381,7 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="7"/>
@@ -5347,7 +5408,7 @@
       </c>
       <c r="G175" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="6"/>
@@ -5374,7 +5435,7 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="7"/>
@@ -5401,7 +5462,7 @@
       </c>
       <c r="G177" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="6"/>
@@ -5428,7 +5489,7 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="7"/>
@@ -5455,7 +5516,7 @@
       </c>
       <c r="G179" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="6"/>
@@ -5482,7 +5543,7 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I180" s="11"/>
       <c r="J180" s="7"/>
@@ -5509,7 +5570,7 @@
       </c>
       <c r="G181" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="6"/>
@@ -5536,7 +5597,7 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I182" s="11"/>
       <c r="J182" s="7"/>
@@ -5563,7 +5624,7 @@
       </c>
       <c r="G183" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="6"/>
@@ -5590,7 +5651,7 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="7"/>
@@ -5617,7 +5678,7 @@
       </c>
       <c r="G185" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="6"/>
@@ -5644,7 +5705,7 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I186" s="11"/>
       <c r="J186" s="7"/>
@@ -5671,7 +5732,7 @@
       </c>
       <c r="G187" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="6"/>
@@ -5698,7 +5759,7 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I188" s="11"/>
       <c r="J188" s="7"/>
@@ -5725,7 +5786,7 @@
       </c>
       <c r="G189" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I189" s="8"/>
       <c r="J189" s="6"/>
@@ -5752,7 +5813,7 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="7"/>
@@ -5779,7 +5840,7 @@
       </c>
       <c r="G191" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="6"/>
@@ -5806,7 +5867,7 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="7"/>
@@ -5833,7 +5894,7 @@
       </c>
       <c r="G193" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="6"/>
@@ -5860,7 +5921,7 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="7"/>
@@ -5887,7 +5948,7 @@
       </c>
       <c r="G195" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="6"/>
@@ -5914,7 +5975,7 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I196" s="11"/>
       <c r="J196" s="7"/>
@@ -5941,7 +6002,7 @@
       </c>
       <c r="G197" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="6"/>
@@ -5968,7 +6029,7 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="7"/>
@@ -5995,7 +6056,7 @@
       </c>
       <c r="G199" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="6"/>
@@ -6022,7 +6083,7 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" ref="G200:G263" si="11">G199</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I200" s="11"/>
       <c r="J200" s="7"/>
@@ -6049,7 +6110,7 @@
       </c>
       <c r="G201" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="6"/>
@@ -6076,7 +6137,7 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I202" s="11"/>
       <c r="J202" s="7"/>
@@ -6103,7 +6164,7 @@
       </c>
       <c r="G203" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="6"/>
@@ -6130,7 +6191,7 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="7"/>
@@ -6157,7 +6218,7 @@
       </c>
       <c r="G205" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="6"/>
@@ -6184,7 +6245,7 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I206" s="11"/>
       <c r="J206" s="7"/>
@@ -6211,7 +6272,7 @@
       </c>
       <c r="G207" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="6"/>
@@ -6238,7 +6299,7 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="7"/>
@@ -6265,7 +6326,7 @@
       </c>
       <c r="G209" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="6"/>
@@ -6292,7 +6353,7 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="7"/>
@@ -6319,7 +6380,7 @@
       </c>
       <c r="G211" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="6"/>
@@ -6346,7 +6407,7 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I212" s="11"/>
       <c r="J212" s="7"/>
@@ -6373,7 +6434,7 @@
       </c>
       <c r="G213" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="6"/>
@@ -6400,7 +6461,7 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="7"/>
@@ -6427,7 +6488,7 @@
       </c>
       <c r="G215" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="6"/>
@@ -6454,7 +6515,7 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I216" s="11"/>
       <c r="J216" s="7"/>
@@ -6481,7 +6542,7 @@
       </c>
       <c r="G217" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="6"/>
@@ -6508,7 +6569,7 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I218" s="11"/>
       <c r="J218" s="7"/>
@@ -6535,7 +6596,7 @@
       </c>
       <c r="G219" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I219" s="8"/>
       <c r="J219" s="6"/>
@@ -6562,7 +6623,7 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I220" s="11"/>
       <c r="J220" s="7"/>
@@ -6589,7 +6650,7 @@
       </c>
       <c r="G221" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="6"/>
@@ -6616,7 +6677,7 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="7"/>
@@ -6643,7 +6704,7 @@
       </c>
       <c r="G223" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="6"/>
@@ -6670,7 +6731,7 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="7"/>
@@ -6697,7 +6758,7 @@
       </c>
       <c r="G225" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I225" s="8"/>
       <c r="J225" s="6"/>
@@ -6724,7 +6785,7 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I226" s="11"/>
       <c r="J226" s="7"/>
@@ -6751,7 +6812,7 @@
       </c>
       <c r="G227" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="6"/>
@@ -6778,7 +6839,7 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I228" s="11"/>
       <c r="J228" s="7"/>
@@ -6805,7 +6866,7 @@
       </c>
       <c r="G229" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I229" s="8"/>
       <c r="J229" s="6"/>
@@ -6832,7 +6893,7 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I230" s="11"/>
       <c r="J230" s="7"/>
@@ -6859,7 +6920,7 @@
       </c>
       <c r="G231" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I231" s="8"/>
       <c r="J231" s="6"/>
@@ -6886,7 +6947,7 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I232" s="11"/>
       <c r="J232" s="7"/>
@@ -6913,7 +6974,7 @@
       </c>
       <c r="G233" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="6"/>
@@ -6940,7 +7001,7 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I234" s="11"/>
       <c r="J234" s="7"/>
@@ -6967,7 +7028,7 @@
       </c>
       <c r="G235" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="6"/>
@@ -6994,7 +7055,7 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I236" s="11"/>
       <c r="J236" s="7"/>
@@ -7021,7 +7082,7 @@
       </c>
       <c r="G237" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="6"/>
@@ -7048,7 +7109,7 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I238" s="11"/>
       <c r="J238" s="7"/>
@@ -7075,7 +7136,7 @@
       </c>
       <c r="G239" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="6"/>
@@ -7102,7 +7163,7 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I240" s="11"/>
       <c r="J240" s="7"/>
@@ -7129,7 +7190,7 @@
       </c>
       <c r="G241" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I241" s="8"/>
       <c r="J241" s="6"/>
@@ -7156,7 +7217,7 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I242" s="11"/>
       <c r="J242" s="7"/>
@@ -7183,7 +7244,7 @@
       </c>
       <c r="G243" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I243" s="8"/>
       <c r="J243" s="6"/>
@@ -7210,7 +7271,7 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I244" s="11"/>
       <c r="J244" s="7"/>
@@ -7237,7 +7298,7 @@
       </c>
       <c r="G245" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I245" s="8"/>
       <c r="J245" s="6"/>
@@ -7264,7 +7325,7 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I246" s="11"/>
       <c r="J246" s="7"/>
@@ -7291,7 +7352,7 @@
       </c>
       <c r="G247" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I247" s="8"/>
       <c r="J247" s="6"/>
@@ -7318,7 +7379,7 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I248" s="11"/>
       <c r="J248" s="7"/>
@@ -7345,7 +7406,7 @@
       </c>
       <c r="G249" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I249" s="8"/>
       <c r="J249" s="6"/>
@@ -7372,7 +7433,7 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I250" s="11"/>
       <c r="J250" s="7"/>
@@ -7399,7 +7460,7 @@
       </c>
       <c r="G251" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I251" s="8"/>
       <c r="J251" s="6"/>
@@ -7426,7 +7487,7 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I252" s="11"/>
       <c r="J252" s="7"/>
@@ -7453,7 +7514,7 @@
       </c>
       <c r="G253" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I253" s="8"/>
       <c r="J253" s="6"/>
@@ -7480,7 +7541,7 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I254" s="11"/>
       <c r="J254" s="7"/>
@@ -7507,7 +7568,7 @@
       </c>
       <c r="G255" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I255" s="8"/>
       <c r="J255" s="6"/>
@@ -7534,7 +7595,7 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I256" s="11"/>
       <c r="J256" s="7"/>
@@ -7561,7 +7622,7 @@
       </c>
       <c r="G257" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I257" s="8"/>
       <c r="J257" s="6"/>
@@ -7588,7 +7649,7 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I258" s="11"/>
       <c r="J258" s="7"/>
@@ -7615,7 +7676,7 @@
       </c>
       <c r="G259" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I259" s="8"/>
       <c r="J259" s="6"/>
@@ -7642,7 +7703,7 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I260" s="11"/>
       <c r="J260" s="7"/>
@@ -7669,7 +7730,7 @@
       </c>
       <c r="G261" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="6"/>
@@ -7696,7 +7757,7 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="7"/>
@@ -7723,7 +7784,7 @@
       </c>
       <c r="G263" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I263" s="8"/>
       <c r="J263" s="6"/>
@@ -7750,7 +7811,7 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" ref="G264:G327" si="14">G263</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I264" s="11"/>
       <c r="J264" s="7"/>
@@ -7777,7 +7838,7 @@
       </c>
       <c r="G265" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I265" s="8"/>
       <c r="J265" s="6"/>
@@ -7804,7 +7865,7 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="7"/>
@@ -7831,7 +7892,7 @@
       </c>
       <c r="G267" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I267" s="8"/>
       <c r="J267" s="6"/>
@@ -7858,7 +7919,7 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I268" s="11"/>
       <c r="J268" s="7"/>
@@ -7885,7 +7946,7 @@
       </c>
       <c r="G269" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I269" s="8"/>
       <c r="J269" s="6"/>
@@ -7912,7 +7973,7 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I270" s="11"/>
       <c r="J270" s="7"/>
@@ -7939,7 +8000,7 @@
       </c>
       <c r="G271" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I271" s="8"/>
       <c r="J271" s="6"/>
@@ -7966,7 +8027,7 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I272" s="11"/>
       <c r="J272" s="7"/>
@@ -7993,7 +8054,7 @@
       </c>
       <c r="G273" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I273" s="8"/>
       <c r="J273" s="6"/>
@@ -8020,7 +8081,7 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I274" s="11"/>
       <c r="J274" s="7"/>
@@ -8047,7 +8108,7 @@
       </c>
       <c r="G275" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="6"/>
@@ -8074,7 +8135,7 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I276" s="11"/>
       <c r="J276" s="7"/>
@@ -8101,7 +8162,7 @@
       </c>
       <c r="G277" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I277" s="8"/>
       <c r="J277" s="6"/>
@@ -8128,7 +8189,7 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I278" s="11"/>
       <c r="J278" s="7"/>
@@ -8155,7 +8216,7 @@
       </c>
       <c r="G279" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I279" s="8"/>
       <c r="J279" s="6"/>
@@ -8182,7 +8243,7 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I280" s="11"/>
       <c r="J280" s="7"/>
@@ -8209,7 +8270,7 @@
       </c>
       <c r="G281" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I281" s="8"/>
       <c r="J281" s="6"/>
@@ -8236,7 +8297,7 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I282" s="11"/>
       <c r="J282" s="7"/>
@@ -8263,7 +8324,7 @@
       </c>
       <c r="G283" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I283" s="8"/>
       <c r="J283" s="6"/>
@@ -8290,7 +8351,7 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I284" s="11"/>
       <c r="J284" s="7"/>
@@ -8317,7 +8378,7 @@
       </c>
       <c r="G285" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I285" s="8"/>
       <c r="J285" s="6"/>
@@ -8344,7 +8405,7 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I286" s="11"/>
       <c r="J286" s="7"/>
@@ -8371,7 +8432,7 @@
       </c>
       <c r="G287" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I287" s="8"/>
       <c r="J287" s="6"/>
@@ -8398,7 +8459,7 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I288" s="11"/>
       <c r="J288" s="7"/>
@@ -8425,7 +8486,7 @@
       </c>
       <c r="G289" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="6"/>
@@ -8452,7 +8513,7 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I290" s="11"/>
       <c r="J290" s="7"/>
@@ -8479,7 +8540,7 @@
       </c>
       <c r="G291" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I291" s="8"/>
       <c r="J291" s="6"/>
@@ -8506,7 +8567,7 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I292" s="11"/>
       <c r="J292" s="7"/>
@@ -8533,7 +8594,7 @@
       </c>
       <c r="G293" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I293" s="8"/>
       <c r="J293" s="6"/>
@@ -8560,7 +8621,7 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I294" s="11"/>
       <c r="J294" s="7"/>
@@ -8587,7 +8648,7 @@
       </c>
       <c r="G295" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I295" s="8"/>
       <c r="J295" s="6"/>
@@ -8614,7 +8675,7 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I296" s="11"/>
       <c r="J296" s="7"/>
@@ -8641,7 +8702,7 @@
       </c>
       <c r="G297" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I297" s="8"/>
       <c r="J297" s="6"/>
@@ -8668,7 +8729,7 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I298" s="11"/>
       <c r="J298" s="7"/>
@@ -8695,7 +8756,7 @@
       </c>
       <c r="G299" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I299" s="8"/>
       <c r="J299" s="6"/>
@@ -8722,7 +8783,7 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I300" s="11"/>
       <c r="J300" s="7"/>
@@ -8749,7 +8810,7 @@
       </c>
       <c r="G301" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="6"/>
@@ -8776,7 +8837,7 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I302" s="11"/>
       <c r="J302" s="7"/>
@@ -8803,7 +8864,7 @@
       </c>
       <c r="G303" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I303" s="8"/>
       <c r="J303" s="6"/>
@@ -8830,7 +8891,7 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I304" s="11"/>
       <c r="J304" s="7"/>
@@ -8857,7 +8918,7 @@
       </c>
       <c r="G305" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I305" s="8"/>
       <c r="J305" s="6"/>
@@ -8884,7 +8945,7 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I306" s="11"/>
       <c r="J306" s="7"/>
@@ -8911,7 +8972,7 @@
       </c>
       <c r="G307" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I307" s="8"/>
       <c r="J307" s="6"/>
@@ -8938,7 +8999,7 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I308" s="11"/>
       <c r="J308" s="7"/>
@@ -8965,7 +9026,7 @@
       </c>
       <c r="G309" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I309" s="8"/>
       <c r="J309" s="6"/>
@@ -8992,7 +9053,7 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I310" s="11"/>
       <c r="J310" s="7"/>
@@ -9019,7 +9080,7 @@
       </c>
       <c r="G311" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I311" s="8"/>
       <c r="J311" s="6"/>
@@ -9046,7 +9107,7 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I312" s="11"/>
       <c r="J312" s="7"/>
@@ -9073,7 +9134,7 @@
       </c>
       <c r="G313" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I313" s="8"/>
       <c r="J313" s="6"/>
@@ -9100,7 +9161,7 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I314" s="11"/>
       <c r="J314" s="7"/>
@@ -9127,7 +9188,7 @@
       </c>
       <c r="G315" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I315" s="8"/>
       <c r="J315" s="6"/>
@@ -9154,7 +9215,7 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I316" s="11"/>
       <c r="J316" s="7"/>
@@ -9181,7 +9242,7 @@
       </c>
       <c r="G317" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I317" s="8"/>
       <c r="J317" s="6"/>
@@ -9208,7 +9269,7 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I318" s="11"/>
       <c r="J318" s="7"/>
@@ -9235,7 +9296,7 @@
       </c>
       <c r="G319" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I319" s="8"/>
       <c r="J319" s="6"/>
@@ -9262,7 +9323,7 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I320" s="11"/>
       <c r="J320" s="7"/>
@@ -9289,7 +9350,7 @@
       </c>
       <c r="G321" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I321" s="8"/>
       <c r="J321" s="6"/>
@@ -9316,7 +9377,7 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I322" s="11"/>
       <c r="J322" s="7"/>
@@ -9343,7 +9404,7 @@
       </c>
       <c r="G323" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I323" s="8"/>
       <c r="J323" s="6"/>
@@ -9370,7 +9431,7 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="7"/>
@@ -9397,7 +9458,7 @@
       </c>
       <c r="G325" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I325" s="8"/>
       <c r="J325" s="6"/>
@@ -9424,7 +9485,7 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I326" s="11"/>
       <c r="J326" s="7"/>
@@ -9451,7 +9512,7 @@
       </c>
       <c r="G327" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I327" s="8"/>
       <c r="J327" s="6"/>
@@ -9478,7 +9539,7 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" ref="G328:G391" si="17">G327</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I328" s="11"/>
       <c r="J328" s="7"/>
@@ -9505,7 +9566,7 @@
       </c>
       <c r="G329" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I329" s="8"/>
       <c r="J329" s="6"/>
@@ -9532,7 +9593,7 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I330" s="11"/>
       <c r="J330" s="7"/>
@@ -9559,7 +9620,7 @@
       </c>
       <c r="G331" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I331" s="8"/>
       <c r="J331" s="6"/>
@@ -9586,7 +9647,7 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I332" s="11"/>
       <c r="J332" s="7"/>
@@ -9613,7 +9674,7 @@
       </c>
       <c r="G333" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I333" s="8"/>
       <c r="J333" s="6"/>
@@ -9640,7 +9701,7 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I334" s="11"/>
       <c r="J334" s="7"/>
@@ -9667,7 +9728,7 @@
       </c>
       <c r="G335" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I335" s="8"/>
       <c r="J335" s="6"/>
@@ -9694,7 +9755,7 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I336" s="11"/>
       <c r="J336" s="7"/>
@@ -9721,7 +9782,7 @@
       </c>
       <c r="G337" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I337" s="8"/>
       <c r="J337" s="6"/>
@@ -9748,7 +9809,7 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I338" s="11"/>
       <c r="J338" s="7"/>
@@ -9775,7 +9836,7 @@
       </c>
       <c r="G339" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I339" s="8"/>
       <c r="J339" s="6"/>
@@ -9802,7 +9863,7 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I340" s="11"/>
       <c r="J340" s="7"/>
@@ -9829,7 +9890,7 @@
       </c>
       <c r="G341" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I341" s="8"/>
       <c r="J341" s="6"/>
@@ -9856,7 +9917,7 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I342" s="11"/>
       <c r="J342" s="7"/>
@@ -9883,7 +9944,7 @@
       </c>
       <c r="G343" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I343" s="8"/>
       <c r="J343" s="6"/>
@@ -9910,7 +9971,7 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I344" s="11"/>
       <c r="J344" s="7"/>
@@ -9937,7 +9998,7 @@
       </c>
       <c r="G345" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I345" s="8"/>
       <c r="J345" s="6"/>
@@ -9964,7 +10025,7 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I346" s="11"/>
       <c r="J346" s="7"/>
@@ -9991,7 +10052,7 @@
       </c>
       <c r="G347" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I347" s="8"/>
       <c r="J347" s="6"/>
@@ -10018,7 +10079,7 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I348" s="11"/>
       <c r="J348" s="7"/>
@@ -10045,7 +10106,7 @@
       </c>
       <c r="G349" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I349" s="8"/>
       <c r="J349" s="6"/>
@@ -10072,7 +10133,7 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I350" s="11"/>
       <c r="J350" s="7"/>
@@ -10099,7 +10160,7 @@
       </c>
       <c r="G351" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I351" s="8"/>
       <c r="J351" s="6"/>
@@ -10126,7 +10187,7 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I352" s="11"/>
       <c r="J352" s="7"/>
@@ -10153,7 +10214,7 @@
       </c>
       <c r="G353" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I353" s="8"/>
       <c r="J353" s="6"/>
@@ -10180,7 +10241,7 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I354" s="11"/>
       <c r="J354" s="7"/>
@@ -10207,7 +10268,7 @@
       </c>
       <c r="G355" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I355" s="8"/>
       <c r="J355" s="6"/>
@@ -10234,7 +10295,7 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I356" s="11"/>
       <c r="J356" s="7"/>
@@ -10261,7 +10322,7 @@
       </c>
       <c r="G357" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I357" s="8"/>
       <c r="J357" s="6"/>
@@ -10288,7 +10349,7 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I358" s="11"/>
       <c r="J358" s="7"/>
@@ -10315,7 +10376,7 @@
       </c>
       <c r="G359" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="6"/>
@@ -10342,7 +10403,7 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I360" s="11"/>
       <c r="J360" s="7"/>
@@ -10369,7 +10430,7 @@
       </c>
       <c r="G361" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I361" s="8"/>
       <c r="J361" s="6"/>
@@ -10396,7 +10457,7 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I362" s="11"/>
       <c r="J362" s="7"/>
@@ -10423,7 +10484,7 @@
       </c>
       <c r="G363" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I363" s="8"/>
       <c r="J363" s="6"/>
@@ -10450,7 +10511,7 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I364" s="11"/>
       <c r="J364" s="7"/>
@@ -10477,7 +10538,7 @@
       </c>
       <c r="G365" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I365" s="8"/>
       <c r="J365" s="6"/>
@@ -10504,7 +10565,7 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I366" s="11"/>
       <c r="J366" s="7"/>
@@ -10531,7 +10592,7 @@
       </c>
       <c r="G367" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I367" s="8"/>
       <c r="J367" s="6"/>
@@ -10558,7 +10619,7 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I368" s="11"/>
       <c r="J368" s="7"/>
@@ -10585,7 +10646,7 @@
       </c>
       <c r="G369" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I369" s="8"/>
       <c r="J369" s="6"/>
@@ -10612,7 +10673,7 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I370" s="11"/>
       <c r="J370" s="7"/>
@@ -10639,7 +10700,7 @@
       </c>
       <c r="G371" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I371" s="8"/>
       <c r="J371" s="6"/>
@@ -10666,7 +10727,7 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I372" s="11"/>
       <c r="J372" s="7"/>
@@ -10693,7 +10754,7 @@
       </c>
       <c r="G373" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I373" s="8"/>
       <c r="J373" s="6"/>
@@ -10720,7 +10781,7 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I374" s="11"/>
       <c r="J374" s="7"/>
@@ -10747,7 +10808,7 @@
       </c>
       <c r="G375" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I375" s="8"/>
       <c r="J375" s="6"/>
@@ -10774,7 +10835,7 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I376" s="11"/>
       <c r="J376" s="7"/>
@@ -10801,7 +10862,7 @@
       </c>
       <c r="G377" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I377" s="8"/>
       <c r="J377" s="6"/>
@@ -10828,7 +10889,7 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I378" s="11"/>
       <c r="J378" s="7"/>
@@ -10855,7 +10916,7 @@
       </c>
       <c r="G379" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I379" s="8"/>
       <c r="J379" s="6"/>
@@ -10882,7 +10943,7 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I380" s="11"/>
       <c r="J380" s="7"/>
@@ -10909,7 +10970,7 @@
       </c>
       <c r="G381" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I381" s="8"/>
       <c r="J381" s="6"/>
@@ -10936,7 +10997,7 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="7"/>
@@ -10963,7 +11024,7 @@
       </c>
       <c r="G383" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I383" s="8"/>
       <c r="J383" s="6"/>
@@ -10990,7 +11051,7 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I384" s="11"/>
       <c r="J384" s="7"/>
@@ -11017,7 +11078,7 @@
       </c>
       <c r="G385" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I385" s="8"/>
       <c r="J385" s="6"/>
@@ -11044,7 +11105,7 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I386" s="11"/>
       <c r="J386" s="7"/>
@@ -11071,7 +11132,7 @@
       </c>
       <c r="G387" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I387" s="8"/>
       <c r="J387" s="6"/>
@@ -11098,7 +11159,7 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I388" s="11"/>
       <c r="J388" s="7"/>
@@ -11125,7 +11186,7 @@
       </c>
       <c r="G389" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I389" s="8"/>
       <c r="J389" s="6"/>
@@ -11152,7 +11213,7 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I390" s="11"/>
       <c r="J390" s="7"/>
@@ -11179,7 +11240,7 @@
       </c>
       <c r="G391" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I391" s="8"/>
       <c r="J391" s="6"/>
@@ -11206,7 +11267,7 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" ref="G392:G455" si="20">G391</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I392" s="11"/>
       <c r="J392" s="7"/>
@@ -11233,7 +11294,7 @@
       </c>
       <c r="G393" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I393" s="8"/>
       <c r="J393" s="6"/>
@@ -11260,7 +11321,7 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I394" s="11"/>
       <c r="J394" s="7"/>
@@ -11287,7 +11348,7 @@
       </c>
       <c r="G395" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I395" s="8"/>
       <c r="J395" s="6"/>
@@ -11314,7 +11375,7 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I396" s="11"/>
       <c r="J396" s="7"/>
@@ -11341,7 +11402,7 @@
       </c>
       <c r="G397" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I397" s="8"/>
       <c r="J397" s="6"/>
@@ -11368,7 +11429,7 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I398" s="11"/>
       <c r="J398" s="7"/>
@@ -11395,7 +11456,7 @@
       </c>
       <c r="G399" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I399" s="8"/>
       <c r="J399" s="6"/>
@@ -11422,7 +11483,7 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I400" s="11"/>
       <c r="J400" s="7"/>
@@ -11449,7 +11510,7 @@
       </c>
       <c r="G401" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I401" s="8"/>
       <c r="J401" s="6"/>
@@ -11476,7 +11537,7 @@
       </c>
       <c r="G402" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I402" s="11"/>
       <c r="J402" s="7"/>
@@ -11503,7 +11564,7 @@
       </c>
       <c r="G403" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I403" s="8"/>
       <c r="J403" s="6"/>
@@ -11530,7 +11591,7 @@
       </c>
       <c r="G404" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I404" s="11"/>
       <c r="J404" s="7"/>
@@ -11557,7 +11618,7 @@
       </c>
       <c r="G405" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I405" s="8"/>
       <c r="J405" s="6"/>
@@ -11584,7 +11645,7 @@
       </c>
       <c r="G406" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I406" s="11"/>
       <c r="J406" s="7"/>
@@ -11611,7 +11672,7 @@
       </c>
       <c r="G407" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I407" s="8"/>
       <c r="J407" s="6"/>
@@ -11638,7 +11699,7 @@
       </c>
       <c r="G408" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I408" s="11"/>
       <c r="J408" s="7"/>
@@ -11665,7 +11726,7 @@
       </c>
       <c r="G409" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I409" s="8"/>
       <c r="J409" s="6"/>
@@ -11692,7 +11753,7 @@
       </c>
       <c r="G410" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I410" s="11"/>
       <c r="J410" s="7"/>
@@ -11719,7 +11780,7 @@
       </c>
       <c r="G411" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I411" s="8"/>
       <c r="J411" s="6"/>
@@ -11746,7 +11807,7 @@
       </c>
       <c r="G412" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I412" s="11"/>
       <c r="J412" s="7"/>
@@ -11773,7 +11834,7 @@
       </c>
       <c r="G413" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I413" s="8"/>
       <c r="J413" s="6"/>
@@ -11800,7 +11861,7 @@
       </c>
       <c r="G414" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I414" s="11"/>
       <c r="J414" s="7"/>
@@ -11827,7 +11888,7 @@
       </c>
       <c r="G415" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I415" s="8"/>
       <c r="J415" s="6"/>
@@ -11854,7 +11915,7 @@
       </c>
       <c r="G416" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I416" s="11"/>
       <c r="J416" s="7"/>
@@ -11881,7 +11942,7 @@
       </c>
       <c r="G417" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I417" s="8"/>
       <c r="J417" s="6"/>
@@ -11908,7 +11969,7 @@
       </c>
       <c r="G418" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I418" s="11"/>
       <c r="J418" s="7"/>
@@ -11935,7 +11996,7 @@
       </c>
       <c r="G419" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I419" s="8"/>
       <c r="J419" s="6"/>
@@ -11962,7 +12023,7 @@
       </c>
       <c r="G420" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I420" s="11"/>
       <c r="J420" s="7"/>
@@ -11989,7 +12050,7 @@
       </c>
       <c r="G421" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I421" s="8"/>
       <c r="J421" s="6"/>
@@ -12016,7 +12077,7 @@
       </c>
       <c r="G422" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I422" s="11"/>
       <c r="J422" s="7"/>
@@ -12043,7 +12104,7 @@
       </c>
       <c r="G423" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I423" s="8"/>
       <c r="J423" s="6"/>
@@ -12070,7 +12131,7 @@
       </c>
       <c r="G424" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I424" s="11"/>
       <c r="J424" s="7"/>
@@ -12097,7 +12158,7 @@
       </c>
       <c r="G425" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I425" s="8"/>
       <c r="J425" s="6"/>
@@ -12124,7 +12185,7 @@
       </c>
       <c r="G426" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I426" s="11"/>
       <c r="J426" s="7"/>
@@ -12151,7 +12212,7 @@
       </c>
       <c r="G427" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I427" s="8"/>
       <c r="J427" s="6"/>
@@ -12178,7 +12239,7 @@
       </c>
       <c r="G428" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="7"/>
@@ -12205,7 +12266,7 @@
       </c>
       <c r="G429" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I429" s="8"/>
       <c r="J429" s="6"/>
@@ -12232,7 +12293,7 @@
       </c>
       <c r="G430" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I430" s="11"/>
       <c r="J430" s="7"/>
@@ -12259,7 +12320,7 @@
       </c>
       <c r="G431" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I431" s="8"/>
       <c r="J431" s="6"/>
@@ -12286,7 +12347,7 @@
       </c>
       <c r="G432" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I432" s="11"/>
       <c r="J432" s="7"/>
@@ -12313,7 +12374,7 @@
       </c>
       <c r="G433" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I433" s="8"/>
       <c r="J433" s="6"/>
@@ -12340,7 +12401,7 @@
       </c>
       <c r="G434" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I434" s="11"/>
       <c r="J434" s="7"/>
@@ -12367,7 +12428,7 @@
       </c>
       <c r="G435" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I435" s="8"/>
       <c r="J435" s="6"/>
@@ -12394,7 +12455,7 @@
       </c>
       <c r="G436" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I436" s="11"/>
       <c r="J436" s="7"/>
@@ -12421,7 +12482,7 @@
       </c>
       <c r="G437" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I437" s="8"/>
       <c r="J437" s="6"/>
@@ -12448,7 +12509,7 @@
       </c>
       <c r="G438" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I438" s="11"/>
       <c r="J438" s="7"/>
@@ -12475,7 +12536,7 @@
       </c>
       <c r="G439" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I439" s="8"/>
       <c r="J439" s="6"/>
@@ -12502,7 +12563,7 @@
       </c>
       <c r="G440" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="7"/>
@@ -12529,7 +12590,7 @@
       </c>
       <c r="G441" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I441" s="8"/>
       <c r="J441" s="6"/>
@@ -12556,7 +12617,7 @@
       </c>
       <c r="G442" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I442" s="11"/>
       <c r="J442" s="7"/>
@@ -12583,7 +12644,7 @@
       </c>
       <c r="G443" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I443" s="8"/>
       <c r="J443" s="6"/>
@@ -12610,7 +12671,7 @@
       </c>
       <c r="G444" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I444" s="11"/>
       <c r="J444" s="7"/>
@@ -12637,7 +12698,7 @@
       </c>
       <c r="G445" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I445" s="8"/>
       <c r="J445" s="6"/>
@@ -12664,7 +12725,7 @@
       </c>
       <c r="G446" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I446" s="11"/>
       <c r="J446" s="7"/>
@@ -12691,7 +12752,7 @@
       </c>
       <c r="G447" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I447" s="8"/>
       <c r="J447" s="6"/>
@@ -12718,7 +12779,7 @@
       </c>
       <c r="G448" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I448" s="11"/>
       <c r="J448" s="7"/>
@@ -12745,7 +12806,7 @@
       </c>
       <c r="G449" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I449" s="8"/>
       <c r="J449" s="6"/>
@@ -12772,7 +12833,7 @@
       </c>
       <c r="G450" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I450" s="11"/>
       <c r="J450" s="7"/>
@@ -12799,7 +12860,7 @@
       </c>
       <c r="G451" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I451" s="8"/>
       <c r="J451" s="6"/>
@@ -12826,7 +12887,7 @@
       </c>
       <c r="G452" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I452" s="11"/>
       <c r="J452" s="7"/>
@@ -12853,7 +12914,7 @@
       </c>
       <c r="G453" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I453" s="8"/>
       <c r="J453" s="6"/>
@@ -12880,7 +12941,7 @@
       </c>
       <c r="G454" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I454" s="11"/>
       <c r="J454" s="7"/>
@@ -12907,7 +12968,7 @@
       </c>
       <c r="G455" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I455" s="8"/>
       <c r="J455" s="6"/>
@@ -12934,7 +12995,7 @@
       </c>
       <c r="G456" s="7">
         <f t="shared" ref="G456:G519" si="23">G455</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I456" s="11"/>
       <c r="J456" s="7"/>
@@ -12961,7 +13022,7 @@
       </c>
       <c r="G457" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I457" s="8"/>
       <c r="J457" s="6"/>
@@ -12988,7 +13049,7 @@
       </c>
       <c r="G458" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I458" s="11"/>
       <c r="J458" s="7"/>
@@ -13015,7 +13076,7 @@
       </c>
       <c r="G459" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I459" s="8"/>
       <c r="J459" s="6"/>
@@ -13042,7 +13103,7 @@
       </c>
       <c r="G460" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I460" s="11"/>
       <c r="J460" s="7"/>
@@ -13069,7 +13130,7 @@
       </c>
       <c r="G461" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I461" s="8"/>
       <c r="J461" s="6"/>
@@ -13096,7 +13157,7 @@
       </c>
       <c r="G462" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I462" s="11"/>
       <c r="J462" s="7"/>
@@ -13123,7 +13184,7 @@
       </c>
       <c r="G463" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I463" s="8"/>
       <c r="J463" s="6"/>
@@ -13150,7 +13211,7 @@
       </c>
       <c r="G464" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I464" s="11"/>
       <c r="J464" s="7"/>
@@ -13177,7 +13238,7 @@
       </c>
       <c r="G465" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I465" s="8"/>
       <c r="J465" s="6"/>
@@ -13204,7 +13265,7 @@
       </c>
       <c r="G466" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I466" s="11"/>
       <c r="J466" s="7"/>
@@ -13231,7 +13292,7 @@
       </c>
       <c r="G467" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I467" s="8"/>
       <c r="J467" s="6"/>
@@ -13258,7 +13319,7 @@
       </c>
       <c r="G468" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I468" s="11"/>
       <c r="J468" s="7"/>
@@ -13285,7 +13346,7 @@
       </c>
       <c r="G469" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I469" s="8"/>
       <c r="J469" s="6"/>
@@ -13312,7 +13373,7 @@
       </c>
       <c r="G470" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I470" s="11"/>
       <c r="J470" s="7"/>
@@ -13339,7 +13400,7 @@
       </c>
       <c r="G471" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I471" s="8"/>
       <c r="J471" s="6"/>
@@ -13366,7 +13427,7 @@
       </c>
       <c r="G472" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I472" s="11"/>
       <c r="J472" s="7"/>
@@ -13393,7 +13454,7 @@
       </c>
       <c r="G473" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I473" s="8"/>
       <c r="J473" s="6"/>
@@ -13420,7 +13481,7 @@
       </c>
       <c r="G474" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I474" s="11"/>
       <c r="J474" s="7"/>
@@ -13447,7 +13508,7 @@
       </c>
       <c r="G475" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I475" s="8"/>
       <c r="J475" s="6"/>
@@ -13474,7 +13535,7 @@
       </c>
       <c r="G476" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I476" s="11"/>
       <c r="J476" s="7"/>
@@ -13501,7 +13562,7 @@
       </c>
       <c r="G477" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I477" s="8"/>
       <c r="J477" s="6"/>
@@ -13528,7 +13589,7 @@
       </c>
       <c r="G478" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I478" s="11"/>
       <c r="J478" s="7"/>
@@ -13555,7 +13616,7 @@
       </c>
       <c r="G479" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I479" s="8"/>
       <c r="J479" s="6"/>
@@ -13582,7 +13643,7 @@
       </c>
       <c r="G480" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I480" s="11"/>
       <c r="J480" s="7"/>
@@ -13609,7 +13670,7 @@
       </c>
       <c r="G481" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I481" s="8"/>
       <c r="J481" s="6"/>
@@ -13636,7 +13697,7 @@
       </c>
       <c r="G482" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I482" s="11"/>
       <c r="J482" s="7"/>
@@ -13663,7 +13724,7 @@
       </c>
       <c r="G483" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I483" s="8"/>
       <c r="J483" s="6"/>
@@ -13690,7 +13751,7 @@
       </c>
       <c r="G484" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I484" s="11"/>
       <c r="J484" s="7"/>
@@ -13717,7 +13778,7 @@
       </c>
       <c r="G485" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I485" s="8"/>
       <c r="J485" s="6"/>
@@ -13744,7 +13805,7 @@
       </c>
       <c r="G486" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I486" s="11"/>
       <c r="J486" s="7"/>
@@ -13771,7 +13832,7 @@
       </c>
       <c r="G487" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I487" s="8"/>
       <c r="J487" s="6"/>
@@ -13798,7 +13859,7 @@
       </c>
       <c r="G488" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I488" s="11"/>
       <c r="J488" s="7"/>
@@ -13825,7 +13886,7 @@
       </c>
       <c r="G489" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I489" s="8"/>
       <c r="J489" s="6"/>
@@ -13852,7 +13913,7 @@
       </c>
       <c r="G490" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I490" s="11"/>
       <c r="J490" s="7"/>
@@ -13879,7 +13940,7 @@
       </c>
       <c r="G491" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I491" s="8"/>
       <c r="J491" s="6"/>
@@ -13906,7 +13967,7 @@
       </c>
       <c r="G492" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I492" s="11"/>
       <c r="J492" s="7"/>
@@ -13933,7 +13994,7 @@
       </c>
       <c r="G493" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I493" s="8"/>
       <c r="J493" s="6"/>
@@ -13960,7 +14021,7 @@
       </c>
       <c r="G494" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I494" s="11"/>
       <c r="J494" s="7"/>
@@ -13987,7 +14048,7 @@
       </c>
       <c r="G495" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I495" s="8"/>
       <c r="J495" s="6"/>
@@ -14014,7 +14075,7 @@
       </c>
       <c r="G496" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I496" s="11"/>
       <c r="J496" s="7"/>
@@ -14041,7 +14102,7 @@
       </c>
       <c r="G497" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I497" s="8"/>
       <c r="J497" s="6"/>
@@ -14068,7 +14129,7 @@
       </c>
       <c r="G498" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="7"/>
@@ -14095,7 +14156,7 @@
       </c>
       <c r="G499" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I499" s="8"/>
       <c r="J499" s="6"/>
@@ -14122,7 +14183,7 @@
       </c>
       <c r="G500" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I500" s="11"/>
       <c r="J500" s="7"/>
@@ -14149,7 +14210,7 @@
       </c>
       <c r="G501" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I501" s="8"/>
       <c r="J501" s="6"/>
@@ -14176,7 +14237,7 @@
       </c>
       <c r="G502" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I502" s="11"/>
       <c r="J502" s="7"/>
@@ -14203,7 +14264,7 @@
       </c>
       <c r="G503" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I503" s="8"/>
       <c r="J503" s="6"/>
@@ -14230,7 +14291,7 @@
       </c>
       <c r="G504" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I504" s="11"/>
       <c r="J504" s="7"/>
@@ -14257,7 +14318,7 @@
       </c>
       <c r="G505" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I505" s="8"/>
       <c r="J505" s="6"/>
@@ -14284,7 +14345,7 @@
       </c>
       <c r="G506" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I506" s="11"/>
       <c r="J506" s="7"/>
@@ -14311,7 +14372,7 @@
       </c>
       <c r="G507" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I507" s="8"/>
       <c r="J507" s="6"/>
@@ -14338,7 +14399,7 @@
       </c>
       <c r="G508" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I508" s="11"/>
       <c r="J508" s="7"/>
@@ -14365,7 +14426,7 @@
       </c>
       <c r="G509" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I509" s="8"/>
       <c r="J509" s="6"/>
@@ -14392,7 +14453,7 @@
       </c>
       <c r="G510" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I510" s="11"/>
       <c r="J510" s="7"/>
@@ -14419,7 +14480,7 @@
       </c>
       <c r="G511" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I511" s="8"/>
       <c r="J511" s="6"/>
@@ -14446,7 +14507,7 @@
       </c>
       <c r="G512" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I512" s="11"/>
       <c r="J512" s="7"/>
@@ -14473,7 +14534,7 @@
       </c>
       <c r="G513" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I513" s="8"/>
       <c r="J513" s="6"/>
@@ -14500,7 +14561,7 @@
       </c>
       <c r="G514" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I514" s="11"/>
       <c r="J514" s="7"/>
@@ -14527,7 +14588,7 @@
       </c>
       <c r="G515" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I515" s="8"/>
       <c r="J515" s="6"/>
@@ -14554,7 +14615,7 @@
       </c>
       <c r="G516" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I516" s="11"/>
       <c r="J516" s="7"/>
@@ -14581,7 +14642,7 @@
       </c>
       <c r="G517" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I517" s="8"/>
       <c r="J517" s="6"/>
@@ -14608,7 +14669,7 @@
       </c>
       <c r="G518" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I518" s="11"/>
       <c r="J518" s="7"/>
@@ -14635,7 +14696,7 @@
       </c>
       <c r="G519" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I519" s="8"/>
       <c r="J519" s="6"/>
@@ -14662,7 +14723,7 @@
       </c>
       <c r="G520" s="7">
         <f t="shared" ref="G520:G583" si="26">G519</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I520" s="11"/>
       <c r="J520" s="7"/>
@@ -14689,7 +14750,7 @@
       </c>
       <c r="G521" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I521" s="8"/>
       <c r="J521" s="6"/>
@@ -14716,7 +14777,7 @@
       </c>
       <c r="G522" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I522" s="11"/>
       <c r="J522" s="7"/>
@@ -14743,7 +14804,7 @@
       </c>
       <c r="G523" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I523" s="8"/>
       <c r="J523" s="6"/>
@@ -14770,7 +14831,7 @@
       </c>
       <c r="G524" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I524" s="11"/>
       <c r="J524" s="7"/>
@@ -14797,7 +14858,7 @@
       </c>
       <c r="G525" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I525" s="8"/>
       <c r="J525" s="6"/>
@@ -14824,7 +14885,7 @@
       </c>
       <c r="G526" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I526" s="11"/>
       <c r="J526" s="7"/>
@@ -14851,7 +14912,7 @@
       </c>
       <c r="G527" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I527" s="8"/>
       <c r="J527" s="6"/>
@@ -14878,7 +14939,7 @@
       </c>
       <c r="G528" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I528" s="11"/>
       <c r="J528" s="7"/>
@@ -14905,7 +14966,7 @@
       </c>
       <c r="G529" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I529" s="8"/>
       <c r="J529" s="6"/>
@@ -14932,7 +14993,7 @@
       </c>
       <c r="G530" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I530" s="11"/>
       <c r="J530" s="7"/>
@@ -14959,7 +15020,7 @@
       </c>
       <c r="G531" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I531" s="8"/>
       <c r="J531" s="6"/>
@@ -14986,7 +15047,7 @@
       </c>
       <c r="G532" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I532" s="11"/>
       <c r="J532" s="7"/>
@@ -15013,7 +15074,7 @@
       </c>
       <c r="G533" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I533" s="8"/>
       <c r="J533" s="6"/>
@@ -15040,7 +15101,7 @@
       </c>
       <c r="G534" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I534" s="11"/>
       <c r="J534" s="7"/>
@@ -15067,7 +15128,7 @@
       </c>
       <c r="G535" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I535" s="8"/>
       <c r="J535" s="6"/>
@@ -15094,7 +15155,7 @@
       </c>
       <c r="G536" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I536" s="11"/>
       <c r="J536" s="7"/>
@@ -15121,7 +15182,7 @@
       </c>
       <c r="G537" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I537" s="8"/>
       <c r="J537" s="6"/>
@@ -15148,7 +15209,7 @@
       </c>
       <c r="G538" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I538" s="11"/>
       <c r="J538" s="7"/>
@@ -15175,7 +15236,7 @@
       </c>
       <c r="G539" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I539" s="8"/>
       <c r="J539" s="6"/>
@@ -15202,7 +15263,7 @@
       </c>
       <c r="G540" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I540" s="11"/>
       <c r="J540" s="7"/>
@@ -15229,7 +15290,7 @@
       </c>
       <c r="G541" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I541" s="8"/>
       <c r="J541" s="6"/>
@@ -15256,7 +15317,7 @@
       </c>
       <c r="G542" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I542" s="11"/>
       <c r="J542" s="7"/>
@@ -15283,7 +15344,7 @@
       </c>
       <c r="G543" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I543" s="8"/>
       <c r="J543" s="6"/>
@@ -15310,7 +15371,7 @@
       </c>
       <c r="G544" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I544" s="11"/>
       <c r="J544" s="7"/>
@@ -15337,7 +15398,7 @@
       </c>
       <c r="G545" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I545" s="8"/>
       <c r="J545" s="6"/>
@@ -15364,7 +15425,7 @@
       </c>
       <c r="G546" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I546" s="11"/>
       <c r="J546" s="7"/>
@@ -15391,7 +15452,7 @@
       </c>
       <c r="G547" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I547" s="8"/>
       <c r="J547" s="6"/>
@@ -15418,7 +15479,7 @@
       </c>
       <c r="G548" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I548" s="11"/>
       <c r="J548" s="7"/>
@@ -15445,7 +15506,7 @@
       </c>
       <c r="G549" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I549" s="8"/>
       <c r="J549" s="6"/>
@@ -15472,7 +15533,7 @@
       </c>
       <c r="G550" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I550" s="11"/>
       <c r="J550" s="7"/>
@@ -15499,7 +15560,7 @@
       </c>
       <c r="G551" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I551" s="8"/>
       <c r="J551" s="6"/>
@@ -15526,7 +15587,7 @@
       </c>
       <c r="G552" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I552" s="11"/>
       <c r="J552" s="7"/>
@@ -15553,7 +15614,7 @@
       </c>
       <c r="G553" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I553" s="8"/>
       <c r="J553" s="6"/>
@@ -15580,7 +15641,7 @@
       </c>
       <c r="G554" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I554" s="11"/>
       <c r="J554" s="7"/>
@@ -15607,7 +15668,7 @@
       </c>
       <c r="G555" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I555" s="8"/>
       <c r="J555" s="6"/>
@@ -15634,7 +15695,7 @@
       </c>
       <c r="G556" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="7"/>
@@ -15661,7 +15722,7 @@
       </c>
       <c r="G557" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I557" s="8"/>
       <c r="J557" s="6"/>
@@ -15688,7 +15749,7 @@
       </c>
       <c r="G558" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I558" s="11"/>
       <c r="J558" s="7"/>
@@ -15715,7 +15776,7 @@
       </c>
       <c r="G559" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I559" s="8"/>
       <c r="J559" s="6"/>
@@ -15742,7 +15803,7 @@
       </c>
       <c r="G560" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I560" s="11"/>
       <c r="J560" s="7"/>
@@ -15769,7 +15830,7 @@
       </c>
       <c r="G561" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I561" s="8"/>
       <c r="J561" s="6"/>
@@ -15796,7 +15857,7 @@
       </c>
       <c r="G562" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I562" s="11"/>
       <c r="J562" s="7"/>
@@ -15823,7 +15884,7 @@
       </c>
       <c r="G563" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I563" s="8"/>
       <c r="J563" s="6"/>
@@ -15850,7 +15911,7 @@
       </c>
       <c r="G564" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I564" s="11"/>
       <c r="J564" s="7"/>
@@ -15877,7 +15938,7 @@
       </c>
       <c r="G565" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I565" s="8"/>
       <c r="J565" s="6"/>
@@ -15904,7 +15965,7 @@
       </c>
       <c r="G566" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I566" s="11"/>
       <c r="J566" s="7"/>
@@ -15931,7 +15992,7 @@
       </c>
       <c r="G567" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I567" s="8"/>
       <c r="J567" s="6"/>
@@ -15958,7 +16019,7 @@
       </c>
       <c r="G568" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I568" s="11"/>
       <c r="J568" s="7"/>
@@ -15985,7 +16046,7 @@
       </c>
       <c r="G569" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I569" s="8"/>
       <c r="J569" s="6"/>
@@ -16012,7 +16073,7 @@
       </c>
       <c r="G570" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I570" s="11"/>
       <c r="J570" s="7"/>
@@ -16039,7 +16100,7 @@
       </c>
       <c r="G571" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I571" s="8"/>
       <c r="J571" s="6"/>
@@ -16066,7 +16127,7 @@
       </c>
       <c r="G572" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I572" s="11"/>
       <c r="J572" s="7"/>
@@ -16093,7 +16154,7 @@
       </c>
       <c r="G573" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I573" s="8"/>
       <c r="J573" s="6"/>
@@ -16120,7 +16181,7 @@
       </c>
       <c r="G574" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I574" s="11"/>
       <c r="J574" s="7"/>
@@ -16147,7 +16208,7 @@
       </c>
       <c r="G575" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I575" s="8"/>
       <c r="J575" s="6"/>
@@ -16174,7 +16235,7 @@
       </c>
       <c r="G576" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I576" s="11"/>
       <c r="J576" s="7"/>
@@ -16201,7 +16262,7 @@
       </c>
       <c r="G577" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I577" s="8"/>
       <c r="J577" s="6"/>
@@ -16228,7 +16289,7 @@
       </c>
       <c r="G578" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I578" s="11"/>
       <c r="J578" s="7"/>
@@ -16255,7 +16316,7 @@
       </c>
       <c r="G579" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I579" s="8"/>
       <c r="J579" s="6"/>
@@ -16282,7 +16343,7 @@
       </c>
       <c r="G580" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I580" s="11"/>
       <c r="J580" s="7"/>
@@ -16309,7 +16370,7 @@
       </c>
       <c r="G581" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I581" s="8"/>
       <c r="J581" s="6"/>
@@ -16336,7 +16397,7 @@
       </c>
       <c r="G582" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I582" s="11"/>
       <c r="J582" s="7"/>
@@ -16363,7 +16424,7 @@
       </c>
       <c r="G583" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I583" s="8"/>
       <c r="J583" s="6"/>
@@ -16390,7 +16451,7 @@
       </c>
       <c r="G584" s="7">
         <f t="shared" ref="G584:G647" si="29">G583</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I584" s="11"/>
       <c r="J584" s="7"/>
@@ -16417,7 +16478,7 @@
       </c>
       <c r="G585" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I585" s="8"/>
       <c r="J585" s="6"/>
@@ -16444,7 +16505,7 @@
       </c>
       <c r="G586" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I586" s="11"/>
       <c r="J586" s="7"/>
@@ -16471,7 +16532,7 @@
       </c>
       <c r="G587" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I587" s="8"/>
       <c r="J587" s="6"/>
@@ -16498,7 +16559,7 @@
       </c>
       <c r="G588" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I588" s="11"/>
       <c r="J588" s="7"/>
@@ -16525,7 +16586,7 @@
       </c>
       <c r="G589" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I589" s="8"/>
       <c r="J589" s="6"/>
@@ -16552,7 +16613,7 @@
       </c>
       <c r="G590" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I590" s="11"/>
       <c r="J590" s="7"/>
@@ -16579,7 +16640,7 @@
       </c>
       <c r="G591" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I591" s="8"/>
       <c r="J591" s="6"/>
@@ -16606,7 +16667,7 @@
       </c>
       <c r="G592" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I592" s="11"/>
       <c r="J592" s="7"/>
@@ -16633,7 +16694,7 @@
       </c>
       <c r="G593" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I593" s="8"/>
       <c r="J593" s="6"/>
@@ -16660,7 +16721,7 @@
       </c>
       <c r="G594" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I594" s="11"/>
       <c r="J594" s="7"/>
@@ -16687,7 +16748,7 @@
       </c>
       <c r="G595" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I595" s="8"/>
       <c r="J595" s="6"/>
@@ -16714,7 +16775,7 @@
       </c>
       <c r="G596" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I596" s="11"/>
       <c r="J596" s="7"/>
@@ -16741,7 +16802,7 @@
       </c>
       <c r="G597" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I597" s="8"/>
       <c r="J597" s="6"/>
@@ -16768,7 +16829,7 @@
       </c>
       <c r="G598" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I598" s="11"/>
       <c r="J598" s="7"/>
@@ -16795,7 +16856,7 @@
       </c>
       <c r="G599" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I599" s="8"/>
       <c r="J599" s="6"/>
@@ -16822,7 +16883,7 @@
       </c>
       <c r="G600" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I600" s="11"/>
       <c r="J600" s="7"/>
@@ -16849,7 +16910,7 @@
       </c>
       <c r="G601" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I601" s="8"/>
       <c r="J601" s="6"/>
@@ -16876,7 +16937,7 @@
       </c>
       <c r="G602" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I602" s="11"/>
       <c r="J602" s="7"/>
@@ -16903,7 +16964,7 @@
       </c>
       <c r="G603" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I603" s="8"/>
       <c r="J603" s="6"/>
@@ -16930,7 +16991,7 @@
       </c>
       <c r="G604" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I604" s="11"/>
       <c r="J604" s="7"/>
@@ -16957,7 +17018,7 @@
       </c>
       <c r="G605" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I605" s="8"/>
       <c r="J605" s="6"/>
@@ -16984,7 +17045,7 @@
       </c>
       <c r="G606" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I606" s="11"/>
       <c r="J606" s="7"/>
@@ -17011,7 +17072,7 @@
       </c>
       <c r="G607" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I607" s="8"/>
       <c r="J607" s="6"/>
@@ -17038,7 +17099,7 @@
       </c>
       <c r="G608" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I608" s="11"/>
       <c r="J608" s="7"/>
@@ -17065,7 +17126,7 @@
       </c>
       <c r="G609" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I609" s="8"/>
       <c r="J609" s="6"/>
@@ -17092,7 +17153,7 @@
       </c>
       <c r="G610" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I610" s="11"/>
       <c r="J610" s="7"/>
@@ -17119,7 +17180,7 @@
       </c>
       <c r="G611" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I611" s="8"/>
       <c r="J611" s="6"/>
@@ -17146,7 +17207,7 @@
       </c>
       <c r="G612" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I612" s="11"/>
       <c r="J612" s="7"/>
@@ -17173,7 +17234,7 @@
       </c>
       <c r="G613" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I613" s="8"/>
       <c r="J613" s="6"/>
@@ -17200,7 +17261,7 @@
       </c>
       <c r="G614" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="7"/>
@@ -17227,7 +17288,7 @@
       </c>
       <c r="G615" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I615" s="8"/>
       <c r="J615" s="6"/>
@@ -17254,7 +17315,7 @@
       </c>
       <c r="G616" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I616" s="11"/>
       <c r="J616" s="7"/>
@@ -17281,7 +17342,7 @@
       </c>
       <c r="G617" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I617" s="8"/>
       <c r="J617" s="6"/>
@@ -17308,7 +17369,7 @@
       </c>
       <c r="G618" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I618" s="11"/>
       <c r="J618" s="7"/>
@@ -17335,7 +17396,7 @@
       </c>
       <c r="G619" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I619" s="8"/>
       <c r="J619" s="6"/>
@@ -17362,7 +17423,7 @@
       </c>
       <c r="G620" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I620" s="11"/>
       <c r="J620" s="7"/>
@@ -17389,7 +17450,7 @@
       </c>
       <c r="G621" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I621" s="8"/>
       <c r="J621" s="6"/>
@@ -17416,7 +17477,7 @@
       </c>
       <c r="G622" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I622" s="11"/>
       <c r="J622" s="7"/>
@@ -17443,7 +17504,7 @@
       </c>
       <c r="G623" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I623" s="8"/>
       <c r="J623" s="6"/>
@@ -17470,7 +17531,7 @@
       </c>
       <c r="G624" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I624" s="11"/>
       <c r="J624" s="7"/>
@@ -17497,7 +17558,7 @@
       </c>
       <c r="G625" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I625" s="8"/>
       <c r="J625" s="6"/>
@@ -17524,7 +17585,7 @@
       </c>
       <c r="G626" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I626" s="11"/>
       <c r="J626" s="7"/>
@@ -17551,7 +17612,7 @@
       </c>
       <c r="G627" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I627" s="8"/>
       <c r="J627" s="6"/>
@@ -17578,7 +17639,7 @@
       </c>
       <c r="G628" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I628" s="11"/>
       <c r="J628" s="7"/>
@@ -17605,7 +17666,7 @@
       </c>
       <c r="G629" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I629" s="8"/>
       <c r="J629" s="6"/>
@@ -17632,7 +17693,7 @@
       </c>
       <c r="G630" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I630" s="11"/>
       <c r="J630" s="7"/>
@@ -17659,7 +17720,7 @@
       </c>
       <c r="G631" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I631" s="8"/>
       <c r="J631" s="6"/>
@@ -17686,7 +17747,7 @@
       </c>
       <c r="G632" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I632" s="11"/>
       <c r="J632" s="7"/>
@@ -17713,7 +17774,7 @@
       </c>
       <c r="G633" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I633" s="8"/>
       <c r="J633" s="6"/>
@@ -17740,7 +17801,7 @@
       </c>
       <c r="G634" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I634" s="11"/>
       <c r="J634" s="7"/>
@@ -17767,7 +17828,7 @@
       </c>
       <c r="G635" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I635" s="8"/>
       <c r="J635" s="6"/>
@@ -17794,7 +17855,7 @@
       </c>
       <c r="G636" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I636" s="11"/>
       <c r="J636" s="7"/>
@@ -17821,7 +17882,7 @@
       </c>
       <c r="G637" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I637" s="8"/>
       <c r="J637" s="6"/>
@@ -17848,7 +17909,7 @@
       </c>
       <c r="G638" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I638" s="11"/>
       <c r="J638" s="7"/>
@@ -17875,7 +17936,7 @@
       </c>
       <c r="G639" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I639" s="8"/>
       <c r="J639" s="6"/>
@@ -17902,7 +17963,7 @@
       </c>
       <c r="G640" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I640" s="11"/>
       <c r="J640" s="7"/>
@@ -17929,7 +17990,7 @@
       </c>
       <c r="G641" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I641" s="8"/>
       <c r="J641" s="6"/>
@@ -17956,7 +18017,7 @@
       </c>
       <c r="G642" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I642" s="11"/>
       <c r="J642" s="7"/>
@@ -17983,7 +18044,7 @@
       </c>
       <c r="G643" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I643" s="8"/>
       <c r="J643" s="6"/>
@@ -18010,7 +18071,7 @@
       </c>
       <c r="G644" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I644" s="11"/>
       <c r="J644" s="7"/>
@@ -18037,7 +18098,7 @@
       </c>
       <c r="G645" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I645" s="8"/>
       <c r="J645" s="6"/>
@@ -18064,7 +18125,7 @@
       </c>
       <c r="G646" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I646" s="11"/>
       <c r="J646" s="7"/>
@@ -18091,7 +18152,7 @@
       </c>
       <c r="G647" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I647" s="8"/>
       <c r="J647" s="6"/>
@@ -18118,7 +18179,7 @@
       </c>
       <c r="G648" s="7">
         <f t="shared" ref="G648:G711" si="32">G647</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I648" s="11"/>
       <c r="J648" s="7"/>
@@ -18145,7 +18206,7 @@
       </c>
       <c r="G649" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I649" s="8"/>
       <c r="J649" s="6"/>
@@ -18172,7 +18233,7 @@
       </c>
       <c r="G650" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I650" s="11"/>
       <c r="J650" s="7"/>
@@ -18199,7 +18260,7 @@
       </c>
       <c r="G651" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I651" s="8"/>
       <c r="J651" s="6"/>
@@ -18226,7 +18287,7 @@
       </c>
       <c r="G652" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I652" s="11"/>
       <c r="J652" s="7"/>
@@ -18253,7 +18314,7 @@
       </c>
       <c r="G653" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I653" s="8"/>
       <c r="J653" s="6"/>
@@ -18280,7 +18341,7 @@
       </c>
       <c r="G654" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I654" s="11"/>
       <c r="J654" s="7"/>
@@ -18307,7 +18368,7 @@
       </c>
       <c r="G655" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I655" s="8"/>
       <c r="J655" s="6"/>
@@ -18334,7 +18395,7 @@
       </c>
       <c r="G656" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I656" s="11"/>
       <c r="J656" s="7"/>
@@ -18361,7 +18422,7 @@
       </c>
       <c r="G657" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I657" s="8"/>
       <c r="J657" s="6"/>
@@ -18388,7 +18449,7 @@
       </c>
       <c r="G658" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I658" s="11"/>
       <c r="J658" s="7"/>
@@ -18415,7 +18476,7 @@
       </c>
       <c r="G659" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I659" s="8"/>
       <c r="J659" s="6"/>
@@ -18442,7 +18503,7 @@
       </c>
       <c r="G660" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I660" s="11"/>
       <c r="J660" s="7"/>
@@ -18469,7 +18530,7 @@
       </c>
       <c r="G661" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="6"/>
@@ -18496,7 +18557,7 @@
       </c>
       <c r="G662" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I662" s="11"/>
       <c r="J662" s="7"/>
@@ -18523,7 +18584,7 @@
       </c>
       <c r="G663" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I663" s="8"/>
       <c r="J663" s="6"/>
@@ -18550,7 +18611,7 @@
       </c>
       <c r="G664" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I664" s="11"/>
       <c r="J664" s="7"/>
@@ -18577,7 +18638,7 @@
       </c>
       <c r="G665" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I665" s="8"/>
       <c r="J665" s="6"/>
@@ -18604,7 +18665,7 @@
       </c>
       <c r="G666" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I666" s="11"/>
       <c r="J666" s="7"/>
@@ -18631,7 +18692,7 @@
       </c>
       <c r="G667" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I667" s="8"/>
       <c r="J667" s="6"/>
@@ -18658,7 +18719,7 @@
       </c>
       <c r="G668" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I668" s="11"/>
       <c r="J668" s="7"/>
@@ -18685,7 +18746,7 @@
       </c>
       <c r="G669" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I669" s="8"/>
       <c r="J669" s="6"/>
@@ -18712,7 +18773,7 @@
       </c>
       <c r="G670" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I670" s="11"/>
       <c r="J670" s="7"/>
@@ -18739,7 +18800,7 @@
       </c>
       <c r="G671" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I671" s="8"/>
       <c r="J671" s="6"/>
@@ -18766,7 +18827,7 @@
       </c>
       <c r="G672" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="7"/>
@@ -18793,7 +18854,7 @@
       </c>
       <c r="G673" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I673" s="8"/>
       <c r="J673" s="6"/>
@@ -18820,7 +18881,7 @@
       </c>
       <c r="G674" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I674" s="11"/>
       <c r="J674" s="7"/>
@@ -18847,7 +18908,7 @@
       </c>
       <c r="G675" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I675" s="8"/>
       <c r="J675" s="6"/>
@@ -18874,7 +18935,7 @@
       </c>
       <c r="G676" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I676" s="11"/>
       <c r="J676" s="7"/>
@@ -18901,7 +18962,7 @@
       </c>
       <c r="G677" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I677" s="8"/>
       <c r="J677" s="6"/>
@@ -18928,7 +18989,7 @@
       </c>
       <c r="G678" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I678" s="11"/>
       <c r="J678" s="7"/>
@@ -18955,7 +19016,7 @@
       </c>
       <c r="G679" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I679" s="8"/>
       <c r="J679" s="6"/>
@@ -18982,7 +19043,7 @@
       </c>
       <c r="G680" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I680" s="11"/>
       <c r="J680" s="7"/>
@@ -19009,7 +19070,7 @@
       </c>
       <c r="G681" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I681" s="8"/>
       <c r="J681" s="6"/>
@@ -19036,7 +19097,7 @@
       </c>
       <c r="G682" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I682" s="11"/>
       <c r="J682" s="7"/>
@@ -19063,7 +19124,7 @@
       </c>
       <c r="G683" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I683" s="8"/>
       <c r="J683" s="6"/>
@@ -19090,7 +19151,7 @@
       </c>
       <c r="G684" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I684" s="11"/>
       <c r="J684" s="7"/>
@@ -19117,7 +19178,7 @@
       </c>
       <c r="G685" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I685" s="8"/>
       <c r="J685" s="6"/>
@@ -19144,7 +19205,7 @@
       </c>
       <c r="G686" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I686" s="11"/>
       <c r="J686" s="7"/>
@@ -19171,7 +19232,7 @@
       </c>
       <c r="G687" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I687" s="8"/>
       <c r="J687" s="6"/>
@@ -19198,7 +19259,7 @@
       </c>
       <c r="G688" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I688" s="11"/>
       <c r="J688" s="7"/>
@@ -19225,7 +19286,7 @@
       </c>
       <c r="G689" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I689" s="8"/>
       <c r="J689" s="6"/>
@@ -19252,7 +19313,7 @@
       </c>
       <c r="G690" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I690" s="11"/>
       <c r="J690" s="7"/>
@@ -19279,7 +19340,7 @@
       </c>
       <c r="G691" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I691" s="8"/>
       <c r="J691" s="6"/>
@@ -19306,7 +19367,7 @@
       </c>
       <c r="G692" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I692" s="11"/>
       <c r="J692" s="7"/>
@@ -19333,7 +19394,7 @@
       </c>
       <c r="G693" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I693" s="8"/>
       <c r="J693" s="6"/>
@@ -19360,7 +19421,7 @@
       </c>
       <c r="G694" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I694" s="11"/>
       <c r="J694" s="7"/>
@@ -19387,7 +19448,7 @@
       </c>
       <c r="G695" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I695" s="8"/>
       <c r="J695" s="6"/>
@@ -19414,7 +19475,7 @@
       </c>
       <c r="G696" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I696" s="11"/>
       <c r="J696" s="7"/>
@@ -19441,7 +19502,7 @@
       </c>
       <c r="G697" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I697" s="8"/>
       <c r="J697" s="6"/>
@@ -19468,7 +19529,7 @@
       </c>
       <c r="G698" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I698" s="11"/>
       <c r="J698" s="7"/>
@@ -19495,7 +19556,7 @@
       </c>
       <c r="G699" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I699" s="8"/>
       <c r="J699" s="6"/>
@@ -19522,7 +19583,7 @@
       </c>
       <c r="G700" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I700" s="11"/>
       <c r="J700" s="7"/>
@@ -19549,7 +19610,7 @@
       </c>
       <c r="G701" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I701" s="8"/>
       <c r="J701" s="6"/>
@@ -19576,7 +19637,7 @@
       </c>
       <c r="G702" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I702" s="11"/>
       <c r="J702" s="7"/>
@@ -19603,7 +19664,7 @@
       </c>
       <c r="G703" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I703" s="8"/>
       <c r="J703" s="6"/>
@@ -19630,7 +19691,7 @@
       </c>
       <c r="G704" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I704" s="11"/>
       <c r="J704" s="7"/>
@@ -19657,7 +19718,7 @@
       </c>
       <c r="G705" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I705" s="8"/>
       <c r="J705" s="6"/>
@@ -19684,7 +19745,7 @@
       </c>
       <c r="G706" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I706" s="11"/>
       <c r="J706" s="7"/>
@@ -19711,7 +19772,7 @@
       </c>
       <c r="G707" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I707" s="8"/>
       <c r="J707" s="6"/>
@@ -19738,7 +19799,7 @@
       </c>
       <c r="G708" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I708" s="11"/>
       <c r="J708" s="7"/>
@@ -19765,7 +19826,7 @@
       </c>
       <c r="G709" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I709" s="8"/>
       <c r="J709" s="6"/>
@@ -19792,7 +19853,7 @@
       </c>
       <c r="G710" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I710" s="11"/>
       <c r="J710" s="7"/>
@@ -19819,7 +19880,7 @@
       </c>
       <c r="G711" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I711" s="8"/>
       <c r="J711" s="6"/>
@@ -19846,7 +19907,7 @@
       </c>
       <c r="G712" s="7">
         <f t="shared" ref="G712:G775" si="35">G711</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I712" s="11"/>
       <c r="J712" s="7"/>
@@ -19873,7 +19934,7 @@
       </c>
       <c r="G713" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I713" s="8"/>
       <c r="J713" s="6"/>
@@ -19900,7 +19961,7 @@
       </c>
       <c r="G714" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I714" s="11"/>
       <c r="J714" s="7"/>
@@ -19927,7 +19988,7 @@
       </c>
       <c r="G715" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I715" s="8"/>
       <c r="J715" s="6"/>
@@ -19954,7 +20015,7 @@
       </c>
       <c r="G716" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I716" s="11"/>
       <c r="J716" s="7"/>
@@ -19981,7 +20042,7 @@
       </c>
       <c r="G717" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I717" s="8"/>
       <c r="J717" s="6"/>
@@ -20008,7 +20069,7 @@
       </c>
       <c r="G718" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I718" s="11"/>
       <c r="J718" s="7"/>
@@ -20035,7 +20096,7 @@
       </c>
       <c r="G719" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I719" s="8"/>
       <c r="J719" s="6"/>
@@ -20062,7 +20123,7 @@
       </c>
       <c r="G720" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I720" s="11"/>
       <c r="J720" s="7"/>
@@ -20089,7 +20150,7 @@
       </c>
       <c r="G721" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I721" s="8"/>
       <c r="J721" s="6"/>
@@ -20116,7 +20177,7 @@
       </c>
       <c r="G722" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I722" s="11"/>
       <c r="J722" s="7"/>
@@ -20143,7 +20204,7 @@
       </c>
       <c r="G723" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I723" s="8"/>
       <c r="J723" s="6"/>
@@ -20170,7 +20231,7 @@
       </c>
       <c r="G724" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I724" s="11"/>
       <c r="J724" s="7"/>
@@ -20197,7 +20258,7 @@
       </c>
       <c r="G725" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I725" s="8"/>
       <c r="J725" s="6"/>
@@ -20224,7 +20285,7 @@
       </c>
       <c r="G726" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I726" s="11"/>
       <c r="J726" s="7"/>
@@ -20251,7 +20312,7 @@
       </c>
       <c r="G727" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I727" s="8"/>
       <c r="J727" s="6"/>
@@ -20278,7 +20339,7 @@
       </c>
       <c r="G728" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I728" s="11"/>
       <c r="J728" s="7"/>
@@ -20305,7 +20366,7 @@
       </c>
       <c r="G729" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I729" s="8"/>
       <c r="J729" s="6"/>
@@ -20332,7 +20393,7 @@
       </c>
       <c r="G730" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="7"/>
@@ -20359,7 +20420,7 @@
       </c>
       <c r="G731" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I731" s="8"/>
       <c r="J731" s="6"/>
@@ -20386,7 +20447,7 @@
       </c>
       <c r="G732" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I732" s="11"/>
       <c r="J732" s="7"/>
@@ -20413,7 +20474,7 @@
       </c>
       <c r="G733" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I733" s="8"/>
       <c r="J733" s="6"/>
@@ -20440,7 +20501,7 @@
       </c>
       <c r="G734" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I734" s="11"/>
       <c r="J734" s="7"/>
@@ -20467,7 +20528,7 @@
       </c>
       <c r="G735" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I735" s="8"/>
       <c r="J735" s="6"/>
@@ -20494,7 +20555,7 @@
       </c>
       <c r="G736" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I736" s="11"/>
       <c r="J736" s="7"/>
@@ -20521,7 +20582,7 @@
       </c>
       <c r="G737" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I737" s="8"/>
       <c r="J737" s="6"/>
@@ -20548,7 +20609,7 @@
       </c>
       <c r="G738" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I738" s="11"/>
       <c r="J738" s="7"/>
@@ -20575,7 +20636,7 @@
       </c>
       <c r="G739" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I739" s="8"/>
       <c r="J739" s="6"/>
@@ -20602,7 +20663,7 @@
       </c>
       <c r="G740" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I740" s="11"/>
       <c r="J740" s="7"/>
@@ -20629,7 +20690,7 @@
       </c>
       <c r="G741" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I741" s="8"/>
       <c r="J741" s="6"/>
@@ -20656,7 +20717,7 @@
       </c>
       <c r="G742" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I742" s="11"/>
       <c r="J742" s="7"/>
@@ -20683,7 +20744,7 @@
       </c>
       <c r="G743" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I743" s="8"/>
       <c r="J743" s="6"/>
@@ -20710,7 +20771,7 @@
       </c>
       <c r="G744" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I744" s="11"/>
       <c r="J744" s="7"/>
@@ -20737,7 +20798,7 @@
       </c>
       <c r="G745" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I745" s="8"/>
       <c r="J745" s="6"/>
@@ -20764,7 +20825,7 @@
       </c>
       <c r="G746" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I746" s="11"/>
       <c r="J746" s="7"/>
@@ -20791,7 +20852,7 @@
       </c>
       <c r="G747" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I747" s="8"/>
       <c r="J747" s="6"/>
@@ -20818,7 +20879,7 @@
       </c>
       <c r="G748" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I748" s="11"/>
       <c r="J748" s="7"/>
@@ -20845,7 +20906,7 @@
       </c>
       <c r="G749" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I749" s="8"/>
       <c r="J749" s="6"/>
@@ -20872,7 +20933,7 @@
       </c>
       <c r="G750" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I750" s="11"/>
       <c r="J750" s="7"/>
@@ -20899,7 +20960,7 @@
       </c>
       <c r="G751" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I751" s="8"/>
       <c r="J751" s="6"/>
@@ -20926,7 +20987,7 @@
       </c>
       <c r="G752" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I752" s="11"/>
       <c r="J752" s="7"/>
@@ -20953,7 +21014,7 @@
       </c>
       <c r="G753" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I753" s="8"/>
       <c r="J753" s="6"/>
@@ -20980,7 +21041,7 @@
       </c>
       <c r="G754" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I754" s="11"/>
       <c r="J754" s="7"/>
@@ -21007,7 +21068,7 @@
       </c>
       <c r="G755" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I755" s="8"/>
       <c r="J755" s="6"/>
@@ -21034,7 +21095,7 @@
       </c>
       <c r="G756" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I756" s="11"/>
       <c r="J756" s="7"/>
@@ -21061,7 +21122,7 @@
       </c>
       <c r="G757" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I757" s="8"/>
       <c r="J757" s="6"/>
@@ -21088,7 +21149,7 @@
       </c>
       <c r="G758" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I758" s="11"/>
       <c r="J758" s="7"/>
@@ -21115,7 +21176,7 @@
       </c>
       <c r="G759" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I759" s="8"/>
       <c r="J759" s="6"/>
@@ -21142,7 +21203,7 @@
       </c>
       <c r="G760" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I760" s="11"/>
       <c r="J760" s="7"/>
@@ -21169,7 +21230,7 @@
       </c>
       <c r="G761" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I761" s="8"/>
       <c r="J761" s="6"/>
@@ -21196,7 +21257,7 @@
       </c>
       <c r="G762" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I762" s="11"/>
       <c r="J762" s="7"/>
@@ -21223,7 +21284,7 @@
       </c>
       <c r="G763" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I763" s="8"/>
       <c r="J763" s="6"/>
@@ -21250,7 +21311,7 @@
       </c>
       <c r="G764" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I764" s="11"/>
       <c r="J764" s="7"/>
@@ -21277,7 +21338,7 @@
       </c>
       <c r="G765" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I765" s="8"/>
       <c r="J765" s="6"/>
@@ -21304,7 +21365,7 @@
       </c>
       <c r="G766" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I766" s="11"/>
       <c r="J766" s="7"/>
@@ -21331,7 +21392,7 @@
       </c>
       <c r="G767" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I767" s="8"/>
       <c r="J767" s="6"/>
@@ -21358,7 +21419,7 @@
       </c>
       <c r="G768" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I768" s="11"/>
       <c r="J768" s="7"/>
@@ -21385,7 +21446,7 @@
       </c>
       <c r="G769" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I769" s="8"/>
       <c r="J769" s="6"/>
@@ -21412,7 +21473,7 @@
       </c>
       <c r="G770" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I770" s="11"/>
       <c r="J770" s="7"/>
@@ -21439,7 +21500,7 @@
       </c>
       <c r="G771" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I771" s="8"/>
       <c r="J771" s="6"/>
@@ -21466,7 +21527,7 @@
       </c>
       <c r="G772" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I772" s="11"/>
       <c r="J772" s="7"/>
@@ -21493,7 +21554,7 @@
       </c>
       <c r="G773" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I773" s="8"/>
       <c r="J773" s="6"/>
@@ -21520,7 +21581,7 @@
       </c>
       <c r="G774" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I774" s="11"/>
       <c r="J774" s="7"/>
@@ -21547,7 +21608,7 @@
       </c>
       <c r="G775" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I775" s="8"/>
       <c r="J775" s="6"/>
@@ -21574,7 +21635,7 @@
       </c>
       <c r="G776" s="7">
         <f t="shared" ref="G776:G839" si="38">G775</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I776" s="11"/>
       <c r="J776" s="7"/>
@@ -21601,7 +21662,7 @@
       </c>
       <c r="G777" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I777" s="8"/>
       <c r="J777" s="6"/>
@@ -21628,7 +21689,7 @@
       </c>
       <c r="G778" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I778" s="11"/>
       <c r="J778" s="7"/>
@@ -21655,7 +21716,7 @@
       </c>
       <c r="G779" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I779" s="8"/>
       <c r="J779" s="6"/>
@@ -21682,7 +21743,7 @@
       </c>
       <c r="G780" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I780" s="11"/>
       <c r="J780" s="7"/>
@@ -21709,7 +21770,7 @@
       </c>
       <c r="G781" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I781" s="8"/>
       <c r="J781" s="6"/>
@@ -21736,7 +21797,7 @@
       </c>
       <c r="G782" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I782" s="11"/>
       <c r="J782" s="7"/>
@@ -21763,7 +21824,7 @@
       </c>
       <c r="G783" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I783" s="8"/>
       <c r="J783" s="6"/>
@@ -21790,7 +21851,7 @@
       </c>
       <c r="G784" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I784" s="11"/>
       <c r="J784" s="7"/>
@@ -21817,7 +21878,7 @@
       </c>
       <c r="G785" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I785" s="8"/>
       <c r="J785" s="6"/>
@@ -21844,7 +21905,7 @@
       </c>
       <c r="G786" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I786" s="11"/>
       <c r="J786" s="7"/>
@@ -21871,7 +21932,7 @@
       </c>
       <c r="G787" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I787" s="8"/>
       <c r="J787" s="6"/>
@@ -21898,7 +21959,7 @@
       </c>
       <c r="G788" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I788" s="11"/>
       <c r="J788" s="7"/>
@@ -21925,7 +21986,7 @@
       </c>
       <c r="G789" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I789" s="8"/>
       <c r="J789" s="6"/>
@@ -21952,7 +22013,7 @@
       </c>
       <c r="G790" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I790" s="11"/>
       <c r="J790" s="7"/>
@@ -21979,7 +22040,7 @@
       </c>
       <c r="G791" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I791" s="8"/>
       <c r="J791" s="6"/>
@@ -22006,7 +22067,7 @@
       </c>
       <c r="G792" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I792" s="11"/>
       <c r="J792" s="7"/>
@@ -22033,7 +22094,7 @@
       </c>
       <c r="G793" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I793" s="8"/>
       <c r="J793" s="6"/>
@@ -22060,7 +22121,7 @@
       </c>
       <c r="G794" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I794" s="11"/>
       <c r="J794" s="7"/>
@@ -22087,7 +22148,7 @@
       </c>
       <c r="G795" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I795" s="8"/>
       <c r="J795" s="6"/>
@@ -22114,7 +22175,7 @@
       </c>
       <c r="G796" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I796" s="11"/>
       <c r="J796" s="7"/>
@@ -22141,7 +22202,7 @@
       </c>
       <c r="G797" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I797" s="8"/>
       <c r="J797" s="6"/>
@@ -22168,7 +22229,7 @@
       </c>
       <c r="G798" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I798" s="11"/>
       <c r="J798" s="7"/>
@@ -22195,7 +22256,7 @@
       </c>
       <c r="G799" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I799" s="8"/>
       <c r="J799" s="6"/>
@@ -22222,7 +22283,7 @@
       </c>
       <c r="G800" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I800" s="11"/>
       <c r="J800" s="7"/>
@@ -22249,7 +22310,7 @@
       </c>
       <c r="G801" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I801" s="8"/>
       <c r="J801" s="6"/>
@@ -22276,7 +22337,7 @@
       </c>
       <c r="G802" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I802" s="11"/>
       <c r="J802" s="7"/>
@@ -22303,7 +22364,7 @@
       </c>
       <c r="G803" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I803" s="8"/>
       <c r="J803" s="6"/>
@@ -22330,7 +22391,7 @@
       </c>
       <c r="G804" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I804" s="11"/>
       <c r="J804" s="7"/>
@@ -22357,7 +22418,7 @@
       </c>
       <c r="G805" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I805" s="8"/>
       <c r="J805" s="6"/>
@@ -22384,7 +22445,7 @@
       </c>
       <c r="G806" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I806" s="11"/>
       <c r="J806" s="7"/>
@@ -22411,7 +22472,7 @@
       </c>
       <c r="G807" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I807" s="8"/>
       <c r="J807" s="6"/>
@@ -22438,7 +22499,7 @@
       </c>
       <c r="G808" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I808" s="11"/>
       <c r="J808" s="7"/>
@@ -22465,7 +22526,7 @@
       </c>
       <c r="G809" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I809" s="8"/>
       <c r="J809" s="6"/>
@@ -22492,7 +22553,7 @@
       </c>
       <c r="G810" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I810" s="11"/>
       <c r="J810" s="7"/>
@@ -22519,7 +22580,7 @@
       </c>
       <c r="G811" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I811" s="8"/>
       <c r="J811" s="6"/>
@@ -22546,7 +22607,7 @@
       </c>
       <c r="G812" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I812" s="11"/>
       <c r="J812" s="7"/>
@@ -22573,7 +22634,7 @@
       </c>
       <c r="G813" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I813" s="8"/>
       <c r="J813" s="6"/>
@@ -22600,7 +22661,7 @@
       </c>
       <c r="G814" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I814" s="11"/>
       <c r="J814" s="7"/>
@@ -22627,7 +22688,7 @@
       </c>
       <c r="G815" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I815" s="8"/>
       <c r="J815" s="6"/>
@@ -22654,7 +22715,7 @@
       </c>
       <c r="G816" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I816" s="11"/>
       <c r="J816" s="7"/>
@@ -22681,7 +22742,7 @@
       </c>
       <c r="G817" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I817" s="8"/>
       <c r="J817" s="6"/>
@@ -22708,7 +22769,7 @@
       </c>
       <c r="G818" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I818" s="11"/>
       <c r="J818" s="7"/>
@@ -22735,7 +22796,7 @@
       </c>
       <c r="G819" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I819" s="8"/>
       <c r="J819" s="6"/>
@@ -22762,7 +22823,7 @@
       </c>
       <c r="G820" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I820" s="11"/>
       <c r="J820" s="7"/>
@@ -22789,7 +22850,7 @@
       </c>
       <c r="G821" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I821" s="8"/>
       <c r="J821" s="6"/>
@@ -22816,7 +22877,7 @@
       </c>
       <c r="G822" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I822" s="11"/>
       <c r="J822" s="7"/>
@@ -22843,7 +22904,7 @@
       </c>
       <c r="G823" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I823" s="8"/>
       <c r="J823" s="6"/>
@@ -22870,7 +22931,7 @@
       </c>
       <c r="G824" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I824" s="11"/>
       <c r="J824" s="7"/>
@@ -22897,7 +22958,7 @@
       </c>
       <c r="G825" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I825" s="8"/>
       <c r="J825" s="6"/>
@@ -22924,7 +22985,7 @@
       </c>
       <c r="G826" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I826" s="11"/>
       <c r="J826" s="7"/>
@@ -22951,7 +23012,7 @@
       </c>
       <c r="G827" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I827" s="8"/>
       <c r="J827" s="6"/>
@@ -22978,7 +23039,7 @@
       </c>
       <c r="G828" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I828" s="11"/>
       <c r="J828" s="7"/>
@@ -23005,7 +23066,7 @@
       </c>
       <c r="G829" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I829" s="8"/>
       <c r="J829" s="6"/>
@@ -23032,7 +23093,7 @@
       </c>
       <c r="G830" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I830" s="11"/>
       <c r="J830" s="7"/>
@@ -23059,7 +23120,7 @@
       </c>
       <c r="G831" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I831" s="8"/>
       <c r="J831" s="6"/>
@@ -23086,7 +23147,7 @@
       </c>
       <c r="G832" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I832" s="11"/>
       <c r="J832" s="7"/>
@@ -23113,7 +23174,7 @@
       </c>
       <c r="G833" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I833" s="8"/>
       <c r="J833" s="6"/>
@@ -23140,7 +23201,7 @@
       </c>
       <c r="G834" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I834" s="11"/>
       <c r="J834" s="7"/>
@@ -23167,7 +23228,7 @@
       </c>
       <c r="G835" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I835" s="8"/>
       <c r="J835" s="6"/>
@@ -23194,7 +23255,7 @@
       </c>
       <c r="G836" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I836" s="11"/>
       <c r="J836" s="7"/>
@@ -23221,7 +23282,7 @@
       </c>
       <c r="G837" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I837" s="8"/>
       <c r="J837" s="6"/>
@@ -23248,7 +23309,7 @@
       </c>
       <c r="G838" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I838" s="11"/>
       <c r="J838" s="7"/>
@@ -23275,7 +23336,7 @@
       </c>
       <c r="G839" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I839" s="8"/>
       <c r="J839" s="6"/>
@@ -23302,7 +23363,7 @@
       </c>
       <c r="G840" s="7">
         <f t="shared" ref="G840:G903" si="41">G839</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I840" s="11"/>
       <c r="J840" s="7"/>
@@ -23329,7 +23390,7 @@
       </c>
       <c r="G841" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I841" s="8"/>
       <c r="J841" s="6"/>
@@ -23356,7 +23417,7 @@
       </c>
       <c r="G842" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I842" s="11"/>
       <c r="J842" s="7"/>
@@ -23383,7 +23444,7 @@
       </c>
       <c r="G843" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I843" s="8"/>
       <c r="J843" s="6"/>
@@ -23410,7 +23471,7 @@
       </c>
       <c r="G844" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I844" s="11"/>
       <c r="J844" s="7"/>
@@ -23437,7 +23498,7 @@
       </c>
       <c r="G845" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I845" s="8"/>
       <c r="J845" s="6"/>
@@ -23464,7 +23525,7 @@
       </c>
       <c r="G846" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I846" s="11"/>
       <c r="J846" s="7"/>
@@ -23491,7 +23552,7 @@
       </c>
       <c r="G847" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I847" s="8"/>
       <c r="J847" s="6"/>
@@ -23518,7 +23579,7 @@
       </c>
       <c r="G848" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I848" s="11"/>
       <c r="J848" s="7"/>
@@ -23545,7 +23606,7 @@
       </c>
       <c r="G849" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I849" s="8"/>
       <c r="J849" s="6"/>
@@ -23572,7 +23633,7 @@
       </c>
       <c r="G850" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I850" s="11"/>
       <c r="J850" s="7"/>
@@ -23599,7 +23660,7 @@
       </c>
       <c r="G851" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I851" s="8"/>
       <c r="J851" s="6"/>
@@ -23626,7 +23687,7 @@
       </c>
       <c r="G852" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I852" s="11"/>
       <c r="J852" s="7"/>
@@ -23653,7 +23714,7 @@
       </c>
       <c r="G853" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I853" s="8"/>
       <c r="J853" s="6"/>
@@ -23680,7 +23741,7 @@
       </c>
       <c r="G854" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I854" s="11"/>
       <c r="J854" s="7"/>
@@ -23707,7 +23768,7 @@
       </c>
       <c r="G855" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I855" s="8"/>
       <c r="J855" s="6"/>
@@ -23734,7 +23795,7 @@
       </c>
       <c r="G856" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I856" s="11"/>
       <c r="J856" s="7"/>
@@ -23761,7 +23822,7 @@
       </c>
       <c r="G857" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I857" s="8"/>
       <c r="J857" s="6"/>
@@ -23788,7 +23849,7 @@
       </c>
       <c r="G858" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I858" s="11"/>
       <c r="J858" s="7"/>
@@ -23815,7 +23876,7 @@
       </c>
       <c r="G859" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I859" s="8"/>
       <c r="J859" s="6"/>
@@ -23842,7 +23903,7 @@
       </c>
       <c r="G860" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I860" s="11"/>
       <c r="J860" s="7"/>
@@ -23869,7 +23930,7 @@
       </c>
       <c r="G861" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I861" s="8"/>
       <c r="J861" s="6"/>
@@ -23896,7 +23957,7 @@
       </c>
       <c r="G862" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I862" s="11"/>
       <c r="J862" s="7"/>
@@ -23923,7 +23984,7 @@
       </c>
       <c r="G863" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I863" s="8"/>
       <c r="J863" s="6"/>
@@ -23950,7 +24011,7 @@
       </c>
       <c r="G864" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I864" s="11"/>
       <c r="J864" s="7"/>
@@ -23977,7 +24038,7 @@
       </c>
       <c r="G865" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I865" s="8"/>
       <c r="J865" s="6"/>
@@ -24004,7 +24065,7 @@
       </c>
       <c r="G866" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I866" s="11"/>
       <c r="J866" s="7"/>
@@ -24031,7 +24092,7 @@
       </c>
       <c r="G867" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I867" s="8"/>
       <c r="J867" s="6"/>
@@ -24058,7 +24119,7 @@
       </c>
       <c r="G868" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I868" s="11"/>
       <c r="J868" s="7"/>
@@ -24085,7 +24146,7 @@
       </c>
       <c r="G869" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I869" s="8"/>
       <c r="J869" s="6"/>
@@ -24112,7 +24173,7 @@
       </c>
       <c r="G870" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I870" s="11"/>
       <c r="J870" s="7"/>
@@ -24139,7 +24200,7 @@
       </c>
       <c r="G871" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I871" s="8"/>
       <c r="J871" s="6"/>
@@ -24166,7 +24227,7 @@
       </c>
       <c r="G872" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I872" s="11"/>
       <c r="J872" s="7"/>
@@ -24193,7 +24254,7 @@
       </c>
       <c r="G873" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I873" s="8"/>
       <c r="J873" s="6"/>
@@ -24220,7 +24281,7 @@
       </c>
       <c r="G874" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I874" s="11"/>
       <c r="J874" s="7"/>
@@ -24247,7 +24308,7 @@
       </c>
       <c r="G875" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I875" s="8"/>
       <c r="J875" s="6"/>
@@ -24274,7 +24335,7 @@
       </c>
       <c r="G876" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I876" s="11"/>
       <c r="J876" s="7"/>
@@ -24301,7 +24362,7 @@
       </c>
       <c r="G877" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I877" s="8"/>
       <c r="J877" s="6"/>
@@ -24328,7 +24389,7 @@
       </c>
       <c r="G878" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I878" s="11"/>
       <c r="J878" s="7"/>
@@ -24355,7 +24416,7 @@
       </c>
       <c r="G879" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="6"/>
@@ -24382,7 +24443,7 @@
       </c>
       <c r="G880" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I880" s="11"/>
       <c r="J880" s="7"/>
@@ -24409,7 +24470,7 @@
       </c>
       <c r="G881" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I881" s="8"/>
       <c r="J881" s="6"/>
@@ -24436,7 +24497,7 @@
       </c>
       <c r="G882" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I882" s="11"/>
       <c r="J882" s="7"/>
@@ -24463,7 +24524,7 @@
       </c>
       <c r="G883" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I883" s="8"/>
       <c r="J883" s="6"/>
@@ -24490,7 +24551,7 @@
       </c>
       <c r="G884" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I884" s="11"/>
       <c r="J884" s="7"/>
@@ -24517,7 +24578,7 @@
       </c>
       <c r="G885" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I885" s="8"/>
       <c r="J885" s="6"/>
@@ -24544,7 +24605,7 @@
       </c>
       <c r="G886" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I886" s="11"/>
       <c r="J886" s="7"/>
@@ -24571,7 +24632,7 @@
       </c>
       <c r="G887" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I887" s="8"/>
       <c r="J887" s="6"/>
@@ -24598,7 +24659,7 @@
       </c>
       <c r="G888" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I888" s="11"/>
       <c r="J888" s="7"/>
@@ -24625,7 +24686,7 @@
       </c>
       <c r="G889" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I889" s="8"/>
       <c r="J889" s="6"/>
@@ -24652,7 +24713,7 @@
       </c>
       <c r="G890" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I890" s="11"/>
       <c r="J890" s="7"/>
@@ -24679,7 +24740,7 @@
       </c>
       <c r="G891" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I891" s="8"/>
       <c r="J891" s="6"/>
@@ -24706,7 +24767,7 @@
       </c>
       <c r="G892" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I892" s="11"/>
       <c r="J892" s="7"/>
@@ -24733,7 +24794,7 @@
       </c>
       <c r="G893" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I893" s="8"/>
       <c r="J893" s="6"/>
@@ -24760,7 +24821,7 @@
       </c>
       <c r="G894" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I894" s="11"/>
       <c r="J894" s="7"/>
@@ -24787,7 +24848,7 @@
       </c>
       <c r="G895" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I895" s="8"/>
       <c r="J895" s="6"/>
@@ -24814,7 +24875,7 @@
       </c>
       <c r="G896" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I896" s="11"/>
       <c r="J896" s="7"/>
@@ -24841,7 +24902,7 @@
       </c>
       <c r="G897" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I897" s="8"/>
       <c r="J897" s="6"/>
@@ -24868,7 +24929,7 @@
       </c>
       <c r="G898" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I898" s="11"/>
       <c r="J898" s="7"/>
@@ -24895,7 +24956,7 @@
       </c>
       <c r="G899" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I899" s="8"/>
       <c r="J899" s="6"/>
@@ -24922,7 +24983,7 @@
       </c>
       <c r="G900" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I900" s="11"/>
       <c r="J900" s="7"/>
@@ -24949,7 +25010,7 @@
       </c>
       <c r="G901" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I901" s="8"/>
       <c r="J901" s="6"/>
@@ -24976,7 +25037,7 @@
       </c>
       <c r="G902" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I902" s="11"/>
       <c r="J902" s="7"/>
@@ -25003,7 +25064,7 @@
       </c>
       <c r="G903" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I903" s="8"/>
       <c r="J903" s="6"/>
@@ -25030,7 +25091,7 @@
       </c>
       <c r="G904" s="7">
         <f t="shared" ref="G904:G967" si="44">G903</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I904" s="11"/>
       <c r="J904" s="7"/>
@@ -25057,7 +25118,7 @@
       </c>
       <c r="G905" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I905" s="8"/>
       <c r="J905" s="6"/>
@@ -25084,7 +25145,7 @@
       </c>
       <c r="G906" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I906" s="11"/>
       <c r="J906" s="7"/>
@@ -25111,7 +25172,7 @@
       </c>
       <c r="G907" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I907" s="8"/>
       <c r="J907" s="6"/>
@@ -25138,7 +25199,7 @@
       </c>
       <c r="G908" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I908" s="11"/>
       <c r="J908" s="7"/>
@@ -25165,7 +25226,7 @@
       </c>
       <c r="G909" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I909" s="8"/>
       <c r="J909" s="6"/>
@@ -25192,7 +25253,7 @@
       </c>
       <c r="G910" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I910" s="11"/>
       <c r="J910" s="7"/>
@@ -25219,7 +25280,7 @@
       </c>
       <c r="G911" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I911" s="8"/>
       <c r="J911" s="6"/>
@@ -25246,7 +25307,7 @@
       </c>
       <c r="G912" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I912" s="11"/>
       <c r="J912" s="7"/>
@@ -25273,7 +25334,7 @@
       </c>
       <c r="G913" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I913" s="8"/>
       <c r="J913" s="6"/>
@@ -25300,7 +25361,7 @@
       </c>
       <c r="G914" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I914" s="11"/>
       <c r="J914" s="7"/>
@@ -25327,7 +25388,7 @@
       </c>
       <c r="G915" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I915" s="8"/>
       <c r="J915" s="6"/>
@@ -25354,7 +25415,7 @@
       </c>
       <c r="G916" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I916" s="11"/>
       <c r="J916" s="7"/>
@@ -25381,7 +25442,7 @@
       </c>
       <c r="G917" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I917" s="8"/>
       <c r="J917" s="6"/>
@@ -25408,7 +25469,7 @@
       </c>
       <c r="G918" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I918" s="11"/>
       <c r="J918" s="7"/>
@@ -25435,7 +25496,7 @@
       </c>
       <c r="G919" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I919" s="8"/>
       <c r="J919" s="6"/>
@@ -25462,7 +25523,7 @@
       </c>
       <c r="G920" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I920" s="11"/>
       <c r="J920" s="7"/>
@@ -25489,7 +25550,7 @@
       </c>
       <c r="G921" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I921" s="8"/>
       <c r="J921" s="6"/>
@@ -25516,7 +25577,7 @@
       </c>
       <c r="G922" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I922" s="11"/>
       <c r="J922" s="7"/>
@@ -25543,7 +25604,7 @@
       </c>
       <c r="G923" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="6"/>
@@ -25570,7 +25631,7 @@
       </c>
       <c r="G924" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I924" s="11"/>
       <c r="J924" s="7"/>
@@ -25597,7 +25658,7 @@
       </c>
       <c r="G925" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I925" s="8"/>
       <c r="J925" s="6"/>
@@ -25624,7 +25685,7 @@
       </c>
       <c r="G926" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I926" s="11"/>
       <c r="J926" s="7"/>
@@ -25651,7 +25712,7 @@
       </c>
       <c r="G927" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I927" s="8"/>
       <c r="J927" s="6"/>
@@ -25678,7 +25739,7 @@
       </c>
       <c r="G928" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I928" s="11"/>
       <c r="J928" s="7"/>
@@ -25705,7 +25766,7 @@
       </c>
       <c r="G929" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I929" s="8"/>
       <c r="J929" s="6"/>
@@ -25732,7 +25793,7 @@
       </c>
       <c r="G930" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I930" s="11"/>
       <c r="J930" s="7"/>
@@ -25759,7 +25820,7 @@
       </c>
       <c r="G931" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I931" s="8"/>
       <c r="J931" s="6"/>
@@ -25786,7 +25847,7 @@
       </c>
       <c r="G932" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I932" s="11"/>
       <c r="J932" s="7"/>
@@ -25813,7 +25874,7 @@
       </c>
       <c r="G933" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I933" s="8"/>
       <c r="J933" s="6"/>
@@ -25840,7 +25901,7 @@
       </c>
       <c r="G934" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I934" s="11"/>
       <c r="J934" s="7"/>
@@ -25867,7 +25928,7 @@
       </c>
       <c r="G935" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I935" s="8"/>
       <c r="J935" s="6"/>
@@ -25894,7 +25955,7 @@
       </c>
       <c r="G936" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I936" s="11"/>
       <c r="J936" s="7"/>
@@ -25921,7 +25982,7 @@
       </c>
       <c r="G937" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I937" s="8"/>
       <c r="J937" s="6"/>
@@ -25948,7 +26009,7 @@
       </c>
       <c r="G938" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I938" s="11"/>
       <c r="J938" s="7"/>
@@ -25975,7 +26036,7 @@
       </c>
       <c r="G939" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I939" s="8"/>
       <c r="J939" s="6"/>
@@ -26002,7 +26063,7 @@
       </c>
       <c r="G940" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I940" s="11"/>
       <c r="J940" s="7"/>
@@ -26029,7 +26090,7 @@
       </c>
       <c r="G941" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I941" s="8"/>
       <c r="J941" s="6"/>
@@ -26056,7 +26117,7 @@
       </c>
       <c r="G942" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I942" s="11"/>
       <c r="J942" s="7"/>
@@ -26083,7 +26144,7 @@
       </c>
       <c r="G943" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I943" s="8"/>
       <c r="J943" s="6"/>
@@ -26110,7 +26171,7 @@
       </c>
       <c r="G944" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I944" s="11"/>
       <c r="J944" s="7"/>
@@ -26137,7 +26198,7 @@
       </c>
       <c r="G945" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I945" s="8"/>
       <c r="J945" s="6"/>
@@ -26164,7 +26225,7 @@
       </c>
       <c r="G946" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I946" s="11"/>
       <c r="J946" s="7"/>
@@ -26191,7 +26252,7 @@
       </c>
       <c r="G947" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I947" s="8"/>
       <c r="J947" s="6"/>
@@ -26218,7 +26279,7 @@
       </c>
       <c r="G948" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I948" s="11"/>
       <c r="J948" s="7"/>
@@ -26245,7 +26306,7 @@
       </c>
       <c r="G949" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I949" s="8"/>
       <c r="J949" s="6"/>
@@ -26272,7 +26333,7 @@
       </c>
       <c r="G950" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I950" s="11"/>
       <c r="J950" s="7"/>
@@ -26299,7 +26360,7 @@
       </c>
       <c r="G951" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I951" s="8"/>
       <c r="J951" s="6"/>
@@ -26326,7 +26387,7 @@
       </c>
       <c r="G952" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I952" s="11"/>
       <c r="J952" s="7"/>
@@ -26353,7 +26414,7 @@
       </c>
       <c r="G953" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I953" s="8"/>
       <c r="J953" s="6"/>
@@ -26380,7 +26441,7 @@
       </c>
       <c r="G954" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I954" s="11"/>
       <c r="J954" s="7"/>
@@ -26407,7 +26468,7 @@
       </c>
       <c r="G955" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I955" s="8"/>
       <c r="J955" s="6"/>
@@ -26434,7 +26495,7 @@
       </c>
       <c r="G956" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I956" s="11"/>
       <c r="J956" s="7"/>
@@ -26461,7 +26522,7 @@
       </c>
       <c r="G957" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I957" s="8"/>
       <c r="J957" s="6"/>
@@ -26488,7 +26549,7 @@
       </c>
       <c r="G958" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I958" s="11"/>
       <c r="J958" s="7"/>
@@ -26515,7 +26576,7 @@
       </c>
       <c r="G959" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I959" s="8"/>
       <c r="J959" s="6"/>
@@ -26542,7 +26603,7 @@
       </c>
       <c r="G960" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I960" s="11"/>
       <c r="J960" s="7"/>
@@ -26569,7 +26630,7 @@
       </c>
       <c r="G961" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I961" s="8"/>
       <c r="J961" s="6"/>
@@ -26596,7 +26657,7 @@
       </c>
       <c r="G962" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I962" s="11"/>
       <c r="J962" s="7"/>
@@ -26623,7 +26684,7 @@
       </c>
       <c r="G963" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I963" s="8"/>
       <c r="J963" s="6"/>
@@ -26650,7 +26711,7 @@
       </c>
       <c r="G964" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I964" s="11"/>
       <c r="J964" s="7"/>
@@ -26677,7 +26738,7 @@
       </c>
       <c r="G965" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I965" s="8"/>
       <c r="J965" s="6"/>
@@ -26704,7 +26765,7 @@
       </c>
       <c r="G966" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I966" s="11"/>
       <c r="J966" s="7"/>
@@ -26731,7 +26792,7 @@
       </c>
       <c r="G967" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I967" s="8"/>
       <c r="J967" s="6"/>
@@ -26758,7 +26819,7 @@
       </c>
       <c r="G968" s="7">
         <f t="shared" ref="G968:G1000" si="47">G967</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I968" s="11"/>
       <c r="J968" s="7"/>
@@ -26785,7 +26846,7 @@
       </c>
       <c r="G969" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I969" s="8"/>
       <c r="J969" s="6"/>
@@ -26812,7 +26873,7 @@
       </c>
       <c r="G970" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I970" s="11"/>
       <c r="J970" s="7"/>
@@ -26839,7 +26900,7 @@
       </c>
       <c r="G971" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I971" s="8"/>
       <c r="J971" s="6"/>
@@ -26866,7 +26927,7 @@
       </c>
       <c r="G972" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I972" s="11"/>
       <c r="J972" s="7"/>
@@ -26893,7 +26954,7 @@
       </c>
       <c r="G973" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I973" s="8"/>
       <c r="J973" s="6"/>
@@ -26920,7 +26981,7 @@
       </c>
       <c r="G974" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I974" s="11"/>
       <c r="J974" s="7"/>
@@ -26947,7 +27008,7 @@
       </c>
       <c r="G975" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I975" s="8"/>
       <c r="J975" s="6"/>
@@ -26974,7 +27035,7 @@
       </c>
       <c r="G976" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I976" s="11"/>
       <c r="J976" s="7"/>
@@ -27001,7 +27062,7 @@
       </c>
       <c r="G977" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I977" s="8"/>
       <c r="J977" s="6"/>
@@ -27028,7 +27089,7 @@
       </c>
       <c r="G978" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I978" s="11"/>
       <c r="J978" s="7"/>
@@ -27055,7 +27116,7 @@
       </c>
       <c r="G979" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I979" s="8"/>
       <c r="J979" s="6"/>
@@ -27082,7 +27143,7 @@
       </c>
       <c r="G980" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I980" s="11"/>
       <c r="J980" s="7"/>
@@ -27109,7 +27170,7 @@
       </c>
       <c r="G981" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I981" s="8"/>
       <c r="J981" s="6"/>
@@ -27136,7 +27197,7 @@
       </c>
       <c r="G982" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I982" s="11"/>
       <c r="J982" s="7"/>
@@ -27163,7 +27224,7 @@
       </c>
       <c r="G983" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I983" s="8"/>
       <c r="J983" s="6"/>
@@ -27190,7 +27251,7 @@
       </c>
       <c r="G984" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I984" s="11"/>
       <c r="J984" s="7"/>
@@ -27217,7 +27278,7 @@
       </c>
       <c r="G985" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I985" s="8"/>
       <c r="J985" s="6"/>
@@ -27244,7 +27305,7 @@
       </c>
       <c r="G986" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I986" s="11"/>
       <c r="J986" s="7"/>
@@ -27271,7 +27332,7 @@
       </c>
       <c r="G987" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I987" s="8"/>
       <c r="J987" s="6"/>
@@ -27298,7 +27359,7 @@
       </c>
       <c r="G988" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I988" s="11"/>
       <c r="J988" s="7"/>
@@ -27325,7 +27386,7 @@
       </c>
       <c r="G989" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I989" s="8"/>
       <c r="J989" s="6"/>
@@ -27352,7 +27413,7 @@
       </c>
       <c r="G990" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I990" s="11"/>
       <c r="J990" s="7"/>
@@ -27379,7 +27440,7 @@
       </c>
       <c r="G991" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I991" s="8"/>
       <c r="J991" s="6"/>
@@ -27406,7 +27467,7 @@
       </c>
       <c r="G992" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I992" s="11"/>
       <c r="J992" s="7"/>
@@ -27433,7 +27494,7 @@
       </c>
       <c r="G993" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I993" s="8"/>
       <c r="J993" s="6"/>
@@ -27460,7 +27521,7 @@
       </c>
       <c r="G994" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I994" s="11"/>
       <c r="J994" s="7"/>
@@ -27487,7 +27548,7 @@
       </c>
       <c r="G995" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I995" s="8"/>
       <c r="J995" s="6"/>
@@ -27514,7 +27575,7 @@
       </c>
       <c r="G996" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I996" s="11"/>
       <c r="J996" s="7"/>
@@ -27541,7 +27602,7 @@
       </c>
       <c r="G997" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I997" s="8"/>
       <c r="J997" s="6"/>
@@ -27568,7 +27629,7 @@
       </c>
       <c r="G998" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I998" s="11"/>
       <c r="J998" s="7"/>
@@ -27595,7 +27656,7 @@
       </c>
       <c r="G999" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I999" s="8"/>
       <c r="J999" s="6"/>
@@ -27622,7 +27683,7 @@
       </c>
       <c r="G1000" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I1000" s="11"/>
       <c r="J1000" s="7"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="DK109.524-DK139+000（2.11）(3)" sheetId="3" r:id="rId1"/>
+    <sheet name="2010-5-24德昌至米易(200)" sheetId="5" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>读取标记</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,62 +78,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海口</t>
+    <t>峨眉</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>CK</t>
   </si>
   <si>
-    <t>老城</t>
+    <t>沙湾西</t>
   </si>
   <si>
-    <t>临高</t>
+    <t>峨边南</t>
   </si>
   <si>
-    <t>D2K</t>
+    <t>金口河东</t>
   </si>
   <si>
-    <t>新盈</t>
+    <t>甘洛东</t>
   </si>
   <si>
-    <t>洋浦</t>
+    <t>新桥</t>
   </si>
   <si>
-    <t>棋子湾</t>
+    <t>越西南</t>
   </si>
   <si>
-    <t>东方</t>
+    <t>喜德南</t>
   </si>
   <si>
-    <t>板桥</t>
+    <t>新华</t>
   </si>
   <si>
-    <t>尖峰</t>
+    <t>西昌</t>
   </si>
   <si>
-    <t>乐东</t>
+    <t>黄水</t>
   </si>
   <si>
-    <t>崖城</t>
+    <t>德昌</t>
   </si>
   <si>
-    <t>D1K</t>
+    <t>永郎西</t>
   </si>
   <si>
-    <t>凤凰机场</t>
+    <t>米易</t>
   </si>
   <si>
-    <t>三亚</t>
+    <t>C3K</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>DK109.524-DK139+000（2.11）(3)</t>
+    <t>2010-5-24德昌至米易(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,8 +628,8 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -718,20 +719,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>J5/1000</f>
-        <v>0</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>I5</f>
-        <v>海口</v>
+        <v>峨眉</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -743,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>152300</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>14</v>
@@ -756,14 +759,14 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C69" si="0">J6/1000</f>
-        <v>13.638</v>
+        <v>171.8</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ref="E6:E69" si="1">I6</f>
-        <v>老城</v>
+        <v>沙湾西</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="7">
-        <v>13638</v>
+        <v>171800</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
@@ -789,14 +792,14 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>48.86</v>
+        <v>206.4</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>临高</v>
+        <v>峨边南</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -809,76 +812,73 @@
         <v>16</v>
       </c>
       <c r="J7" s="6">
-        <v>48860</v>
+        <v>206400</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="7">
         <v>4</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>80.718000000000004</v>
+        <v>232.2</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>新盈</v>
+        <v>金口河东</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <f t="shared" ref="G8:G71" si="2">G7</f>
+        <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7">
-        <v>80718</v>
+        <v>232200</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>108.89</v>
+        <v>268.2</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>洋浦</v>
+        <v>甘洛东</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G71" si="2">G8</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="6">
-        <v>108890</v>
+        <v>268200</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>14</v>
@@ -891,27 +891,27 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>171.22</v>
+        <v>304.5</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>棋子湾</v>
+        <v>新桥</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="7">
-        <v>171220</v>
+        <v>304500</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
@@ -924,27 +924,27 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>215.31</v>
+        <v>324.89999999999998</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>东方</v>
+        <v>越西南</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6">
-        <v>215310</v>
+        <v>324900</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>14</v>
@@ -957,27 +957,26 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>250.17</v>
+        <v>361</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>板桥</v>
+        <v>喜德南</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="7">
-        <v>250170</v>
+        <v>361000</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
@@ -990,14 +989,14 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>271.5</v>
+        <v>390</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>尖峰</v>
+        <v>新华</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -1006,11 +1005,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="6">
-        <v>271500</v>
+        <v>390000</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>14</v>
@@ -1023,14 +1025,14 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>297.58</v>
+        <v>418.5</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>乐东</v>
+        <v>西昌</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -1039,11 +1041,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
       <c r="I14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="7">
-        <v>297580</v>
+        <v>418500</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
@@ -1056,14 +1061,14 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>323.44</v>
+        <v>446.7</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>崖城</v>
+        <v>黄水</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1072,14 +1077,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
       <c r="I15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="6">
-        <v>323440</v>
+        <v>446700</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75">
@@ -1089,14 +1097,14 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="0"/>
-        <v>354.76</v>
+        <v>474</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>凤凰机场</v>
+        <v>德昌</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -1105,11 +1113,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
       <c r="I16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="7">
-        <v>354760</v>
+        <v>474000</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
@@ -1122,14 +1133,14 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>363.072</v>
+        <v>501.3</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>三亚</v>
+        <v>永郎西</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1138,31 +1149,36 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
       <c r="I17" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="6">
-        <v>363072</v>
+        <v>501300</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" s="7">
         <v>14</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>531.5</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>米易</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -1171,9 +1187,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="7">
+        <v>531500</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="4"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="DK109.524-DK139+000（2.11）(3)" sheetId="4" r:id="rId1"/>
+    <sheet name="D1K48+000～D1K109+200（2.11）(2)" sheetId="3" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -93,6 +93,10 @@
     <t>D2K</t>
   </si>
   <si>
+    <t>D1K48+000～D1K109+200（2.11）(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新盈</t>
   </si>
   <si>
@@ -127,10 +131,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>DK109.524-DK139+000（2.11）(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -817,7 +817,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -839,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7">
         <v>80718</v>
@@ -849,9 +851,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="6">
         <v>108890</v>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="7">
         <v>171220</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="6">
         <v>215310</v>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="7">
         <v>250170</v>
@@ -1006,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="6">
         <v>271500</v>
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7">
         <v>297580</v>
@@ -1072,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="6">
         <v>323440</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75">
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="7">
         <v>354760</v>
@@ -1138,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="6">
         <v>363072</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="D1K48+000～D1K109+200（2.11）(2)" sheetId="3" r:id="rId1"/>
+    <sheet name="DK109.524-DK139+000（2.11）(3)" sheetId="4" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -93,10 +93,6 @@
     <t>D2K</t>
   </si>
   <si>
-    <t>D1K48+000～D1K109+200（2.11）(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新盈</t>
   </si>
   <si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>DK109.524-DK139+000（2.11）(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -817,9 +817,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -841,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="7">
         <v>80718</v>
@@ -874,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6">
         <v>108890</v>
@@ -903,11 +901,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7">
         <v>171220</v>
@@ -936,11 +933,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6">
         <v>215310</v>
@@ -970,10 +966,10 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="7">
         <v>250170</v>
@@ -1003,10 +999,10 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="6">
         <v>271500</v>
@@ -1036,10 +1032,10 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="7">
         <v>297580</v>
@@ -1068,17 +1064,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="6">
         <v>323440</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75">
@@ -1101,11 +1096,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7">
         <v>354760</v>
@@ -1115,7 +1109,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -1134,17 +1130,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="6">
         <v>363072</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75">
@@ -1168,7 +1163,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -1195,7 +1190,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="6"/>
@@ -1222,7 +1217,7 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -1249,7 +1244,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -1276,7 +1271,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -1303,7 +1298,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
@@ -1330,7 +1325,7 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
@@ -1357,7 +1352,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
@@ -1384,7 +1379,7 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="7"/>
@@ -1411,7 +1406,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -1438,7 +1433,7 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
@@ -1465,7 +1460,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
@@ -1492,7 +1487,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="7"/>
@@ -1519,7 +1514,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
@@ -1546,7 +1541,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="7"/>
@@ -1573,7 +1568,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
@@ -1600,7 +1595,7 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
@@ -1627,7 +1622,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
@@ -1654,7 +1649,7 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="7"/>
@@ -1681,7 +1676,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
@@ -1708,7 +1703,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="7"/>
@@ -1735,7 +1730,7 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="6"/>
@@ -1762,7 +1757,7 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="7"/>
@@ -1789,7 +1784,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
@@ -1816,7 +1811,7 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="7"/>
@@ -1843,7 +1838,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6"/>
@@ -1870,7 +1865,7 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="7"/>
@@ -1897,7 +1892,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="6"/>
@@ -1924,7 +1919,7 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="7"/>
@@ -1951,7 +1946,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
@@ -1978,7 +1973,7 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="7"/>
@@ -2005,7 +2000,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="6"/>
@@ -2032,7 +2027,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="7"/>
@@ -2059,7 +2054,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="6"/>
@@ -2086,7 +2081,7 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="7"/>
@@ -2113,7 +2108,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
@@ -2140,7 +2135,7 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="7"/>
@@ -2167,7 +2162,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="6"/>
@@ -2194,7 +2189,7 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="7"/>
@@ -2221,7 +2216,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="6"/>
@@ -2248,7 +2243,7 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="7"/>
@@ -2275,7 +2270,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="6"/>
@@ -2302,7 +2297,7 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
@@ -2329,7 +2324,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="6"/>
@@ -2356,7 +2351,7 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
@@ -2383,7 +2378,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="6"/>
@@ -2410,7 +2405,7 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="7"/>
@@ -2437,7 +2432,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="6"/>
@@ -2464,7 +2459,7 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="7"/>
@@ -2491,7 +2486,7 @@
       </c>
       <c r="G67" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="6"/>
@@ -2518,7 +2513,7 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="7"/>
@@ -2545,7 +2540,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="6"/>
@@ -2572,7 +2567,7 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="7"/>
@@ -2599,7 +2594,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="6"/>
@@ -2626,7 +2621,7 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" ref="G72:G135" si="5">G71</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="7"/>
@@ -2653,7 +2648,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="6"/>
@@ -2680,7 +2675,7 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="7"/>
@@ -2707,7 +2702,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="6"/>
@@ -2734,7 +2729,7 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="7"/>
@@ -2761,7 +2756,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="6"/>
@@ -2788,7 +2783,7 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="7"/>
@@ -2815,7 +2810,7 @@
       </c>
       <c r="G79" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="6"/>
@@ -2842,7 +2837,7 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="7"/>
@@ -2869,7 +2864,7 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="6"/>
@@ -2896,7 +2891,7 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="7"/>
@@ -2923,7 +2918,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="6"/>
@@ -2950,7 +2945,7 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="7"/>
@@ -2977,7 +2972,7 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="6"/>
@@ -3004,7 +2999,7 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="7"/>
@@ -3031,7 +3026,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="6"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="7"/>
@@ -3085,7 +3080,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="6"/>
@@ -3112,7 +3107,7 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="7"/>
@@ -3139,7 +3134,7 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="6"/>
@@ -3166,7 +3161,7 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="7"/>
@@ -3193,7 +3188,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="6"/>
@@ -3220,7 +3215,7 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="7"/>
@@ -3247,7 +3242,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="6"/>
@@ -3274,7 +3269,7 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="7"/>
@@ -3301,7 +3296,7 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="6"/>
@@ -3328,7 +3323,7 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="7"/>
@@ -3355,7 +3350,7 @@
       </c>
       <c r="G99" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="6"/>
@@ -3382,7 +3377,7 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="7"/>
@@ -3409,7 +3404,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="6"/>
@@ -3436,7 +3431,7 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="7"/>
@@ -3463,7 +3458,7 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="6"/>
@@ -3490,7 +3485,7 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="7"/>
@@ -3517,7 +3512,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="6"/>
@@ -3544,7 +3539,7 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="7"/>
@@ -3571,7 +3566,7 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="6"/>
@@ -3598,7 +3593,7 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="7"/>
@@ -3625,7 +3620,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="6"/>
@@ -3652,7 +3647,7 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="7"/>
@@ -3679,7 +3674,7 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="6"/>
@@ -3706,7 +3701,7 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="7"/>
@@ -3733,7 +3728,7 @@
       </c>
       <c r="G113" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="6"/>
@@ -3760,7 +3755,7 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="7"/>
@@ -3787,7 +3782,7 @@
       </c>
       <c r="G115" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="6"/>
@@ -3814,7 +3809,7 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="7"/>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="G117" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="6"/>
@@ -3868,7 +3863,7 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="7"/>
@@ -3895,7 +3890,7 @@
       </c>
       <c r="G119" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="6"/>
@@ -3922,7 +3917,7 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="7"/>
@@ -3949,7 +3944,7 @@
       </c>
       <c r="G121" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="6"/>
@@ -3976,7 +3971,7 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="7"/>
@@ -4003,7 +3998,7 @@
       </c>
       <c r="G123" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="6"/>
@@ -4030,7 +4025,7 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="7"/>
@@ -4057,7 +4052,7 @@
       </c>
       <c r="G125" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="6"/>
@@ -4084,7 +4079,7 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="7"/>
@@ -4111,7 +4106,7 @@
       </c>
       <c r="G127" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="6"/>
@@ -4138,7 +4133,7 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="7"/>
@@ -4165,7 +4160,7 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="6"/>
@@ -4192,7 +4187,7 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I130" s="11"/>
       <c r="J130" s="7"/>
@@ -4219,7 +4214,7 @@
       </c>
       <c r="G131" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="6"/>
@@ -4246,7 +4241,7 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="7"/>
@@ -4273,7 +4268,7 @@
       </c>
       <c r="G133" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="6"/>
@@ -4300,7 +4295,7 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I134" s="11"/>
       <c r="J134" s="7"/>
@@ -4327,7 +4322,7 @@
       </c>
       <c r="G135" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="6"/>
@@ -4354,7 +4349,7 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" ref="G136:G199" si="8">G135</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="7"/>
@@ -4381,7 +4376,7 @@
       </c>
       <c r="G137" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="6"/>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="7"/>
@@ -4435,7 +4430,7 @@
       </c>
       <c r="G139" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="6"/>
@@ -4462,7 +4457,7 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="7"/>
@@ -4489,7 +4484,7 @@
       </c>
       <c r="G141" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="6"/>
@@ -4516,7 +4511,7 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="7"/>
@@ -4543,7 +4538,7 @@
       </c>
       <c r="G143" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="6"/>
@@ -4570,7 +4565,7 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="7"/>
@@ -4597,7 +4592,7 @@
       </c>
       <c r="G145" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="6"/>
@@ -4624,7 +4619,7 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="7"/>
@@ -4651,7 +4646,7 @@
       </c>
       <c r="G147" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="6"/>
@@ -4678,7 +4673,7 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="7"/>
@@ -4705,7 +4700,7 @@
       </c>
       <c r="G149" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="6"/>
@@ -4732,7 +4727,7 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="7"/>
@@ -4759,7 +4754,7 @@
       </c>
       <c r="G151" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="6"/>
@@ -4786,7 +4781,7 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="7"/>
@@ -4813,7 +4808,7 @@
       </c>
       <c r="G153" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="6"/>
@@ -4840,7 +4835,7 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="7"/>
@@ -4867,7 +4862,7 @@
       </c>
       <c r="G155" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="6"/>
@@ -4894,7 +4889,7 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="7"/>
@@ -4921,7 +4916,7 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="6"/>
@@ -4948,7 +4943,7 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="7"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="G159" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="6"/>
@@ -5002,7 +4997,7 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="7"/>
@@ -5029,7 +5024,7 @@
       </c>
       <c r="G161" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="6"/>
@@ -5056,7 +5051,7 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="7"/>
@@ -5083,7 +5078,7 @@
       </c>
       <c r="G163" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
@@ -5110,7 +5105,7 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I164" s="11"/>
       <c r="J164" s="7"/>
@@ -5137,7 +5132,7 @@
       </c>
       <c r="G165" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
@@ -5164,7 +5159,7 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I166" s="11"/>
       <c r="J166" s="7"/>
@@ -5191,7 +5186,7 @@
       </c>
       <c r="G167" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="6"/>
@@ -5218,7 +5213,7 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="7"/>
@@ -5245,7 +5240,7 @@
       </c>
       <c r="G169" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="6"/>
@@ -5272,7 +5267,7 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I170" s="11"/>
       <c r="J170" s="7"/>
@@ -5299,7 +5294,7 @@
       </c>
       <c r="G171" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="6"/>
@@ -5326,7 +5321,7 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="7"/>
@@ -5353,7 +5348,7 @@
       </c>
       <c r="G173" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="6"/>
@@ -5380,7 +5375,7 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="7"/>
@@ -5407,7 +5402,7 @@
       </c>
       <c r="G175" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="6"/>
@@ -5434,7 +5429,7 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="7"/>
@@ -5461,7 +5456,7 @@
       </c>
       <c r="G177" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="6"/>
@@ -5488,7 +5483,7 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="7"/>
@@ -5515,7 +5510,7 @@
       </c>
       <c r="G179" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="6"/>
@@ -5542,7 +5537,7 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I180" s="11"/>
       <c r="J180" s="7"/>
@@ -5569,7 +5564,7 @@
       </c>
       <c r="G181" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="6"/>
@@ -5596,7 +5591,7 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I182" s="11"/>
       <c r="J182" s="7"/>
@@ -5623,7 +5618,7 @@
       </c>
       <c r="G183" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="6"/>
@@ -5650,7 +5645,7 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="7"/>
@@ -5677,7 +5672,7 @@
       </c>
       <c r="G185" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="6"/>
@@ -5704,7 +5699,7 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I186" s="11"/>
       <c r="J186" s="7"/>
@@ -5731,7 +5726,7 @@
       </c>
       <c r="G187" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="6"/>
@@ -5758,7 +5753,7 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I188" s="11"/>
       <c r="J188" s="7"/>
@@ -5785,7 +5780,7 @@
       </c>
       <c r="G189" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I189" s="8"/>
       <c r="J189" s="6"/>
@@ -5812,7 +5807,7 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="7"/>
@@ -5839,7 +5834,7 @@
       </c>
       <c r="G191" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="6"/>
@@ -5866,7 +5861,7 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="7"/>
@@ -5893,7 +5888,7 @@
       </c>
       <c r="G193" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="6"/>
@@ -5920,7 +5915,7 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="7"/>
@@ -5947,7 +5942,7 @@
       </c>
       <c r="G195" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="6"/>
@@ -5974,7 +5969,7 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I196" s="11"/>
       <c r="J196" s="7"/>
@@ -6001,7 +5996,7 @@
       </c>
       <c r="G197" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="6"/>
@@ -6028,7 +6023,7 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="7"/>
@@ -6055,7 +6050,7 @@
       </c>
       <c r="G199" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="6"/>
@@ -6082,7 +6077,7 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" ref="G200:G263" si="11">G199</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I200" s="11"/>
       <c r="J200" s="7"/>
@@ -6109,7 +6104,7 @@
       </c>
       <c r="G201" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="6"/>
@@ -6136,7 +6131,7 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I202" s="11"/>
       <c r="J202" s="7"/>
@@ -6163,7 +6158,7 @@
       </c>
       <c r="G203" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="6"/>
@@ -6190,7 +6185,7 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="7"/>
@@ -6217,7 +6212,7 @@
       </c>
       <c r="G205" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="6"/>
@@ -6244,7 +6239,7 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I206" s="11"/>
       <c r="J206" s="7"/>
@@ -6271,7 +6266,7 @@
       </c>
       <c r="G207" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="6"/>
@@ -6298,7 +6293,7 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="7"/>
@@ -6325,7 +6320,7 @@
       </c>
       <c r="G209" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="6"/>
@@ -6352,7 +6347,7 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="7"/>
@@ -6379,7 +6374,7 @@
       </c>
       <c r="G211" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="6"/>
@@ -6406,7 +6401,7 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I212" s="11"/>
       <c r="J212" s="7"/>
@@ -6433,7 +6428,7 @@
       </c>
       <c r="G213" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="6"/>
@@ -6460,7 +6455,7 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="7"/>
@@ -6487,7 +6482,7 @@
       </c>
       <c r="G215" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="6"/>
@@ -6514,7 +6509,7 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I216" s="11"/>
       <c r="J216" s="7"/>
@@ -6541,7 +6536,7 @@
       </c>
       <c r="G217" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="6"/>
@@ -6568,7 +6563,7 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I218" s="11"/>
       <c r="J218" s="7"/>
@@ -6595,7 +6590,7 @@
       </c>
       <c r="G219" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I219" s="8"/>
       <c r="J219" s="6"/>
@@ -6622,7 +6617,7 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I220" s="11"/>
       <c r="J220" s="7"/>
@@ -6649,7 +6644,7 @@
       </c>
       <c r="G221" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="6"/>
@@ -6676,7 +6671,7 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="7"/>
@@ -6703,7 +6698,7 @@
       </c>
       <c r="G223" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="6"/>
@@ -6730,7 +6725,7 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="7"/>
@@ -6757,7 +6752,7 @@
       </c>
       <c r="G225" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I225" s="8"/>
       <c r="J225" s="6"/>
@@ -6784,7 +6779,7 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I226" s="11"/>
       <c r="J226" s="7"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="G227" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="6"/>
@@ -6838,7 +6833,7 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I228" s="11"/>
       <c r="J228" s="7"/>
@@ -6865,7 +6860,7 @@
       </c>
       <c r="G229" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I229" s="8"/>
       <c r="J229" s="6"/>
@@ -6892,7 +6887,7 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I230" s="11"/>
       <c r="J230" s="7"/>
@@ -6919,7 +6914,7 @@
       </c>
       <c r="G231" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I231" s="8"/>
       <c r="J231" s="6"/>
@@ -6946,7 +6941,7 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I232" s="11"/>
       <c r="J232" s="7"/>
@@ -6973,7 +6968,7 @@
       </c>
       <c r="G233" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="6"/>
@@ -7000,7 +6995,7 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I234" s="11"/>
       <c r="J234" s="7"/>
@@ -7027,7 +7022,7 @@
       </c>
       <c r="G235" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="6"/>
@@ -7054,7 +7049,7 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I236" s="11"/>
       <c r="J236" s="7"/>
@@ -7081,7 +7076,7 @@
       </c>
       <c r="G237" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="6"/>
@@ -7108,7 +7103,7 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I238" s="11"/>
       <c r="J238" s="7"/>
@@ -7135,7 +7130,7 @@
       </c>
       <c r="G239" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="6"/>
@@ -7162,7 +7157,7 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I240" s="11"/>
       <c r="J240" s="7"/>
@@ -7189,7 +7184,7 @@
       </c>
       <c r="G241" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I241" s="8"/>
       <c r="J241" s="6"/>
@@ -7216,7 +7211,7 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I242" s="11"/>
       <c r="J242" s="7"/>
@@ -7243,7 +7238,7 @@
       </c>
       <c r="G243" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I243" s="8"/>
       <c r="J243" s="6"/>
@@ -7270,7 +7265,7 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I244" s="11"/>
       <c r="J244" s="7"/>
@@ -7297,7 +7292,7 @@
       </c>
       <c r="G245" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I245" s="8"/>
       <c r="J245" s="6"/>
@@ -7324,7 +7319,7 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I246" s="11"/>
       <c r="J246" s="7"/>
@@ -7351,7 +7346,7 @@
       </c>
       <c r="G247" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I247" s="8"/>
       <c r="J247" s="6"/>
@@ -7378,7 +7373,7 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I248" s="11"/>
       <c r="J248" s="7"/>
@@ -7405,7 +7400,7 @@
       </c>
       <c r="G249" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I249" s="8"/>
       <c r="J249" s="6"/>
@@ -7432,7 +7427,7 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I250" s="11"/>
       <c r="J250" s="7"/>
@@ -7459,7 +7454,7 @@
       </c>
       <c r="G251" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I251" s="8"/>
       <c r="J251" s="6"/>
@@ -7486,7 +7481,7 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I252" s="11"/>
       <c r="J252" s="7"/>
@@ -7513,7 +7508,7 @@
       </c>
       <c r="G253" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I253" s="8"/>
       <c r="J253" s="6"/>
@@ -7540,7 +7535,7 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I254" s="11"/>
       <c r="J254" s="7"/>
@@ -7567,7 +7562,7 @@
       </c>
       <c r="G255" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I255" s="8"/>
       <c r="J255" s="6"/>
@@ -7594,7 +7589,7 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I256" s="11"/>
       <c r="J256" s="7"/>
@@ -7621,7 +7616,7 @@
       </c>
       <c r="G257" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I257" s="8"/>
       <c r="J257" s="6"/>
@@ -7648,7 +7643,7 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I258" s="11"/>
       <c r="J258" s="7"/>
@@ -7675,7 +7670,7 @@
       </c>
       <c r="G259" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I259" s="8"/>
       <c r="J259" s="6"/>
@@ -7702,7 +7697,7 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I260" s="11"/>
       <c r="J260" s="7"/>
@@ -7729,7 +7724,7 @@
       </c>
       <c r="G261" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="6"/>
@@ -7756,7 +7751,7 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="7"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="G263" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I263" s="8"/>
       <c r="J263" s="6"/>
@@ -7810,7 +7805,7 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" ref="G264:G327" si="14">G263</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I264" s="11"/>
       <c r="J264" s="7"/>
@@ -7837,7 +7832,7 @@
       </c>
       <c r="G265" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I265" s="8"/>
       <c r="J265" s="6"/>
@@ -7864,7 +7859,7 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="7"/>
@@ -7891,7 +7886,7 @@
       </c>
       <c r="G267" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I267" s="8"/>
       <c r="J267" s="6"/>
@@ -7918,7 +7913,7 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I268" s="11"/>
       <c r="J268" s="7"/>
@@ -7945,7 +7940,7 @@
       </c>
       <c r="G269" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I269" s="8"/>
       <c r="J269" s="6"/>
@@ -7972,7 +7967,7 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I270" s="11"/>
       <c r="J270" s="7"/>
@@ -7999,7 +7994,7 @@
       </c>
       <c r="G271" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I271" s="8"/>
       <c r="J271" s="6"/>
@@ -8026,7 +8021,7 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I272" s="11"/>
       <c r="J272" s="7"/>
@@ -8053,7 +8048,7 @@
       </c>
       <c r="G273" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I273" s="8"/>
       <c r="J273" s="6"/>
@@ -8080,7 +8075,7 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I274" s="11"/>
       <c r="J274" s="7"/>
@@ -8107,7 +8102,7 @@
       </c>
       <c r="G275" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="6"/>
@@ -8134,7 +8129,7 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I276" s="11"/>
       <c r="J276" s="7"/>
@@ -8161,7 +8156,7 @@
       </c>
       <c r="G277" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I277" s="8"/>
       <c r="J277" s="6"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I278" s="11"/>
       <c r="J278" s="7"/>
@@ -8215,7 +8210,7 @@
       </c>
       <c r="G279" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I279" s="8"/>
       <c r="J279" s="6"/>
@@ -8242,7 +8237,7 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I280" s="11"/>
       <c r="J280" s="7"/>
@@ -8269,7 +8264,7 @@
       </c>
       <c r="G281" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I281" s="8"/>
       <c r="J281" s="6"/>
@@ -8296,7 +8291,7 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I282" s="11"/>
       <c r="J282" s="7"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="G283" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I283" s="8"/>
       <c r="J283" s="6"/>
@@ -8350,7 +8345,7 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I284" s="11"/>
       <c r="J284" s="7"/>
@@ -8377,7 +8372,7 @@
       </c>
       <c r="G285" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I285" s="8"/>
       <c r="J285" s="6"/>
@@ -8404,7 +8399,7 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I286" s="11"/>
       <c r="J286" s="7"/>
@@ -8431,7 +8426,7 @@
       </c>
       <c r="G287" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I287" s="8"/>
       <c r="J287" s="6"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I288" s="11"/>
       <c r="J288" s="7"/>
@@ -8485,7 +8480,7 @@
       </c>
       <c r="G289" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="6"/>
@@ -8512,7 +8507,7 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I290" s="11"/>
       <c r="J290" s="7"/>
@@ -8539,7 +8534,7 @@
       </c>
       <c r="G291" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I291" s="8"/>
       <c r="J291" s="6"/>
@@ -8566,7 +8561,7 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I292" s="11"/>
       <c r="J292" s="7"/>
@@ -8593,7 +8588,7 @@
       </c>
       <c r="G293" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I293" s="8"/>
       <c r="J293" s="6"/>
@@ -8620,7 +8615,7 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I294" s="11"/>
       <c r="J294" s="7"/>
@@ -8647,7 +8642,7 @@
       </c>
       <c r="G295" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I295" s="8"/>
       <c r="J295" s="6"/>
@@ -8674,7 +8669,7 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I296" s="11"/>
       <c r="J296" s="7"/>
@@ -8701,7 +8696,7 @@
       </c>
       <c r="G297" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I297" s="8"/>
       <c r="J297" s="6"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I298" s="11"/>
       <c r="J298" s="7"/>
@@ -8755,7 +8750,7 @@
       </c>
       <c r="G299" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I299" s="8"/>
       <c r="J299" s="6"/>
@@ -8782,7 +8777,7 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I300" s="11"/>
       <c r="J300" s="7"/>
@@ -8809,7 +8804,7 @@
       </c>
       <c r="G301" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="6"/>
@@ -8836,7 +8831,7 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I302" s="11"/>
       <c r="J302" s="7"/>
@@ -8863,7 +8858,7 @@
       </c>
       <c r="G303" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I303" s="8"/>
       <c r="J303" s="6"/>
@@ -8890,7 +8885,7 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I304" s="11"/>
       <c r="J304" s="7"/>
@@ -8917,7 +8912,7 @@
       </c>
       <c r="G305" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I305" s="8"/>
       <c r="J305" s="6"/>
@@ -8944,7 +8939,7 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I306" s="11"/>
       <c r="J306" s="7"/>
@@ -8971,7 +8966,7 @@
       </c>
       <c r="G307" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I307" s="8"/>
       <c r="J307" s="6"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I308" s="11"/>
       <c r="J308" s="7"/>
@@ -9025,7 +9020,7 @@
       </c>
       <c r="G309" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I309" s="8"/>
       <c r="J309" s="6"/>
@@ -9052,7 +9047,7 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I310" s="11"/>
       <c r="J310" s="7"/>
@@ -9079,7 +9074,7 @@
       </c>
       <c r="G311" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I311" s="8"/>
       <c r="J311" s="6"/>
@@ -9106,7 +9101,7 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I312" s="11"/>
       <c r="J312" s="7"/>
@@ -9133,7 +9128,7 @@
       </c>
       <c r="G313" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I313" s="8"/>
       <c r="J313" s="6"/>
@@ -9160,7 +9155,7 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I314" s="11"/>
       <c r="J314" s="7"/>
@@ -9187,7 +9182,7 @@
       </c>
       <c r="G315" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I315" s="8"/>
       <c r="J315" s="6"/>
@@ -9214,7 +9209,7 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I316" s="11"/>
       <c r="J316" s="7"/>
@@ -9241,7 +9236,7 @@
       </c>
       <c r="G317" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I317" s="8"/>
       <c r="J317" s="6"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I318" s="11"/>
       <c r="J318" s="7"/>
@@ -9295,7 +9290,7 @@
       </c>
       <c r="G319" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I319" s="8"/>
       <c r="J319" s="6"/>
@@ -9322,7 +9317,7 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I320" s="11"/>
       <c r="J320" s="7"/>
@@ -9349,7 +9344,7 @@
       </c>
       <c r="G321" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I321" s="8"/>
       <c r="J321" s="6"/>
@@ -9376,7 +9371,7 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I322" s="11"/>
       <c r="J322" s="7"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="G323" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I323" s="8"/>
       <c r="J323" s="6"/>
@@ -9430,7 +9425,7 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="7"/>
@@ -9457,7 +9452,7 @@
       </c>
       <c r="G325" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I325" s="8"/>
       <c r="J325" s="6"/>
@@ -9484,7 +9479,7 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I326" s="11"/>
       <c r="J326" s="7"/>
@@ -9511,7 +9506,7 @@
       </c>
       <c r="G327" s="6">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I327" s="8"/>
       <c r="J327" s="6"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" ref="G328:G391" si="17">G327</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I328" s="11"/>
       <c r="J328" s="7"/>
@@ -9565,7 +9560,7 @@
       </c>
       <c r="G329" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I329" s="8"/>
       <c r="J329" s="6"/>
@@ -9592,7 +9587,7 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I330" s="11"/>
       <c r="J330" s="7"/>
@@ -9619,7 +9614,7 @@
       </c>
       <c r="G331" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I331" s="8"/>
       <c r="J331" s="6"/>
@@ -9646,7 +9641,7 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I332" s="11"/>
       <c r="J332" s="7"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="G333" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I333" s="8"/>
       <c r="J333" s="6"/>
@@ -9700,7 +9695,7 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I334" s="11"/>
       <c r="J334" s="7"/>
@@ -9727,7 +9722,7 @@
       </c>
       <c r="G335" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I335" s="8"/>
       <c r="J335" s="6"/>
@@ -9754,7 +9749,7 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I336" s="11"/>
       <c r="J336" s="7"/>
@@ -9781,7 +9776,7 @@
       </c>
       <c r="G337" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I337" s="8"/>
       <c r="J337" s="6"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I338" s="11"/>
       <c r="J338" s="7"/>
@@ -9835,7 +9830,7 @@
       </c>
       <c r="G339" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I339" s="8"/>
       <c r="J339" s="6"/>
@@ -9862,7 +9857,7 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I340" s="11"/>
       <c r="J340" s="7"/>
@@ -9889,7 +9884,7 @@
       </c>
       <c r="G341" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I341" s="8"/>
       <c r="J341" s="6"/>
@@ -9916,7 +9911,7 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I342" s="11"/>
       <c r="J342" s="7"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="G343" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I343" s="8"/>
       <c r="J343" s="6"/>
@@ -9970,7 +9965,7 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I344" s="11"/>
       <c r="J344" s="7"/>
@@ -9997,7 +9992,7 @@
       </c>
       <c r="G345" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I345" s="8"/>
       <c r="J345" s="6"/>
@@ -10024,7 +10019,7 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I346" s="11"/>
       <c r="J346" s="7"/>
@@ -10051,7 +10046,7 @@
       </c>
       <c r="G347" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I347" s="8"/>
       <c r="J347" s="6"/>
@@ -10078,7 +10073,7 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I348" s="11"/>
       <c r="J348" s="7"/>
@@ -10105,7 +10100,7 @@
       </c>
       <c r="G349" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I349" s="8"/>
       <c r="J349" s="6"/>
@@ -10132,7 +10127,7 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I350" s="11"/>
       <c r="J350" s="7"/>
@@ -10159,7 +10154,7 @@
       </c>
       <c r="G351" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I351" s="8"/>
       <c r="J351" s="6"/>
@@ -10186,7 +10181,7 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I352" s="11"/>
       <c r="J352" s="7"/>
@@ -10213,7 +10208,7 @@
       </c>
       <c r="G353" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I353" s="8"/>
       <c r="J353" s="6"/>
@@ -10240,7 +10235,7 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I354" s="11"/>
       <c r="J354" s="7"/>
@@ -10267,7 +10262,7 @@
       </c>
       <c r="G355" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I355" s="8"/>
       <c r="J355" s="6"/>
@@ -10294,7 +10289,7 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I356" s="11"/>
       <c r="J356" s="7"/>
@@ -10321,7 +10316,7 @@
       </c>
       <c r="G357" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I357" s="8"/>
       <c r="J357" s="6"/>
@@ -10348,7 +10343,7 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I358" s="11"/>
       <c r="J358" s="7"/>
@@ -10375,7 +10370,7 @@
       </c>
       <c r="G359" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="6"/>
@@ -10402,7 +10397,7 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I360" s="11"/>
       <c r="J360" s="7"/>
@@ -10429,7 +10424,7 @@
       </c>
       <c r="G361" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I361" s="8"/>
       <c r="J361" s="6"/>
@@ -10456,7 +10451,7 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I362" s="11"/>
       <c r="J362" s="7"/>
@@ -10483,7 +10478,7 @@
       </c>
       <c r="G363" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I363" s="8"/>
       <c r="J363" s="6"/>
@@ -10510,7 +10505,7 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I364" s="11"/>
       <c r="J364" s="7"/>
@@ -10537,7 +10532,7 @@
       </c>
       <c r="G365" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I365" s="8"/>
       <c r="J365" s="6"/>
@@ -10564,7 +10559,7 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I366" s="11"/>
       <c r="J366" s="7"/>
@@ -10591,7 +10586,7 @@
       </c>
       <c r="G367" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I367" s="8"/>
       <c r="J367" s="6"/>
@@ -10618,7 +10613,7 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I368" s="11"/>
       <c r="J368" s="7"/>
@@ -10645,7 +10640,7 @@
       </c>
       <c r="G369" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I369" s="8"/>
       <c r="J369" s="6"/>
@@ -10672,7 +10667,7 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I370" s="11"/>
       <c r="J370" s="7"/>
@@ -10699,7 +10694,7 @@
       </c>
       <c r="G371" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I371" s="8"/>
       <c r="J371" s="6"/>
@@ -10726,7 +10721,7 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I372" s="11"/>
       <c r="J372" s="7"/>
@@ -10753,7 +10748,7 @@
       </c>
       <c r="G373" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I373" s="8"/>
       <c r="J373" s="6"/>
@@ -10780,7 +10775,7 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I374" s="11"/>
       <c r="J374" s="7"/>
@@ -10807,7 +10802,7 @@
       </c>
       <c r="G375" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I375" s="8"/>
       <c r="J375" s="6"/>
@@ -10834,7 +10829,7 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I376" s="11"/>
       <c r="J376" s="7"/>
@@ -10861,7 +10856,7 @@
       </c>
       <c r="G377" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I377" s="8"/>
       <c r="J377" s="6"/>
@@ -10888,7 +10883,7 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I378" s="11"/>
       <c r="J378" s="7"/>
@@ -10915,7 +10910,7 @@
       </c>
       <c r="G379" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I379" s="8"/>
       <c r="J379" s="6"/>
@@ -10942,7 +10937,7 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I380" s="11"/>
       <c r="J380" s="7"/>
@@ -10969,7 +10964,7 @@
       </c>
       <c r="G381" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I381" s="8"/>
       <c r="J381" s="6"/>
@@ -10996,7 +10991,7 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="7"/>
@@ -11023,7 +11018,7 @@
       </c>
       <c r="G383" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I383" s="8"/>
       <c r="J383" s="6"/>
@@ -11050,7 +11045,7 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I384" s="11"/>
       <c r="J384" s="7"/>
@@ -11077,7 +11072,7 @@
       </c>
       <c r="G385" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I385" s="8"/>
       <c r="J385" s="6"/>
@@ -11104,7 +11099,7 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I386" s="11"/>
       <c r="J386" s="7"/>
@@ -11131,7 +11126,7 @@
       </c>
       <c r="G387" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I387" s="8"/>
       <c r="J387" s="6"/>
@@ -11158,7 +11153,7 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I388" s="11"/>
       <c r="J388" s="7"/>
@@ -11185,7 +11180,7 @@
       </c>
       <c r="G389" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I389" s="8"/>
       <c r="J389" s="6"/>
@@ -11212,7 +11207,7 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I390" s="11"/>
       <c r="J390" s="7"/>
@@ -11239,7 +11234,7 @@
       </c>
       <c r="G391" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I391" s="8"/>
       <c r="J391" s="6"/>
@@ -11266,7 +11261,7 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" ref="G392:G455" si="20">G391</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I392" s="11"/>
       <c r="J392" s="7"/>
@@ -11293,7 +11288,7 @@
       </c>
       <c r="G393" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I393" s="8"/>
       <c r="J393" s="6"/>
@@ -11320,7 +11315,7 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I394" s="11"/>
       <c r="J394" s="7"/>
@@ -11347,7 +11342,7 @@
       </c>
       <c r="G395" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I395" s="8"/>
       <c r="J395" s="6"/>
@@ -11374,7 +11369,7 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I396" s="11"/>
       <c r="J396" s="7"/>
@@ -11401,7 +11396,7 @@
       </c>
       <c r="G397" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I397" s="8"/>
       <c r="J397" s="6"/>
@@ -11428,7 +11423,7 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I398" s="11"/>
       <c r="J398" s="7"/>
@@ -11455,7 +11450,7 @@
       </c>
       <c r="G399" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I399" s="8"/>
       <c r="J399" s="6"/>
@@ -11482,7 +11477,7 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I400" s="11"/>
       <c r="J400" s="7"/>
@@ -11509,7 +11504,7 @@
       </c>
       <c r="G401" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I401" s="8"/>
       <c r="J401" s="6"/>
@@ -11536,7 +11531,7 @@
       </c>
       <c r="G402" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I402" s="11"/>
       <c r="J402" s="7"/>
@@ -11563,7 +11558,7 @@
       </c>
       <c r="G403" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I403" s="8"/>
       <c r="J403" s="6"/>
@@ -11590,7 +11585,7 @@
       </c>
       <c r="G404" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I404" s="11"/>
       <c r="J404" s="7"/>
@@ -11617,7 +11612,7 @@
       </c>
       <c r="G405" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I405" s="8"/>
       <c r="J405" s="6"/>
@@ -11644,7 +11639,7 @@
       </c>
       <c r="G406" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I406" s="11"/>
       <c r="J406" s="7"/>
@@ -11671,7 +11666,7 @@
       </c>
       <c r="G407" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I407" s="8"/>
       <c r="J407" s="6"/>
@@ -11698,7 +11693,7 @@
       </c>
       <c r="G408" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I408" s="11"/>
       <c r="J408" s="7"/>
@@ -11725,7 +11720,7 @@
       </c>
       <c r="G409" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I409" s="8"/>
       <c r="J409" s="6"/>
@@ -11752,7 +11747,7 @@
       </c>
       <c r="G410" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I410" s="11"/>
       <c r="J410" s="7"/>
@@ -11779,7 +11774,7 @@
       </c>
       <c r="G411" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I411" s="8"/>
       <c r="J411" s="6"/>
@@ -11806,7 +11801,7 @@
       </c>
       <c r="G412" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I412" s="11"/>
       <c r="J412" s="7"/>
@@ -11833,7 +11828,7 @@
       </c>
       <c r="G413" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I413" s="8"/>
       <c r="J413" s="6"/>
@@ -11860,7 +11855,7 @@
       </c>
       <c r="G414" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I414" s="11"/>
       <c r="J414" s="7"/>
@@ -11887,7 +11882,7 @@
       </c>
       <c r="G415" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I415" s="8"/>
       <c r="J415" s="6"/>
@@ -11914,7 +11909,7 @@
       </c>
       <c r="G416" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I416" s="11"/>
       <c r="J416" s="7"/>
@@ -11941,7 +11936,7 @@
       </c>
       <c r="G417" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I417" s="8"/>
       <c r="J417" s="6"/>
@@ -11968,7 +11963,7 @@
       </c>
       <c r="G418" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I418" s="11"/>
       <c r="J418" s="7"/>
@@ -11995,7 +11990,7 @@
       </c>
       <c r="G419" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I419" s="8"/>
       <c r="J419" s="6"/>
@@ -12022,7 +12017,7 @@
       </c>
       <c r="G420" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I420" s="11"/>
       <c r="J420" s="7"/>
@@ -12049,7 +12044,7 @@
       </c>
       <c r="G421" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I421" s="8"/>
       <c r="J421" s="6"/>
@@ -12076,7 +12071,7 @@
       </c>
       <c r="G422" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I422" s="11"/>
       <c r="J422" s="7"/>
@@ -12103,7 +12098,7 @@
       </c>
       <c r="G423" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I423" s="8"/>
       <c r="J423" s="6"/>
@@ -12130,7 +12125,7 @@
       </c>
       <c r="G424" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I424" s="11"/>
       <c r="J424" s="7"/>
@@ -12157,7 +12152,7 @@
       </c>
       <c r="G425" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I425" s="8"/>
       <c r="J425" s="6"/>
@@ -12184,7 +12179,7 @@
       </c>
       <c r="G426" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I426" s="11"/>
       <c r="J426" s="7"/>
@@ -12211,7 +12206,7 @@
       </c>
       <c r="G427" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I427" s="8"/>
       <c r="J427" s="6"/>
@@ -12238,7 +12233,7 @@
       </c>
       <c r="G428" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="7"/>
@@ -12265,7 +12260,7 @@
       </c>
       <c r="G429" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I429" s="8"/>
       <c r="J429" s="6"/>
@@ -12292,7 +12287,7 @@
       </c>
       <c r="G430" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I430" s="11"/>
       <c r="J430" s="7"/>
@@ -12319,7 +12314,7 @@
       </c>
       <c r="G431" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I431" s="8"/>
       <c r="J431" s="6"/>
@@ -12346,7 +12341,7 @@
       </c>
       <c r="G432" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I432" s="11"/>
       <c r="J432" s="7"/>
@@ -12373,7 +12368,7 @@
       </c>
       <c r="G433" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I433" s="8"/>
       <c r="J433" s="6"/>
@@ -12400,7 +12395,7 @@
       </c>
       <c r="G434" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I434" s="11"/>
       <c r="J434" s="7"/>
@@ -12427,7 +12422,7 @@
       </c>
       <c r="G435" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I435" s="8"/>
       <c r="J435" s="6"/>
@@ -12454,7 +12449,7 @@
       </c>
       <c r="G436" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I436" s="11"/>
       <c r="J436" s="7"/>
@@ -12481,7 +12476,7 @@
       </c>
       <c r="G437" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I437" s="8"/>
       <c r="J437" s="6"/>
@@ -12508,7 +12503,7 @@
       </c>
       <c r="G438" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I438" s="11"/>
       <c r="J438" s="7"/>
@@ -12535,7 +12530,7 @@
       </c>
       <c r="G439" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I439" s="8"/>
       <c r="J439" s="6"/>
@@ -12562,7 +12557,7 @@
       </c>
       <c r="G440" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="7"/>
@@ -12589,7 +12584,7 @@
       </c>
       <c r="G441" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I441" s="8"/>
       <c r="J441" s="6"/>
@@ -12616,7 +12611,7 @@
       </c>
       <c r="G442" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I442" s="11"/>
       <c r="J442" s="7"/>
@@ -12643,7 +12638,7 @@
       </c>
       <c r="G443" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I443" s="8"/>
       <c r="J443" s="6"/>
@@ -12670,7 +12665,7 @@
       </c>
       <c r="G444" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I444" s="11"/>
       <c r="J444" s="7"/>
@@ -12697,7 +12692,7 @@
       </c>
       <c r="G445" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I445" s="8"/>
       <c r="J445" s="6"/>
@@ -12724,7 +12719,7 @@
       </c>
       <c r="G446" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I446" s="11"/>
       <c r="J446" s="7"/>
@@ -12751,7 +12746,7 @@
       </c>
       <c r="G447" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I447" s="8"/>
       <c r="J447" s="6"/>
@@ -12778,7 +12773,7 @@
       </c>
       <c r="G448" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I448" s="11"/>
       <c r="J448" s="7"/>
@@ -12805,7 +12800,7 @@
       </c>
       <c r="G449" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I449" s="8"/>
       <c r="J449" s="6"/>
@@ -12832,7 +12827,7 @@
       </c>
       <c r="G450" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I450" s="11"/>
       <c r="J450" s="7"/>
@@ -12859,7 +12854,7 @@
       </c>
       <c r="G451" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I451" s="8"/>
       <c r="J451" s="6"/>
@@ -12886,7 +12881,7 @@
       </c>
       <c r="G452" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I452" s="11"/>
       <c r="J452" s="7"/>
@@ -12913,7 +12908,7 @@
       </c>
       <c r="G453" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I453" s="8"/>
       <c r="J453" s="6"/>
@@ -12940,7 +12935,7 @@
       </c>
       <c r="G454" s="7">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I454" s="11"/>
       <c r="J454" s="7"/>
@@ -12967,7 +12962,7 @@
       </c>
       <c r="G455" s="6">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I455" s="8"/>
       <c r="J455" s="6"/>
@@ -12994,7 +12989,7 @@
       </c>
       <c r="G456" s="7">
         <f t="shared" ref="G456:G519" si="23">G455</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I456" s="11"/>
       <c r="J456" s="7"/>
@@ -13021,7 +13016,7 @@
       </c>
       <c r="G457" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I457" s="8"/>
       <c r="J457" s="6"/>
@@ -13048,7 +13043,7 @@
       </c>
       <c r="G458" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I458" s="11"/>
       <c r="J458" s="7"/>
@@ -13075,7 +13070,7 @@
       </c>
       <c r="G459" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I459" s="8"/>
       <c r="J459" s="6"/>
@@ -13102,7 +13097,7 @@
       </c>
       <c r="G460" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I460" s="11"/>
       <c r="J460" s="7"/>
@@ -13129,7 +13124,7 @@
       </c>
       <c r="G461" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I461" s="8"/>
       <c r="J461" s="6"/>
@@ -13156,7 +13151,7 @@
       </c>
       <c r="G462" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I462" s="11"/>
       <c r="J462" s="7"/>
@@ -13183,7 +13178,7 @@
       </c>
       <c r="G463" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I463" s="8"/>
       <c r="J463" s="6"/>
@@ -13210,7 +13205,7 @@
       </c>
       <c r="G464" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I464" s="11"/>
       <c r="J464" s="7"/>
@@ -13237,7 +13232,7 @@
       </c>
       <c r="G465" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I465" s="8"/>
       <c r="J465" s="6"/>
@@ -13264,7 +13259,7 @@
       </c>
       <c r="G466" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I466" s="11"/>
       <c r="J466" s="7"/>
@@ -13291,7 +13286,7 @@
       </c>
       <c r="G467" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I467" s="8"/>
       <c r="J467" s="6"/>
@@ -13318,7 +13313,7 @@
       </c>
       <c r="G468" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I468" s="11"/>
       <c r="J468" s="7"/>
@@ -13345,7 +13340,7 @@
       </c>
       <c r="G469" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I469" s="8"/>
       <c r="J469" s="6"/>
@@ -13372,7 +13367,7 @@
       </c>
       <c r="G470" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I470" s="11"/>
       <c r="J470" s="7"/>
@@ -13399,7 +13394,7 @@
       </c>
       <c r="G471" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I471" s="8"/>
       <c r="J471" s="6"/>
@@ -13426,7 +13421,7 @@
       </c>
       <c r="G472" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I472" s="11"/>
       <c r="J472" s="7"/>
@@ -13453,7 +13448,7 @@
       </c>
       <c r="G473" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I473" s="8"/>
       <c r="J473" s="6"/>
@@ -13480,7 +13475,7 @@
       </c>
       <c r="G474" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I474" s="11"/>
       <c r="J474" s="7"/>
@@ -13507,7 +13502,7 @@
       </c>
       <c r="G475" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I475" s="8"/>
       <c r="J475" s="6"/>
@@ -13534,7 +13529,7 @@
       </c>
       <c r="G476" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I476" s="11"/>
       <c r="J476" s="7"/>
@@ -13561,7 +13556,7 @@
       </c>
       <c r="G477" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I477" s="8"/>
       <c r="J477" s="6"/>
@@ -13588,7 +13583,7 @@
       </c>
       <c r="G478" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I478" s="11"/>
       <c r="J478" s="7"/>
@@ -13615,7 +13610,7 @@
       </c>
       <c r="G479" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I479" s="8"/>
       <c r="J479" s="6"/>
@@ -13642,7 +13637,7 @@
       </c>
       <c r="G480" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I480" s="11"/>
       <c r="J480" s="7"/>
@@ -13669,7 +13664,7 @@
       </c>
       <c r="G481" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I481" s="8"/>
       <c r="J481" s="6"/>
@@ -13696,7 +13691,7 @@
       </c>
       <c r="G482" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I482" s="11"/>
       <c r="J482" s="7"/>
@@ -13723,7 +13718,7 @@
       </c>
       <c r="G483" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I483" s="8"/>
       <c r="J483" s="6"/>
@@ -13750,7 +13745,7 @@
       </c>
       <c r="G484" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I484" s="11"/>
       <c r="J484" s="7"/>
@@ -13777,7 +13772,7 @@
       </c>
       <c r="G485" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I485" s="8"/>
       <c r="J485" s="6"/>
@@ -13804,7 +13799,7 @@
       </c>
       <c r="G486" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I486" s="11"/>
       <c r="J486" s="7"/>
@@ -13831,7 +13826,7 @@
       </c>
       <c r="G487" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I487" s="8"/>
       <c r="J487" s="6"/>
@@ -13858,7 +13853,7 @@
       </c>
       <c r="G488" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I488" s="11"/>
       <c r="J488" s="7"/>
@@ -13885,7 +13880,7 @@
       </c>
       <c r="G489" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I489" s="8"/>
       <c r="J489" s="6"/>
@@ -13912,7 +13907,7 @@
       </c>
       <c r="G490" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I490" s="11"/>
       <c r="J490" s="7"/>
@@ -13939,7 +13934,7 @@
       </c>
       <c r="G491" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I491" s="8"/>
       <c r="J491" s="6"/>
@@ -13966,7 +13961,7 @@
       </c>
       <c r="G492" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I492" s="11"/>
       <c r="J492" s="7"/>
@@ -13993,7 +13988,7 @@
       </c>
       <c r="G493" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I493" s="8"/>
       <c r="J493" s="6"/>
@@ -14020,7 +14015,7 @@
       </c>
       <c r="G494" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I494" s="11"/>
       <c r="J494" s="7"/>
@@ -14047,7 +14042,7 @@
       </c>
       <c r="G495" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I495" s="8"/>
       <c r="J495" s="6"/>
@@ -14074,7 +14069,7 @@
       </c>
       <c r="G496" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I496" s="11"/>
       <c r="J496" s="7"/>
@@ -14101,7 +14096,7 @@
       </c>
       <c r="G497" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I497" s="8"/>
       <c r="J497" s="6"/>
@@ -14128,7 +14123,7 @@
       </c>
       <c r="G498" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="7"/>
@@ -14155,7 +14150,7 @@
       </c>
       <c r="G499" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I499" s="8"/>
       <c r="J499" s="6"/>
@@ -14182,7 +14177,7 @@
       </c>
       <c r="G500" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I500" s="11"/>
       <c r="J500" s="7"/>
@@ -14209,7 +14204,7 @@
       </c>
       <c r="G501" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I501" s="8"/>
       <c r="J501" s="6"/>
@@ -14236,7 +14231,7 @@
       </c>
       <c r="G502" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I502" s="11"/>
       <c r="J502" s="7"/>
@@ -14263,7 +14258,7 @@
       </c>
       <c r="G503" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I503" s="8"/>
       <c r="J503" s="6"/>
@@ -14290,7 +14285,7 @@
       </c>
       <c r="G504" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I504" s="11"/>
       <c r="J504" s="7"/>
@@ -14317,7 +14312,7 @@
       </c>
       <c r="G505" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I505" s="8"/>
       <c r="J505" s="6"/>
@@ -14344,7 +14339,7 @@
       </c>
       <c r="G506" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I506" s="11"/>
       <c r="J506" s="7"/>
@@ -14371,7 +14366,7 @@
       </c>
       <c r="G507" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I507" s="8"/>
       <c r="J507" s="6"/>
@@ -14398,7 +14393,7 @@
       </c>
       <c r="G508" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I508" s="11"/>
       <c r="J508" s="7"/>
@@ -14425,7 +14420,7 @@
       </c>
       <c r="G509" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I509" s="8"/>
       <c r="J509" s="6"/>
@@ -14452,7 +14447,7 @@
       </c>
       <c r="G510" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I510" s="11"/>
       <c r="J510" s="7"/>
@@ -14479,7 +14474,7 @@
       </c>
       <c r="G511" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I511" s="8"/>
       <c r="J511" s="6"/>
@@ -14506,7 +14501,7 @@
       </c>
       <c r="G512" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I512" s="11"/>
       <c r="J512" s="7"/>
@@ -14533,7 +14528,7 @@
       </c>
       <c r="G513" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I513" s="8"/>
       <c r="J513" s="6"/>
@@ -14560,7 +14555,7 @@
       </c>
       <c r="G514" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I514" s="11"/>
       <c r="J514" s="7"/>
@@ -14587,7 +14582,7 @@
       </c>
       <c r="G515" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I515" s="8"/>
       <c r="J515" s="6"/>
@@ -14614,7 +14609,7 @@
       </c>
       <c r="G516" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I516" s="11"/>
       <c r="J516" s="7"/>
@@ -14641,7 +14636,7 @@
       </c>
       <c r="G517" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I517" s="8"/>
       <c r="J517" s="6"/>
@@ -14668,7 +14663,7 @@
       </c>
       <c r="G518" s="7">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I518" s="11"/>
       <c r="J518" s="7"/>
@@ -14695,7 +14690,7 @@
       </c>
       <c r="G519" s="6">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I519" s="8"/>
       <c r="J519" s="6"/>
@@ -14722,7 +14717,7 @@
       </c>
       <c r="G520" s="7">
         <f t="shared" ref="G520:G583" si="26">G519</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I520" s="11"/>
       <c r="J520" s="7"/>
@@ -14749,7 +14744,7 @@
       </c>
       <c r="G521" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I521" s="8"/>
       <c r="J521" s="6"/>
@@ -14776,7 +14771,7 @@
       </c>
       <c r="G522" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I522" s="11"/>
       <c r="J522" s="7"/>
@@ -14803,7 +14798,7 @@
       </c>
       <c r="G523" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I523" s="8"/>
       <c r="J523" s="6"/>
@@ -14830,7 +14825,7 @@
       </c>
       <c r="G524" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I524" s="11"/>
       <c r="J524" s="7"/>
@@ -14857,7 +14852,7 @@
       </c>
       <c r="G525" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I525" s="8"/>
       <c r="J525" s="6"/>
@@ -14884,7 +14879,7 @@
       </c>
       <c r="G526" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I526" s="11"/>
       <c r="J526" s="7"/>
@@ -14911,7 +14906,7 @@
       </c>
       <c r="G527" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I527" s="8"/>
       <c r="J527" s="6"/>
@@ -14938,7 +14933,7 @@
       </c>
       <c r="G528" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I528" s="11"/>
       <c r="J528" s="7"/>
@@ -14965,7 +14960,7 @@
       </c>
       <c r="G529" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I529" s="8"/>
       <c r="J529" s="6"/>
@@ -14992,7 +14987,7 @@
       </c>
       <c r="G530" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I530" s="11"/>
       <c r="J530" s="7"/>
@@ -15019,7 +15014,7 @@
       </c>
       <c r="G531" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I531" s="8"/>
       <c r="J531" s="6"/>
@@ -15046,7 +15041,7 @@
       </c>
       <c r="G532" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I532" s="11"/>
       <c r="J532" s="7"/>
@@ -15073,7 +15068,7 @@
       </c>
       <c r="G533" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I533" s="8"/>
       <c r="J533" s="6"/>
@@ -15100,7 +15095,7 @@
       </c>
       <c r="G534" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I534" s="11"/>
       <c r="J534" s="7"/>
@@ -15127,7 +15122,7 @@
       </c>
       <c r="G535" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I535" s="8"/>
       <c r="J535" s="6"/>
@@ -15154,7 +15149,7 @@
       </c>
       <c r="G536" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I536" s="11"/>
       <c r="J536" s="7"/>
@@ -15181,7 +15176,7 @@
       </c>
       <c r="G537" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I537" s="8"/>
       <c r="J537" s="6"/>
@@ -15208,7 +15203,7 @@
       </c>
       <c r="G538" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I538" s="11"/>
       <c r="J538" s="7"/>
@@ -15235,7 +15230,7 @@
       </c>
       <c r="G539" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I539" s="8"/>
       <c r="J539" s="6"/>
@@ -15262,7 +15257,7 @@
       </c>
       <c r="G540" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I540" s="11"/>
       <c r="J540" s="7"/>
@@ -15289,7 +15284,7 @@
       </c>
       <c r="G541" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I541" s="8"/>
       <c r="J541" s="6"/>
@@ -15316,7 +15311,7 @@
       </c>
       <c r="G542" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I542" s="11"/>
       <c r="J542" s="7"/>
@@ -15343,7 +15338,7 @@
       </c>
       <c r="G543" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I543" s="8"/>
       <c r="J543" s="6"/>
@@ -15370,7 +15365,7 @@
       </c>
       <c r="G544" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I544" s="11"/>
       <c r="J544" s="7"/>
@@ -15397,7 +15392,7 @@
       </c>
       <c r="G545" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I545" s="8"/>
       <c r="J545" s="6"/>
@@ -15424,7 +15419,7 @@
       </c>
       <c r="G546" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I546" s="11"/>
       <c r="J546" s="7"/>
@@ -15451,7 +15446,7 @@
       </c>
       <c r="G547" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I547" s="8"/>
       <c r="J547" s="6"/>
@@ -15478,7 +15473,7 @@
       </c>
       <c r="G548" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I548" s="11"/>
       <c r="J548" s="7"/>
@@ -15505,7 +15500,7 @@
       </c>
       <c r="G549" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I549" s="8"/>
       <c r="J549" s="6"/>
@@ -15532,7 +15527,7 @@
       </c>
       <c r="G550" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I550" s="11"/>
       <c r="J550" s="7"/>
@@ -15559,7 +15554,7 @@
       </c>
       <c r="G551" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I551" s="8"/>
       <c r="J551" s="6"/>
@@ -15586,7 +15581,7 @@
       </c>
       <c r="G552" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I552" s="11"/>
       <c r="J552" s="7"/>
@@ -15613,7 +15608,7 @@
       </c>
       <c r="G553" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I553" s="8"/>
       <c r="J553" s="6"/>
@@ -15640,7 +15635,7 @@
       </c>
       <c r="G554" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I554" s="11"/>
       <c r="J554" s="7"/>
@@ -15667,7 +15662,7 @@
       </c>
       <c r="G555" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I555" s="8"/>
       <c r="J555" s="6"/>
@@ -15694,7 +15689,7 @@
       </c>
       <c r="G556" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="7"/>
@@ -15721,7 +15716,7 @@
       </c>
       <c r="G557" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I557" s="8"/>
       <c r="J557" s="6"/>
@@ -15748,7 +15743,7 @@
       </c>
       <c r="G558" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I558" s="11"/>
       <c r="J558" s="7"/>
@@ -15775,7 +15770,7 @@
       </c>
       <c r="G559" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I559" s="8"/>
       <c r="J559" s="6"/>
@@ -15802,7 +15797,7 @@
       </c>
       <c r="G560" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I560" s="11"/>
       <c r="J560" s="7"/>
@@ -15829,7 +15824,7 @@
       </c>
       <c r="G561" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I561" s="8"/>
       <c r="J561" s="6"/>
@@ -15856,7 +15851,7 @@
       </c>
       <c r="G562" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I562" s="11"/>
       <c r="J562" s="7"/>
@@ -15883,7 +15878,7 @@
       </c>
       <c r="G563" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I563" s="8"/>
       <c r="J563" s="6"/>
@@ -15910,7 +15905,7 @@
       </c>
       <c r="G564" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I564" s="11"/>
       <c r="J564" s="7"/>
@@ -15937,7 +15932,7 @@
       </c>
       <c r="G565" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I565" s="8"/>
       <c r="J565" s="6"/>
@@ -15964,7 +15959,7 @@
       </c>
       <c r="G566" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I566" s="11"/>
       <c r="J566" s="7"/>
@@ -15991,7 +15986,7 @@
       </c>
       <c r="G567" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I567" s="8"/>
       <c r="J567" s="6"/>
@@ -16018,7 +16013,7 @@
       </c>
       <c r="G568" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I568" s="11"/>
       <c r="J568" s="7"/>
@@ -16045,7 +16040,7 @@
       </c>
       <c r="G569" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I569" s="8"/>
       <c r="J569" s="6"/>
@@ -16072,7 +16067,7 @@
       </c>
       <c r="G570" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I570" s="11"/>
       <c r="J570" s="7"/>
@@ -16099,7 +16094,7 @@
       </c>
       <c r="G571" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I571" s="8"/>
       <c r="J571" s="6"/>
@@ -16126,7 +16121,7 @@
       </c>
       <c r="G572" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I572" s="11"/>
       <c r="J572" s="7"/>
@@ -16153,7 +16148,7 @@
       </c>
       <c r="G573" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I573" s="8"/>
       <c r="J573" s="6"/>
@@ -16180,7 +16175,7 @@
       </c>
       <c r="G574" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I574" s="11"/>
       <c r="J574" s="7"/>
@@ -16207,7 +16202,7 @@
       </c>
       <c r="G575" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I575" s="8"/>
       <c r="J575" s="6"/>
@@ -16234,7 +16229,7 @@
       </c>
       <c r="G576" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I576" s="11"/>
       <c r="J576" s="7"/>
@@ -16261,7 +16256,7 @@
       </c>
       <c r="G577" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I577" s="8"/>
       <c r="J577" s="6"/>
@@ -16288,7 +16283,7 @@
       </c>
       <c r="G578" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I578" s="11"/>
       <c r="J578" s="7"/>
@@ -16315,7 +16310,7 @@
       </c>
       <c r="G579" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I579" s="8"/>
       <c r="J579" s="6"/>
@@ -16342,7 +16337,7 @@
       </c>
       <c r="G580" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I580" s="11"/>
       <c r="J580" s="7"/>
@@ -16369,7 +16364,7 @@
       </c>
       <c r="G581" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I581" s="8"/>
       <c r="J581" s="6"/>
@@ -16396,7 +16391,7 @@
       </c>
       <c r="G582" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I582" s="11"/>
       <c r="J582" s="7"/>
@@ -16423,7 +16418,7 @@
       </c>
       <c r="G583" s="6">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I583" s="8"/>
       <c r="J583" s="6"/>
@@ -16450,7 +16445,7 @@
       </c>
       <c r="G584" s="7">
         <f t="shared" ref="G584:G647" si="29">G583</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I584" s="11"/>
       <c r="J584" s="7"/>
@@ -16477,7 +16472,7 @@
       </c>
       <c r="G585" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I585" s="8"/>
       <c r="J585" s="6"/>
@@ -16504,7 +16499,7 @@
       </c>
       <c r="G586" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I586" s="11"/>
       <c r="J586" s="7"/>
@@ -16531,7 +16526,7 @@
       </c>
       <c r="G587" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I587" s="8"/>
       <c r="J587" s="6"/>
@@ -16558,7 +16553,7 @@
       </c>
       <c r="G588" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I588" s="11"/>
       <c r="J588" s="7"/>
@@ -16585,7 +16580,7 @@
       </c>
       <c r="G589" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I589" s="8"/>
       <c r="J589" s="6"/>
@@ -16612,7 +16607,7 @@
       </c>
       <c r="G590" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I590" s="11"/>
       <c r="J590" s="7"/>
@@ -16639,7 +16634,7 @@
       </c>
       <c r="G591" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I591" s="8"/>
       <c r="J591" s="6"/>
@@ -16666,7 +16661,7 @@
       </c>
       <c r="G592" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I592" s="11"/>
       <c r="J592" s="7"/>
@@ -16693,7 +16688,7 @@
       </c>
       <c r="G593" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I593" s="8"/>
       <c r="J593" s="6"/>
@@ -16720,7 +16715,7 @@
       </c>
       <c r="G594" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I594" s="11"/>
       <c r="J594" s="7"/>
@@ -16747,7 +16742,7 @@
       </c>
       <c r="G595" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I595" s="8"/>
       <c r="J595" s="6"/>
@@ -16774,7 +16769,7 @@
       </c>
       <c r="G596" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I596" s="11"/>
       <c r="J596" s="7"/>
@@ -16801,7 +16796,7 @@
       </c>
       <c r="G597" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I597" s="8"/>
       <c r="J597" s="6"/>
@@ -16828,7 +16823,7 @@
       </c>
       <c r="G598" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I598" s="11"/>
       <c r="J598" s="7"/>
@@ -16855,7 +16850,7 @@
       </c>
       <c r="G599" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I599" s="8"/>
       <c r="J599" s="6"/>
@@ -16882,7 +16877,7 @@
       </c>
       <c r="G600" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I600" s="11"/>
       <c r="J600" s="7"/>
@@ -16909,7 +16904,7 @@
       </c>
       <c r="G601" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I601" s="8"/>
       <c r="J601" s="6"/>
@@ -16936,7 +16931,7 @@
       </c>
       <c r="G602" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I602" s="11"/>
       <c r="J602" s="7"/>
@@ -16963,7 +16958,7 @@
       </c>
       <c r="G603" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I603" s="8"/>
       <c r="J603" s="6"/>
@@ -16990,7 +16985,7 @@
       </c>
       <c r="G604" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I604" s="11"/>
       <c r="J604" s="7"/>
@@ -17017,7 +17012,7 @@
       </c>
       <c r="G605" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I605" s="8"/>
       <c r="J605" s="6"/>
@@ -17044,7 +17039,7 @@
       </c>
       <c r="G606" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I606" s="11"/>
       <c r="J606" s="7"/>
@@ -17071,7 +17066,7 @@
       </c>
       <c r="G607" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I607" s="8"/>
       <c r="J607" s="6"/>
@@ -17098,7 +17093,7 @@
       </c>
       <c r="G608" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I608" s="11"/>
       <c r="J608" s="7"/>
@@ -17125,7 +17120,7 @@
       </c>
       <c r="G609" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I609" s="8"/>
       <c r="J609" s="6"/>
@@ -17152,7 +17147,7 @@
       </c>
       <c r="G610" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I610" s="11"/>
       <c r="J610" s="7"/>
@@ -17179,7 +17174,7 @@
       </c>
       <c r="G611" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I611" s="8"/>
       <c r="J611" s="6"/>
@@ -17206,7 +17201,7 @@
       </c>
       <c r="G612" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I612" s="11"/>
       <c r="J612" s="7"/>
@@ -17233,7 +17228,7 @@
       </c>
       <c r="G613" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I613" s="8"/>
       <c r="J613" s="6"/>
@@ -17260,7 +17255,7 @@
       </c>
       <c r="G614" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="7"/>
@@ -17287,7 +17282,7 @@
       </c>
       <c r="G615" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I615" s="8"/>
       <c r="J615" s="6"/>
@@ -17314,7 +17309,7 @@
       </c>
       <c r="G616" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I616" s="11"/>
       <c r="J616" s="7"/>
@@ -17341,7 +17336,7 @@
       </c>
       <c r="G617" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I617" s="8"/>
       <c r="J617" s="6"/>
@@ -17368,7 +17363,7 @@
       </c>
       <c r="G618" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I618" s="11"/>
       <c r="J618" s="7"/>
@@ -17395,7 +17390,7 @@
       </c>
       <c r="G619" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I619" s="8"/>
       <c r="J619" s="6"/>
@@ -17422,7 +17417,7 @@
       </c>
       <c r="G620" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I620" s="11"/>
       <c r="J620" s="7"/>
@@ -17449,7 +17444,7 @@
       </c>
       <c r="G621" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I621" s="8"/>
       <c r="J621" s="6"/>
@@ -17476,7 +17471,7 @@
       </c>
       <c r="G622" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I622" s="11"/>
       <c r="J622" s="7"/>
@@ -17503,7 +17498,7 @@
       </c>
       <c r="G623" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I623" s="8"/>
       <c r="J623" s="6"/>
@@ -17530,7 +17525,7 @@
       </c>
       <c r="G624" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I624" s="11"/>
       <c r="J624" s="7"/>
@@ -17557,7 +17552,7 @@
       </c>
       <c r="G625" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I625" s="8"/>
       <c r="J625" s="6"/>
@@ -17584,7 +17579,7 @@
       </c>
       <c r="G626" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I626" s="11"/>
       <c r="J626" s="7"/>
@@ -17611,7 +17606,7 @@
       </c>
       <c r="G627" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I627" s="8"/>
       <c r="J627" s="6"/>
@@ -17638,7 +17633,7 @@
       </c>
       <c r="G628" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I628" s="11"/>
       <c r="J628" s="7"/>
@@ -17665,7 +17660,7 @@
       </c>
       <c r="G629" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I629" s="8"/>
       <c r="J629" s="6"/>
@@ -17692,7 +17687,7 @@
       </c>
       <c r="G630" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I630" s="11"/>
       <c r="J630" s="7"/>
@@ -17719,7 +17714,7 @@
       </c>
       <c r="G631" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I631" s="8"/>
       <c r="J631" s="6"/>
@@ -17746,7 +17741,7 @@
       </c>
       <c r="G632" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I632" s="11"/>
       <c r="J632" s="7"/>
@@ -17773,7 +17768,7 @@
       </c>
       <c r="G633" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I633" s="8"/>
       <c r="J633" s="6"/>
@@ -17800,7 +17795,7 @@
       </c>
       <c r="G634" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I634" s="11"/>
       <c r="J634" s="7"/>
@@ -17827,7 +17822,7 @@
       </c>
       <c r="G635" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I635" s="8"/>
       <c r="J635" s="6"/>
@@ -17854,7 +17849,7 @@
       </c>
       <c r="G636" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I636" s="11"/>
       <c r="J636" s="7"/>
@@ -17881,7 +17876,7 @@
       </c>
       <c r="G637" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I637" s="8"/>
       <c r="J637" s="6"/>
@@ -17908,7 +17903,7 @@
       </c>
       <c r="G638" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I638" s="11"/>
       <c r="J638" s="7"/>
@@ -17935,7 +17930,7 @@
       </c>
       <c r="G639" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I639" s="8"/>
       <c r="J639" s="6"/>
@@ -17962,7 +17957,7 @@
       </c>
       <c r="G640" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I640" s="11"/>
       <c r="J640" s="7"/>
@@ -17989,7 +17984,7 @@
       </c>
       <c r="G641" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I641" s="8"/>
       <c r="J641" s="6"/>
@@ -18016,7 +18011,7 @@
       </c>
       <c r="G642" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I642" s="11"/>
       <c r="J642" s="7"/>
@@ -18043,7 +18038,7 @@
       </c>
       <c r="G643" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I643" s="8"/>
       <c r="J643" s="6"/>
@@ -18070,7 +18065,7 @@
       </c>
       <c r="G644" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I644" s="11"/>
       <c r="J644" s="7"/>
@@ -18097,7 +18092,7 @@
       </c>
       <c r="G645" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I645" s="8"/>
       <c r="J645" s="6"/>
@@ -18124,7 +18119,7 @@
       </c>
       <c r="G646" s="7">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I646" s="11"/>
       <c r="J646" s="7"/>
@@ -18151,7 +18146,7 @@
       </c>
       <c r="G647" s="6">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I647" s="8"/>
       <c r="J647" s="6"/>
@@ -18178,7 +18173,7 @@
       </c>
       <c r="G648" s="7">
         <f t="shared" ref="G648:G711" si="32">G647</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I648" s="11"/>
       <c r="J648" s="7"/>
@@ -18205,7 +18200,7 @@
       </c>
       <c r="G649" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I649" s="8"/>
       <c r="J649" s="6"/>
@@ -18232,7 +18227,7 @@
       </c>
       <c r="G650" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I650" s="11"/>
       <c r="J650" s="7"/>
@@ -18259,7 +18254,7 @@
       </c>
       <c r="G651" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I651" s="8"/>
       <c r="J651" s="6"/>
@@ -18286,7 +18281,7 @@
       </c>
       <c r="G652" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I652" s="11"/>
       <c r="J652" s="7"/>
@@ -18313,7 +18308,7 @@
       </c>
       <c r="G653" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I653" s="8"/>
       <c r="J653" s="6"/>
@@ -18340,7 +18335,7 @@
       </c>
       <c r="G654" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I654" s="11"/>
       <c r="J654" s="7"/>
@@ -18367,7 +18362,7 @@
       </c>
       <c r="G655" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I655" s="8"/>
       <c r="J655" s="6"/>
@@ -18394,7 +18389,7 @@
       </c>
       <c r="G656" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I656" s="11"/>
       <c r="J656" s="7"/>
@@ -18421,7 +18416,7 @@
       </c>
       <c r="G657" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I657" s="8"/>
       <c r="J657" s="6"/>
@@ -18448,7 +18443,7 @@
       </c>
       <c r="G658" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I658" s="11"/>
       <c r="J658" s="7"/>
@@ -18475,7 +18470,7 @@
       </c>
       <c r="G659" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I659" s="8"/>
       <c r="J659" s="6"/>
@@ -18502,7 +18497,7 @@
       </c>
       <c r="G660" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I660" s="11"/>
       <c r="J660" s="7"/>
@@ -18529,7 +18524,7 @@
       </c>
       <c r="G661" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="6"/>
@@ -18556,7 +18551,7 @@
       </c>
       <c r="G662" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I662" s="11"/>
       <c r="J662" s="7"/>
@@ -18583,7 +18578,7 @@
       </c>
       <c r="G663" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I663" s="8"/>
       <c r="J663" s="6"/>
@@ -18610,7 +18605,7 @@
       </c>
       <c r="G664" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I664" s="11"/>
       <c r="J664" s="7"/>
@@ -18637,7 +18632,7 @@
       </c>
       <c r="G665" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I665" s="8"/>
       <c r="J665" s="6"/>
@@ -18664,7 +18659,7 @@
       </c>
       <c r="G666" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I666" s="11"/>
       <c r="J666" s="7"/>
@@ -18691,7 +18686,7 @@
       </c>
       <c r="G667" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I667" s="8"/>
       <c r="J667" s="6"/>
@@ -18718,7 +18713,7 @@
       </c>
       <c r="G668" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I668" s="11"/>
       <c r="J668" s="7"/>
@@ -18745,7 +18740,7 @@
       </c>
       <c r="G669" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I669" s="8"/>
       <c r="J669" s="6"/>
@@ -18772,7 +18767,7 @@
       </c>
       <c r="G670" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I670" s="11"/>
       <c r="J670" s="7"/>
@@ -18799,7 +18794,7 @@
       </c>
       <c r="G671" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I671" s="8"/>
       <c r="J671" s="6"/>
@@ -18826,7 +18821,7 @@
       </c>
       <c r="G672" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="7"/>
@@ -18853,7 +18848,7 @@
       </c>
       <c r="G673" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I673" s="8"/>
       <c r="J673" s="6"/>
@@ -18880,7 +18875,7 @@
       </c>
       <c r="G674" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I674" s="11"/>
       <c r="J674" s="7"/>
@@ -18907,7 +18902,7 @@
       </c>
       <c r="G675" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I675" s="8"/>
       <c r="J675" s="6"/>
@@ -18934,7 +18929,7 @@
       </c>
       <c r="G676" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I676" s="11"/>
       <c r="J676" s="7"/>
@@ -18961,7 +18956,7 @@
       </c>
       <c r="G677" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I677" s="8"/>
       <c r="J677" s="6"/>
@@ -18988,7 +18983,7 @@
       </c>
       <c r="G678" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I678" s="11"/>
       <c r="J678" s="7"/>
@@ -19015,7 +19010,7 @@
       </c>
       <c r="G679" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I679" s="8"/>
       <c r="J679" s="6"/>
@@ -19042,7 +19037,7 @@
       </c>
       <c r="G680" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I680" s="11"/>
       <c r="J680" s="7"/>
@@ -19069,7 +19064,7 @@
       </c>
       <c r="G681" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I681" s="8"/>
       <c r="J681" s="6"/>
@@ -19096,7 +19091,7 @@
       </c>
       <c r="G682" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I682" s="11"/>
       <c r="J682" s="7"/>
@@ -19123,7 +19118,7 @@
       </c>
       <c r="G683" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I683" s="8"/>
       <c r="J683" s="6"/>
@@ -19150,7 +19145,7 @@
       </c>
       <c r="G684" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I684" s="11"/>
       <c r="J684" s="7"/>
@@ -19177,7 +19172,7 @@
       </c>
       <c r="G685" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I685" s="8"/>
       <c r="J685" s="6"/>
@@ -19204,7 +19199,7 @@
       </c>
       <c r="G686" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I686" s="11"/>
       <c r="J686" s="7"/>
@@ -19231,7 +19226,7 @@
       </c>
       <c r="G687" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I687" s="8"/>
       <c r="J687" s="6"/>
@@ -19258,7 +19253,7 @@
       </c>
       <c r="G688" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I688" s="11"/>
       <c r="J688" s="7"/>
@@ -19285,7 +19280,7 @@
       </c>
       <c r="G689" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I689" s="8"/>
       <c r="J689" s="6"/>
@@ -19312,7 +19307,7 @@
       </c>
       <c r="G690" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I690" s="11"/>
       <c r="J690" s="7"/>
@@ -19339,7 +19334,7 @@
       </c>
       <c r="G691" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I691" s="8"/>
       <c r="J691" s="6"/>
@@ -19366,7 +19361,7 @@
       </c>
       <c r="G692" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I692" s="11"/>
       <c r="J692" s="7"/>
@@ -19393,7 +19388,7 @@
       </c>
       <c r="G693" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I693" s="8"/>
       <c r="J693" s="6"/>
@@ -19420,7 +19415,7 @@
       </c>
       <c r="G694" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I694" s="11"/>
       <c r="J694" s="7"/>
@@ -19447,7 +19442,7 @@
       </c>
       <c r="G695" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I695" s="8"/>
       <c r="J695" s="6"/>
@@ -19474,7 +19469,7 @@
       </c>
       <c r="G696" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I696" s="11"/>
       <c r="J696" s="7"/>
@@ -19501,7 +19496,7 @@
       </c>
       <c r="G697" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I697" s="8"/>
       <c r="J697" s="6"/>
@@ -19528,7 +19523,7 @@
       </c>
       <c r="G698" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I698" s="11"/>
       <c r="J698" s="7"/>
@@ -19555,7 +19550,7 @@
       </c>
       <c r="G699" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I699" s="8"/>
       <c r="J699" s="6"/>
@@ -19582,7 +19577,7 @@
       </c>
       <c r="G700" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I700" s="11"/>
       <c r="J700" s="7"/>
@@ -19609,7 +19604,7 @@
       </c>
       <c r="G701" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I701" s="8"/>
       <c r="J701" s="6"/>
@@ -19636,7 +19631,7 @@
       </c>
       <c r="G702" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I702" s="11"/>
       <c r="J702" s="7"/>
@@ -19663,7 +19658,7 @@
       </c>
       <c r="G703" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I703" s="8"/>
       <c r="J703" s="6"/>
@@ -19690,7 +19685,7 @@
       </c>
       <c r="G704" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I704" s="11"/>
       <c r="J704" s="7"/>
@@ -19717,7 +19712,7 @@
       </c>
       <c r="G705" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I705" s="8"/>
       <c r="J705" s="6"/>
@@ -19744,7 +19739,7 @@
       </c>
       <c r="G706" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I706" s="11"/>
       <c r="J706" s="7"/>
@@ -19771,7 +19766,7 @@
       </c>
       <c r="G707" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I707" s="8"/>
       <c r="J707" s="6"/>
@@ -19798,7 +19793,7 @@
       </c>
       <c r="G708" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I708" s="11"/>
       <c r="J708" s="7"/>
@@ -19825,7 +19820,7 @@
       </c>
       <c r="G709" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I709" s="8"/>
       <c r="J709" s="6"/>
@@ -19852,7 +19847,7 @@
       </c>
       <c r="G710" s="7">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I710" s="11"/>
       <c r="J710" s="7"/>
@@ -19879,7 +19874,7 @@
       </c>
       <c r="G711" s="6">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I711" s="8"/>
       <c r="J711" s="6"/>
@@ -19906,7 +19901,7 @@
       </c>
       <c r="G712" s="7">
         <f t="shared" ref="G712:G775" si="35">G711</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I712" s="11"/>
       <c r="J712" s="7"/>
@@ -19933,7 +19928,7 @@
       </c>
       <c r="G713" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I713" s="8"/>
       <c r="J713" s="6"/>
@@ -19960,7 +19955,7 @@
       </c>
       <c r="G714" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I714" s="11"/>
       <c r="J714" s="7"/>
@@ -19987,7 +19982,7 @@
       </c>
       <c r="G715" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I715" s="8"/>
       <c r="J715" s="6"/>
@@ -20014,7 +20009,7 @@
       </c>
       <c r="G716" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I716" s="11"/>
       <c r="J716" s="7"/>
@@ -20041,7 +20036,7 @@
       </c>
       <c r="G717" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I717" s="8"/>
       <c r="J717" s="6"/>
@@ -20068,7 +20063,7 @@
       </c>
       <c r="G718" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I718" s="11"/>
       <c r="J718" s="7"/>
@@ -20095,7 +20090,7 @@
       </c>
       <c r="G719" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I719" s="8"/>
       <c r="J719" s="6"/>
@@ -20122,7 +20117,7 @@
       </c>
       <c r="G720" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I720" s="11"/>
       <c r="J720" s="7"/>
@@ -20149,7 +20144,7 @@
       </c>
       <c r="G721" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I721" s="8"/>
       <c r="J721" s="6"/>
@@ -20176,7 +20171,7 @@
       </c>
       <c r="G722" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I722" s="11"/>
       <c r="J722" s="7"/>
@@ -20203,7 +20198,7 @@
       </c>
       <c r="G723" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I723" s="8"/>
       <c r="J723" s="6"/>
@@ -20230,7 +20225,7 @@
       </c>
       <c r="G724" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I724" s="11"/>
       <c r="J724" s="7"/>
@@ -20257,7 +20252,7 @@
       </c>
       <c r="G725" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I725" s="8"/>
       <c r="J725" s="6"/>
@@ -20284,7 +20279,7 @@
       </c>
       <c r="G726" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I726" s="11"/>
       <c r="J726" s="7"/>
@@ -20311,7 +20306,7 @@
       </c>
       <c r="G727" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I727" s="8"/>
       <c r="J727" s="6"/>
@@ -20338,7 +20333,7 @@
       </c>
       <c r="G728" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I728" s="11"/>
       <c r="J728" s="7"/>
@@ -20365,7 +20360,7 @@
       </c>
       <c r="G729" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I729" s="8"/>
       <c r="J729" s="6"/>
@@ -20392,7 +20387,7 @@
       </c>
       <c r="G730" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="7"/>
@@ -20419,7 +20414,7 @@
       </c>
       <c r="G731" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I731" s="8"/>
       <c r="J731" s="6"/>
@@ -20446,7 +20441,7 @@
       </c>
       <c r="G732" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I732" s="11"/>
       <c r="J732" s="7"/>
@@ -20473,7 +20468,7 @@
       </c>
       <c r="G733" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I733" s="8"/>
       <c r="J733" s="6"/>
@@ -20500,7 +20495,7 @@
       </c>
       <c r="G734" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I734" s="11"/>
       <c r="J734" s="7"/>
@@ -20527,7 +20522,7 @@
       </c>
       <c r="G735" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I735" s="8"/>
       <c r="J735" s="6"/>
@@ -20554,7 +20549,7 @@
       </c>
       <c r="G736" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I736" s="11"/>
       <c r="J736" s="7"/>
@@ -20581,7 +20576,7 @@
       </c>
       <c r="G737" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I737" s="8"/>
       <c r="J737" s="6"/>
@@ -20608,7 +20603,7 @@
       </c>
       <c r="G738" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I738" s="11"/>
       <c r="J738" s="7"/>
@@ -20635,7 +20630,7 @@
       </c>
       <c r="G739" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I739" s="8"/>
       <c r="J739" s="6"/>
@@ -20662,7 +20657,7 @@
       </c>
       <c r="G740" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I740" s="11"/>
       <c r="J740" s="7"/>
@@ -20689,7 +20684,7 @@
       </c>
       <c r="G741" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I741" s="8"/>
       <c r="J741" s="6"/>
@@ -20716,7 +20711,7 @@
       </c>
       <c r="G742" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I742" s="11"/>
       <c r="J742" s="7"/>
@@ -20743,7 +20738,7 @@
       </c>
       <c r="G743" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I743" s="8"/>
       <c r="J743" s="6"/>
@@ -20770,7 +20765,7 @@
       </c>
       <c r="G744" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I744" s="11"/>
       <c r="J744" s="7"/>
@@ -20797,7 +20792,7 @@
       </c>
       <c r="G745" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I745" s="8"/>
       <c r="J745" s="6"/>
@@ -20824,7 +20819,7 @@
       </c>
       <c r="G746" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I746" s="11"/>
       <c r="J746" s="7"/>
@@ -20851,7 +20846,7 @@
       </c>
       <c r="G747" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I747" s="8"/>
       <c r="J747" s="6"/>
@@ -20878,7 +20873,7 @@
       </c>
       <c r="G748" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I748" s="11"/>
       <c r="J748" s="7"/>
@@ -20905,7 +20900,7 @@
       </c>
       <c r="G749" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I749" s="8"/>
       <c r="J749" s="6"/>
@@ -20932,7 +20927,7 @@
       </c>
       <c r="G750" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I750" s="11"/>
       <c r="J750" s="7"/>
@@ -20959,7 +20954,7 @@
       </c>
       <c r="G751" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I751" s="8"/>
       <c r="J751" s="6"/>
@@ -20986,7 +20981,7 @@
       </c>
       <c r="G752" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I752" s="11"/>
       <c r="J752" s="7"/>
@@ -21013,7 +21008,7 @@
       </c>
       <c r="G753" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I753" s="8"/>
       <c r="J753" s="6"/>
@@ -21040,7 +21035,7 @@
       </c>
       <c r="G754" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I754" s="11"/>
       <c r="J754" s="7"/>
@@ -21067,7 +21062,7 @@
       </c>
       <c r="G755" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I755" s="8"/>
       <c r="J755" s="6"/>
@@ -21094,7 +21089,7 @@
       </c>
       <c r="G756" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I756" s="11"/>
       <c r="J756" s="7"/>
@@ -21121,7 +21116,7 @@
       </c>
       <c r="G757" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I757" s="8"/>
       <c r="J757" s="6"/>
@@ -21148,7 +21143,7 @@
       </c>
       <c r="G758" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I758" s="11"/>
       <c r="J758" s="7"/>
@@ -21175,7 +21170,7 @@
       </c>
       <c r="G759" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I759" s="8"/>
       <c r="J759" s="6"/>
@@ -21202,7 +21197,7 @@
       </c>
       <c r="G760" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I760" s="11"/>
       <c r="J760" s="7"/>
@@ -21229,7 +21224,7 @@
       </c>
       <c r="G761" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I761" s="8"/>
       <c r="J761" s="6"/>
@@ -21256,7 +21251,7 @@
       </c>
       <c r="G762" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I762" s="11"/>
       <c r="J762" s="7"/>
@@ -21283,7 +21278,7 @@
       </c>
       <c r="G763" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I763" s="8"/>
       <c r="J763" s="6"/>
@@ -21310,7 +21305,7 @@
       </c>
       <c r="G764" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I764" s="11"/>
       <c r="J764" s="7"/>
@@ -21337,7 +21332,7 @@
       </c>
       <c r="G765" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I765" s="8"/>
       <c r="J765" s="6"/>
@@ -21364,7 +21359,7 @@
       </c>
       <c r="G766" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I766" s="11"/>
       <c r="J766" s="7"/>
@@ -21391,7 +21386,7 @@
       </c>
       <c r="G767" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I767" s="8"/>
       <c r="J767" s="6"/>
@@ -21418,7 +21413,7 @@
       </c>
       <c r="G768" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I768" s="11"/>
       <c r="J768" s="7"/>
@@ -21445,7 +21440,7 @@
       </c>
       <c r="G769" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I769" s="8"/>
       <c r="J769" s="6"/>
@@ -21472,7 +21467,7 @@
       </c>
       <c r="G770" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I770" s="11"/>
       <c r="J770" s="7"/>
@@ -21499,7 +21494,7 @@
       </c>
       <c r="G771" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I771" s="8"/>
       <c r="J771" s="6"/>
@@ -21526,7 +21521,7 @@
       </c>
       <c r="G772" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I772" s="11"/>
       <c r="J772" s="7"/>
@@ -21553,7 +21548,7 @@
       </c>
       <c r="G773" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I773" s="8"/>
       <c r="J773" s="6"/>
@@ -21580,7 +21575,7 @@
       </c>
       <c r="G774" s="7">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I774" s="11"/>
       <c r="J774" s="7"/>
@@ -21607,7 +21602,7 @@
       </c>
       <c r="G775" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I775" s="8"/>
       <c r="J775" s="6"/>
@@ -21634,7 +21629,7 @@
       </c>
       <c r="G776" s="7">
         <f t="shared" ref="G776:G839" si="38">G775</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I776" s="11"/>
       <c r="J776" s="7"/>
@@ -21661,7 +21656,7 @@
       </c>
       <c r="G777" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I777" s="8"/>
       <c r="J777" s="6"/>
@@ -21688,7 +21683,7 @@
       </c>
       <c r="G778" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I778" s="11"/>
       <c r="J778" s="7"/>
@@ -21715,7 +21710,7 @@
       </c>
       <c r="G779" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I779" s="8"/>
       <c r="J779" s="6"/>
@@ -21742,7 +21737,7 @@
       </c>
       <c r="G780" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I780" s="11"/>
       <c r="J780" s="7"/>
@@ -21769,7 +21764,7 @@
       </c>
       <c r="G781" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I781" s="8"/>
       <c r="J781" s="6"/>
@@ -21796,7 +21791,7 @@
       </c>
       <c r="G782" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I782" s="11"/>
       <c r="J782" s="7"/>
@@ -21823,7 +21818,7 @@
       </c>
       <c r="G783" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I783" s="8"/>
       <c r="J783" s="6"/>
@@ -21850,7 +21845,7 @@
       </c>
       <c r="G784" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I784" s="11"/>
       <c r="J784" s="7"/>
@@ -21877,7 +21872,7 @@
       </c>
       <c r="G785" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I785" s="8"/>
       <c r="J785" s="6"/>
@@ -21904,7 +21899,7 @@
       </c>
       <c r="G786" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I786" s="11"/>
       <c r="J786" s="7"/>
@@ -21931,7 +21926,7 @@
       </c>
       <c r="G787" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I787" s="8"/>
       <c r="J787" s="6"/>
@@ -21958,7 +21953,7 @@
       </c>
       <c r="G788" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I788" s="11"/>
       <c r="J788" s="7"/>
@@ -21985,7 +21980,7 @@
       </c>
       <c r="G789" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I789" s="8"/>
       <c r="J789" s="6"/>
@@ -22012,7 +22007,7 @@
       </c>
       <c r="G790" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I790" s="11"/>
       <c r="J790" s="7"/>
@@ -22039,7 +22034,7 @@
       </c>
       <c r="G791" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I791" s="8"/>
       <c r="J791" s="6"/>
@@ -22066,7 +22061,7 @@
       </c>
       <c r="G792" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I792" s="11"/>
       <c r="J792" s="7"/>
@@ -22093,7 +22088,7 @@
       </c>
       <c r="G793" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I793" s="8"/>
       <c r="J793" s="6"/>
@@ -22120,7 +22115,7 @@
       </c>
       <c r="G794" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I794" s="11"/>
       <c r="J794" s="7"/>
@@ -22147,7 +22142,7 @@
       </c>
       <c r="G795" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I795" s="8"/>
       <c r="J795" s="6"/>
@@ -22174,7 +22169,7 @@
       </c>
       <c r="G796" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I796" s="11"/>
       <c r="J796" s="7"/>
@@ -22201,7 +22196,7 @@
       </c>
       <c r="G797" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I797" s="8"/>
       <c r="J797" s="6"/>
@@ -22228,7 +22223,7 @@
       </c>
       <c r="G798" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I798" s="11"/>
       <c r="J798" s="7"/>
@@ -22255,7 +22250,7 @@
       </c>
       <c r="G799" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I799" s="8"/>
       <c r="J799" s="6"/>
@@ -22282,7 +22277,7 @@
       </c>
       <c r="G800" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I800" s="11"/>
       <c r="J800" s="7"/>
@@ -22309,7 +22304,7 @@
       </c>
       <c r="G801" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I801" s="8"/>
       <c r="J801" s="6"/>
@@ -22336,7 +22331,7 @@
       </c>
       <c r="G802" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I802" s="11"/>
       <c r="J802" s="7"/>
@@ -22363,7 +22358,7 @@
       </c>
       <c r="G803" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I803" s="8"/>
       <c r="J803" s="6"/>
@@ -22390,7 +22385,7 @@
       </c>
       <c r="G804" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I804" s="11"/>
       <c r="J804" s="7"/>
@@ -22417,7 +22412,7 @@
       </c>
       <c r="G805" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I805" s="8"/>
       <c r="J805" s="6"/>
@@ -22444,7 +22439,7 @@
       </c>
       <c r="G806" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I806" s="11"/>
       <c r="J806" s="7"/>
@@ -22471,7 +22466,7 @@
       </c>
       <c r="G807" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I807" s="8"/>
       <c r="J807" s="6"/>
@@ -22498,7 +22493,7 @@
       </c>
       <c r="G808" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I808" s="11"/>
       <c r="J808" s="7"/>
@@ -22525,7 +22520,7 @@
       </c>
       <c r="G809" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I809" s="8"/>
       <c r="J809" s="6"/>
@@ -22552,7 +22547,7 @@
       </c>
       <c r="G810" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I810" s="11"/>
       <c r="J810" s="7"/>
@@ -22579,7 +22574,7 @@
       </c>
       <c r="G811" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I811" s="8"/>
       <c r="J811" s="6"/>
@@ -22606,7 +22601,7 @@
       </c>
       <c r="G812" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I812" s="11"/>
       <c r="J812" s="7"/>
@@ -22633,7 +22628,7 @@
       </c>
       <c r="G813" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I813" s="8"/>
       <c r="J813" s="6"/>
@@ -22660,7 +22655,7 @@
       </c>
       <c r="G814" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I814" s="11"/>
       <c r="J814" s="7"/>
@@ -22687,7 +22682,7 @@
       </c>
       <c r="G815" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I815" s="8"/>
       <c r="J815" s="6"/>
@@ -22714,7 +22709,7 @@
       </c>
       <c r="G816" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I816" s="11"/>
       <c r="J816" s="7"/>
@@ -22741,7 +22736,7 @@
       </c>
       <c r="G817" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I817" s="8"/>
       <c r="J817" s="6"/>
@@ -22768,7 +22763,7 @@
       </c>
       <c r="G818" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I818" s="11"/>
       <c r="J818" s="7"/>
@@ -22795,7 +22790,7 @@
       </c>
       <c r="G819" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I819" s="8"/>
       <c r="J819" s="6"/>
@@ -22822,7 +22817,7 @@
       </c>
       <c r="G820" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I820" s="11"/>
       <c r="J820" s="7"/>
@@ -22849,7 +22844,7 @@
       </c>
       <c r="G821" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I821" s="8"/>
       <c r="J821" s="6"/>
@@ -22876,7 +22871,7 @@
       </c>
       <c r="G822" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I822" s="11"/>
       <c r="J822" s="7"/>
@@ -22903,7 +22898,7 @@
       </c>
       <c r="G823" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I823" s="8"/>
       <c r="J823" s="6"/>
@@ -22930,7 +22925,7 @@
       </c>
       <c r="G824" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I824" s="11"/>
       <c r="J824" s="7"/>
@@ -22957,7 +22952,7 @@
       </c>
       <c r="G825" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I825" s="8"/>
       <c r="J825" s="6"/>
@@ -22984,7 +22979,7 @@
       </c>
       <c r="G826" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I826" s="11"/>
       <c r="J826" s="7"/>
@@ -23011,7 +23006,7 @@
       </c>
       <c r="G827" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I827" s="8"/>
       <c r="J827" s="6"/>
@@ -23038,7 +23033,7 @@
       </c>
       <c r="G828" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I828" s="11"/>
       <c r="J828" s="7"/>
@@ -23065,7 +23060,7 @@
       </c>
       <c r="G829" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I829" s="8"/>
       <c r="J829" s="6"/>
@@ -23092,7 +23087,7 @@
       </c>
       <c r="G830" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I830" s="11"/>
       <c r="J830" s="7"/>
@@ -23119,7 +23114,7 @@
       </c>
       <c r="G831" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I831" s="8"/>
       <c r="J831" s="6"/>
@@ -23146,7 +23141,7 @@
       </c>
       <c r="G832" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I832" s="11"/>
       <c r="J832" s="7"/>
@@ -23173,7 +23168,7 @@
       </c>
       <c r="G833" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I833" s="8"/>
       <c r="J833" s="6"/>
@@ -23200,7 +23195,7 @@
       </c>
       <c r="G834" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I834" s="11"/>
       <c r="J834" s="7"/>
@@ -23227,7 +23222,7 @@
       </c>
       <c r="G835" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I835" s="8"/>
       <c r="J835" s="6"/>
@@ -23254,7 +23249,7 @@
       </c>
       <c r="G836" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I836" s="11"/>
       <c r="J836" s="7"/>
@@ -23281,7 +23276,7 @@
       </c>
       <c r="G837" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I837" s="8"/>
       <c r="J837" s="6"/>
@@ -23308,7 +23303,7 @@
       </c>
       <c r="G838" s="7">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I838" s="11"/>
       <c r="J838" s="7"/>
@@ -23335,7 +23330,7 @@
       </c>
       <c r="G839" s="6">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I839" s="8"/>
       <c r="J839" s="6"/>
@@ -23362,7 +23357,7 @@
       </c>
       <c r="G840" s="7">
         <f t="shared" ref="G840:G903" si="41">G839</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I840" s="11"/>
       <c r="J840" s="7"/>
@@ -23389,7 +23384,7 @@
       </c>
       <c r="G841" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I841" s="8"/>
       <c r="J841" s="6"/>
@@ -23416,7 +23411,7 @@
       </c>
       <c r="G842" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I842" s="11"/>
       <c r="J842" s="7"/>
@@ -23443,7 +23438,7 @@
       </c>
       <c r="G843" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I843" s="8"/>
       <c r="J843" s="6"/>
@@ -23470,7 +23465,7 @@
       </c>
       <c r="G844" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I844" s="11"/>
       <c r="J844" s="7"/>
@@ -23497,7 +23492,7 @@
       </c>
       <c r="G845" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I845" s="8"/>
       <c r="J845" s="6"/>
@@ -23524,7 +23519,7 @@
       </c>
       <c r="G846" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I846" s="11"/>
       <c r="J846" s="7"/>
@@ -23551,7 +23546,7 @@
       </c>
       <c r="G847" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I847" s="8"/>
       <c r="J847" s="6"/>
@@ -23578,7 +23573,7 @@
       </c>
       <c r="G848" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I848" s="11"/>
       <c r="J848" s="7"/>
@@ -23605,7 +23600,7 @@
       </c>
       <c r="G849" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I849" s="8"/>
       <c r="J849" s="6"/>
@@ -23632,7 +23627,7 @@
       </c>
       <c r="G850" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I850" s="11"/>
       <c r="J850" s="7"/>
@@ -23659,7 +23654,7 @@
       </c>
       <c r="G851" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I851" s="8"/>
       <c r="J851" s="6"/>
@@ -23686,7 +23681,7 @@
       </c>
       <c r="G852" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I852" s="11"/>
       <c r="J852" s="7"/>
@@ -23713,7 +23708,7 @@
       </c>
       <c r="G853" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I853" s="8"/>
       <c r="J853" s="6"/>
@@ -23740,7 +23735,7 @@
       </c>
       <c r="G854" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I854" s="11"/>
       <c r="J854" s="7"/>
@@ -23767,7 +23762,7 @@
       </c>
       <c r="G855" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I855" s="8"/>
       <c r="J855" s="6"/>
@@ -23794,7 +23789,7 @@
       </c>
       <c r="G856" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I856" s="11"/>
       <c r="J856" s="7"/>
@@ -23821,7 +23816,7 @@
       </c>
       <c r="G857" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I857" s="8"/>
       <c r="J857" s="6"/>
@@ -23848,7 +23843,7 @@
       </c>
       <c r="G858" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I858" s="11"/>
       <c r="J858" s="7"/>
@@ -23875,7 +23870,7 @@
       </c>
       <c r="G859" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I859" s="8"/>
       <c r="J859" s="6"/>
@@ -23902,7 +23897,7 @@
       </c>
       <c r="G860" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I860" s="11"/>
       <c r="J860" s="7"/>
@@ -23929,7 +23924,7 @@
       </c>
       <c r="G861" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I861" s="8"/>
       <c r="J861" s="6"/>
@@ -23956,7 +23951,7 @@
       </c>
       <c r="G862" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I862" s="11"/>
       <c r="J862" s="7"/>
@@ -23983,7 +23978,7 @@
       </c>
       <c r="G863" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I863" s="8"/>
       <c r="J863" s="6"/>
@@ -24010,7 +24005,7 @@
       </c>
       <c r="G864" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I864" s="11"/>
       <c r="J864" s="7"/>
@@ -24037,7 +24032,7 @@
       </c>
       <c r="G865" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I865" s="8"/>
       <c r="J865" s="6"/>
@@ -24064,7 +24059,7 @@
       </c>
       <c r="G866" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I866" s="11"/>
       <c r="J866" s="7"/>
@@ -24091,7 +24086,7 @@
       </c>
       <c r="G867" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I867" s="8"/>
       <c r="J867" s="6"/>
@@ -24118,7 +24113,7 @@
       </c>
       <c r="G868" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I868" s="11"/>
       <c r="J868" s="7"/>
@@ -24145,7 +24140,7 @@
       </c>
       <c r="G869" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I869" s="8"/>
       <c r="J869" s="6"/>
@@ -24172,7 +24167,7 @@
       </c>
       <c r="G870" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I870" s="11"/>
       <c r="J870" s="7"/>
@@ -24199,7 +24194,7 @@
       </c>
       <c r="G871" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I871" s="8"/>
       <c r="J871" s="6"/>
@@ -24226,7 +24221,7 @@
       </c>
       <c r="G872" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I872" s="11"/>
       <c r="J872" s="7"/>
@@ -24253,7 +24248,7 @@
       </c>
       <c r="G873" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I873" s="8"/>
       <c r="J873" s="6"/>
@@ -24280,7 +24275,7 @@
       </c>
       <c r="G874" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I874" s="11"/>
       <c r="J874" s="7"/>
@@ -24307,7 +24302,7 @@
       </c>
       <c r="G875" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I875" s="8"/>
       <c r="J875" s="6"/>
@@ -24334,7 +24329,7 @@
       </c>
       <c r="G876" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I876" s="11"/>
       <c r="J876" s="7"/>
@@ -24361,7 +24356,7 @@
       </c>
       <c r="G877" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I877" s="8"/>
       <c r="J877" s="6"/>
@@ -24388,7 +24383,7 @@
       </c>
       <c r="G878" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I878" s="11"/>
       <c r="J878" s="7"/>
@@ -24415,7 +24410,7 @@
       </c>
       <c r="G879" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="6"/>
@@ -24442,7 +24437,7 @@
       </c>
       <c r="G880" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I880" s="11"/>
       <c r="J880" s="7"/>
@@ -24469,7 +24464,7 @@
       </c>
       <c r="G881" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I881" s="8"/>
       <c r="J881" s="6"/>
@@ -24496,7 +24491,7 @@
       </c>
       <c r="G882" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I882" s="11"/>
       <c r="J882" s="7"/>
@@ -24523,7 +24518,7 @@
       </c>
       <c r="G883" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I883" s="8"/>
       <c r="J883" s="6"/>
@@ -24550,7 +24545,7 @@
       </c>
       <c r="G884" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I884" s="11"/>
       <c r="J884" s="7"/>
@@ -24577,7 +24572,7 @@
       </c>
       <c r="G885" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I885" s="8"/>
       <c r="J885" s="6"/>
@@ -24604,7 +24599,7 @@
       </c>
       <c r="G886" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I886" s="11"/>
       <c r="J886" s="7"/>
@@ -24631,7 +24626,7 @@
       </c>
       <c r="G887" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I887" s="8"/>
       <c r="J887" s="6"/>
@@ -24658,7 +24653,7 @@
       </c>
       <c r="G888" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I888" s="11"/>
       <c r="J888" s="7"/>
@@ -24685,7 +24680,7 @@
       </c>
       <c r="G889" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I889" s="8"/>
       <c r="J889" s="6"/>
@@ -24712,7 +24707,7 @@
       </c>
       <c r="G890" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I890" s="11"/>
       <c r="J890" s="7"/>
@@ -24739,7 +24734,7 @@
       </c>
       <c r="G891" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I891" s="8"/>
       <c r="J891" s="6"/>
@@ -24766,7 +24761,7 @@
       </c>
       <c r="G892" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I892" s="11"/>
       <c r="J892" s="7"/>
@@ -24793,7 +24788,7 @@
       </c>
       <c r="G893" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I893" s="8"/>
       <c r="J893" s="6"/>
@@ -24820,7 +24815,7 @@
       </c>
       <c r="G894" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I894" s="11"/>
       <c r="J894" s="7"/>
@@ -24847,7 +24842,7 @@
       </c>
       <c r="G895" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I895" s="8"/>
       <c r="J895" s="6"/>
@@ -24874,7 +24869,7 @@
       </c>
       <c r="G896" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I896" s="11"/>
       <c r="J896" s="7"/>
@@ -24901,7 +24896,7 @@
       </c>
       <c r="G897" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I897" s="8"/>
       <c r="J897" s="6"/>
@@ -24928,7 +24923,7 @@
       </c>
       <c r="G898" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I898" s="11"/>
       <c r="J898" s="7"/>
@@ -24955,7 +24950,7 @@
       </c>
       <c r="G899" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I899" s="8"/>
       <c r="J899" s="6"/>
@@ -24982,7 +24977,7 @@
       </c>
       <c r="G900" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I900" s="11"/>
       <c r="J900" s="7"/>
@@ -25009,7 +25004,7 @@
       </c>
       <c r="G901" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I901" s="8"/>
       <c r="J901" s="6"/>
@@ -25036,7 +25031,7 @@
       </c>
       <c r="G902" s="7">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I902" s="11"/>
       <c r="J902" s="7"/>
@@ -25063,7 +25058,7 @@
       </c>
       <c r="G903" s="6">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I903" s="8"/>
       <c r="J903" s="6"/>
@@ -25090,7 +25085,7 @@
       </c>
       <c r="G904" s="7">
         <f t="shared" ref="G904:G967" si="44">G903</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I904" s="11"/>
       <c r="J904" s="7"/>
@@ -25117,7 +25112,7 @@
       </c>
       <c r="G905" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I905" s="8"/>
       <c r="J905" s="6"/>
@@ -25144,7 +25139,7 @@
       </c>
       <c r="G906" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I906" s="11"/>
       <c r="J906" s="7"/>
@@ -25171,7 +25166,7 @@
       </c>
       <c r="G907" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I907" s="8"/>
       <c r="J907" s="6"/>
@@ -25198,7 +25193,7 @@
       </c>
       <c r="G908" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I908" s="11"/>
       <c r="J908" s="7"/>
@@ -25225,7 +25220,7 @@
       </c>
       <c r="G909" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I909" s="8"/>
       <c r="J909" s="6"/>
@@ -25252,7 +25247,7 @@
       </c>
       <c r="G910" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I910" s="11"/>
       <c r="J910" s="7"/>
@@ -25279,7 +25274,7 @@
       </c>
       <c r="G911" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I911" s="8"/>
       <c r="J911" s="6"/>
@@ -25306,7 +25301,7 @@
       </c>
       <c r="G912" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I912" s="11"/>
       <c r="J912" s="7"/>
@@ -25333,7 +25328,7 @@
       </c>
       <c r="G913" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I913" s="8"/>
       <c r="J913" s="6"/>
@@ -25360,7 +25355,7 @@
       </c>
       <c r="G914" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I914" s="11"/>
       <c r="J914" s="7"/>
@@ -25387,7 +25382,7 @@
       </c>
       <c r="G915" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I915" s="8"/>
       <c r="J915" s="6"/>
@@ -25414,7 +25409,7 @@
       </c>
       <c r="G916" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I916" s="11"/>
       <c r="J916" s="7"/>
@@ -25441,7 +25436,7 @@
       </c>
       <c r="G917" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I917" s="8"/>
       <c r="J917" s="6"/>
@@ -25468,7 +25463,7 @@
       </c>
       <c r="G918" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I918" s="11"/>
       <c r="J918" s="7"/>
@@ -25495,7 +25490,7 @@
       </c>
       <c r="G919" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I919" s="8"/>
       <c r="J919" s="6"/>
@@ -25522,7 +25517,7 @@
       </c>
       <c r="G920" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I920" s="11"/>
       <c r="J920" s="7"/>
@@ -25549,7 +25544,7 @@
       </c>
       <c r="G921" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I921" s="8"/>
       <c r="J921" s="6"/>
@@ -25576,7 +25571,7 @@
       </c>
       <c r="G922" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I922" s="11"/>
       <c r="J922" s="7"/>
@@ -25603,7 +25598,7 @@
       </c>
       <c r="G923" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="6"/>
@@ -25630,7 +25625,7 @@
       </c>
       <c r="G924" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I924" s="11"/>
       <c r="J924" s="7"/>
@@ -25657,7 +25652,7 @@
       </c>
       <c r="G925" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I925" s="8"/>
       <c r="J925" s="6"/>
@@ -25684,7 +25679,7 @@
       </c>
       <c r="G926" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I926" s="11"/>
       <c r="J926" s="7"/>
@@ -25711,7 +25706,7 @@
       </c>
       <c r="G927" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I927" s="8"/>
       <c r="J927" s="6"/>
@@ -25738,7 +25733,7 @@
       </c>
       <c r="G928" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I928" s="11"/>
       <c r="J928" s="7"/>
@@ -25765,7 +25760,7 @@
       </c>
       <c r="G929" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I929" s="8"/>
       <c r="J929" s="6"/>
@@ -25792,7 +25787,7 @@
       </c>
       <c r="G930" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I930" s="11"/>
       <c r="J930" s="7"/>
@@ -25819,7 +25814,7 @@
       </c>
       <c r="G931" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I931" s="8"/>
       <c r="J931" s="6"/>
@@ -25846,7 +25841,7 @@
       </c>
       <c r="G932" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I932" s="11"/>
       <c r="J932" s="7"/>
@@ -25873,7 +25868,7 @@
       </c>
       <c r="G933" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I933" s="8"/>
       <c r="J933" s="6"/>
@@ -25900,7 +25895,7 @@
       </c>
       <c r="G934" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I934" s="11"/>
       <c r="J934" s="7"/>
@@ -25927,7 +25922,7 @@
       </c>
       <c r="G935" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I935" s="8"/>
       <c r="J935" s="6"/>
@@ -25954,7 +25949,7 @@
       </c>
       <c r="G936" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I936" s="11"/>
       <c r="J936" s="7"/>
@@ -25981,7 +25976,7 @@
       </c>
       <c r="G937" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I937" s="8"/>
       <c r="J937" s="6"/>
@@ -26008,7 +26003,7 @@
       </c>
       <c r="G938" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I938" s="11"/>
       <c r="J938" s="7"/>
@@ -26035,7 +26030,7 @@
       </c>
       <c r="G939" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I939" s="8"/>
       <c r="J939" s="6"/>
@@ -26062,7 +26057,7 @@
       </c>
       <c r="G940" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I940" s="11"/>
       <c r="J940" s="7"/>
@@ -26089,7 +26084,7 @@
       </c>
       <c r="G941" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I941" s="8"/>
       <c r="J941" s="6"/>
@@ -26116,7 +26111,7 @@
       </c>
       <c r="G942" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I942" s="11"/>
       <c r="J942" s="7"/>
@@ -26143,7 +26138,7 @@
       </c>
       <c r="G943" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I943" s="8"/>
       <c r="J943" s="6"/>
@@ -26170,7 +26165,7 @@
       </c>
       <c r="G944" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I944" s="11"/>
       <c r="J944" s="7"/>
@@ -26197,7 +26192,7 @@
       </c>
       <c r="G945" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I945" s="8"/>
       <c r="J945" s="6"/>
@@ -26224,7 +26219,7 @@
       </c>
       <c r="G946" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I946" s="11"/>
       <c r="J946" s="7"/>
@@ -26251,7 +26246,7 @@
       </c>
       <c r="G947" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I947" s="8"/>
       <c r="J947" s="6"/>
@@ -26278,7 +26273,7 @@
       </c>
       <c r="G948" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I948" s="11"/>
       <c r="J948" s="7"/>
@@ -26305,7 +26300,7 @@
       </c>
       <c r="G949" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I949" s="8"/>
       <c r="J949" s="6"/>
@@ -26332,7 +26327,7 @@
       </c>
       <c r="G950" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I950" s="11"/>
       <c r="J950" s="7"/>
@@ -26359,7 +26354,7 @@
       </c>
       <c r="G951" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I951" s="8"/>
       <c r="J951" s="6"/>
@@ -26386,7 +26381,7 @@
       </c>
       <c r="G952" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I952" s="11"/>
       <c r="J952" s="7"/>
@@ -26413,7 +26408,7 @@
       </c>
       <c r="G953" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I953" s="8"/>
       <c r="J953" s="6"/>
@@ -26440,7 +26435,7 @@
       </c>
       <c r="G954" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I954" s="11"/>
       <c r="J954" s="7"/>
@@ -26467,7 +26462,7 @@
       </c>
       <c r="G955" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I955" s="8"/>
       <c r="J955" s="6"/>
@@ -26494,7 +26489,7 @@
       </c>
       <c r="G956" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I956" s="11"/>
       <c r="J956" s="7"/>
@@ -26521,7 +26516,7 @@
       </c>
       <c r="G957" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I957" s="8"/>
       <c r="J957" s="6"/>
@@ -26548,7 +26543,7 @@
       </c>
       <c r="G958" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I958" s="11"/>
       <c r="J958" s="7"/>
@@ -26575,7 +26570,7 @@
       </c>
       <c r="G959" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I959" s="8"/>
       <c r="J959" s="6"/>
@@ -26602,7 +26597,7 @@
       </c>
       <c r="G960" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I960" s="11"/>
       <c r="J960" s="7"/>
@@ -26629,7 +26624,7 @@
       </c>
       <c r="G961" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I961" s="8"/>
       <c r="J961" s="6"/>
@@ -26656,7 +26651,7 @@
       </c>
       <c r="G962" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I962" s="11"/>
       <c r="J962" s="7"/>
@@ -26683,7 +26678,7 @@
       </c>
       <c r="G963" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I963" s="8"/>
       <c r="J963" s="6"/>
@@ -26710,7 +26705,7 @@
       </c>
       <c r="G964" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I964" s="11"/>
       <c r="J964" s="7"/>
@@ -26737,7 +26732,7 @@
       </c>
       <c r="G965" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I965" s="8"/>
       <c r="J965" s="6"/>
@@ -26764,7 +26759,7 @@
       </c>
       <c r="G966" s="7">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I966" s="11"/>
       <c r="J966" s="7"/>
@@ -26791,7 +26786,7 @@
       </c>
       <c r="G967" s="6">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I967" s="8"/>
       <c r="J967" s="6"/>
@@ -26818,7 +26813,7 @@
       </c>
       <c r="G968" s="7">
         <f t="shared" ref="G968:G1000" si="47">G967</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I968" s="11"/>
       <c r="J968" s="7"/>
@@ -26845,7 +26840,7 @@
       </c>
       <c r="G969" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I969" s="8"/>
       <c r="J969" s="6"/>
@@ -26872,7 +26867,7 @@
       </c>
       <c r="G970" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I970" s="11"/>
       <c r="J970" s="7"/>
@@ -26899,7 +26894,7 @@
       </c>
       <c r="G971" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I971" s="8"/>
       <c r="J971" s="6"/>
@@ -26926,7 +26921,7 @@
       </c>
       <c r="G972" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I972" s="11"/>
       <c r="J972" s="7"/>
@@ -26953,7 +26948,7 @@
       </c>
       <c r="G973" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I973" s="8"/>
       <c r="J973" s="6"/>
@@ -26980,7 +26975,7 @@
       </c>
       <c r="G974" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I974" s="11"/>
       <c r="J974" s="7"/>
@@ -27007,7 +27002,7 @@
       </c>
       <c r="G975" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I975" s="8"/>
       <c r="J975" s="6"/>
@@ -27034,7 +27029,7 @@
       </c>
       <c r="G976" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I976" s="11"/>
       <c r="J976" s="7"/>
@@ -27061,7 +27056,7 @@
       </c>
       <c r="G977" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I977" s="8"/>
       <c r="J977" s="6"/>
@@ -27088,7 +27083,7 @@
       </c>
       <c r="G978" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I978" s="11"/>
       <c r="J978" s="7"/>
@@ -27115,7 +27110,7 @@
       </c>
       <c r="G979" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I979" s="8"/>
       <c r="J979" s="6"/>
@@ -27142,7 +27137,7 @@
       </c>
       <c r="G980" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I980" s="11"/>
       <c r="J980" s="7"/>
@@ -27169,7 +27164,7 @@
       </c>
       <c r="G981" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I981" s="8"/>
       <c r="J981" s="6"/>
@@ -27196,7 +27191,7 @@
       </c>
       <c r="G982" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I982" s="11"/>
       <c r="J982" s="7"/>
@@ -27223,7 +27218,7 @@
       </c>
       <c r="G983" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I983" s="8"/>
       <c r="J983" s="6"/>
@@ -27250,7 +27245,7 @@
       </c>
       <c r="G984" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I984" s="11"/>
       <c r="J984" s="7"/>
@@ -27277,7 +27272,7 @@
       </c>
       <c r="G985" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I985" s="8"/>
       <c r="J985" s="6"/>
@@ -27304,7 +27299,7 @@
       </c>
       <c r="G986" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I986" s="11"/>
       <c r="J986" s="7"/>
@@ -27331,7 +27326,7 @@
       </c>
       <c r="G987" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I987" s="8"/>
       <c r="J987" s="6"/>
@@ -27358,7 +27353,7 @@
       </c>
       <c r="G988" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I988" s="11"/>
       <c r="J988" s="7"/>
@@ -27385,7 +27380,7 @@
       </c>
       <c r="G989" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I989" s="8"/>
       <c r="J989" s="6"/>
@@ -27412,7 +27407,7 @@
       </c>
       <c r="G990" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I990" s="11"/>
       <c r="J990" s="7"/>
@@ -27439,7 +27434,7 @@
       </c>
       <c r="G991" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I991" s="8"/>
       <c r="J991" s="6"/>
@@ -27466,7 +27461,7 @@
       </c>
       <c r="G992" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I992" s="11"/>
       <c r="J992" s="7"/>
@@ -27493,7 +27488,7 @@
       </c>
       <c r="G993" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I993" s="8"/>
       <c r="J993" s="6"/>
@@ -27520,7 +27515,7 @@
       </c>
       <c r="G994" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I994" s="11"/>
       <c r="J994" s="7"/>
@@ -27547,7 +27542,7 @@
       </c>
       <c r="G995" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I995" s="8"/>
       <c r="J995" s="6"/>
@@ -27574,7 +27569,7 @@
       </c>
       <c r="G996" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I996" s="11"/>
       <c r="J996" s="7"/>
@@ -27601,7 +27596,7 @@
       </c>
       <c r="G997" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I997" s="8"/>
       <c r="J997" s="6"/>
@@ -27628,7 +27623,7 @@
       </c>
       <c r="G998" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I998" s="11"/>
       <c r="J998" s="7"/>
@@ -27655,7 +27650,7 @@
       </c>
       <c r="G999" s="6">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I999" s="8"/>
       <c r="J999" s="6"/>
@@ -27682,7 +27677,7 @@
       </c>
       <c r="G1000" s="7">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I1000" s="11"/>
       <c r="J1000" s="7"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480465" yWindow="481860" windowWidth="17190" windowHeight="6645" tabRatio="763"/>
   </bookViews>
   <sheets>
-    <sheet name="DK109.524-DK139+000（2.11）(3)" sheetId="4" r:id="rId1"/>
+    <sheet name="3-2015.8.18独山-基长2000" sheetId="2" r:id="rId1"/>
     <sheet name="orig" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>读取标记</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,62 +78,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海口</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>老城</t>
-  </si>
-  <si>
-    <t>临高</t>
-  </si>
-  <si>
-    <t>D2K</t>
-  </si>
-  <si>
-    <t>新盈</t>
-  </si>
-  <si>
-    <t>洋浦</t>
-  </si>
-  <si>
-    <t>棋子湾</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>板桥</t>
-  </si>
-  <si>
-    <t>尖峰</t>
-  </si>
-  <si>
-    <t>乐东</t>
-  </si>
-  <si>
-    <t>崖城</t>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>凤凰机场</t>
-  </si>
-  <si>
-    <t>三亚</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>DK109.524-DK139+000（2.11）(3)</t>
+    <t>3-2015.8.18独山-基长2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
+    <t>都匀东</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>独山东</t>
+  </si>
+  <si>
+    <t>C1K</t>
+  </si>
+  <si>
+    <t>基长</t>
+  </si>
+  <si>
+    <t>荔波</t>
+  </si>
+  <si>
+    <t>贵定县</t>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -718,22 +688,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>J5/1000</f>
-        <v>0</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>I5</f>
-        <v>海口</v>
+        <v>都匀东</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -742,30 +710,32 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>73680</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C69" si="0">J6/1000</f>
-        <v>13.638</v>
+        <v>111.9</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ref="E6:E69" si="1">I6</f>
-        <v>老城</v>
+        <v>独山东</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -775,13 +745,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="7">
-        <v>13638</v>
+        <v>111900</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75">
@@ -791,29 +761,30 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>48.86</v>
+        <v>139.1</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>临高</v>
+        <v>基长</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
+        <f>G6</f>
+        <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" s="6">
-        <v>48860</v>
+        <v>139100</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
@@ -823,29 +794,30 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>80.718000000000004</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>新盈</v>
+        <v>荔波</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>5</v>
+        <f t="shared" ref="G8:G71" si="2">G7</f>
+        <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7">
-        <v>80718</v>
+        <v>180000</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75">
@@ -855,30 +827,30 @@
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>108.89</v>
+        <v>26.5</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>洋浦</v>
+        <v>贵定县</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G8:G71" si="2">G8</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="6">
-        <v>108890</v>
+        <v>26500</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75">
@@ -888,30 +860,25 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>171.22</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>棋子湾</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="7">
-        <v>171220</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="18.75">
       <c r="A11" s="4"/>
@@ -920,30 +887,25 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>215.31</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>东方</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="6">
-        <v>215310</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="5"/>
@@ -952,31 +914,25 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>250.17</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>板桥</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="7">
-        <v>250170</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="4"/>
@@ -985,31 +941,25 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>271.5</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>尖峰</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="6">
-        <v>271500</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="5"/>
@@ -1018,31 +968,25 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>297.58</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>乐东</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="7">
-        <v>297580</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="18.75">
       <c r="A15" s="4"/>
@@ -1051,30 +995,25 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>323.44</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>崖城</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="6">
-        <v>9</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6">
-        <v>323440</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>26</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="5"/>
@@ -1083,64 +1022,52 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="0"/>
-        <v>354.76</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>凤凰机场</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="7">
-        <v>354760</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="18.75">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="6">
         <v>13</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>363.072</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>三亚</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <v>12</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="6">
-        <v>363072</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>29</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="5"/>
@@ -1163,7 +1090,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -1190,7 +1117,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="6"/>
@@ -1217,7 +1144,7 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -1244,7 +1171,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -1271,7 +1198,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -1298,7 +1225,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
@@ -1325,7 +1252,7 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
@@ -1352,7 +1279,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
@@ -1379,7 +1306,7 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="7"/>
@@ -1406,7 +1333,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -1433,7 +1360,7 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
@@ -1460,7 +1387,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
@@ -1487,7 +1414,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="7"/>
@@ -1514,7 +1441,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
@@ -1541,7 +1468,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="7"/>
@@ -1568,7 +1495,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
@@ -1595,7 +1522,7 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
@@ -1622,7 +1549,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
@@ -1649,7 +1576,7 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="7"/>
@@ -1676,7 +1603,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
@@ -1703,7 +1630,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="7"/>
@@ -1730,7 +1657,7 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="6"/>
@@ -1757,7 +1684,7 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="7"/>
@@ -1784,7 +1711,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
@@ -1811,7 +1738,7 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="7"/>
@@ -1838,7 +1765,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6"/>
@@ -1865,7 +1792,7 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="7"/>
@@ -1892,7 +1819,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="6"/>
@@ -1919,7 +1846,7 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="7"/>
@@ -1946,7 +1873,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
@@ -1973,7 +1900,7 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="7"/>
@@ -2000,7 +1927,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="6"/>
@@ -2027,7 +1954,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="7"/>
@@ -2054,7 +1981,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="6"/>
@@ -2081,7 +2008,7 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="7"/>
@@ -2108,7 +2035,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
@@ -2135,7 +2062,7 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="7"/>
@@ -2162,7 +2089,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="6"/>
@@ -2189,7 +2116,7 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="7"/>
@@ -2216,7 +2143,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="6"/>
@@ -2243,7 +2170,7 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="7"/>
@@ -2270,7 +2197,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="6"/>
@@ -2297,7 +2224,7 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
@@ -2324,7 +2251,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="6"/>
@@ -2351,7 +2278,7 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
@@ -2378,7 +2305,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="6"/>
@@ -2405,7 +2332,7 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="7"/>
@@ -2432,7 +2359,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="6"/>
@@ -2459,7 +2386,7 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="7"/>
@@ -2486,7 +2413,7 @@
       </c>
       <c r="G67" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="6"/>
@@ -2513,7 +2440,7 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="7"/>
@@ -2540,7 +2467,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="6"/>
@@ -2567,7 +2494,7 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="7"/>
@@ -2594,7 +2521,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="6"/>
@@ -2621,7 +2548,7 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" ref="G72:G135" si="5">G71</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="7"/>
@@ -2648,7 +2575,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="6"/>
@@ -2675,7 +2602,7 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="7"/>
@@ -2702,7 +2629,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="6"/>
@@ -2729,7 +2656,7 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="7"/>
@@ -2756,7 +2683,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="6"/>
@@ -2783,7 +2710,7 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="7"/>
@@ -2810,7 +2737,7 @@
       </c>
       <c r="G79" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="6"/>
@@ -2837,7 +2764,7 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="7"/>
@@ -2864,7 +2791,7 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="6"/>
@@ -2891,7 +2818,7 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="7"/>
@@ -2918,7 +2845,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="6"/>
@@ -2945,7 +2872,7 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="7"/>
@@ -2972,7 +2899,7 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="6"/>
@@ -2999,7 +2926,7 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="7"/>
@@ -3026,7 +2953,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="6"/>
@@ -3053,7 +2980,7 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="7"/>
@@ -3080,7 +3007,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="6"/>
@@ -3107,7 +3034,7 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="7"/>
@@ -3134,7 +3061,7 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="6"/>
@@ -3161,7 +3088,7 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="7"/>
@@ -3188,7 +3115,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="6"/>
@@ -3215,7 +3142,7 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="7"/>
@@ -3242,7 +3169,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="6"/>
@@ -3269,7 +3196,7 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="7"/>
@@ -3296,7 +3223,7 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="6"/>
@@ -3323,7 +3250,7 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="7"/>
@@ -3350,7 +3277,7 @@
       </c>
       <c r="G99" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="6"/>
@@ -3377,7 +3304,7 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="7"/>
@@ -3404,7 +3331,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="6"/>
@@ -3431,7 +3358,7 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="7"/>
@@ -3458,7 +3385,7 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="6"/>
@@ -3485,7 +3412,7 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="7"/>
@@ -3512,7 +3439,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="6"/>
@@ -3539,7 +3466,7 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="7"/>
@@ -3566,7 +3493,7 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="6"/>
@@ -3593,7 +3520,7 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="7"/>
@@ -3620,7 +3547,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="6"/>
@@ -3647,7 +3574,7 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="7"/>
@@ -3674,7 +3601,7 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="6"/>
@@ -3701,7 +3628,7 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="7"/>
@@ -3728,7 +3655,7 @@
       </c>
       <c r="G113" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="6"/>
@@ -3755,7 +3682,7 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="7"/>
@@ -3782,7 +3709,7 @@
       </c>
       <c r="G115" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="6"/>
@@ -3809,7 +3736,7 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="7"/>
@@ -3836,7 +3763,7 @@
       </c>
       <c r="G117" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="6"/>
@@ -3863,7 +3790,7 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="7"/>
@@ -3890,7 +3817,7 @@
       </c>
       <c r="G119" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="6"/>
@@ -3917,7 +3844,7 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="7"/>
@@ -3944,7 +3871,7 @@
       </c>
       <c r="G121" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="6"/>
@@ -3971,7 +3898,7 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="7"/>
@@ -3998,7 +3925,7 @@
       </c>
       <c r="G123" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="6"/>
@@ -4025,7 +3952,7 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="7"/>
@@ -4052,7 +3979,7 @@
       </c>
       <c r="G125" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="6"/>
@@ -4079,7 +4006,7 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="7"/>
@@ -4106,7 +4033,7 @@
       </c>
       <c r="G127" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="6"/>
@@ -4133,7 +4060,7 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="7"/>
@@ -4160,7 +4087,7 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="6"/>
@@ -4187,7 +4114,7 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I130" s="11"/>
       <c r="J130" s="7"/>
@@ -4214,7 +4141,7 @@
       </c>
       <c r="G131" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="6"/>
@@ -4241,7 +4168,7 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="7"/>
@@ -4268,7 +4195,7 @@
       </c>
       <c r="G133" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="6"/>
@@ -4295,7 +4222,7 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I134" s="11"/>
       <c r="J134" s="7"/>
@@ -4322,7 +4249,7 @@
       </c>
       <c r="G135" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="6"/>
@@ -4349,7 +4276,7 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" ref="G136:G199" si="8">G135</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="7"/>
@@ -4376,7 +4303,7 @@
       </c>
       <c r="G137" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="6"/>
@@ -4403,7 +4330,7 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="7"/>
@@ -4430,7 +4357,7 @@
       </c>
       <c r="G139" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="6"/>
@@ -4457,7 +4384,7 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="7"/>
@@ -4484,7 +4411,7 @@
       </c>
       <c r="G141" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="6"/>
@@ -4511,7 +4438,7 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="7"/>
@@ -4538,7 +4465,7 @@
       </c>
       <c r="G143" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="6"/>
@@ -4565,7 +4492,7 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="7"/>
@@ -4592,7 +4519,7 @@
       </c>
       <c r="G145" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="6"/>
@@ -4619,7 +4546,7 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="7"/>
@@ -4646,7 +4573,7 @@
       </c>
       <c r="G147" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="6"/>
@@ -4673,7 +4600,7 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="7"/>
@@ -4700,7 +4627,7 @@
       </c>
       <c r="G149" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="6"/>
@@ -4727,7 +4654,7 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="7"/>
@@ -4754,7 +4681,7 @@
       </c>
       <c r="G151" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="6"/>
@@ -4781,7 +4708,7 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="7"/>
@@ -4808,7 +4735,7 @@
       </c>
       <c r="G153" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="6"/>
@@ -4835,7 +4762,7 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="7"/>
@@ -4862,7 +4789,7 @@
       </c>
       <c r="G155" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="6"/>
@@ -4889,7 +4816,7 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="7"/>
@@ -4916,7 +4843,7 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="6"/>
@@ -4943,7 +4870,7 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="7"/>
@@ -4970,7 +4897,7 @@
       </c>
       <c r="G159" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="6"/>
@@ -4997,7 +4924,7 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="7"/>
@@ -5024,7 +4951,7 @@
       </c>
       <c r="G161" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="6"/>
@@ -5051,7 +4978,7 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="7"/>
@@ -5078,7 +5005,7 @@
       </c>
       <c r="G163" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
@@ -5105,7 +5032,7 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I164" s="11"/>
       <c r="J164" s="7"/>
@@ -5132,7 +5059,7 @@
       </c>
       <c r="G165" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
@@ -5159,7 +5086,7 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I166" s="11"/>
       <c r="J166" s="7"/>
@@ -5186,7 +5113,7 @@
       </c>
       <c r="G167" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="6"/>
@@ -5213,7 +5140,7 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="7"/>
@@ -5240,7 +5167,7 @@
       </c>
       <c r="G169" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="6"/>
@@ -5267,7 +5194,7 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I170" s="11"/>
       <c r="J170" s="7"/>
@@ -5294,7 +5221,7 @@
       </c>
       <c r="G171" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="6"/>
@@ -5321,7 +5248,7 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="7"/>
@@ -5348,7 +5275,7 @@
       </c>
       <c r="G173" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="6"/>
@@ -5375,7 +5302,7 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="7"/>
@@ -5402,7 +5329,7 @@
       </c>
       <c r="G175" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="6"/>
@@ -5429,7 +5356,7 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="7"/>
@@ -5456,7 +5383,7 @@
       </c>
       <c r="G177" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="6"/>
@@ -5483,7 +5410,7 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="7"/>
@@ -5510,7 +5437,7 @@
       </c>
       <c r="G179" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="6"/>
@@ -5537,7 +5464,7 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I180" s="11"/>
       <c r="J180" s="7"/>
@@ -5564,7 +5491,7 @@
       </c>
       <c r="G181" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="6"/>
@@ -5591,7 +5518,7 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I182" s="11"/>
       <c r="J182" s="7"/>
@@ -5618,7 +5545,7 @@
       </c>
       <c r="G183" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="6"/>
@@ -5645,7 +5572,7 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="7"/>
@@ -5672,7 +5599,7 @@
       </c>
       <c r="G185" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="6"/>
@@ -5699,7 +5626,7 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I186" s="11"/>
       <c r="J186" s="7"/>
@@ -5726,7 +5653,7 @@
       </c>
       <c r="G187" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="6"/>
@@ -5753,7 +5680,7 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I188" s="11"/>
       <c r="J188" s="7"/>
@@ -5780,7 +5707,7 @@
       </c>
       <c r="G189" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I189" s="8"/>
       <c r="J189" s="6"/>
@@ -5807,7 +5734,7 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="7"/>
@@ -5834,7 +5761,7 @@
       </c>
       <c r="G191" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="6"/>
@@ -5861,7 +5788,7 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="7"/>
@@ -5888,7 +5815,7 @@
       </c>
       <c r="G193" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="6"/>
@@ -5915,7 +5842,7 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="7"/>
@@ -5942,7 +5869,7 @@
       </c>
       <c r="G195" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="6"/>
@@ -5969,7 +5896,7 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I196" s="11"/>
       <c r="J196" s="7"/>
@@ -5996,7 +5923,7 @@
       </c>
       <c r="G197" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="6"/>
@@ -6023,7 +5950,7 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="7"/>
@@ -6050,7 +5977,7 @@
       </c>
       <c r="G199" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="6"/>
@@ -6077,7 +6004,7 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" ref="G200:G263" si="11">G199</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I200" s="11"/>
       <c r="J200" s="7"/>
@@ -6104,7 +6031,7 @@
       </c>
       <c r="G201" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="6"/>
@@ -6131,7 +6058,7 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I202" s="11"/>
       <c r="J202" s="7"/>
@@ -6158,7 +6085,7 @@
       </c>
       <c r="G203" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="6"/>
@@ -6185,7 +6112,7 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="7"/>
@@ -6212,7 +6139,7 @@
       </c>
       <c r="G205" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="6"/>
@@ -6239,7 +6166,7 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I206" s="11"/>
       <c r="J206" s="7"/>
@@ -6266,7 +6193,7 @@
       </c>
       <c r="G207" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="6"/>
@@ -6293,7 +6220,7 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="7"/>
@@ -6320,7 +6247,7 @@
       </c>
       <c r="G209" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="6"/>
@@ -6347,7 +6274,7 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="7"/>
@@ -6374,7 +6301,7 @@
       </c>
       <c r="G211" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="6"/>
@@ -6401,7 +6328,7 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I212" s="11"/>
       <c r="J212" s="7"/>
@@ -6428,7 +6355,7 @@
       </c>
       <c r="G213" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="6"/>
@@ -6455,7 +6382,7 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="7"/>
@@ -6482,7 +6409,7 @@
       </c>
       <c r="G215" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="6"/>
@@ -6509,7 +6436,7 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I216" s="11"/>
       <c r="J216" s="7"/>
@@ -6536,7 +6463,7 @@
       </c>
       <c r="G217" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="6"/>
@@ -6563,7 +6490,7 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I218" s="11"/>
       <c r="J218" s="7"/>
@@ -6590,7 +6517,7 @@
       </c>
       <c r="G219" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I219" s="8"/>
       <c r="J219" s="6"/>
@@ -6617,7 +6544,7 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I220" s="11"/>
       <c r="J220" s="7"/>
@@ -6644,7 +6571,7 @@
       </c>
       <c r="G221" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="6"/>
@@ -6671,7 +6598,7 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="7"/>
@@ -6698,7 +6625,7 @@
       </c>
       <c r="G223" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="6"/>
@@ -6725,7 +6652,7 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="7"/>
@@ -6752,7 +6679,7 @@
       </c>
       <c r="G225" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I225" s="8"/>
       <c r="J225" s="6"/>
@@ -6779,7 +6706,7 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I226" s="11"/>
       <c r="J226" s="7"/>
@@ -6806,7 +6733,7 @@
       </c>
       <c r="G227" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="6"/>
@@ -6833,7 +6760,7 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I228" s="11"/>
       <c r="J228" s="7"/>
@@ -6860,7 +6787,7 @@
       </c>
       <c r="G229" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I229" s="8"/>
       <c r="J229" s="6"/>
@@ -6887,7 +6814,7 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I230" s="11"/>
       <c r="J230" s="7"/>
@@ -6914,7 +6841,7 @@
       </c>
       <c r="G231" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I231" s="8"/>
       <c r="J231" s="6"/>
@@ -6941,7 +6868,7 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I232" s="11"/>
       <c r="J232" s="7"/>
@@ -6968,7 +6895,7 @@
       </c>
       <c r="G233" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="6"/>
@@ -6995,7 +6922,7 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I234" s="11"/>
       <c r="J234" s="7"/>
@@ -7022,7 +6949,7 @@
       </c>
       <c r="G235" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="6"/>
@@ -7049,7 +6976,7 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I236" s="11"/>
       <c r="J236" s="7"/>
@@ -7076,7 +7003,7 @@
       </c>
       <c r="G237" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="6"/>
@@ -7103,7 +7030,7 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I238" s="11"/>
       <c r="J238" s="7"/>
@@ -7130,7 +7057,7 @@
       </c>
       <c r="G239" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="6"/>
@@ -7157,7 +7084,7 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I240" s="11"/>
       <c r="J240" s="7"/>
@@ -7184,7 +7111,7 @@
       </c>
       <c r="G241" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I241" s="8"/>
       <c r="J241" s="6"/>
@@ -7211,7 +7138,7 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I242" s="11"/>
       <c r="J242" s="7"/>
@@ -7238,7 +7165,7 @@
       </c>
       <c r="G243" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I243" s="8"/>
       <c r="J243" s="6"/>
@@ -7265,7 +7192,7 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I244" s="11"/>
       <c r="J244" s="7"/>
@@ -7292,7 +7219,7 @@
       </c>
       <c r="G245" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I245" s="8"/>
       <c r="J245" s="6"/>
@@ -7319,7 +7246,7 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I246" s="11"/>
       <c r="J246" s="7"/>
@@ -7346,7 +7273,7 @@
       </c>
       <c r="G247" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I247" s="8"/>
       <c r="J247" s="6"/>
@@ -7373,7 +7300,7 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I248" s="11"/>
       <c r="J248" s="7"/>
@@ -7400,7 +7327,7 @@
       </c>
       <c r="G249" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I249" s="8"/>
       <c r="J249" s="6"/>
@@ -7427,7 +7354,7 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I250" s="11"/>
       <c r="J250" s="7"/>
@@ -7454,7 +7381,7 @@
       </c>
       <c r="G251" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I251" s="8"/>
       <c r="J251" s="6"/>
@@ -7481,7 +7408,7 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I252" s="11"/>
       <c r="J252" s="7"/>
@@ -7508,7 +7435,7 @@
       </c>
       <c r="G253" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I253" s="8"/>
       <c r="J253" s="6"/>
@@ -7535,7 +7462,7 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I254" s="11"/>
       <c r="J254" s="7"/>
@@ -7562,7 +7489,7 @@
       </c>
       <c r="G255" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I255" s="8"/>
       <c r="J255" s="6"/>
@@ -7589,7 +7516,7 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I256" s="11"/>
       <c r="J256" s="7"/>
@@ -7616,7 +7543,7 @@
       </c>
       <c r="G257" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I257" s="8"/>
       <c r="J257" s="6"/>
@@ -7643,7 +7570,7 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I258" s="11"/>
       <c r="J258" s="7"/>
@@ -7670,7 +7597,7 @@
       </c>
       <c r="G259" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I259" s="8"/>
       <c r="J259" s="6"/>
@@ -7697,7 +7624,7 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I260" s="11"/>
       <c r="J260" s="7"/>
@@ -7724,7 +7651,7 @@
       </c>
       <c r="G261" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="6"/>
@@ -7751,7 +7678,7 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="7"/>
@@ -7778,7 +7705,7 @@
       </c>
       <c r="G263" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I263" s="8"/>
       <c r="J263" s="6"/>
@@ -7805,7 +7732,7 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" ref="G264:G327" si="14">G263</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I264" s="11"/>
       <c r="J264" s="7"/>
@@ -7832,7 +7759,7 @@
       </c>
       <c r="G265" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I265" s="8"/>
       <c r="J265" s="6"/>
@@ -7859,7 +7786,7 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="7"/>
@@ -7886,7 +7813,7 @@
       </c>
       <c r="G267" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I267" s="8"/>
       <c r="J267" s="6"/>
@@ -7913,7 +7840,7 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I268" s="11"/>
       <c r="J268" s="7"/>
@@ -7940,7 +7867,7 @@
       </c>
       <c r="G269" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I269" s="8"/>
       <c r="J269" s="6"/>
@@ -7967,7 +7894,7 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I270" s="11"/>
       <c r="J270" s="7"/>
@@ -7994,7 +7921,7 @@
       </c>
       <c r="G271" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I271" s="8"/>
       <c r="J271" s="6"/>
@@ -8021,7 +7948,7 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I272" s="11"/>
       <c r="J272" s="7"/>
@@ -8048,7 +7975,7 @@
       </c>
       <c r="G273" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I273" s="8"/>
       <c r="J273" s="6"/>
@@ -8075,7 +8002,7 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I274" s="11"/>
       <c r="J274" s="7"/>
@@ -8102,7 +8029,7 @@
       </c>
       <c r="G275" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="6"/>
@@ -8129,7 +8056,7 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I276" s="11"/>
       <c r="J276" s="7"/>
@@ -8156,7 +8083,7 @@
       </c>
       <c r="G277" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I277" s="8"/>
       <c r="J277" s="6"/>
@@ -8183,7 +8110,7 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I278" s="11"/>
       <c r="J278" s="7"/>
@@ -8210,7 +8137,7 @@
       </c>
       <c r="G279" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I279" s="8"/>
       <c r="J279" s="6"/>
@@ -8237,7 +8164,7 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I280" s="11"/>
       <c r="J280" s="7"/>
@@ -8264,7 +8191,7 @@
       </c>
       <c r="G281" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I281" s="8"/>
       <c r="J281" s="6"/>
@@ -8291,7 +8218,7 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I282" s="11"/>
       <c r="J282" s="7"/>
@@ -8318,7 +8245,7 @@
       </c>
       <c r="G283" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I283" s="8"/>
       <c r="J283" s="6"/>
@@ -8345,7 +8272,7 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I284" s="11"/>
       <c r="J284" s="7"/>
@@ -8372,7 +8299,7 @@
       </c>
       <c r="G285" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I285" s="8"/>
       <c r="J285" s="6"/>
@@ -8399,7 +8326,7 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I286" s="11"/>
       <c r="J286" s="7"/>
@@ -8426,7 +8353,7 @@
       </c>
       <c r="G287" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I287" s="8"/>
       <c r="J287" s="6"/>
@@ -8453,7 +8380,7 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I288" s="11"/>
       <c r="J288" s="7"/>
@@ -8480,7 +8407,7 @@
       </c>
       <c r="G289" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="6"/>
@@ -8507,7 +8434,7 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I290" s="11"/>
       <c r="J290" s="7"/>
@@ -8534,7 +8461,7 @@
       </c>
       <c r="G291" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I291" s="8"/>
       <c r="J291" s="6"/>
@@ -8561,7 +8488,7 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I292" s="11"/>
       <c r="J292" s="7"/>
@@ -8588,7 +8515,7 @@
       </c>
       <c r="G293" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I293" s="8"/>
       <c r="J293" s="6"/>
@@ -8615,7 +8542,7 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I294" s="11"/>
       <c r="J294" s="7"/>
@@ -8642,7 +8569,7 @@
       </c>
       <c r="G295" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I295" s="8"/>
       <c r="J295" s="6"/>
@@ -8669,7 +8596,7 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I296" s="11"/>
       <c r="J296" s="7"/>
@@ -8696,7 +8623,7 @@
       </c>
       <c r="G297" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I297" s="8"/>
       <c r="J297" s="6"/>
@@ -8723,7 +8650,7 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I298" s="11"/>
       <c r="J298" s="7"/>
@@ -8750,7 +8677,7 @@
       </c>
       <c r="G299" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I299" s="8"/>
       <c r="J299" s="6"/>
@@ -8777,7 +8704,7 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I300" s="11"/>
       <c r="J300" s="7"/>
@@ -8804,7 +8731,7 @@
       </c>
       <c r="G301" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="6"/>
@@ -8831,7 +8758,7 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I302" s="11"/>
       <c r="J302" s="7"/>
@@ -8858,7 +8785,7 @@
       </c>
       <c r="G303" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I303" s="8"/>
       <c r="J303" s="6"/>
@@ -8885,7 +8812,7 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I304" s="11"/>
       <c r="J304" s="7"/>
@@ -8912,7 +8839,7 @@
       </c>
       <c r="G305" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I305" s="8"/>
       <c r="J305" s="6"/>
@@ -8939,7 +8866,7 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I306" s="11"/>
       <c r="J306" s="7"/>
@@ -8966,7 +8893,7 @@
       </c>
       <c r="G307" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I307" s="8"/>
       <c r="J307" s="6"/>
@@ -8993,7 +8920,7 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I308" s="11"/>
       <c r="J308" s="7"/>
@@ -9020,7 +8947,7 @@
       </c>
       <c r="G309" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I309" s="8"/>
       <c r="J309" s="6"/>
@@ -9047,7 +8974,7 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I310" s="11"/>
       <c r="J310" s="7"/>
@@ -9074,7 +9001,7 @@
       </c>
       <c r="G311" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I311" s="8"/>
       <c r="J311" s="6"/>
@@ -9101,7 +9028,7 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I312" s="11"/>
       <c r="J312" s="7"/>
@@ -9128,7 +9055,7 @@
       </c>
       <c r="G313" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I313" s="8"/>
       <c r="J313" s="6"/>
@@ -9155,7 +9082,7 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I314" s="11"/>
       <c r="J314" s="7"/>
@@ -9182,7 +9109,7 @@
       </c>
       <c r="G315" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I315" s="8"/>
       <c r="J315" s="6"/>
@@ -9209,7 +9136,7 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I316" s="11"/>
       <c r="J316" s="7"/>
@@ -9236,7 +9163,7 @@
       </c>
       <c r="G317" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I317" s="8"/>
       <c r="J317" s="6"/>
@@ -9263,7 +9190,7 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I318" s="11"/>
       <c r="J318" s="7"/>
@@ -9290,7 +9217,7 @@
       </c>
       <c r="G319" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I319" s="8"/>
       <c r="J319" s="6"/>
@@ -9317,7 +9244,7 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I320" s="11"/>
       <c r="J320" s="7"/>
@@ -9344,7 +9271,7 @@
       </c>
       <c r="G321" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I321" s="8"/>
       <c r="J321" s="6"/>
@@ -9371,7 +9298,7 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I322" s="11"/>
       <c r="J322" s="7"/>
@@ -9398,7 +9325,7 @@
       </c>
       <c r="G323" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I323" s="8"/>
       <c r="J323" s="6"/>
@@ -9425,7 +9352,7 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="7"/>
@@ -9452,7 +9379,7 @@
       </c>
       <c r="G325" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I325" s="8"/>
       <c r="J325" s="6"/>
@@ -9479,7 +9406,7 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I326" s="11"/>
       <c r="J326" s="7"/>
@@ -9506,7 +9433,7 @@
       </c>
       <c r="G327" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I327" s="8"/>
       <c r="J327" s="6"/>
@@ -9533,7 +9460,7 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" ref="G328:G391" si="17">G327</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I328" s="11"/>
       <c r="J328" s="7"/>
@@ -9560,7 +9487,7 @@
       </c>
       <c r="G329" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I329" s="8"/>
       <c r="J329" s="6"/>
@@ -9587,7 +9514,7 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I330" s="11"/>
       <c r="J330" s="7"/>
@@ -9614,7 +9541,7 @@
       </c>
       <c r="G331" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I331" s="8"/>
       <c r="J331" s="6"/>
@@ -9641,7 +9568,7 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I332" s="11"/>
       <c r="J332" s="7"/>
@@ -9668,7 +9595,7 @@
       </c>
       <c r="G333" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I333" s="8"/>
       <c r="J333" s="6"/>
@@ -9695,7 +9622,7 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I334" s="11"/>
       <c r="J334" s="7"/>
@@ -9722,7 +9649,7 @@
       </c>
       <c r="G335" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I335" s="8"/>
       <c r="J335" s="6"/>
@@ -9749,7 +9676,7 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I336" s="11"/>
       <c r="J336" s="7"/>
@@ -9776,7 +9703,7 @@
       </c>
       <c r="G337" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I337" s="8"/>
       <c r="J337" s="6"/>
@@ -9803,7 +9730,7 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I338" s="11"/>
       <c r="J338" s="7"/>
@@ -9830,7 +9757,7 @@
       </c>
       <c r="G339" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I339" s="8"/>
       <c r="J339" s="6"/>
@@ -9857,7 +9784,7 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I340" s="11"/>
       <c r="J340" s="7"/>
@@ -9884,7 +9811,7 @@
       </c>
       <c r="G341" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I341" s="8"/>
       <c r="J341" s="6"/>
@@ -9911,7 +9838,7 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I342" s="11"/>
       <c r="J342" s="7"/>
@@ -9938,7 +9865,7 @@
       </c>
       <c r="G343" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I343" s="8"/>
       <c r="J343" s="6"/>
@@ -9965,7 +9892,7 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I344" s="11"/>
       <c r="J344" s="7"/>
@@ -9992,7 +9919,7 @@
       </c>
       <c r="G345" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I345" s="8"/>
       <c r="J345" s="6"/>
@@ -10019,7 +9946,7 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I346" s="11"/>
       <c r="J346" s="7"/>
@@ -10046,7 +9973,7 @@
       </c>
       <c r="G347" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I347" s="8"/>
       <c r="J347" s="6"/>
@@ -10073,7 +10000,7 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I348" s="11"/>
       <c r="J348" s="7"/>
@@ -10100,7 +10027,7 @@
       </c>
       <c r="G349" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I349" s="8"/>
       <c r="J349" s="6"/>
@@ -10127,7 +10054,7 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I350" s="11"/>
       <c r="J350" s="7"/>
@@ -10154,7 +10081,7 @@
       </c>
       <c r="G351" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I351" s="8"/>
       <c r="J351" s="6"/>
@@ -10181,7 +10108,7 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I352" s="11"/>
       <c r="J352" s="7"/>
@@ -10208,7 +10135,7 @@
       </c>
       <c r="G353" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I353" s="8"/>
       <c r="J353" s="6"/>
@@ -10235,7 +10162,7 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I354" s="11"/>
       <c r="J354" s="7"/>
@@ -10262,7 +10189,7 @@
       </c>
       <c r="G355" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I355" s="8"/>
       <c r="J355" s="6"/>
@@ -10289,7 +10216,7 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I356" s="11"/>
       <c r="J356" s="7"/>
@@ -10316,7 +10243,7 @@
       </c>
       <c r="G357" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I357" s="8"/>
       <c r="J357" s="6"/>
@@ -10343,7 +10270,7 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I358" s="11"/>
       <c r="J358" s="7"/>
@@ -10370,7 +10297,7 @@
       </c>
       <c r="G359" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="6"/>
@@ -10397,7 +10324,7 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I360" s="11"/>
       <c r="J360" s="7"/>
@@ -10424,7 +10351,7 @@
       </c>
       <c r="G361" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I361" s="8"/>
       <c r="J361" s="6"/>
@@ -10451,7 +10378,7 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I362" s="11"/>
       <c r="J362" s="7"/>
@@ -10478,7 +10405,7 @@
       </c>
       <c r="G363" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I363" s="8"/>
       <c r="J363" s="6"/>
@@ -10505,7 +10432,7 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I364" s="11"/>
       <c r="J364" s="7"/>
@@ -10532,7 +10459,7 @@
       </c>
       <c r="G365" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I365" s="8"/>
       <c r="J365" s="6"/>
@@ -10559,7 +10486,7 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I366" s="11"/>
       <c r="J366" s="7"/>
@@ -10586,7 +10513,7 @@
       </c>
       <c r="G367" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I367" s="8"/>
       <c r="J367" s="6"/>
@@ -10613,7 +10540,7 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I368" s="11"/>
       <c r="J368" s="7"/>
@@ -10640,7 +10567,7 @@
       </c>
       <c r="G369" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I369" s="8"/>
       <c r="J369" s="6"/>
@@ -10667,7 +10594,7 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I370" s="11"/>
       <c r="J370" s="7"/>
@@ -10694,7 +10621,7 @@
       </c>
       <c r="G371" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I371" s="8"/>
       <c r="J371" s="6"/>
@@ -10721,7 +10648,7 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I372" s="11"/>
       <c r="J372" s="7"/>
@@ -10748,7 +10675,7 @@
       </c>
       <c r="G373" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I373" s="8"/>
       <c r="J373" s="6"/>
@@ -10775,7 +10702,7 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I374" s="11"/>
       <c r="J374" s="7"/>
@@ -10802,7 +10729,7 @@
       </c>
       <c r="G375" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I375" s="8"/>
       <c r="J375" s="6"/>
@@ -10829,7 +10756,7 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I376" s="11"/>
       <c r="J376" s="7"/>
@@ -10856,7 +10783,7 @@
       </c>
       <c r="G377" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I377" s="8"/>
       <c r="J377" s="6"/>
@@ -10883,7 +10810,7 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I378" s="11"/>
       <c r="J378" s="7"/>
@@ -10910,7 +10837,7 @@
       </c>
       <c r="G379" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I379" s="8"/>
       <c r="J379" s="6"/>
@@ -10937,7 +10864,7 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I380" s="11"/>
       <c r="J380" s="7"/>
@@ -10964,7 +10891,7 @@
       </c>
       <c r="G381" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I381" s="8"/>
       <c r="J381" s="6"/>
@@ -10991,7 +10918,7 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="7"/>
@@ -11018,7 +10945,7 @@
       </c>
       <c r="G383" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I383" s="8"/>
       <c r="J383" s="6"/>
@@ -11045,7 +10972,7 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I384" s="11"/>
       <c r="J384" s="7"/>
@@ -11072,7 +10999,7 @@
       </c>
       <c r="G385" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I385" s="8"/>
       <c r="J385" s="6"/>
@@ -11099,7 +11026,7 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I386" s="11"/>
       <c r="J386" s="7"/>
@@ -11126,7 +11053,7 @@
       </c>
       <c r="G387" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I387" s="8"/>
       <c r="J387" s="6"/>
@@ -11153,7 +11080,7 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I388" s="11"/>
       <c r="J388" s="7"/>
@@ -11180,7 +11107,7 @@
       </c>
       <c r="G389" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I389" s="8"/>
       <c r="J389" s="6"/>
@@ -11207,7 +11134,7 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I390" s="11"/>
       <c r="J390" s="7"/>
@@ -11234,7 +11161,7 @@
       </c>
       <c r="G391" s="6">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I391" s="8"/>
       <c r="J391" s="6"/>
@@ -11261,7 +11188,7 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" ref="G392:G455" si="20">G391</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I392" s="11"/>
       <c r="J392" s="7"/>
@@ -11288,7 +11215,7 @@
       </c>
       <c r="G393" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I393" s="8"/>
       <c r="J393" s="6"/>
@@ -11315,7 +11242,7 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I394" s="11"/>
       <c r="J394" s="7"/>
@@ -11342,7 +11269,7 @@
       </c>
       <c r="G395" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I395" s="8"/>
       <c r="J395" s="6"/>
@@ -11369,7 +11296,7 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I396" s="11"/>
       <c r="J396" s="7"/>
@@ -11396,7 +11323,7 @@
       </c>
       <c r="G397" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I397" s="8"/>
       <c r="J397" s="6"/>
@@ -11423,7 +11350,7 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I398" s="11"/>
       <c r="J398" s="7"/>
@@ -11450,7 +11377,7 @@
       </c>
       <c r="G399" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I399" s="8"/>
       <c r="J399" s="6"/>
@@ -11477,7 +11404,7 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I400" s="11"/>
       <c r="J400" s="7"/>
@@ -11504,7 +11431,7 @@
       </c>
       <c r="G401" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I401" s="8"/>
       <c r="J401" s="6"/>
@@ -11531,7 +11458,7 @@
       </c>
       <c r="G402" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I402" s="11"/>
       <c r="J402" s="7"/>
@@ -11558,7 +11485,7 @@
       </c>
       <c r="G403" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I403" s="8"/>
       <c r="J403" s="6"/>
@@ -11585,7 +11512,7 @@
       </c>
       <c r="G404" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I404" s="11"/>
       <c r="J404" s="7"/>
@@ -11612,7 +11539,7 @@
       </c>
       <c r="G405" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I405" s="8"/>
       <c r="J405" s="6"/>
@@ -11639,7 +11566,7 @@
       </c>
       <c r="G406" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I406" s="11"/>
       <c r="J406" s="7"/>
@@ -11666,7 +11593,7 @@
       </c>
       <c r="G407" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I407" s="8"/>
       <c r="J407" s="6"/>
@@ -11693,7 +11620,7 @@
       </c>
       <c r="G408" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I408" s="11"/>
       <c r="J408" s="7"/>
@@ -11720,7 +11647,7 @@
       </c>
       <c r="G409" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I409" s="8"/>
       <c r="J409" s="6"/>
@@ -11747,7 +11674,7 @@
       </c>
       <c r="G410" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I410" s="11"/>
       <c r="J410" s="7"/>
@@ -11774,7 +11701,7 @@
       </c>
       <c r="G411" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I411" s="8"/>
       <c r="J411" s="6"/>
@@ -11801,7 +11728,7 @@
       </c>
       <c r="G412" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I412" s="11"/>
       <c r="J412" s="7"/>
@@ -11828,7 +11755,7 @@
       </c>
       <c r="G413" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I413" s="8"/>
       <c r="J413" s="6"/>
@@ -11855,7 +11782,7 @@
       </c>
       <c r="G414" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I414" s="11"/>
       <c r="J414" s="7"/>
@@ -11882,7 +11809,7 @@
       </c>
       <c r="G415" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I415" s="8"/>
       <c r="J415" s="6"/>
@@ -11909,7 +11836,7 @@
       </c>
       <c r="G416" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I416" s="11"/>
       <c r="J416" s="7"/>
@@ -11936,7 +11863,7 @@
       </c>
       <c r="G417" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I417" s="8"/>
       <c r="J417" s="6"/>
@@ -11963,7 +11890,7 @@
       </c>
       <c r="G418" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I418" s="11"/>
       <c r="J418" s="7"/>
@@ -11990,7 +11917,7 @@
       </c>
       <c r="G419" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I419" s="8"/>
       <c r="J419" s="6"/>
@@ -12017,7 +11944,7 @@
       </c>
       <c r="G420" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I420" s="11"/>
       <c r="J420" s="7"/>
@@ -12044,7 +11971,7 @@
       </c>
       <c r="G421" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I421" s="8"/>
       <c r="J421" s="6"/>
@@ -12071,7 +11998,7 @@
       </c>
       <c r="G422" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I422" s="11"/>
       <c r="J422" s="7"/>
@@ -12098,7 +12025,7 @@
       </c>
       <c r="G423" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I423" s="8"/>
       <c r="J423" s="6"/>
@@ -12125,7 +12052,7 @@
       </c>
       <c r="G424" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I424" s="11"/>
       <c r="J424" s="7"/>
@@ -12152,7 +12079,7 @@
       </c>
       <c r="G425" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I425" s="8"/>
       <c r="J425" s="6"/>
@@ -12179,7 +12106,7 @@
       </c>
       <c r="G426" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I426" s="11"/>
       <c r="J426" s="7"/>
@@ -12206,7 +12133,7 @@
       </c>
       <c r="G427" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I427" s="8"/>
       <c r="J427" s="6"/>
@@ -12233,7 +12160,7 @@
       </c>
       <c r="G428" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="7"/>
@@ -12260,7 +12187,7 @@
       </c>
       <c r="G429" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I429" s="8"/>
       <c r="J429" s="6"/>
@@ -12287,7 +12214,7 @@
       </c>
       <c r="G430" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I430" s="11"/>
       <c r="J430" s="7"/>
@@ -12314,7 +12241,7 @@
       </c>
       <c r="G431" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I431" s="8"/>
       <c r="J431" s="6"/>
@@ -12341,7 +12268,7 @@
       </c>
       <c r="G432" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I432" s="11"/>
       <c r="J432" s="7"/>
@@ -12368,7 +12295,7 @@
       </c>
       <c r="G433" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I433" s="8"/>
       <c r="J433" s="6"/>
@@ -12395,7 +12322,7 @@
       </c>
       <c r="G434" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I434" s="11"/>
       <c r="J434" s="7"/>
@@ -12422,7 +12349,7 @@
       </c>
       <c r="G435" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I435" s="8"/>
       <c r="J435" s="6"/>
@@ -12449,7 +12376,7 @@
       </c>
       <c r="G436" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I436" s="11"/>
       <c r="J436" s="7"/>
@@ -12476,7 +12403,7 @@
       </c>
       <c r="G437" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I437" s="8"/>
       <c r="J437" s="6"/>
@@ -12503,7 +12430,7 @@
       </c>
       <c r="G438" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I438" s="11"/>
       <c r="J438" s="7"/>
@@ -12530,7 +12457,7 @@
       </c>
       <c r="G439" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I439" s="8"/>
       <c r="J439" s="6"/>
@@ -12557,7 +12484,7 @@
       </c>
       <c r="G440" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="7"/>
@@ -12584,7 +12511,7 @@
       </c>
       <c r="G441" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I441" s="8"/>
       <c r="J441" s="6"/>
@@ -12611,7 +12538,7 @@
       </c>
       <c r="G442" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I442" s="11"/>
       <c r="J442" s="7"/>
@@ -12638,7 +12565,7 @@
       </c>
       <c r="G443" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I443" s="8"/>
       <c r="J443" s="6"/>
@@ -12665,7 +12592,7 @@
       </c>
       <c r="G444" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I444" s="11"/>
       <c r="J444" s="7"/>
@@ -12692,7 +12619,7 @@
       </c>
       <c r="G445" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I445" s="8"/>
       <c r="J445" s="6"/>
@@ -12719,7 +12646,7 @@
       </c>
       <c r="G446" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I446" s="11"/>
       <c r="J446" s="7"/>
@@ -12746,7 +12673,7 @@
       </c>
       <c r="G447" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I447" s="8"/>
       <c r="J447" s="6"/>
@@ -12773,7 +12700,7 @@
       </c>
       <c r="G448" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I448" s="11"/>
       <c r="J448" s="7"/>
@@ -12800,7 +12727,7 @@
       </c>
       <c r="G449" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I449" s="8"/>
       <c r="J449" s="6"/>
@@ -12827,7 +12754,7 @@
       </c>
       <c r="G450" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I450" s="11"/>
       <c r="J450" s="7"/>
@@ -12854,7 +12781,7 @@
       </c>
       <c r="G451" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I451" s="8"/>
       <c r="J451" s="6"/>
@@ -12881,7 +12808,7 @@
       </c>
       <c r="G452" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I452" s="11"/>
       <c r="J452" s="7"/>
@@ -12908,7 +12835,7 @@
       </c>
       <c r="G453" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I453" s="8"/>
       <c r="J453" s="6"/>
@@ -12935,7 +12862,7 @@
       </c>
       <c r="G454" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I454" s="11"/>
       <c r="J454" s="7"/>
@@ -12962,7 +12889,7 @@
       </c>
       <c r="G455" s="6">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I455" s="8"/>
       <c r="J455" s="6"/>
@@ -12989,7 +12916,7 @@
       </c>
       <c r="G456" s="7">
         <f t="shared" ref="G456:G519" si="23">G455</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I456" s="11"/>
       <c r="J456" s="7"/>
@@ -13016,7 +12943,7 @@
       </c>
       <c r="G457" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I457" s="8"/>
       <c r="J457" s="6"/>
@@ -13043,7 +12970,7 @@
       </c>
       <c r="G458" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I458" s="11"/>
       <c r="J458" s="7"/>
@@ -13070,7 +12997,7 @@
       </c>
       <c r="G459" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I459" s="8"/>
       <c r="J459" s="6"/>
@@ -13097,7 +13024,7 @@
       </c>
       <c r="G460" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I460" s="11"/>
       <c r="J460" s="7"/>
@@ -13124,7 +13051,7 @@
       </c>
       <c r="G461" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I461" s="8"/>
       <c r="J461" s="6"/>
@@ -13151,7 +13078,7 @@
       </c>
       <c r="G462" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I462" s="11"/>
       <c r="J462" s="7"/>
@@ -13178,7 +13105,7 @@
       </c>
       <c r="G463" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I463" s="8"/>
       <c r="J463" s="6"/>
@@ -13205,7 +13132,7 @@
       </c>
       <c r="G464" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I464" s="11"/>
       <c r="J464" s="7"/>
@@ -13232,7 +13159,7 @@
       </c>
       <c r="G465" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I465" s="8"/>
       <c r="J465" s="6"/>
@@ -13259,7 +13186,7 @@
       </c>
       <c r="G466" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I466" s="11"/>
       <c r="J466" s="7"/>
@@ -13286,7 +13213,7 @@
       </c>
       <c r="G467" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I467" s="8"/>
       <c r="J467" s="6"/>
@@ -13313,7 +13240,7 @@
       </c>
       <c r="G468" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I468" s="11"/>
       <c r="J468" s="7"/>
@@ -13340,7 +13267,7 @@
       </c>
       <c r="G469" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I469" s="8"/>
       <c r="J469" s="6"/>
@@ -13367,7 +13294,7 @@
       </c>
       <c r="G470" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I470" s="11"/>
       <c r="J470" s="7"/>
@@ -13394,7 +13321,7 @@
       </c>
       <c r="G471" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I471" s="8"/>
       <c r="J471" s="6"/>
@@ -13421,7 +13348,7 @@
       </c>
       <c r="G472" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I472" s="11"/>
       <c r="J472" s="7"/>
@@ -13448,7 +13375,7 @@
       </c>
       <c r="G473" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I473" s="8"/>
       <c r="J473" s="6"/>
@@ -13475,7 +13402,7 @@
       </c>
       <c r="G474" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I474" s="11"/>
       <c r="J474" s="7"/>
@@ -13502,7 +13429,7 @@
       </c>
       <c r="G475" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I475" s="8"/>
       <c r="J475" s="6"/>
@@ -13529,7 +13456,7 @@
       </c>
       <c r="G476" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I476" s="11"/>
       <c r="J476" s="7"/>
@@ -13556,7 +13483,7 @@
       </c>
       <c r="G477" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I477" s="8"/>
       <c r="J477" s="6"/>
@@ -13583,7 +13510,7 @@
       </c>
       <c r="G478" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I478" s="11"/>
       <c r="J478" s="7"/>
@@ -13610,7 +13537,7 @@
       </c>
       <c r="G479" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I479" s="8"/>
       <c r="J479" s="6"/>
@@ -13637,7 +13564,7 @@
       </c>
       <c r="G480" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I480" s="11"/>
       <c r="J480" s="7"/>
@@ -13664,7 +13591,7 @@
       </c>
       <c r="G481" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I481" s="8"/>
       <c r="J481" s="6"/>
@@ -13691,7 +13618,7 @@
       </c>
       <c r="G482" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I482" s="11"/>
       <c r="J482" s="7"/>
@@ -13718,7 +13645,7 @@
       </c>
       <c r="G483" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I483" s="8"/>
       <c r="J483" s="6"/>
@@ -13745,7 +13672,7 @@
       </c>
       <c r="G484" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I484" s="11"/>
       <c r="J484" s="7"/>
@@ -13772,7 +13699,7 @@
       </c>
       <c r="G485" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I485" s="8"/>
       <c r="J485" s="6"/>
@@ -13799,7 +13726,7 @@
       </c>
       <c r="G486" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I486" s="11"/>
       <c r="J486" s="7"/>
@@ -13826,7 +13753,7 @@
       </c>
       <c r="G487" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I487" s="8"/>
       <c r="J487" s="6"/>
@@ -13853,7 +13780,7 @@
       </c>
       <c r="G488" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I488" s="11"/>
       <c r="J488" s="7"/>
@@ -13880,7 +13807,7 @@
       </c>
       <c r="G489" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I489" s="8"/>
       <c r="J489" s="6"/>
@@ -13907,7 +13834,7 @@
       </c>
       <c r="G490" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I490" s="11"/>
       <c r="J490" s="7"/>
@@ -13934,7 +13861,7 @@
       </c>
       <c r="G491" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I491" s="8"/>
       <c r="J491" s="6"/>
@@ -13961,7 +13888,7 @@
       </c>
       <c r="G492" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I492" s="11"/>
       <c r="J492" s="7"/>
@@ -13988,7 +13915,7 @@
       </c>
       <c r="G493" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I493" s="8"/>
       <c r="J493" s="6"/>
@@ -14015,7 +13942,7 @@
       </c>
       <c r="G494" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I494" s="11"/>
       <c r="J494" s="7"/>
@@ -14042,7 +13969,7 @@
       </c>
       <c r="G495" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I495" s="8"/>
       <c r="J495" s="6"/>
@@ -14069,7 +13996,7 @@
       </c>
       <c r="G496" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I496" s="11"/>
       <c r="J496" s="7"/>
@@ -14096,7 +14023,7 @@
       </c>
       <c r="G497" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I497" s="8"/>
       <c r="J497" s="6"/>
@@ -14123,7 +14050,7 @@
       </c>
       <c r="G498" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="7"/>
@@ -14150,7 +14077,7 @@
       </c>
       <c r="G499" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I499" s="8"/>
       <c r="J499" s="6"/>
@@ -14177,7 +14104,7 @@
       </c>
       <c r="G500" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I500" s="11"/>
       <c r="J500" s="7"/>
@@ -14204,7 +14131,7 @@
       </c>
       <c r="G501" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I501" s="8"/>
       <c r="J501" s="6"/>
@@ -14231,7 +14158,7 @@
       </c>
       <c r="G502" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I502" s="11"/>
       <c r="J502" s="7"/>
@@ -14258,7 +14185,7 @@
       </c>
       <c r="G503" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I503" s="8"/>
       <c r="J503" s="6"/>
@@ -14285,7 +14212,7 @@
       </c>
       <c r="G504" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I504" s="11"/>
       <c r="J504" s="7"/>
@@ -14312,7 +14239,7 @@
       </c>
       <c r="G505" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I505" s="8"/>
       <c r="J505" s="6"/>
@@ -14339,7 +14266,7 @@
       </c>
       <c r="G506" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I506" s="11"/>
       <c r="J506" s="7"/>
@@ -14366,7 +14293,7 @@
       </c>
       <c r="G507" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I507" s="8"/>
       <c r="J507" s="6"/>
@@ -14393,7 +14320,7 @@
       </c>
       <c r="G508" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I508" s="11"/>
       <c r="J508" s="7"/>
@@ -14420,7 +14347,7 @@
       </c>
       <c r="G509" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I509" s="8"/>
       <c r="J509" s="6"/>
@@ -14447,7 +14374,7 @@
       </c>
       <c r="G510" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I510" s="11"/>
       <c r="J510" s="7"/>
@@ -14474,7 +14401,7 @@
       </c>
       <c r="G511" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I511" s="8"/>
       <c r="J511" s="6"/>
@@ -14501,7 +14428,7 @@
       </c>
       <c r="G512" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I512" s="11"/>
       <c r="J512" s="7"/>
@@ -14528,7 +14455,7 @@
       </c>
       <c r="G513" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I513" s="8"/>
       <c r="J513" s="6"/>
@@ -14555,7 +14482,7 @@
       </c>
       <c r="G514" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I514" s="11"/>
       <c r="J514" s="7"/>
@@ -14582,7 +14509,7 @@
       </c>
       <c r="G515" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I515" s="8"/>
       <c r="J515" s="6"/>
@@ -14609,7 +14536,7 @@
       </c>
       <c r="G516" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I516" s="11"/>
       <c r="J516" s="7"/>
@@ -14636,7 +14563,7 @@
       </c>
       <c r="G517" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I517" s="8"/>
       <c r="J517" s="6"/>
@@ -14663,7 +14590,7 @@
       </c>
       <c r="G518" s="7">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I518" s="11"/>
       <c r="J518" s="7"/>
@@ -14690,7 +14617,7 @@
       </c>
       <c r="G519" s="6">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I519" s="8"/>
       <c r="J519" s="6"/>
@@ -14717,7 +14644,7 @@
       </c>
       <c r="G520" s="7">
         <f t="shared" ref="G520:G583" si="26">G519</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I520" s="11"/>
       <c r="J520" s="7"/>
@@ -14744,7 +14671,7 @@
       </c>
       <c r="G521" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I521" s="8"/>
       <c r="J521" s="6"/>
@@ -14771,7 +14698,7 @@
       </c>
       <c r="G522" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I522" s="11"/>
       <c r="J522" s="7"/>
@@ -14798,7 +14725,7 @@
       </c>
       <c r="G523" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I523" s="8"/>
       <c r="J523" s="6"/>
@@ -14825,7 +14752,7 @@
       </c>
       <c r="G524" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I524" s="11"/>
       <c r="J524" s="7"/>
@@ -14852,7 +14779,7 @@
       </c>
       <c r="G525" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I525" s="8"/>
       <c r="J525" s="6"/>
@@ -14879,7 +14806,7 @@
       </c>
       <c r="G526" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I526" s="11"/>
       <c r="J526" s="7"/>
@@ -14906,7 +14833,7 @@
       </c>
       <c r="G527" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I527" s="8"/>
       <c r="J527" s="6"/>
@@ -14933,7 +14860,7 @@
       </c>
       <c r="G528" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I528" s="11"/>
       <c r="J528" s="7"/>
@@ -14960,7 +14887,7 @@
       </c>
       <c r="G529" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I529" s="8"/>
       <c r="J529" s="6"/>
@@ -14987,7 +14914,7 @@
       </c>
       <c r="G530" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I530" s="11"/>
       <c r="J530" s="7"/>
@@ -15014,7 +14941,7 @@
       </c>
       <c r="G531" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I531" s="8"/>
       <c r="J531" s="6"/>
@@ -15041,7 +14968,7 @@
       </c>
       <c r="G532" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I532" s="11"/>
       <c r="J532" s="7"/>
@@ -15068,7 +14995,7 @@
       </c>
       <c r="G533" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I533" s="8"/>
       <c r="J533" s="6"/>
@@ -15095,7 +15022,7 @@
       </c>
       <c r="G534" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I534" s="11"/>
       <c r="J534" s="7"/>
@@ -15122,7 +15049,7 @@
       </c>
       <c r="G535" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I535" s="8"/>
       <c r="J535" s="6"/>
@@ -15149,7 +15076,7 @@
       </c>
       <c r="G536" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I536" s="11"/>
       <c r="J536" s="7"/>
@@ -15176,7 +15103,7 @@
       </c>
       <c r="G537" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I537" s="8"/>
       <c r="J537" s="6"/>
@@ -15203,7 +15130,7 @@
       </c>
       <c r="G538" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I538" s="11"/>
       <c r="J538" s="7"/>
@@ -15230,7 +15157,7 @@
       </c>
       <c r="G539" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I539" s="8"/>
       <c r="J539" s="6"/>
@@ -15257,7 +15184,7 @@
       </c>
       <c r="G540" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I540" s="11"/>
       <c r="J540" s="7"/>
@@ -15284,7 +15211,7 @@
       </c>
       <c r="G541" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I541" s="8"/>
       <c r="J541" s="6"/>
@@ -15311,7 +15238,7 @@
       </c>
       <c r="G542" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I542" s="11"/>
       <c r="J542" s="7"/>
@@ -15338,7 +15265,7 @@
       </c>
       <c r="G543" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I543" s="8"/>
       <c r="J543" s="6"/>
@@ -15365,7 +15292,7 @@
       </c>
       <c r="G544" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I544" s="11"/>
       <c r="J544" s="7"/>
@@ -15392,7 +15319,7 @@
       </c>
       <c r="G545" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I545" s="8"/>
       <c r="J545" s="6"/>
@@ -15419,7 +15346,7 @@
       </c>
       <c r="G546" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I546" s="11"/>
       <c r="J546" s="7"/>
@@ -15446,7 +15373,7 @@
       </c>
       <c r="G547" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I547" s="8"/>
       <c r="J547" s="6"/>
@@ -15473,7 +15400,7 @@
       </c>
       <c r="G548" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I548" s="11"/>
       <c r="J548" s="7"/>
@@ -15500,7 +15427,7 @@
       </c>
       <c r="G549" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I549" s="8"/>
       <c r="J549" s="6"/>
@@ -15527,7 +15454,7 @@
       </c>
       <c r="G550" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I550" s="11"/>
       <c r="J550" s="7"/>
@@ -15554,7 +15481,7 @@
       </c>
       <c r="G551" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I551" s="8"/>
       <c r="J551" s="6"/>
@@ -15581,7 +15508,7 @@
       </c>
       <c r="G552" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I552" s="11"/>
       <c r="J552" s="7"/>
@@ -15608,7 +15535,7 @@
       </c>
       <c r="G553" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I553" s="8"/>
       <c r="J553" s="6"/>
@@ -15635,7 +15562,7 @@
       </c>
       <c r="G554" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I554" s="11"/>
       <c r="J554" s="7"/>
@@ -15662,7 +15589,7 @@
       </c>
       <c r="G555" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I555" s="8"/>
       <c r="J555" s="6"/>
@@ -15689,7 +15616,7 @@
       </c>
       <c r="G556" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="7"/>
@@ -15716,7 +15643,7 @@
       </c>
       <c r="G557" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I557" s="8"/>
       <c r="J557" s="6"/>
@@ -15743,7 +15670,7 @@
       </c>
       <c r="G558" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I558" s="11"/>
       <c r="J558" s="7"/>
@@ -15770,7 +15697,7 @@
       </c>
       <c r="G559" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I559" s="8"/>
       <c r="J559" s="6"/>
@@ -15797,7 +15724,7 @@
       </c>
       <c r="G560" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I560" s="11"/>
       <c r="J560" s="7"/>
@@ -15824,7 +15751,7 @@
       </c>
       <c r="G561" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I561" s="8"/>
       <c r="J561" s="6"/>
@@ -15851,7 +15778,7 @@
       </c>
       <c r="G562" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I562" s="11"/>
       <c r="J562" s="7"/>
@@ -15878,7 +15805,7 @@
       </c>
       <c r="G563" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I563" s="8"/>
       <c r="J563" s="6"/>
@@ -15905,7 +15832,7 @@
       </c>
       <c r="G564" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I564" s="11"/>
       <c r="J564" s="7"/>
@@ -15932,7 +15859,7 @@
       </c>
       <c r="G565" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I565" s="8"/>
       <c r="J565" s="6"/>
@@ -15959,7 +15886,7 @@
       </c>
       <c r="G566" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I566" s="11"/>
       <c r="J566" s="7"/>
@@ -15986,7 +15913,7 @@
       </c>
       <c r="G567" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I567" s="8"/>
       <c r="J567" s="6"/>
@@ -16013,7 +15940,7 @@
       </c>
       <c r="G568" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I568" s="11"/>
       <c r="J568" s="7"/>
@@ -16040,7 +15967,7 @@
       </c>
       <c r="G569" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I569" s="8"/>
       <c r="J569" s="6"/>
@@ -16067,7 +15994,7 @@
       </c>
       <c r="G570" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I570" s="11"/>
       <c r="J570" s="7"/>
@@ -16094,7 +16021,7 @@
       </c>
       <c r="G571" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I571" s="8"/>
       <c r="J571" s="6"/>
@@ -16121,7 +16048,7 @@
       </c>
       <c r="G572" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I572" s="11"/>
       <c r="J572" s="7"/>
@@ -16148,7 +16075,7 @@
       </c>
       <c r="G573" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I573" s="8"/>
       <c r="J573" s="6"/>
@@ -16175,7 +16102,7 @@
       </c>
       <c r="G574" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I574" s="11"/>
       <c r="J574" s="7"/>
@@ -16202,7 +16129,7 @@
       </c>
       <c r="G575" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I575" s="8"/>
       <c r="J575" s="6"/>
@@ -16229,7 +16156,7 @@
       </c>
       <c r="G576" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I576" s="11"/>
       <c r="J576" s="7"/>
@@ -16256,7 +16183,7 @@
       </c>
       <c r="G577" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I577" s="8"/>
       <c r="J577" s="6"/>
@@ -16283,7 +16210,7 @@
       </c>
       <c r="G578" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I578" s="11"/>
       <c r="J578" s="7"/>
@@ -16310,7 +16237,7 @@
       </c>
       <c r="G579" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I579" s="8"/>
       <c r="J579" s="6"/>
@@ -16337,7 +16264,7 @@
       </c>
       <c r="G580" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I580" s="11"/>
       <c r="J580" s="7"/>
@@ -16364,7 +16291,7 @@
       </c>
       <c r="G581" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I581" s="8"/>
       <c r="J581" s="6"/>
@@ -16391,7 +16318,7 @@
       </c>
       <c r="G582" s="7">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I582" s="11"/>
       <c r="J582" s="7"/>
@@ -16418,7 +16345,7 @@
       </c>
       <c r="G583" s="6">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I583" s="8"/>
       <c r="J583" s="6"/>
@@ -16445,7 +16372,7 @@
       </c>
       <c r="G584" s="7">
         <f t="shared" ref="G584:G647" si="29">G583</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I584" s="11"/>
       <c r="J584" s="7"/>
@@ -16472,7 +16399,7 @@
       </c>
       <c r="G585" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I585" s="8"/>
       <c r="J585" s="6"/>
@@ -16499,7 +16426,7 @@
       </c>
       <c r="G586" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I586" s="11"/>
       <c r="J586" s="7"/>
@@ -16526,7 +16453,7 @@
       </c>
       <c r="G587" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I587" s="8"/>
       <c r="J587" s="6"/>
@@ -16553,7 +16480,7 @@
       </c>
       <c r="G588" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I588" s="11"/>
       <c r="J588" s="7"/>
@@ -16580,7 +16507,7 @@
       </c>
       <c r="G589" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I589" s="8"/>
       <c r="J589" s="6"/>
@@ -16607,7 +16534,7 @@
       </c>
       <c r="G590" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I590" s="11"/>
       <c r="J590" s="7"/>
@@ -16634,7 +16561,7 @@
       </c>
       <c r="G591" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I591" s="8"/>
       <c r="J591" s="6"/>
@@ -16661,7 +16588,7 @@
       </c>
       <c r="G592" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I592" s="11"/>
       <c r="J592" s="7"/>
@@ -16688,7 +16615,7 @@
       </c>
       <c r="G593" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I593" s="8"/>
       <c r="J593" s="6"/>
@@ -16715,7 +16642,7 @@
       </c>
       <c r="G594" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I594" s="11"/>
       <c r="J594" s="7"/>
@@ -16742,7 +16669,7 @@
       </c>
       <c r="G595" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I595" s="8"/>
       <c r="J595" s="6"/>
@@ -16769,7 +16696,7 @@
       </c>
       <c r="G596" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I596" s="11"/>
       <c r="J596" s="7"/>
@@ -16796,7 +16723,7 @@
       </c>
       <c r="G597" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I597" s="8"/>
       <c r="J597" s="6"/>
@@ -16823,7 +16750,7 @@
       </c>
       <c r="G598" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I598" s="11"/>
       <c r="J598" s="7"/>
@@ -16850,7 +16777,7 @@
       </c>
       <c r="G599" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I599" s="8"/>
       <c r="J599" s="6"/>
@@ -16877,7 +16804,7 @@
       </c>
       <c r="G600" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I600" s="11"/>
       <c r="J600" s="7"/>
@@ -16904,7 +16831,7 @@
       </c>
       <c r="G601" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I601" s="8"/>
       <c r="J601" s="6"/>
@@ -16931,7 +16858,7 @@
       </c>
       <c r="G602" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I602" s="11"/>
       <c r="J602" s="7"/>
@@ -16958,7 +16885,7 @@
       </c>
       <c r="G603" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I603" s="8"/>
       <c r="J603" s="6"/>
@@ -16985,7 +16912,7 @@
       </c>
       <c r="G604" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I604" s="11"/>
       <c r="J604" s="7"/>
@@ -17012,7 +16939,7 @@
       </c>
       <c r="G605" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I605" s="8"/>
       <c r="J605" s="6"/>
@@ -17039,7 +16966,7 @@
       </c>
       <c r="G606" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I606" s="11"/>
       <c r="J606" s="7"/>
@@ -17066,7 +16993,7 @@
       </c>
       <c r="G607" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I607" s="8"/>
       <c r="J607" s="6"/>
@@ -17093,7 +17020,7 @@
       </c>
       <c r="G608" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I608" s="11"/>
       <c r="J608" s="7"/>
@@ -17120,7 +17047,7 @@
       </c>
       <c r="G609" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I609" s="8"/>
       <c r="J609" s="6"/>
@@ -17147,7 +17074,7 @@
       </c>
       <c r="G610" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I610" s="11"/>
       <c r="J610" s="7"/>
@@ -17174,7 +17101,7 @@
       </c>
       <c r="G611" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I611" s="8"/>
       <c r="J611" s="6"/>
@@ -17201,7 +17128,7 @@
       </c>
       <c r="G612" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I612" s="11"/>
       <c r="J612" s="7"/>
@@ -17228,7 +17155,7 @@
       </c>
       <c r="G613" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I613" s="8"/>
       <c r="J613" s="6"/>
@@ -17255,7 +17182,7 @@
       </c>
       <c r="G614" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="7"/>
@@ -17282,7 +17209,7 @@
       </c>
       <c r="G615" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I615" s="8"/>
       <c r="J615" s="6"/>
@@ -17309,7 +17236,7 @@
       </c>
       <c r="G616" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I616" s="11"/>
       <c r="J616" s="7"/>
@@ -17336,7 +17263,7 @@
       </c>
       <c r="G617" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I617" s="8"/>
       <c r="J617" s="6"/>
@@ -17363,7 +17290,7 @@
       </c>
       <c r="G618" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I618" s="11"/>
       <c r="J618" s="7"/>
@@ -17390,7 +17317,7 @@
       </c>
       <c r="G619" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I619" s="8"/>
       <c r="J619" s="6"/>
@@ -17417,7 +17344,7 @@
       </c>
       <c r="G620" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I620" s="11"/>
       <c r="J620" s="7"/>
@@ -17444,7 +17371,7 @@
       </c>
       <c r="G621" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I621" s="8"/>
       <c r="J621" s="6"/>
@@ -17471,7 +17398,7 @@
       </c>
       <c r="G622" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I622" s="11"/>
       <c r="J622" s="7"/>
@@ -17498,7 +17425,7 @@
       </c>
       <c r="G623" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I623" s="8"/>
       <c r="J623" s="6"/>
@@ -17525,7 +17452,7 @@
       </c>
       <c r="G624" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I624" s="11"/>
       <c r="J624" s="7"/>
@@ -17552,7 +17479,7 @@
       </c>
       <c r="G625" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I625" s="8"/>
       <c r="J625" s="6"/>
@@ -17579,7 +17506,7 @@
       </c>
       <c r="G626" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I626" s="11"/>
       <c r="J626" s="7"/>
@@ -17606,7 +17533,7 @@
       </c>
       <c r="G627" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I627" s="8"/>
       <c r="J627" s="6"/>
@@ -17633,7 +17560,7 @@
       </c>
       <c r="G628" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I628" s="11"/>
       <c r="J628" s="7"/>
@@ -17660,7 +17587,7 @@
       </c>
       <c r="G629" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I629" s="8"/>
       <c r="J629" s="6"/>
@@ -17687,7 +17614,7 @@
       </c>
       <c r="G630" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I630" s="11"/>
       <c r="J630" s="7"/>
@@ -17714,7 +17641,7 @@
       </c>
       <c r="G631" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I631" s="8"/>
       <c r="J631" s="6"/>
@@ -17741,7 +17668,7 @@
       </c>
       <c r="G632" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I632" s="11"/>
       <c r="J632" s="7"/>
@@ -17768,7 +17695,7 @@
       </c>
       <c r="G633" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I633" s="8"/>
       <c r="J633" s="6"/>
@@ -17795,7 +17722,7 @@
       </c>
       <c r="G634" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I634" s="11"/>
       <c r="J634" s="7"/>
@@ -17822,7 +17749,7 @@
       </c>
       <c r="G635" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I635" s="8"/>
       <c r="J635" s="6"/>
@@ -17849,7 +17776,7 @@
       </c>
       <c r="G636" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I636" s="11"/>
       <c r="J636" s="7"/>
@@ -17876,7 +17803,7 @@
       </c>
       <c r="G637" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I637" s="8"/>
       <c r="J637" s="6"/>
@@ -17903,7 +17830,7 @@
       </c>
       <c r="G638" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I638" s="11"/>
       <c r="J638" s="7"/>
@@ -17930,7 +17857,7 @@
       </c>
       <c r="G639" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I639" s="8"/>
       <c r="J639" s="6"/>
@@ -17957,7 +17884,7 @@
       </c>
       <c r="G640" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I640" s="11"/>
       <c r="J640" s="7"/>
@@ -17984,7 +17911,7 @@
       </c>
       <c r="G641" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I641" s="8"/>
       <c r="J641" s="6"/>
@@ -18011,7 +17938,7 @@
       </c>
       <c r="G642" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I642" s="11"/>
       <c r="J642" s="7"/>
@@ -18038,7 +17965,7 @@
       </c>
       <c r="G643" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I643" s="8"/>
       <c r="J643" s="6"/>
@@ -18065,7 +17992,7 @@
       </c>
       <c r="G644" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I644" s="11"/>
       <c r="J644" s="7"/>
@@ -18092,7 +18019,7 @@
       </c>
       <c r="G645" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I645" s="8"/>
       <c r="J645" s="6"/>
@@ -18119,7 +18046,7 @@
       </c>
       <c r="G646" s="7">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I646" s="11"/>
       <c r="J646" s="7"/>
@@ -18146,7 +18073,7 @@
       </c>
       <c r="G647" s="6">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I647" s="8"/>
       <c r="J647" s="6"/>
@@ -18173,7 +18100,7 @@
       </c>
       <c r="G648" s="7">
         <f t="shared" ref="G648:G711" si="32">G647</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I648" s="11"/>
       <c r="J648" s="7"/>
@@ -18200,7 +18127,7 @@
       </c>
       <c r="G649" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I649" s="8"/>
       <c r="J649" s="6"/>
@@ -18227,7 +18154,7 @@
       </c>
       <c r="G650" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I650" s="11"/>
       <c r="J650" s="7"/>
@@ -18254,7 +18181,7 @@
       </c>
       <c r="G651" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I651" s="8"/>
       <c r="J651" s="6"/>
@@ -18281,7 +18208,7 @@
       </c>
       <c r="G652" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I652" s="11"/>
       <c r="J652" s="7"/>
@@ -18308,7 +18235,7 @@
       </c>
       <c r="G653" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I653" s="8"/>
       <c r="J653" s="6"/>
@@ -18335,7 +18262,7 @@
       </c>
       <c r="G654" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I654" s="11"/>
       <c r="J654" s="7"/>
@@ -18362,7 +18289,7 @@
       </c>
       <c r="G655" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I655" s="8"/>
       <c r="J655" s="6"/>
@@ -18389,7 +18316,7 @@
       </c>
       <c r="G656" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I656" s="11"/>
       <c r="J656" s="7"/>
@@ -18416,7 +18343,7 @@
       </c>
       <c r="G657" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I657" s="8"/>
       <c r="J657" s="6"/>
@@ -18443,7 +18370,7 @@
       </c>
       <c r="G658" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I658" s="11"/>
       <c r="J658" s="7"/>
@@ -18470,7 +18397,7 @@
       </c>
       <c r="G659" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I659" s="8"/>
       <c r="J659" s="6"/>
@@ -18497,7 +18424,7 @@
       </c>
       <c r="G660" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I660" s="11"/>
       <c r="J660" s="7"/>
@@ -18524,7 +18451,7 @@
       </c>
       <c r="G661" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="6"/>
@@ -18551,7 +18478,7 @@
       </c>
       <c r="G662" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I662" s="11"/>
       <c r="J662" s="7"/>
@@ -18578,7 +18505,7 @@
       </c>
       <c r="G663" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I663" s="8"/>
       <c r="J663" s="6"/>
@@ -18605,7 +18532,7 @@
       </c>
       <c r="G664" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I664" s="11"/>
       <c r="J664" s="7"/>
@@ -18632,7 +18559,7 @@
       </c>
       <c r="G665" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I665" s="8"/>
       <c r="J665" s="6"/>
@@ -18659,7 +18586,7 @@
       </c>
       <c r="G666" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I666" s="11"/>
       <c r="J666" s="7"/>
@@ -18686,7 +18613,7 @@
       </c>
       <c r="G667" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I667" s="8"/>
       <c r="J667" s="6"/>
@@ -18713,7 +18640,7 @@
       </c>
       <c r="G668" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I668" s="11"/>
       <c r="J668" s="7"/>
@@ -18740,7 +18667,7 @@
       </c>
       <c r="G669" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I669" s="8"/>
       <c r="J669" s="6"/>
@@ -18767,7 +18694,7 @@
       </c>
       <c r="G670" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I670" s="11"/>
       <c r="J670" s="7"/>
@@ -18794,7 +18721,7 @@
       </c>
       <c r="G671" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I671" s="8"/>
       <c r="J671" s="6"/>
@@ -18821,7 +18748,7 @@
       </c>
       <c r="G672" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="7"/>
@@ -18848,7 +18775,7 @@
       </c>
       <c r="G673" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I673" s="8"/>
       <c r="J673" s="6"/>
@@ -18875,7 +18802,7 @@
       </c>
       <c r="G674" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I674" s="11"/>
       <c r="J674" s="7"/>
@@ -18902,7 +18829,7 @@
       </c>
       <c r="G675" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I675" s="8"/>
       <c r="J675" s="6"/>
@@ -18929,7 +18856,7 @@
       </c>
       <c r="G676" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I676" s="11"/>
       <c r="J676" s="7"/>
@@ -18956,7 +18883,7 @@
       </c>
       <c r="G677" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I677" s="8"/>
       <c r="J677" s="6"/>
@@ -18983,7 +18910,7 @@
       </c>
       <c r="G678" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I678" s="11"/>
       <c r="J678" s="7"/>
@@ -19010,7 +18937,7 @@
       </c>
       <c r="G679" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I679" s="8"/>
       <c r="J679" s="6"/>
@@ -19037,7 +18964,7 @@
       </c>
       <c r="G680" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I680" s="11"/>
       <c r="J680" s="7"/>
@@ -19064,7 +18991,7 @@
       </c>
       <c r="G681" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I681" s="8"/>
       <c r="J681" s="6"/>
@@ -19091,7 +19018,7 @@
       </c>
       <c r="G682" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I682" s="11"/>
       <c r="J682" s="7"/>
@@ -19118,7 +19045,7 @@
       </c>
       <c r="G683" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I683" s="8"/>
       <c r="J683" s="6"/>
@@ -19145,7 +19072,7 @@
       </c>
       <c r="G684" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I684" s="11"/>
       <c r="J684" s="7"/>
@@ -19172,7 +19099,7 @@
       </c>
       <c r="G685" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I685" s="8"/>
       <c r="J685" s="6"/>
@@ -19199,7 +19126,7 @@
       </c>
       <c r="G686" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I686" s="11"/>
       <c r="J686" s="7"/>
@@ -19226,7 +19153,7 @@
       </c>
       <c r="G687" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I687" s="8"/>
       <c r="J687" s="6"/>
@@ -19253,7 +19180,7 @@
       </c>
       <c r="G688" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I688" s="11"/>
       <c r="J688" s="7"/>
@@ -19280,7 +19207,7 @@
       </c>
       <c r="G689" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I689" s="8"/>
       <c r="J689" s="6"/>
@@ -19307,7 +19234,7 @@
       </c>
       <c r="G690" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I690" s="11"/>
       <c r="J690" s="7"/>
@@ -19334,7 +19261,7 @@
       </c>
       <c r="G691" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I691" s="8"/>
       <c r="J691" s="6"/>
@@ -19361,7 +19288,7 @@
       </c>
       <c r="G692" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I692" s="11"/>
       <c r="J692" s="7"/>
@@ -19388,7 +19315,7 @@
       </c>
       <c r="G693" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I693" s="8"/>
       <c r="J693" s="6"/>
@@ -19415,7 +19342,7 @@
       </c>
       <c r="G694" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I694" s="11"/>
       <c r="J694" s="7"/>
@@ -19442,7 +19369,7 @@
       </c>
       <c r="G695" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I695" s="8"/>
       <c r="J695" s="6"/>
@@ -19469,7 +19396,7 @@
       </c>
       <c r="G696" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I696" s="11"/>
       <c r="J696" s="7"/>
@@ -19496,7 +19423,7 @@
       </c>
       <c r="G697" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I697" s="8"/>
       <c r="J697" s="6"/>
@@ -19523,7 +19450,7 @@
       </c>
       <c r="G698" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I698" s="11"/>
       <c r="J698" s="7"/>
@@ -19550,7 +19477,7 @@
       </c>
       <c r="G699" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I699" s="8"/>
       <c r="J699" s="6"/>
@@ -19577,7 +19504,7 @@
       </c>
       <c r="G700" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I700" s="11"/>
       <c r="J700" s="7"/>
@@ -19604,7 +19531,7 @@
       </c>
       <c r="G701" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I701" s="8"/>
       <c r="J701" s="6"/>
@@ -19631,7 +19558,7 @@
       </c>
       <c r="G702" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I702" s="11"/>
       <c r="J702" s="7"/>
@@ -19658,7 +19585,7 @@
       </c>
       <c r="G703" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I703" s="8"/>
       <c r="J703" s="6"/>
@@ -19685,7 +19612,7 @@
       </c>
       <c r="G704" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I704" s="11"/>
       <c r="J704" s="7"/>
@@ -19712,7 +19639,7 @@
       </c>
       <c r="G705" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I705" s="8"/>
       <c r="J705" s="6"/>
@@ -19739,7 +19666,7 @@
       </c>
       <c r="G706" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I706" s="11"/>
       <c r="J706" s="7"/>
@@ -19766,7 +19693,7 @@
       </c>
       <c r="G707" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I707" s="8"/>
       <c r="J707" s="6"/>
@@ -19793,7 +19720,7 @@
       </c>
       <c r="G708" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I708" s="11"/>
       <c r="J708" s="7"/>
@@ -19820,7 +19747,7 @@
       </c>
       <c r="G709" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I709" s="8"/>
       <c r="J709" s="6"/>
@@ -19847,7 +19774,7 @@
       </c>
       <c r="G710" s="7">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I710" s="11"/>
       <c r="J710" s="7"/>
@@ -19874,7 +19801,7 @@
       </c>
       <c r="G711" s="6">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I711" s="8"/>
       <c r="J711" s="6"/>
@@ -19901,7 +19828,7 @@
       </c>
       <c r="G712" s="7">
         <f t="shared" ref="G712:G775" si="35">G711</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I712" s="11"/>
       <c r="J712" s="7"/>
@@ -19928,7 +19855,7 @@
       </c>
       <c r="G713" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I713" s="8"/>
       <c r="J713" s="6"/>
@@ -19955,7 +19882,7 @@
       </c>
       <c r="G714" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I714" s="11"/>
       <c r="J714" s="7"/>
@@ -19982,7 +19909,7 @@
       </c>
       <c r="G715" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I715" s="8"/>
       <c r="J715" s="6"/>
@@ -20009,7 +19936,7 @@
       </c>
       <c r="G716" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I716" s="11"/>
       <c r="J716" s="7"/>
@@ -20036,7 +19963,7 @@
       </c>
       <c r="G717" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I717" s="8"/>
       <c r="J717" s="6"/>
@@ -20063,7 +19990,7 @@
       </c>
       <c r="G718" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I718" s="11"/>
       <c r="J718" s="7"/>
@@ -20090,7 +20017,7 @@
       </c>
       <c r="G719" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I719" s="8"/>
       <c r="J719" s="6"/>
@@ -20117,7 +20044,7 @@
       </c>
       <c r="G720" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I720" s="11"/>
       <c r="J720" s="7"/>
@@ -20144,7 +20071,7 @@
       </c>
       <c r="G721" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I721" s="8"/>
       <c r="J721" s="6"/>
@@ -20171,7 +20098,7 @@
       </c>
       <c r="G722" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I722" s="11"/>
       <c r="J722" s="7"/>
@@ -20198,7 +20125,7 @@
       </c>
       <c r="G723" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I723" s="8"/>
       <c r="J723" s="6"/>
@@ -20225,7 +20152,7 @@
       </c>
       <c r="G724" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I724" s="11"/>
       <c r="J724" s="7"/>
@@ -20252,7 +20179,7 @@
       </c>
       <c r="G725" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I725" s="8"/>
       <c r="J725" s="6"/>
@@ -20279,7 +20206,7 @@
       </c>
       <c r="G726" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I726" s="11"/>
       <c r="J726" s="7"/>
@@ -20306,7 +20233,7 @@
       </c>
       <c r="G727" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I727" s="8"/>
       <c r="J727" s="6"/>
@@ -20333,7 +20260,7 @@
       </c>
       <c r="G728" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I728" s="11"/>
       <c r="J728" s="7"/>
@@ -20360,7 +20287,7 @@
       </c>
       <c r="G729" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I729" s="8"/>
       <c r="J729" s="6"/>
@@ -20387,7 +20314,7 @@
       </c>
       <c r="G730" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="7"/>
@@ -20414,7 +20341,7 @@
       </c>
       <c r="G731" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I731" s="8"/>
       <c r="J731" s="6"/>
@@ -20441,7 +20368,7 @@
       </c>
       <c r="G732" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I732" s="11"/>
       <c r="J732" s="7"/>
@@ -20468,7 +20395,7 @@
       </c>
       <c r="G733" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I733" s="8"/>
       <c r="J733" s="6"/>
@@ -20495,7 +20422,7 @@
       </c>
       <c r="G734" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I734" s="11"/>
       <c r="J734" s="7"/>
@@ -20522,7 +20449,7 @@
       </c>
       <c r="G735" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I735" s="8"/>
       <c r="J735" s="6"/>
@@ -20549,7 +20476,7 @@
       </c>
       <c r="G736" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I736" s="11"/>
       <c r="J736" s="7"/>
@@ -20576,7 +20503,7 @@
       </c>
       <c r="G737" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I737" s="8"/>
       <c r="J737" s="6"/>
@@ -20603,7 +20530,7 @@
       </c>
       <c r="G738" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I738" s="11"/>
       <c r="J738" s="7"/>
@@ -20630,7 +20557,7 @@
       </c>
       <c r="G739" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I739" s="8"/>
       <c r="J739" s="6"/>
@@ -20657,7 +20584,7 @@
       </c>
       <c r="G740" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I740" s="11"/>
       <c r="J740" s="7"/>
@@ -20684,7 +20611,7 @@
       </c>
       <c r="G741" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I741" s="8"/>
       <c r="J741" s="6"/>
@@ -20711,7 +20638,7 @@
       </c>
       <c r="G742" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I742" s="11"/>
       <c r="J742" s="7"/>
@@ -20738,7 +20665,7 @@
       </c>
       <c r="G743" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I743" s="8"/>
       <c r="J743" s="6"/>
@@ -20765,7 +20692,7 @@
       </c>
       <c r="G744" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I744" s="11"/>
       <c r="J744" s="7"/>
@@ -20792,7 +20719,7 @@
       </c>
       <c r="G745" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I745" s="8"/>
       <c r="J745" s="6"/>
@@ -20819,7 +20746,7 @@
       </c>
       <c r="G746" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I746" s="11"/>
       <c r="J746" s="7"/>
@@ -20846,7 +20773,7 @@
       </c>
       <c r="G747" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I747" s="8"/>
       <c r="J747" s="6"/>
@@ -20873,7 +20800,7 @@
       </c>
       <c r="G748" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I748" s="11"/>
       <c r="J748" s="7"/>
@@ -20900,7 +20827,7 @@
       </c>
       <c r="G749" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I749" s="8"/>
       <c r="J749" s="6"/>
@@ -20927,7 +20854,7 @@
       </c>
       <c r="G750" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I750" s="11"/>
       <c r="J750" s="7"/>
@@ -20954,7 +20881,7 @@
       </c>
       <c r="G751" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I751" s="8"/>
       <c r="J751" s="6"/>
@@ -20981,7 +20908,7 @@
       </c>
       <c r="G752" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I752" s="11"/>
       <c r="J752" s="7"/>
@@ -21008,7 +20935,7 @@
       </c>
       <c r="G753" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I753" s="8"/>
       <c r="J753" s="6"/>
@@ -21035,7 +20962,7 @@
       </c>
       <c r="G754" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I754" s="11"/>
       <c r="J754" s="7"/>
@@ -21062,7 +20989,7 @@
       </c>
       <c r="G755" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I755" s="8"/>
       <c r="J755" s="6"/>
@@ -21089,7 +21016,7 @@
       </c>
       <c r="G756" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I756" s="11"/>
       <c r="J756" s="7"/>
@@ -21116,7 +21043,7 @@
       </c>
       <c r="G757" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I757" s="8"/>
       <c r="J757" s="6"/>
@@ -21143,7 +21070,7 @@
       </c>
       <c r="G758" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I758" s="11"/>
       <c r="J758" s="7"/>
@@ -21170,7 +21097,7 @@
       </c>
       <c r="G759" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I759" s="8"/>
       <c r="J759" s="6"/>
@@ -21197,7 +21124,7 @@
       </c>
       <c r="G760" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I760" s="11"/>
       <c r="J760" s="7"/>
@@ -21224,7 +21151,7 @@
       </c>
       <c r="G761" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I761" s="8"/>
       <c r="J761" s="6"/>
@@ -21251,7 +21178,7 @@
       </c>
       <c r="G762" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I762" s="11"/>
       <c r="J762" s="7"/>
@@ -21278,7 +21205,7 @@
       </c>
       <c r="G763" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I763" s="8"/>
       <c r="J763" s="6"/>
@@ -21305,7 +21232,7 @@
       </c>
       <c r="G764" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I764" s="11"/>
       <c r="J764" s="7"/>
@@ -21332,7 +21259,7 @@
       </c>
       <c r="G765" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I765" s="8"/>
       <c r="J765" s="6"/>
@@ -21359,7 +21286,7 @@
       </c>
       <c r="G766" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I766" s="11"/>
       <c r="J766" s="7"/>
@@ -21386,7 +21313,7 @@
       </c>
       <c r="G767" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I767" s="8"/>
       <c r="J767" s="6"/>
@@ -21413,7 +21340,7 @@
       </c>
       <c r="G768" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I768" s="11"/>
       <c r="J768" s="7"/>
@@ -21440,7 +21367,7 @@
       </c>
       <c r="G769" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I769" s="8"/>
       <c r="J769" s="6"/>
@@ -21467,7 +21394,7 @@
       </c>
       <c r="G770" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I770" s="11"/>
       <c r="J770" s="7"/>
@@ -21494,7 +21421,7 @@
       </c>
       <c r="G771" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I771" s="8"/>
       <c r="J771" s="6"/>
@@ -21521,7 +21448,7 @@
       </c>
       <c r="G772" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I772" s="11"/>
       <c r="J772" s="7"/>
@@ -21548,7 +21475,7 @@
       </c>
       <c r="G773" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I773" s="8"/>
       <c r="J773" s="6"/>
@@ -21575,7 +21502,7 @@
       </c>
       <c r="G774" s="7">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I774" s="11"/>
       <c r="J774" s="7"/>
@@ -21602,7 +21529,7 @@
       </c>
       <c r="G775" s="6">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I775" s="8"/>
       <c r="J775" s="6"/>
@@ -21629,7 +21556,7 @@
       </c>
       <c r="G776" s="7">
         <f t="shared" ref="G776:G839" si="38">G775</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I776" s="11"/>
       <c r="J776" s="7"/>
@@ -21656,7 +21583,7 @@
       </c>
       <c r="G777" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I777" s="8"/>
       <c r="J777" s="6"/>
@@ -21683,7 +21610,7 @@
       </c>
       <c r="G778" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I778" s="11"/>
       <c r="J778" s="7"/>
@@ -21710,7 +21637,7 @@
       </c>
       <c r="G779" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I779" s="8"/>
       <c r="J779" s="6"/>
@@ -21737,7 +21664,7 @@
       </c>
       <c r="G780" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I780" s="11"/>
       <c r="J780" s="7"/>
@@ -21764,7 +21691,7 @@
       </c>
       <c r="G781" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I781" s="8"/>
       <c r="J781" s="6"/>
@@ -21791,7 +21718,7 @@
       </c>
       <c r="G782" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I782" s="11"/>
       <c r="J782" s="7"/>
@@ -21818,7 +21745,7 @@
       </c>
       <c r="G783" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I783" s="8"/>
       <c r="J783" s="6"/>
@@ -21845,7 +21772,7 @@
       </c>
       <c r="G784" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I784" s="11"/>
       <c r="J784" s="7"/>
@@ -21872,7 +21799,7 @@
       </c>
       <c r="G785" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I785" s="8"/>
       <c r="J785" s="6"/>
@@ -21899,7 +21826,7 @@
       </c>
       <c r="G786" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I786" s="11"/>
       <c r="J786" s="7"/>
@@ -21926,7 +21853,7 @@
       </c>
       <c r="G787" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I787" s="8"/>
       <c r="J787" s="6"/>
@@ -21953,7 +21880,7 @@
       </c>
       <c r="G788" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I788" s="11"/>
       <c r="J788" s="7"/>
@@ -21980,7 +21907,7 @@
       </c>
       <c r="G789" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I789" s="8"/>
       <c r="J789" s="6"/>
@@ -22007,7 +21934,7 @@
       </c>
       <c r="G790" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I790" s="11"/>
       <c r="J790" s="7"/>
@@ -22034,7 +21961,7 @@
       </c>
       <c r="G791" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I791" s="8"/>
       <c r="J791" s="6"/>
@@ -22061,7 +21988,7 @@
       </c>
       <c r="G792" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I792" s="11"/>
       <c r="J792" s="7"/>
@@ -22088,7 +22015,7 @@
       </c>
       <c r="G793" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I793" s="8"/>
       <c r="J793" s="6"/>
@@ -22115,7 +22042,7 @@
       </c>
       <c r="G794" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I794" s="11"/>
       <c r="J794" s="7"/>
@@ -22142,7 +22069,7 @@
       </c>
       <c r="G795" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I795" s="8"/>
       <c r="J795" s="6"/>
@@ -22169,7 +22096,7 @@
       </c>
       <c r="G796" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I796" s="11"/>
       <c r="J796" s="7"/>
@@ -22196,7 +22123,7 @@
       </c>
       <c r="G797" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I797" s="8"/>
       <c r="J797" s="6"/>
@@ -22223,7 +22150,7 @@
       </c>
       <c r="G798" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I798" s="11"/>
       <c r="J798" s="7"/>
@@ -22250,7 +22177,7 @@
       </c>
       <c r="G799" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I799" s="8"/>
       <c r="J799" s="6"/>
@@ -22277,7 +22204,7 @@
       </c>
       <c r="G800" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I800" s="11"/>
       <c r="J800" s="7"/>
@@ -22304,7 +22231,7 @@
       </c>
       <c r="G801" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I801" s="8"/>
       <c r="J801" s="6"/>
@@ -22331,7 +22258,7 @@
       </c>
       <c r="G802" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I802" s="11"/>
       <c r="J802" s="7"/>
@@ -22358,7 +22285,7 @@
       </c>
       <c r="G803" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I803" s="8"/>
       <c r="J803" s="6"/>
@@ -22385,7 +22312,7 @@
       </c>
       <c r="G804" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I804" s="11"/>
       <c r="J804" s="7"/>
@@ -22412,7 +22339,7 @@
       </c>
       <c r="G805" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I805" s="8"/>
       <c r="J805" s="6"/>
@@ -22439,7 +22366,7 @@
       </c>
       <c r="G806" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I806" s="11"/>
       <c r="J806" s="7"/>
@@ -22466,7 +22393,7 @@
       </c>
       <c r="G807" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I807" s="8"/>
       <c r="J807" s="6"/>
@@ -22493,7 +22420,7 @@
       </c>
       <c r="G808" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I808" s="11"/>
       <c r="J808" s="7"/>
@@ -22520,7 +22447,7 @@
       </c>
       <c r="G809" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I809" s="8"/>
       <c r="J809" s="6"/>
@@ -22547,7 +22474,7 @@
       </c>
       <c r="G810" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I810" s="11"/>
       <c r="J810" s="7"/>
@@ -22574,7 +22501,7 @@
       </c>
       <c r="G811" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I811" s="8"/>
       <c r="J811" s="6"/>
@@ -22601,7 +22528,7 @@
       </c>
       <c r="G812" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I812" s="11"/>
       <c r="J812" s="7"/>
@@ -22628,7 +22555,7 @@
       </c>
       <c r="G813" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I813" s="8"/>
       <c r="J813" s="6"/>
@@ -22655,7 +22582,7 @@
       </c>
       <c r="G814" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I814" s="11"/>
       <c r="J814" s="7"/>
@@ -22682,7 +22609,7 @@
       </c>
       <c r="G815" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I815" s="8"/>
       <c r="J815" s="6"/>
@@ -22709,7 +22636,7 @@
       </c>
       <c r="G816" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I816" s="11"/>
       <c r="J816" s="7"/>
@@ -22736,7 +22663,7 @@
       </c>
       <c r="G817" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I817" s="8"/>
       <c r="J817" s="6"/>
@@ -22763,7 +22690,7 @@
       </c>
       <c r="G818" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I818" s="11"/>
       <c r="J818" s="7"/>
@@ -22790,7 +22717,7 @@
       </c>
       <c r="G819" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I819" s="8"/>
       <c r="J819" s="6"/>
@@ -22817,7 +22744,7 @@
       </c>
       <c r="G820" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I820" s="11"/>
       <c r="J820" s="7"/>
@@ -22844,7 +22771,7 @@
       </c>
       <c r="G821" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I821" s="8"/>
       <c r="J821" s="6"/>
@@ -22871,7 +22798,7 @@
       </c>
       <c r="G822" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I822" s="11"/>
       <c r="J822" s="7"/>
@@ -22898,7 +22825,7 @@
       </c>
       <c r="G823" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I823" s="8"/>
       <c r="J823" s="6"/>
@@ -22925,7 +22852,7 @@
       </c>
       <c r="G824" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I824" s="11"/>
       <c r="J824" s="7"/>
@@ -22952,7 +22879,7 @@
       </c>
       <c r="G825" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I825" s="8"/>
       <c r="J825" s="6"/>
@@ -22979,7 +22906,7 @@
       </c>
       <c r="G826" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I826" s="11"/>
       <c r="J826" s="7"/>
@@ -23006,7 +22933,7 @@
       </c>
       <c r="G827" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I827" s="8"/>
       <c r="J827" s="6"/>
@@ -23033,7 +22960,7 @@
       </c>
       <c r="G828" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I828" s="11"/>
       <c r="J828" s="7"/>
@@ -23060,7 +22987,7 @@
       </c>
       <c r="G829" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I829" s="8"/>
       <c r="J829" s="6"/>
@@ -23087,7 +23014,7 @@
       </c>
       <c r="G830" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I830" s="11"/>
       <c r="J830" s="7"/>
@@ -23114,7 +23041,7 @@
       </c>
       <c r="G831" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I831" s="8"/>
       <c r="J831" s="6"/>
@@ -23141,7 +23068,7 @@
       </c>
       <c r="G832" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I832" s="11"/>
       <c r="J832" s="7"/>
@@ -23168,7 +23095,7 @@
       </c>
       <c r="G833" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I833" s="8"/>
       <c r="J833" s="6"/>
@@ -23195,7 +23122,7 @@
       </c>
       <c r="G834" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I834" s="11"/>
       <c r="J834" s="7"/>
@@ -23222,7 +23149,7 @@
       </c>
       <c r="G835" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I835" s="8"/>
       <c r="J835" s="6"/>
@@ -23249,7 +23176,7 @@
       </c>
       <c r="G836" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I836" s="11"/>
       <c r="J836" s="7"/>
@@ -23276,7 +23203,7 @@
       </c>
       <c r="G837" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I837" s="8"/>
       <c r="J837" s="6"/>
@@ -23303,7 +23230,7 @@
       </c>
       <c r="G838" s="7">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I838" s="11"/>
       <c r="J838" s="7"/>
@@ -23330,7 +23257,7 @@
       </c>
       <c r="G839" s="6">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I839" s="8"/>
       <c r="J839" s="6"/>
@@ -23357,7 +23284,7 @@
       </c>
       <c r="G840" s="7">
         <f t="shared" ref="G840:G903" si="41">G839</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I840" s="11"/>
       <c r="J840" s="7"/>
@@ -23384,7 +23311,7 @@
       </c>
       <c r="G841" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I841" s="8"/>
       <c r="J841" s="6"/>
@@ -23411,7 +23338,7 @@
       </c>
       <c r="G842" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I842" s="11"/>
       <c r="J842" s="7"/>
@@ -23438,7 +23365,7 @@
       </c>
       <c r="G843" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I843" s="8"/>
       <c r="J843" s="6"/>
@@ -23465,7 +23392,7 @@
       </c>
       <c r="G844" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I844" s="11"/>
       <c r="J844" s="7"/>
@@ -23492,7 +23419,7 @@
       </c>
       <c r="G845" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I845" s="8"/>
       <c r="J845" s="6"/>
@@ -23519,7 +23446,7 @@
       </c>
       <c r="G846" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I846" s="11"/>
       <c r="J846" s="7"/>
@@ -23546,7 +23473,7 @@
       </c>
       <c r="G847" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I847" s="8"/>
       <c r="J847" s="6"/>
@@ -23573,7 +23500,7 @@
       </c>
       <c r="G848" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I848" s="11"/>
       <c r="J848" s="7"/>
@@ -23600,7 +23527,7 @@
       </c>
       <c r="G849" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I849" s="8"/>
       <c r="J849" s="6"/>
@@ -23627,7 +23554,7 @@
       </c>
       <c r="G850" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I850" s="11"/>
       <c r="J850" s="7"/>
@@ -23654,7 +23581,7 @@
       </c>
       <c r="G851" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I851" s="8"/>
       <c r="J851" s="6"/>
@@ -23681,7 +23608,7 @@
       </c>
       <c r="G852" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I852" s="11"/>
       <c r="J852" s="7"/>
@@ -23708,7 +23635,7 @@
       </c>
       <c r="G853" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I853" s="8"/>
       <c r="J853" s="6"/>
@@ -23735,7 +23662,7 @@
       </c>
       <c r="G854" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I854" s="11"/>
       <c r="J854" s="7"/>
@@ -23762,7 +23689,7 @@
       </c>
       <c r="G855" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I855" s="8"/>
       <c r="J855" s="6"/>
@@ -23789,7 +23716,7 @@
       </c>
       <c r="G856" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I856" s="11"/>
       <c r="J856" s="7"/>
@@ -23816,7 +23743,7 @@
       </c>
       <c r="G857" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I857" s="8"/>
       <c r="J857" s="6"/>
@@ -23843,7 +23770,7 @@
       </c>
       <c r="G858" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I858" s="11"/>
       <c r="J858" s="7"/>
@@ -23870,7 +23797,7 @@
       </c>
       <c r="G859" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I859" s="8"/>
       <c r="J859" s="6"/>
@@ -23897,7 +23824,7 @@
       </c>
       <c r="G860" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I860" s="11"/>
       <c r="J860" s="7"/>
@@ -23924,7 +23851,7 @@
       </c>
       <c r="G861" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I861" s="8"/>
       <c r="J861" s="6"/>
@@ -23951,7 +23878,7 @@
       </c>
       <c r="G862" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I862" s="11"/>
       <c r="J862" s="7"/>
@@ -23978,7 +23905,7 @@
       </c>
       <c r="G863" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I863" s="8"/>
       <c r="J863" s="6"/>
@@ -24005,7 +23932,7 @@
       </c>
       <c r="G864" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I864" s="11"/>
       <c r="J864" s="7"/>
@@ -24032,7 +23959,7 @@
       </c>
       <c r="G865" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I865" s="8"/>
       <c r="J865" s="6"/>
@@ -24059,7 +23986,7 @@
       </c>
       <c r="G866" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I866" s="11"/>
       <c r="J866" s="7"/>
@@ -24086,7 +24013,7 @@
       </c>
       <c r="G867" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I867" s="8"/>
       <c r="J867" s="6"/>
@@ -24113,7 +24040,7 @@
       </c>
       <c r="G868" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I868" s="11"/>
       <c r="J868" s="7"/>
@@ -24140,7 +24067,7 @@
       </c>
       <c r="G869" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I869" s="8"/>
       <c r="J869" s="6"/>
@@ -24167,7 +24094,7 @@
       </c>
       <c r="G870" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I870" s="11"/>
       <c r="J870" s="7"/>
@@ -24194,7 +24121,7 @@
       </c>
       <c r="G871" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I871" s="8"/>
       <c r="J871" s="6"/>
@@ -24221,7 +24148,7 @@
       </c>
       <c r="G872" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I872" s="11"/>
       <c r="J872" s="7"/>
@@ -24248,7 +24175,7 @@
       </c>
       <c r="G873" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I873" s="8"/>
       <c r="J873" s="6"/>
@@ -24275,7 +24202,7 @@
       </c>
       <c r="G874" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I874" s="11"/>
       <c r="J874" s="7"/>
@@ -24302,7 +24229,7 @@
       </c>
       <c r="G875" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I875" s="8"/>
       <c r="J875" s="6"/>
@@ -24329,7 +24256,7 @@
       </c>
       <c r="G876" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I876" s="11"/>
       <c r="J876" s="7"/>
@@ -24356,7 +24283,7 @@
       </c>
       <c r="G877" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I877" s="8"/>
       <c r="J877" s="6"/>
@@ -24383,7 +24310,7 @@
       </c>
       <c r="G878" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I878" s="11"/>
       <c r="J878" s="7"/>
@@ -24410,7 +24337,7 @@
       </c>
       <c r="G879" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="6"/>
@@ -24437,7 +24364,7 @@
       </c>
       <c r="G880" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I880" s="11"/>
       <c r="J880" s="7"/>
@@ -24464,7 +24391,7 @@
       </c>
       <c r="G881" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I881" s="8"/>
       <c r="J881" s="6"/>
@@ -24491,7 +24418,7 @@
       </c>
       <c r="G882" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I882" s="11"/>
       <c r="J882" s="7"/>
@@ -24518,7 +24445,7 @@
       </c>
       <c r="G883" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I883" s="8"/>
       <c r="J883" s="6"/>
@@ -24545,7 +24472,7 @@
       </c>
       <c r="G884" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I884" s="11"/>
       <c r="J884" s="7"/>
@@ -24572,7 +24499,7 @@
       </c>
       <c r="G885" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I885" s="8"/>
       <c r="J885" s="6"/>
@@ -24599,7 +24526,7 @@
       </c>
       <c r="G886" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I886" s="11"/>
       <c r="J886" s="7"/>
@@ -24626,7 +24553,7 @@
       </c>
       <c r="G887" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I887" s="8"/>
       <c r="J887" s="6"/>
@@ -24653,7 +24580,7 @@
       </c>
       <c r="G888" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I888" s="11"/>
       <c r="J888" s="7"/>
@@ -24680,7 +24607,7 @@
       </c>
       <c r="G889" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I889" s="8"/>
       <c r="J889" s="6"/>
@@ -24707,7 +24634,7 @@
       </c>
       <c r="G890" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I890" s="11"/>
       <c r="J890" s="7"/>
@@ -24734,7 +24661,7 @@
       </c>
       <c r="G891" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I891" s="8"/>
       <c r="J891" s="6"/>
@@ -24761,7 +24688,7 @@
       </c>
       <c r="G892" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I892" s="11"/>
       <c r="J892" s="7"/>
@@ -24788,7 +24715,7 @@
       </c>
       <c r="G893" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I893" s="8"/>
       <c r="J893" s="6"/>
@@ -24815,7 +24742,7 @@
       </c>
       <c r="G894" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I894" s="11"/>
       <c r="J894" s="7"/>
@@ -24842,7 +24769,7 @@
       </c>
       <c r="G895" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I895" s="8"/>
       <c r="J895" s="6"/>
@@ -24869,7 +24796,7 @@
       </c>
       <c r="G896" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I896" s="11"/>
       <c r="J896" s="7"/>
@@ -24896,7 +24823,7 @@
       </c>
       <c r="G897" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I897" s="8"/>
       <c r="J897" s="6"/>
@@ -24923,7 +24850,7 @@
       </c>
       <c r="G898" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I898" s="11"/>
       <c r="J898" s="7"/>
@@ -24950,7 +24877,7 @@
       </c>
       <c r="G899" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I899" s="8"/>
       <c r="J899" s="6"/>
@@ -24977,7 +24904,7 @@
       </c>
       <c r="G900" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I900" s="11"/>
       <c r="J900" s="7"/>
@@ -25004,7 +24931,7 @@
       </c>
       <c r="G901" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I901" s="8"/>
       <c r="J901" s="6"/>
@@ -25031,7 +24958,7 @@
       </c>
       <c r="G902" s="7">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I902" s="11"/>
       <c r="J902" s="7"/>
@@ -25058,7 +24985,7 @@
       </c>
       <c r="G903" s="6">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I903" s="8"/>
       <c r="J903" s="6"/>
@@ -25085,7 +25012,7 @@
       </c>
       <c r="G904" s="7">
         <f t="shared" ref="G904:G967" si="44">G903</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I904" s="11"/>
       <c r="J904" s="7"/>
@@ -25112,7 +25039,7 @@
       </c>
       <c r="G905" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I905" s="8"/>
       <c r="J905" s="6"/>
@@ -25139,7 +25066,7 @@
       </c>
       <c r="G906" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I906" s="11"/>
       <c r="J906" s="7"/>
@@ -25166,7 +25093,7 @@
       </c>
       <c r="G907" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I907" s="8"/>
       <c r="J907" s="6"/>
@@ -25193,7 +25120,7 @@
       </c>
       <c r="G908" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I908" s="11"/>
       <c r="J908" s="7"/>
@@ -25220,7 +25147,7 @@
       </c>
       <c r="G909" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I909" s="8"/>
       <c r="J909" s="6"/>
@@ -25247,7 +25174,7 @@
       </c>
       <c r="G910" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I910" s="11"/>
       <c r="J910" s="7"/>
@@ -25274,7 +25201,7 @@
       </c>
       <c r="G911" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I911" s="8"/>
       <c r="J911" s="6"/>
@@ -25301,7 +25228,7 @@
       </c>
       <c r="G912" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I912" s="11"/>
       <c r="J912" s="7"/>
@@ -25328,7 +25255,7 @@
       </c>
       <c r="G913" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I913" s="8"/>
       <c r="J913" s="6"/>
@@ -25355,7 +25282,7 @@
       </c>
       <c r="G914" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I914" s="11"/>
       <c r="J914" s="7"/>
@@ -25382,7 +25309,7 @@
       </c>
       <c r="G915" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I915" s="8"/>
       <c r="J915" s="6"/>
@@ -25409,7 +25336,7 @@
       </c>
       <c r="G916" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I916" s="11"/>
       <c r="J916" s="7"/>
@@ -25436,7 +25363,7 @@
       </c>
       <c r="G917" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I917" s="8"/>
       <c r="J917" s="6"/>
@@ -25463,7 +25390,7 @@
       </c>
       <c r="G918" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I918" s="11"/>
       <c r="J918" s="7"/>
@@ -25490,7 +25417,7 @@
       </c>
       <c r="G919" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I919" s="8"/>
       <c r="J919" s="6"/>
@@ -25517,7 +25444,7 @@
       </c>
       <c r="G920" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I920" s="11"/>
       <c r="J920" s="7"/>
@@ -25544,7 +25471,7 @@
       </c>
       <c r="G921" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I921" s="8"/>
       <c r="J921" s="6"/>
@@ -25571,7 +25498,7 @@
       </c>
       <c r="G922" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I922" s="11"/>
       <c r="J922" s="7"/>
@@ -25598,7 +25525,7 @@
       </c>
       <c r="G923" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="6"/>
@@ -25625,7 +25552,7 @@
       </c>
       <c r="G924" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I924" s="11"/>
       <c r="J924" s="7"/>
@@ -25652,7 +25579,7 @@
       </c>
       <c r="G925" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I925" s="8"/>
       <c r="J925" s="6"/>
@@ -25679,7 +25606,7 @@
       </c>
       <c r="G926" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I926" s="11"/>
       <c r="J926" s="7"/>
@@ -25706,7 +25633,7 @@
       </c>
       <c r="G927" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I927" s="8"/>
       <c r="J927" s="6"/>
@@ -25733,7 +25660,7 @@
       </c>
       <c r="G928" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I928" s="11"/>
       <c r="J928" s="7"/>
@@ -25760,7 +25687,7 @@
       </c>
       <c r="G929" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I929" s="8"/>
       <c r="J929" s="6"/>
@@ -25787,7 +25714,7 @@
       </c>
       <c r="G930" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I930" s="11"/>
       <c r="J930" s="7"/>
@@ -25814,7 +25741,7 @@
       </c>
       <c r="G931" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I931" s="8"/>
       <c r="J931" s="6"/>
@@ -25841,7 +25768,7 @@
       </c>
       <c r="G932" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I932" s="11"/>
       <c r="J932" s="7"/>
@@ -25868,7 +25795,7 @@
       </c>
       <c r="G933" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I933" s="8"/>
       <c r="J933" s="6"/>
@@ -25895,7 +25822,7 @@
       </c>
       <c r="G934" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I934" s="11"/>
       <c r="J934" s="7"/>
@@ -25922,7 +25849,7 @@
       </c>
       <c r="G935" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I935" s="8"/>
       <c r="J935" s="6"/>
@@ -25949,7 +25876,7 @@
       </c>
       <c r="G936" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I936" s="11"/>
       <c r="J936" s="7"/>
@@ -25976,7 +25903,7 @@
       </c>
       <c r="G937" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I937" s="8"/>
       <c r="J937" s="6"/>
@@ -26003,7 +25930,7 @@
       </c>
       <c r="G938" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I938" s="11"/>
       <c r="J938" s="7"/>
@@ -26030,7 +25957,7 @@
       </c>
       <c r="G939" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I939" s="8"/>
       <c r="J939" s="6"/>
@@ -26057,7 +25984,7 @@
       </c>
       <c r="G940" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I940" s="11"/>
       <c r="J940" s="7"/>
@@ -26084,7 +26011,7 @@
       </c>
       <c r="G941" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I941" s="8"/>
       <c r="J941" s="6"/>
@@ -26111,7 +26038,7 @@
       </c>
       <c r="G942" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I942" s="11"/>
       <c r="J942" s="7"/>
@@ -26138,7 +26065,7 @@
       </c>
       <c r="G943" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I943" s="8"/>
       <c r="J943" s="6"/>
@@ -26165,7 +26092,7 @@
       </c>
       <c r="G944" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I944" s="11"/>
       <c r="J944" s="7"/>
@@ -26192,7 +26119,7 @@
       </c>
       <c r="G945" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I945" s="8"/>
       <c r="J945" s="6"/>
@@ -26219,7 +26146,7 @@
       </c>
       <c r="G946" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I946" s="11"/>
       <c r="J946" s="7"/>
@@ -26246,7 +26173,7 @@
       </c>
       <c r="G947" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I947" s="8"/>
       <c r="J947" s="6"/>
@@ -26273,7 +26200,7 @@
       </c>
       <c r="G948" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I948" s="11"/>
       <c r="J948" s="7"/>
@@ -26300,7 +26227,7 @@
       </c>
       <c r="G949" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I949" s="8"/>
       <c r="J949" s="6"/>
@@ -26327,7 +26254,7 @@
       </c>
       <c r="G950" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I950" s="11"/>
       <c r="J950" s="7"/>
@@ -26354,7 +26281,7 @@
       </c>
       <c r="G951" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I951" s="8"/>
       <c r="J951" s="6"/>
@@ -26381,7 +26308,7 @@
       </c>
       <c r="G952" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I952" s="11"/>
       <c r="J952" s="7"/>
@@ -26408,7 +26335,7 @@
       </c>
       <c r="G953" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I953" s="8"/>
       <c r="J953" s="6"/>
@@ -26435,7 +26362,7 @@
       </c>
       <c r="G954" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I954" s="11"/>
       <c r="J954" s="7"/>
@@ -26462,7 +26389,7 @@
       </c>
       <c r="G955" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I955" s="8"/>
       <c r="J955" s="6"/>
@@ -26489,7 +26416,7 @@
       </c>
       <c r="G956" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I956" s="11"/>
       <c r="J956" s="7"/>
@@ -26516,7 +26443,7 @@
       </c>
       <c r="G957" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I957" s="8"/>
       <c r="J957" s="6"/>
@@ -26543,7 +26470,7 @@
       </c>
       <c r="G958" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I958" s="11"/>
       <c r="J958" s="7"/>
@@ -26570,7 +26497,7 @@
       </c>
       <c r="G959" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I959" s="8"/>
       <c r="J959" s="6"/>
@@ -26597,7 +26524,7 @@
       </c>
       <c r="G960" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I960" s="11"/>
       <c r="J960" s="7"/>
@@ -26624,7 +26551,7 @@
       </c>
       <c r="G961" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I961" s="8"/>
       <c r="J961" s="6"/>
@@ -26651,7 +26578,7 @@
       </c>
       <c r="G962" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I962" s="11"/>
       <c r="J962" s="7"/>
@@ -26678,7 +26605,7 @@
       </c>
       <c r="G963" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I963" s="8"/>
       <c r="J963" s="6"/>
@@ -26705,7 +26632,7 @@
       </c>
       <c r="G964" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I964" s="11"/>
       <c r="J964" s="7"/>
@@ -26732,7 +26659,7 @@
       </c>
       <c r="G965" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I965" s="8"/>
       <c r="J965" s="6"/>
@@ -26759,7 +26686,7 @@
       </c>
       <c r="G966" s="7">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I966" s="11"/>
       <c r="J966" s="7"/>
@@ -26786,7 +26713,7 @@
       </c>
       <c r="G967" s="6">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I967" s="8"/>
       <c r="J967" s="6"/>
@@ -26813,7 +26740,7 @@
       </c>
       <c r="G968" s="7">
         <f t="shared" ref="G968:G1000" si="47">G967</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I968" s="11"/>
       <c r="J968" s="7"/>
@@ -26840,7 +26767,7 @@
       </c>
       <c r="G969" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I969" s="8"/>
       <c r="J969" s="6"/>
@@ -26867,7 +26794,7 @@
       </c>
       <c r="G970" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I970" s="11"/>
       <c r="J970" s="7"/>
@@ -26894,7 +26821,7 @@
       </c>
       <c r="G971" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I971" s="8"/>
       <c r="J971" s="6"/>
@@ -26921,7 +26848,7 @@
       </c>
       <c r="G972" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I972" s="11"/>
       <c r="J972" s="7"/>
@@ -26948,7 +26875,7 @@
       </c>
       <c r="G973" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I973" s="8"/>
       <c r="J973" s="6"/>
@@ -26975,7 +26902,7 @@
       </c>
       <c r="G974" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I974" s="11"/>
       <c r="J974" s="7"/>
@@ -27002,7 +26929,7 @@
       </c>
       <c r="G975" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I975" s="8"/>
       <c r="J975" s="6"/>
@@ -27029,7 +26956,7 @@
       </c>
       <c r="G976" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I976" s="11"/>
       <c r="J976" s="7"/>
@@ -27056,7 +26983,7 @@
       </c>
       <c r="G977" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I977" s="8"/>
       <c r="J977" s="6"/>
@@ -27083,7 +27010,7 @@
       </c>
       <c r="G978" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I978" s="11"/>
       <c r="J978" s="7"/>
@@ -27110,7 +27037,7 @@
       </c>
       <c r="G979" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I979" s="8"/>
       <c r="J979" s="6"/>
@@ -27137,7 +27064,7 @@
       </c>
       <c r="G980" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I980" s="11"/>
       <c r="J980" s="7"/>
@@ -27164,7 +27091,7 @@
       </c>
       <c r="G981" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I981" s="8"/>
       <c r="J981" s="6"/>
@@ -27191,7 +27118,7 @@
       </c>
       <c r="G982" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I982" s="11"/>
       <c r="J982" s="7"/>
@@ -27218,7 +27145,7 @@
       </c>
       <c r="G983" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I983" s="8"/>
       <c r="J983" s="6"/>
@@ -27245,7 +27172,7 @@
       </c>
       <c r="G984" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I984" s="11"/>
       <c r="J984" s="7"/>
@@ -27272,7 +27199,7 @@
       </c>
       <c r="G985" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I985" s="8"/>
       <c r="J985" s="6"/>
@@ -27299,7 +27226,7 @@
       </c>
       <c r="G986" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I986" s="11"/>
       <c r="J986" s="7"/>
@@ -27326,7 +27253,7 @@
       </c>
       <c r="G987" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I987" s="8"/>
       <c r="J987" s="6"/>
@@ -27353,7 +27280,7 @@
       </c>
       <c r="G988" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I988" s="11"/>
       <c r="J988" s="7"/>
@@ -27380,7 +27307,7 @@
       </c>
       <c r="G989" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I989" s="8"/>
       <c r="J989" s="6"/>
@@ -27407,7 +27334,7 @@
       </c>
       <c r="G990" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I990" s="11"/>
       <c r="J990" s="7"/>
@@ -27434,7 +27361,7 @@
       </c>
       <c r="G991" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I991" s="8"/>
       <c r="J991" s="6"/>
@@ -27461,7 +27388,7 @@
       </c>
       <c r="G992" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I992" s="11"/>
       <c r="J992" s="7"/>
@@ -27488,7 +27415,7 @@
       </c>
       <c r="G993" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I993" s="8"/>
       <c r="J993" s="6"/>
@@ -27515,7 +27442,7 @@
       </c>
       <c r="G994" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I994" s="11"/>
       <c r="J994" s="7"/>
@@ -27542,7 +27469,7 @@
       </c>
       <c r="G995" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I995" s="8"/>
       <c r="J995" s="6"/>
@@ -27569,7 +27496,7 @@
       </c>
       <c r="G996" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I996" s="11"/>
       <c r="J996" s="7"/>
@@ -27596,7 +27523,7 @@
       </c>
       <c r="G997" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I997" s="8"/>
       <c r="J997" s="6"/>
@@ -27623,7 +27550,7 @@
       </c>
       <c r="G998" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I998" s="11"/>
       <c r="J998" s="7"/>
@@ -27650,7 +27577,7 @@
       </c>
       <c r="G999" s="6">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I999" s="8"/>
       <c r="J999" s="6"/>
@@ -27677,7 +27604,7 @@
       </c>
       <c r="G1000" s="7">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I1000" s="11"/>
       <c r="J1000" s="7"/>
